--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501A536C-8034-482D-8033-2BE9C8DB2741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1A202-2A21-46F2-A861-B5407C986403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED732F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,46 +1161,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,10 +1181,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1274,29 +1265,44 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1309,6 +1315,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFED732F"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FFEAEAEA"/>
     </mruColors>
@@ -1719,9 +1726,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1759,7 +1766,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1865,7 +1872,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2007,7 +2014,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2038,284 +2045,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="125" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="154" t="s">
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="125" t="s">
+      <c r="U3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="125" t="s">
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="127"/>
-      <c r="BU3" s="125" t="s">
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="113"/>
+      <c r="BG3" s="113"/>
+      <c r="BH3" s="113"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="113"/>
+      <c r="BO3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="113"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="113"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="126"/>
-      <c r="CB3" s="126"/>
-      <c r="CC3" s="126"/>
-      <c r="CD3" s="126"/>
-      <c r="CE3" s="126"/>
-      <c r="CF3" s="126"/>
-      <c r="CG3" s="126"/>
-      <c r="CH3" s="126"/>
-      <c r="CI3" s="126"/>
-      <c r="CJ3" s="126"/>
-      <c r="CK3" s="126"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="126"/>
-      <c r="CN3" s="126"/>
-      <c r="CO3" s="126"/>
-      <c r="CP3" s="126"/>
-      <c r="CQ3" s="126"/>
-      <c r="CR3" s="126"/>
-      <c r="CS3" s="126"/>
-      <c r="CT3" s="127"/>
-      <c r="CU3" s="125" t="s">
+      <c r="BV3" s="113"/>
+      <c r="BW3" s="113"/>
+      <c r="BX3" s="113"/>
+      <c r="BY3" s="113"/>
+      <c r="BZ3" s="113"/>
+      <c r="CA3" s="113"/>
+      <c r="CB3" s="113"/>
+      <c r="CC3" s="113"/>
+      <c r="CD3" s="113"/>
+      <c r="CE3" s="113"/>
+      <c r="CF3" s="113"/>
+      <c r="CG3" s="113"/>
+      <c r="CH3" s="113"/>
+      <c r="CI3" s="113"/>
+      <c r="CJ3" s="113"/>
+      <c r="CK3" s="113"/>
+      <c r="CL3" s="113"/>
+      <c r="CM3" s="113"/>
+      <c r="CN3" s="113"/>
+      <c r="CO3" s="113"/>
+      <c r="CP3" s="113"/>
+      <c r="CQ3" s="113"/>
+      <c r="CR3" s="113"/>
+      <c r="CS3" s="113"/>
+      <c r="CT3" s="114"/>
+      <c r="CU3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="126"/>
-      <c r="CW3" s="126"/>
-      <c r="CX3" s="126"/>
-      <c r="CY3" s="126"/>
-      <c r="CZ3" s="126"/>
-      <c r="DA3" s="126"/>
-      <c r="DB3" s="126"/>
-      <c r="DC3" s="126"/>
-      <c r="DD3" s="126"/>
-      <c r="DE3" s="126"/>
-      <c r="DF3" s="126"/>
-      <c r="DG3" s="126"/>
-      <c r="DH3" s="126"/>
-      <c r="DI3" s="126"/>
-      <c r="DJ3" s="126"/>
-      <c r="DK3" s="126"/>
-      <c r="DL3" s="126"/>
-      <c r="DM3" s="126"/>
-      <c r="DN3" s="126"/>
-      <c r="DO3" s="126"/>
-      <c r="DP3" s="126"/>
-      <c r="DQ3" s="126"/>
-      <c r="DR3" s="126"/>
-      <c r="DS3" s="127"/>
+      <c r="CV3" s="113"/>
+      <c r="CW3" s="113"/>
+      <c r="CX3" s="113"/>
+      <c r="CY3" s="113"/>
+      <c r="CZ3" s="113"/>
+      <c r="DA3" s="113"/>
+      <c r="DB3" s="113"/>
+      <c r="DC3" s="113"/>
+      <c r="DD3" s="113"/>
+      <c r="DE3" s="113"/>
+      <c r="DF3" s="113"/>
+      <c r="DG3" s="113"/>
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="113"/>
+      <c r="DN3" s="113"/>
+      <c r="DO3" s="113"/>
+      <c r="DP3" s="113"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="114"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
-      <c r="BO4" s="129"/>
-      <c r="BP4" s="129"/>
-      <c r="BQ4" s="129"/>
-      <c r="BR4" s="129"/>
-      <c r="BS4" s="129"/>
-      <c r="BT4" s="130"/>
-      <c r="BU4" s="128"/>
-      <c r="BV4" s="129"/>
-      <c r="BW4" s="129"/>
-      <c r="BX4" s="129"/>
-      <c r="BY4" s="129"/>
-      <c r="BZ4" s="129"/>
-      <c r="CA4" s="129"/>
-      <c r="CB4" s="129"/>
-      <c r="CC4" s="129"/>
-      <c r="CD4" s="129"/>
-      <c r="CE4" s="129"/>
-      <c r="CF4" s="129"/>
-      <c r="CG4" s="129"/>
-      <c r="CH4" s="129"/>
-      <c r="CI4" s="129"/>
-      <c r="CJ4" s="129"/>
-      <c r="CK4" s="129"/>
-      <c r="CL4" s="129"/>
-      <c r="CM4" s="129"/>
-      <c r="CN4" s="129"/>
-      <c r="CO4" s="129"/>
-      <c r="CP4" s="129"/>
-      <c r="CQ4" s="129"/>
-      <c r="CR4" s="129"/>
-      <c r="CS4" s="129"/>
-      <c r="CT4" s="130"/>
-      <c r="CU4" s="128"/>
-      <c r="CV4" s="129"/>
-      <c r="CW4" s="129"/>
-      <c r="CX4" s="129"/>
-      <c r="CY4" s="129"/>
-      <c r="CZ4" s="129"/>
-      <c r="DA4" s="129"/>
-      <c r="DB4" s="129"/>
-      <c r="DC4" s="129"/>
-      <c r="DD4" s="129"/>
-      <c r="DE4" s="129"/>
-      <c r="DF4" s="129"/>
-      <c r="DG4" s="129"/>
-      <c r="DH4" s="129"/>
-      <c r="DI4" s="129"/>
-      <c r="DJ4" s="129"/>
-      <c r="DK4" s="129"/>
-      <c r="DL4" s="129"/>
-      <c r="DM4" s="129"/>
-      <c r="DN4" s="129"/>
-      <c r="DO4" s="129"/>
-      <c r="DP4" s="129"/>
-      <c r="DQ4" s="129"/>
-      <c r="DR4" s="129"/>
-      <c r="DS4" s="130"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="116"/>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="116"/>
+      <c r="BT4" s="117"/>
+      <c r="BU4" s="115"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="116"/>
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
+      <c r="CF4" s="116"/>
+      <c r="CG4" s="116"/>
+      <c r="CH4" s="116"/>
+      <c r="CI4" s="116"/>
+      <c r="CJ4" s="116"/>
+      <c r="CK4" s="116"/>
+      <c r="CL4" s="116"/>
+      <c r="CM4" s="116"/>
+      <c r="CN4" s="116"/>
+      <c r="CO4" s="116"/>
+      <c r="CP4" s="116"/>
+      <c r="CQ4" s="116"/>
+      <c r="CR4" s="116"/>
+      <c r="CS4" s="116"/>
+      <c r="CT4" s="117"/>
+      <c r="CU4" s="115"/>
+      <c r="CV4" s="116"/>
+      <c r="CW4" s="116"/>
+      <c r="CX4" s="116"/>
+      <c r="CY4" s="116"/>
+      <c r="CZ4" s="116"/>
+      <c r="DA4" s="116"/>
+      <c r="DB4" s="116"/>
+      <c r="DC4" s="116"/>
+      <c r="DD4" s="116"/>
+      <c r="DE4" s="116"/>
+      <c r="DF4" s="116"/>
+      <c r="DG4" s="116"/>
+      <c r="DH4" s="116"/>
+      <c r="DI4" s="116"/>
+      <c r="DJ4" s="116"/>
+      <c r="DK4" s="116"/>
+      <c r="DL4" s="116"/>
+      <c r="DM4" s="116"/>
+      <c r="DN4" s="116"/>
+      <c r="DO4" s="116"/>
+      <c r="DP4" s="116"/>
+      <c r="DQ4" s="116"/>
+      <c r="DR4" s="116"/>
+      <c r="DS4" s="117"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2324,18 +2331,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="131" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="132"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="156"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2344,7 +2351,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="156" t="s">
+      <c r="T5" s="120" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2467,10 +2474,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2479,7 +2486,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="157"/>
+      <c r="T6" s="121"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2610,10 +2617,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="134" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2627,157 +2634,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="114" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="116"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="124"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="114" t="s">
+      <c r="U7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="115" t="s">
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="115"/>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="115"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="117" t="s">
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="118"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="114" t="s">
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="114" t="s">
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
-      <c r="AX7" s="115"/>
-      <c r="AY7" s="115"/>
-      <c r="AZ7" s="115"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="116"/>
-      <c r="BD7" s="114" t="s">
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="115"/>
-      <c r="BG7" s="115"/>
-      <c r="BH7" s="115"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="115"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="114" t="s">
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="124"/>
+      <c r="BM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="115"/>
-      <c r="BO7" s="115"/>
-      <c r="BP7" s="115"/>
-      <c r="BQ7" s="114" t="s">
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="115"/>
-      <c r="BS7" s="115"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="114" t="s">
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="115"/>
-      <c r="BW7" s="115"/>
-      <c r="BX7" s="115"/>
-      <c r="BY7" s="115"/>
-      <c r="BZ7" s="115"/>
-      <c r="CA7" s="115"/>
-      <c r="CB7" s="115"/>
-      <c r="CC7" s="116"/>
-      <c r="CD7" s="114" t="s">
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="123"/>
+      <c r="BY7" s="123"/>
+      <c r="BZ7" s="123"/>
+      <c r="CA7" s="123"/>
+      <c r="CB7" s="123"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="115"/>
-      <c r="CF7" s="115"/>
-      <c r="CG7" s="115"/>
-      <c r="CH7" s="115"/>
-      <c r="CI7" s="115"/>
-      <c r="CJ7" s="115"/>
-      <c r="CK7" s="115"/>
-      <c r="CL7" s="116"/>
-      <c r="CM7" s="114" t="s">
+      <c r="CE7" s="123"/>
+      <c r="CF7" s="123"/>
+      <c r="CG7" s="123"/>
+      <c r="CH7" s="123"/>
+      <c r="CI7" s="123"/>
+      <c r="CJ7" s="123"/>
+      <c r="CK7" s="123"/>
+      <c r="CL7" s="124"/>
+      <c r="CM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="115"/>
-      <c r="CO7" s="115"/>
-      <c r="CP7" s="115"/>
-      <c r="CQ7" s="114" t="s">
+      <c r="CN7" s="123"/>
+      <c r="CO7" s="123"/>
+      <c r="CP7" s="123"/>
+      <c r="CQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="115"/>
-      <c r="CS7" s="115"/>
-      <c r="CT7" s="116"/>
-      <c r="CU7" s="114" t="s">
+      <c r="CR7" s="123"/>
+      <c r="CS7" s="123"/>
+      <c r="CT7" s="124"/>
+      <c r="CU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="115"/>
-      <c r="CW7" s="115"/>
-      <c r="CX7" s="115"/>
-      <c r="CY7" s="115"/>
-      <c r="CZ7" s="115"/>
-      <c r="DA7" s="115"/>
-      <c r="DB7" s="115"/>
-      <c r="DC7" s="116"/>
-      <c r="DD7" s="114" t="s">
+      <c r="CV7" s="123"/>
+      <c r="CW7" s="123"/>
+      <c r="CX7" s="123"/>
+      <c r="CY7" s="123"/>
+      <c r="CZ7" s="123"/>
+      <c r="DA7" s="123"/>
+      <c r="DB7" s="123"/>
+      <c r="DC7" s="124"/>
+      <c r="DD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="115"/>
-      <c r="DF7" s="115"/>
-      <c r="DG7" s="115"/>
-      <c r="DH7" s="115"/>
-      <c r="DI7" s="115"/>
-      <c r="DJ7" s="115"/>
-      <c r="DK7" s="115"/>
-      <c r="DL7" s="116"/>
-      <c r="DM7" s="114" t="s">
+      <c r="DE7" s="123"/>
+      <c r="DF7" s="123"/>
+      <c r="DG7" s="123"/>
+      <c r="DH7" s="123"/>
+      <c r="DI7" s="123"/>
+      <c r="DJ7" s="123"/>
+      <c r="DK7" s="123"/>
+      <c r="DL7" s="124"/>
+      <c r="DM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="115"/>
-      <c r="DO7" s="115"/>
-      <c r="DP7" s="115"/>
-      <c r="DQ7" s="114" t="s">
+      <c r="DN7" s="123"/>
+      <c r="DO7" s="123"/>
+      <c r="DP7" s="123"/>
+      <c r="DQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="116"/>
+      <c r="DR7" s="124"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="138"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2900,8 +2907,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="138"/>
-      <c r="B9" s="141"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2929,10 +2936,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="151">
+      <c r="L9" s="125">
         <v>5</v>
       </c>
-      <c r="M9" s="151"/>
+      <c r="M9" s="125"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="151"/>
+      <c r="T9" s="125"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3006,10 +3013,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="151"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3284,24 +3291,24 @@
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="144"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="139"/>
       <c r="H10" s="103"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="152"/>
+      <c r="T10" s="126"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3320,10 +3327,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="152"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="126"/>
+      <c r="AO10" s="126"/>
+      <c r="AP10" s="126"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3436,24 +3443,24 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="102"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="152"/>
+      <c r="T11" s="126"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -3472,10 +3479,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="152"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="152"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="126"/>
+      <c r="AP11" s="126"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -3588,24 +3595,24 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="147"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="103"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="152"/>
+      <c r="T12" s="126"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3624,10 +3631,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="152"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="152"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3714,24 +3721,24 @@
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="147"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="104"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="152"/>
+      <c r="T13" s="126"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3750,10 +3757,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="152"/>
-      <c r="AO13" s="152"/>
-      <c r="AP13" s="152"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
+      <c r="AP13" s="126"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3866,24 +3873,24 @@
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="147"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="104"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="152"/>
+      <c r="T14" s="126"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3902,10 +3909,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="126"/>
+      <c r="AP14" s="126"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4018,24 +4025,24 @@
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="147"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="104"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="152"/>
+      <c r="T15" s="126"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4054,10 +4061,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="152"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="126"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4170,24 +4177,24 @@
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="147"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="104"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="152"/>
+      <c r="T16" s="126"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4206,10 +4213,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="152"/>
-      <c r="AN16" s="152"/>
-      <c r="AO16" s="152"/>
-      <c r="AP16" s="152"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4322,24 +4329,24 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="147"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="104"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="152"/>
+      <c r="T17" s="126"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4358,10 +4365,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="152"/>
-      <c r="AN17" s="152"/>
-      <c r="AO17" s="152"/>
-      <c r="AP17" s="152"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="126"/>
+      <c r="AP17" s="126"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4448,24 +4455,24 @@
       <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="104"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="152"/>
+      <c r="T18" s="126"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4484,10 +4491,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="152"/>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="152"/>
+      <c r="AM18" s="126"/>
+      <c r="AN18" s="126"/>
+      <c r="AO18" s="126"/>
+      <c r="AP18" s="126"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4572,24 +4579,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="152"/>
+      <c r="T19" s="126"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4608,10 +4615,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="152"/>
-      <c r="AN19" s="152"/>
-      <c r="AO19" s="152"/>
-      <c r="AP19" s="152"/>
+      <c r="AM19" s="126"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4694,30 +4701,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="147"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="152"/>
+      <c r="T20" s="126"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4736,10 +4743,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="152"/>
-      <c r="AN20" s="152"/>
-      <c r="AO20" s="152"/>
-      <c r="AP20" s="152"/>
+      <c r="AM20" s="126"/>
+      <c r="AN20" s="126"/>
+      <c r="AO20" s="126"/>
+      <c r="AP20" s="126"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4822,28 +4829,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="136"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="147"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="152"/>
+      <c r="T21" s="126"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="55"/>
@@ -4862,10 +4869,10 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="152"/>
-      <c r="AN21" s="152"/>
-      <c r="AO21" s="152"/>
-      <c r="AP21" s="152"/>
+      <c r="AM21" s="126"/>
+      <c r="AN21" s="126"/>
+      <c r="AO21" s="126"/>
+      <c r="AP21" s="126"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -4948,28 +4955,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="136"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="147"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="152"/>
+      <c r="T22" s="126"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4988,10 +4995,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="152"/>
-      <c r="AN22" s="152"/>
-      <c r="AO22" s="152"/>
-      <c r="AP22" s="152"/>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="126"/>
+      <c r="AO22" s="126"/>
+      <c r="AP22" s="126"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5074,28 +5081,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="136"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="147"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="152"/>
+      <c r="T23" s="126"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5114,10 +5121,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="152"/>
-      <c r="AN23" s="152"/>
-      <c r="AO23" s="152"/>
-      <c r="AP23" s="152"/>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5226,28 +5233,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="136"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="147"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="152"/>
+      <c r="T24" s="126"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5266,10 +5273,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="152"/>
-      <c r="AN24" s="152"/>
-      <c r="AO24" s="152"/>
-      <c r="AP24" s="152"/>
+      <c r="AM24" s="126"/>
+      <c r="AN24" s="126"/>
+      <c r="AO24" s="126"/>
+      <c r="AP24" s="126"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5378,28 +5385,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="136"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="152"/>
+      <c r="T25" s="126"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5418,10 +5425,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="152"/>
-      <c r="AO25" s="152"/>
-      <c r="AP25" s="152"/>
+      <c r="AM25" s="126"/>
+      <c r="AN25" s="126"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="126"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5530,28 +5537,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="136"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="147"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="152"/>
+      <c r="T26" s="126"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5570,10 +5577,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="152"/>
-      <c r="AO26" s="152"/>
-      <c r="AP26" s="152"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5682,28 +5689,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="136"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="147"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="152"/>
+      <c r="T27" s="126"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5722,10 +5729,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="152"/>
-      <c r="AN27" s="152"/>
-      <c r="AO27" s="152"/>
-      <c r="AP27" s="152"/>
+      <c r="AM27" s="126"/>
+      <c r="AN27" s="126"/>
+      <c r="AO27" s="126"/>
+      <c r="AP27" s="126"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5808,28 +5815,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="136"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="147"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="152"/>
+      <c r="T28" s="126"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5848,10 +5855,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="152"/>
-      <c r="AO28" s="152"/>
-      <c r="AP28" s="152"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="126"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5934,28 +5941,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="136"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="147"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="152"/>
+      <c r="T29" s="126"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5974,10 +5981,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="152"/>
-      <c r="AN29" s="152"/>
-      <c r="AO29" s="152"/>
-      <c r="AP29" s="152"/>
+      <c r="AM29" s="126"/>
+      <c r="AN29" s="126"/>
+      <c r="AO29" s="126"/>
+      <c r="AP29" s="126"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6060,28 +6067,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="136"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="147"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="152"/>
+      <c r="T30" s="126"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6100,10 +6107,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="152"/>
-      <c r="AO30" s="152"/>
-      <c r="AP30" s="152"/>
+      <c r="AM30" s="126"/>
+      <c r="AN30" s="126"/>
+      <c r="AO30" s="126"/>
+      <c r="AP30" s="126"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6212,28 +6219,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="136"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="147"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="152"/>
+      <c r="T31" s="126"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6252,10 +6259,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="152"/>
-      <c r="AO31" s="152"/>
-      <c r="AP31" s="152"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6338,28 +6345,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="136"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="147"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="152"/>
+      <c r="T32" s="126"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6378,10 +6385,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="152"/>
-      <c r="AP32" s="152"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6490,28 +6497,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="136"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="147"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="152"/>
+      <c r="T33" s="126"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6530,10 +6537,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="152"/>
-      <c r="AN33" s="152"/>
-      <c r="AO33" s="152"/>
-      <c r="AP33" s="152"/>
+      <c r="AM33" s="126"/>
+      <c r="AN33" s="126"/>
+      <c r="AO33" s="126"/>
+      <c r="AP33" s="126"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6616,28 +6623,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="136"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="147"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="152"/>
+      <c r="T34" s="126"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6656,10 +6663,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="152"/>
-      <c r="AO34" s="152"/>
-      <c r="AP34" s="152"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="126"/>
+      <c r="AO34" s="126"/>
+      <c r="AP34" s="126"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6768,28 +6775,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="136"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="147"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="142"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="152"/>
+      <c r="T35" s="126"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6808,10 +6815,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="152"/>
-      <c r="AN35" s="152"/>
-      <c r="AO35" s="152"/>
-      <c r="AP35" s="152"/>
+      <c r="AM35" s="126"/>
+      <c r="AN35" s="126"/>
+      <c r="AO35" s="126"/>
+      <c r="AP35" s="126"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6894,28 +6901,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="136"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="147"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="152"/>
+      <c r="T36" s="126"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6934,10 +6941,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="152"/>
-      <c r="AN36" s="152"/>
-      <c r="AO36" s="152"/>
-      <c r="AP36" s="152"/>
+      <c r="AM36" s="126"/>
+      <c r="AN36" s="126"/>
+      <c r="AO36" s="126"/>
+      <c r="AP36" s="126"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7022,24 +7029,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="147"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
       <c r="H37" s="105"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="152"/>
+      <c r="T37" s="126"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7058,10 +7065,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="152"/>
-      <c r="AN37" s="152"/>
-      <c r="AO37" s="152"/>
-      <c r="AP37" s="152"/>
+      <c r="AM37" s="126"/>
+      <c r="AN37" s="126"/>
+      <c r="AO37" s="126"/>
+      <c r="AP37" s="126"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7144,30 +7151,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="131" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="145"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="147"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="142"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="152"/>
-      <c r="M38" s="152"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="152"/>
+      <c r="T38" s="126"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7186,10 +7193,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="152"/>
-      <c r="AN38" s="152"/>
-      <c r="AO38" s="152"/>
-      <c r="AP38" s="152"/>
+      <c r="AM38" s="126"/>
+      <c r="AN38" s="126"/>
+      <c r="AO38" s="126"/>
+      <c r="AP38" s="126"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7298,28 +7305,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="136"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="147"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="152"/>
+      <c r="T39" s="126"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7338,10 +7345,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="152"/>
-      <c r="AN39" s="152"/>
-      <c r="AO39" s="152"/>
-      <c r="AP39" s="152"/>
+      <c r="AM39" s="126"/>
+      <c r="AN39" s="126"/>
+      <c r="AO39" s="126"/>
+      <c r="AP39" s="126"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7424,28 +7431,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="136"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="147"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="152"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="152"/>
+      <c r="T40" s="126"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7464,10 +7471,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="152"/>
-      <c r="AN40" s="152"/>
-      <c r="AO40" s="152"/>
-      <c r="AP40" s="152"/>
+      <c r="AM40" s="126"/>
+      <c r="AN40" s="126"/>
+      <c r="AO40" s="126"/>
+      <c r="AP40" s="126"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7576,28 +7583,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="136"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="147"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="142"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="152"/>
-      <c r="M41" s="152"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="152"/>
+      <c r="T41" s="126"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7616,10 +7623,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="152"/>
-      <c r="AN41" s="152"/>
-      <c r="AO41" s="152"/>
-      <c r="AP41" s="152"/>
+      <c r="AM41" s="126"/>
+      <c r="AN41" s="126"/>
+      <c r="AO41" s="126"/>
+      <c r="AP41" s="126"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7702,28 +7709,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="136"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="147"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
       <c r="H42" s="106"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="152"/>
+      <c r="T42" s="126"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7742,10 +7749,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="152"/>
-      <c r="AN42" s="152"/>
-      <c r="AO42" s="152"/>
-      <c r="AP42" s="152"/>
+      <c r="AM42" s="126"/>
+      <c r="AN42" s="126"/>
+      <c r="AO42" s="126"/>
+      <c r="AP42" s="126"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7856,24 +7863,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="99"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="147"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="142"/>
       <c r="H43" s="105"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="152"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7892,10 +7899,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="152"/>
-      <c r="AN43" s="152"/>
-      <c r="AO43" s="152"/>
-      <c r="AP43" s="152"/>
+      <c r="AM43" s="126"/>
+      <c r="AN43" s="126"/>
+      <c r="AO43" s="126"/>
+      <c r="AP43" s="126"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8004,30 +8011,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="128" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="147"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="142"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="152"/>
+      <c r="T44" s="126"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8046,10 +8053,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="152"/>
-      <c r="AN44" s="152"/>
-      <c r="AO44" s="152"/>
-      <c r="AP44" s="152"/>
+      <c r="AM44" s="126"/>
+      <c r="AN44" s="126"/>
+      <c r="AO44" s="126"/>
+      <c r="AP44" s="126"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8132,28 +8139,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="134"/>
+      <c r="A45" s="129"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="147"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="142"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="152"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="152"/>
+      <c r="T45" s="126"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8172,10 +8179,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="152"/>
-      <c r="AN45" s="152"/>
-      <c r="AO45" s="152"/>
-      <c r="AP45" s="152"/>
+      <c r="AM45" s="126"/>
+      <c r="AN45" s="126"/>
+      <c r="AO45" s="126"/>
+      <c r="AP45" s="126"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8258,28 +8265,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="134"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="142"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="152"/>
+      <c r="T46" s="126"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8298,10 +8305,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="152"/>
-      <c r="AN46" s="152"/>
-      <c r="AO46" s="152"/>
-      <c r="AP46" s="152"/>
+      <c r="AM46" s="126"/>
+      <c r="AN46" s="126"/>
+      <c r="AO46" s="126"/>
+      <c r="AP46" s="126"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8384,28 +8391,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="134"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="147"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="142"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="152"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="152"/>
+      <c r="T47" s="126"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8424,10 +8431,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="152"/>
-      <c r="AN47" s="152"/>
-      <c r="AO47" s="152"/>
-      <c r="AP47" s="152"/>
+      <c r="AM47" s="126"/>
+      <c r="AN47" s="126"/>
+      <c r="AO47" s="126"/>
+      <c r="AP47" s="126"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8510,28 +8517,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="134"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="147"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
       <c r="H48" s="107"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="152"/>
+      <c r="T48" s="126"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8550,10 +8557,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="152"/>
-      <c r="AN48" s="152"/>
-      <c r="AO48" s="152"/>
-      <c r="AP48" s="152"/>
+      <c r="AM48" s="126"/>
+      <c r="AN48" s="126"/>
+      <c r="AO48" s="126"/>
+      <c r="AP48" s="126"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8635,28 +8642,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="135"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="150"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="145"/>
       <c r="H49" s="106"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="153"/>
+      <c r="T49" s="127"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8675,10 +8682,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="153"/>
-      <c r="AN49" s="153"/>
-      <c r="AO49" s="153"/>
-      <c r="AP49" s="153"/>
+      <c r="AM49" s="127"/>
+      <c r="AN49" s="127"/>
+      <c r="AO49" s="127"/>
+      <c r="AP49" s="127"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8783,12 +8790,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8804,25 +8824,12 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8834,8 +8841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD4E70-A401-418C-840B-3BA1B1FB16B9}">
   <dimension ref="A1:ER57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,284 +8862,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="113"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="125" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="154" t="s">
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="125" t="s">
+      <c r="U3" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="125" t="s">
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="113"/>
+      <c r="AJ3" s="113"/>
+      <c r="AK3" s="113"/>
+      <c r="AL3" s="113"/>
+      <c r="AM3" s="113"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="113"/>
+      <c r="AP3" s="113"/>
+      <c r="AQ3" s="113"/>
+      <c r="AR3" s="113"/>
+      <c r="AS3" s="113"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="127"/>
-      <c r="BU3" s="125" t="s">
+      <c r="AV3" s="113"/>
+      <c r="AW3" s="113"/>
+      <c r="AX3" s="113"/>
+      <c r="AY3" s="113"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="113"/>
+      <c r="BF3" s="113"/>
+      <c r="BG3" s="113"/>
+      <c r="BH3" s="113"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="113"/>
+      <c r="BO3" s="113"/>
+      <c r="BP3" s="113"/>
+      <c r="BQ3" s="113"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="113"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="126"/>
-      <c r="CB3" s="126"/>
-      <c r="CC3" s="126"/>
-      <c r="CD3" s="126"/>
-      <c r="CE3" s="126"/>
-      <c r="CF3" s="126"/>
-      <c r="CG3" s="126"/>
-      <c r="CH3" s="126"/>
-      <c r="CI3" s="126"/>
-      <c r="CJ3" s="126"/>
-      <c r="CK3" s="126"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="126"/>
-      <c r="CN3" s="126"/>
-      <c r="CO3" s="126"/>
-      <c r="CP3" s="126"/>
-      <c r="CQ3" s="126"/>
-      <c r="CR3" s="126"/>
-      <c r="CS3" s="126"/>
-      <c r="CT3" s="127"/>
-      <c r="CU3" s="125" t="s">
+      <c r="BV3" s="113"/>
+      <c r="BW3" s="113"/>
+      <c r="BX3" s="113"/>
+      <c r="BY3" s="113"/>
+      <c r="BZ3" s="113"/>
+      <c r="CA3" s="113"/>
+      <c r="CB3" s="113"/>
+      <c r="CC3" s="113"/>
+      <c r="CD3" s="113"/>
+      <c r="CE3" s="113"/>
+      <c r="CF3" s="113"/>
+      <c r="CG3" s="113"/>
+      <c r="CH3" s="113"/>
+      <c r="CI3" s="113"/>
+      <c r="CJ3" s="113"/>
+      <c r="CK3" s="113"/>
+      <c r="CL3" s="113"/>
+      <c r="CM3" s="113"/>
+      <c r="CN3" s="113"/>
+      <c r="CO3" s="113"/>
+      <c r="CP3" s="113"/>
+      <c r="CQ3" s="113"/>
+      <c r="CR3" s="113"/>
+      <c r="CS3" s="113"/>
+      <c r="CT3" s="114"/>
+      <c r="CU3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="126"/>
-      <c r="CW3" s="126"/>
-      <c r="CX3" s="126"/>
-      <c r="CY3" s="126"/>
-      <c r="CZ3" s="126"/>
-      <c r="DA3" s="126"/>
-      <c r="DB3" s="126"/>
-      <c r="DC3" s="126"/>
-      <c r="DD3" s="126"/>
-      <c r="DE3" s="126"/>
-      <c r="DF3" s="126"/>
-      <c r="DG3" s="126"/>
-      <c r="DH3" s="126"/>
-      <c r="DI3" s="126"/>
-      <c r="DJ3" s="126"/>
-      <c r="DK3" s="126"/>
-      <c r="DL3" s="126"/>
-      <c r="DM3" s="126"/>
-      <c r="DN3" s="126"/>
-      <c r="DO3" s="126"/>
-      <c r="DP3" s="126"/>
-      <c r="DQ3" s="126"/>
-      <c r="DR3" s="126"/>
-      <c r="DS3" s="127"/>
+      <c r="CV3" s="113"/>
+      <c r="CW3" s="113"/>
+      <c r="CX3" s="113"/>
+      <c r="CY3" s="113"/>
+      <c r="CZ3" s="113"/>
+      <c r="DA3" s="113"/>
+      <c r="DB3" s="113"/>
+      <c r="DC3" s="113"/>
+      <c r="DD3" s="113"/>
+      <c r="DE3" s="113"/>
+      <c r="DF3" s="113"/>
+      <c r="DG3" s="113"/>
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="113"/>
+      <c r="DN3" s="113"/>
+      <c r="DO3" s="113"/>
+      <c r="DP3" s="113"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="114"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="129"/>
-      <c r="AK4" s="129"/>
-      <c r="AL4" s="129"/>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="129"/>
-      <c r="AO4" s="129"/>
-      <c r="AP4" s="129"/>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="129"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="128"/>
-      <c r="AV4" s="129"/>
-      <c r="AW4" s="129"/>
-      <c r="AX4" s="129"/>
-      <c r="AY4" s="129"/>
-      <c r="AZ4" s="129"/>
-      <c r="BA4" s="129"/>
-      <c r="BB4" s="129"/>
-      <c r="BC4" s="129"/>
-      <c r="BD4" s="129"/>
-      <c r="BE4" s="129"/>
-      <c r="BF4" s="129"/>
-      <c r="BG4" s="129"/>
-      <c r="BH4" s="129"/>
-      <c r="BI4" s="129"/>
-      <c r="BJ4" s="129"/>
-      <c r="BK4" s="129"/>
-      <c r="BL4" s="129"/>
-      <c r="BM4" s="129"/>
-      <c r="BN4" s="129"/>
-      <c r="BO4" s="129"/>
-      <c r="BP4" s="129"/>
-      <c r="BQ4" s="129"/>
-      <c r="BR4" s="129"/>
-      <c r="BS4" s="129"/>
-      <c r="BT4" s="130"/>
-      <c r="BU4" s="128"/>
-      <c r="BV4" s="129"/>
-      <c r="BW4" s="129"/>
-      <c r="BX4" s="129"/>
-      <c r="BY4" s="129"/>
-      <c r="BZ4" s="129"/>
-      <c r="CA4" s="129"/>
-      <c r="CB4" s="129"/>
-      <c r="CC4" s="129"/>
-      <c r="CD4" s="129"/>
-      <c r="CE4" s="129"/>
-      <c r="CF4" s="129"/>
-      <c r="CG4" s="129"/>
-      <c r="CH4" s="129"/>
-      <c r="CI4" s="129"/>
-      <c r="CJ4" s="129"/>
-      <c r="CK4" s="129"/>
-      <c r="CL4" s="129"/>
-      <c r="CM4" s="129"/>
-      <c r="CN4" s="129"/>
-      <c r="CO4" s="129"/>
-      <c r="CP4" s="129"/>
-      <c r="CQ4" s="129"/>
-      <c r="CR4" s="129"/>
-      <c r="CS4" s="129"/>
-      <c r="CT4" s="130"/>
-      <c r="CU4" s="128"/>
-      <c r="CV4" s="129"/>
-      <c r="CW4" s="129"/>
-      <c r="CX4" s="129"/>
-      <c r="CY4" s="129"/>
-      <c r="CZ4" s="129"/>
-      <c r="DA4" s="129"/>
-      <c r="DB4" s="129"/>
-      <c r="DC4" s="129"/>
-      <c r="DD4" s="129"/>
-      <c r="DE4" s="129"/>
-      <c r="DF4" s="129"/>
-      <c r="DG4" s="129"/>
-      <c r="DH4" s="129"/>
-      <c r="DI4" s="129"/>
-      <c r="DJ4" s="129"/>
-      <c r="DK4" s="129"/>
-      <c r="DL4" s="129"/>
-      <c r="DM4" s="129"/>
-      <c r="DN4" s="129"/>
-      <c r="DO4" s="129"/>
-      <c r="DP4" s="129"/>
-      <c r="DQ4" s="129"/>
-      <c r="DR4" s="129"/>
-      <c r="DS4" s="130"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
+      <c r="AG4" s="116"/>
+      <c r="AH4" s="116"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="115"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+      <c r="BD4" s="116"/>
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="116"/>
+      <c r="BK4" s="116"/>
+      <c r="BL4" s="116"/>
+      <c r="BM4" s="116"/>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="116"/>
+      <c r="BS4" s="116"/>
+      <c r="BT4" s="117"/>
+      <c r="BU4" s="115"/>
+      <c r="BV4" s="116"/>
+      <c r="BW4" s="116"/>
+      <c r="BX4" s="116"/>
+      <c r="BY4" s="116"/>
+      <c r="BZ4" s="116"/>
+      <c r="CA4" s="116"/>
+      <c r="CB4" s="116"/>
+      <c r="CC4" s="116"/>
+      <c r="CD4" s="116"/>
+      <c r="CE4" s="116"/>
+      <c r="CF4" s="116"/>
+      <c r="CG4" s="116"/>
+      <c r="CH4" s="116"/>
+      <c r="CI4" s="116"/>
+      <c r="CJ4" s="116"/>
+      <c r="CK4" s="116"/>
+      <c r="CL4" s="116"/>
+      <c r="CM4" s="116"/>
+      <c r="CN4" s="116"/>
+      <c r="CO4" s="116"/>
+      <c r="CP4" s="116"/>
+      <c r="CQ4" s="116"/>
+      <c r="CR4" s="116"/>
+      <c r="CS4" s="116"/>
+      <c r="CT4" s="117"/>
+      <c r="CU4" s="115"/>
+      <c r="CV4" s="116"/>
+      <c r="CW4" s="116"/>
+      <c r="CX4" s="116"/>
+      <c r="CY4" s="116"/>
+      <c r="CZ4" s="116"/>
+      <c r="DA4" s="116"/>
+      <c r="DB4" s="116"/>
+      <c r="DC4" s="116"/>
+      <c r="DD4" s="116"/>
+      <c r="DE4" s="116"/>
+      <c r="DF4" s="116"/>
+      <c r="DG4" s="116"/>
+      <c r="DH4" s="116"/>
+      <c r="DI4" s="116"/>
+      <c r="DJ4" s="116"/>
+      <c r="DK4" s="116"/>
+      <c r="DL4" s="116"/>
+      <c r="DM4" s="116"/>
+      <c r="DN4" s="116"/>
+      <c r="DO4" s="116"/>
+      <c r="DP4" s="116"/>
+      <c r="DQ4" s="116"/>
+      <c r="DR4" s="116"/>
+      <c r="DS4" s="117"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9141,18 +9148,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="131" t="s">
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="132"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="156"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9161,7 +9168,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="156" t="s">
+      <c r="T5" s="120" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9284,10 +9291,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="130"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9296,7 +9303,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="157"/>
+      <c r="T6" s="121"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9427,10 +9434,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="134" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9444,157 +9451,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="114" t="s">
+      <c r="L7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="114" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="116"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="124"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="114" t="s">
+      <c r="U7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="115" t="s">
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="115"/>
-      <c r="AG7" s="115"/>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="115"/>
-      <c r="AL7" s="116"/>
-      <c r="AM7" s="117" t="s">
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="118"/>
-      <c r="AO7" s="118"/>
-      <c r="AP7" s="118"/>
-      <c r="AQ7" s="114" t="s">
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="115"/>
-      <c r="AT7" s="116"/>
-      <c r="AU7" s="114" t="s">
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="115"/>
-      <c r="AW7" s="115"/>
-      <c r="AX7" s="115"/>
-      <c r="AY7" s="115"/>
-      <c r="AZ7" s="115"/>
-      <c r="BA7" s="115"/>
-      <c r="BB7" s="115"/>
-      <c r="BC7" s="116"/>
-      <c r="BD7" s="114" t="s">
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="115"/>
-      <c r="BG7" s="115"/>
-      <c r="BH7" s="115"/>
-      <c r="BI7" s="115"/>
-      <c r="BJ7" s="115"/>
-      <c r="BK7" s="115"/>
-      <c r="BL7" s="116"/>
-      <c r="BM7" s="114" t="s">
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="124"/>
+      <c r="BM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="115"/>
-      <c r="BO7" s="115"/>
-      <c r="BP7" s="115"/>
-      <c r="BQ7" s="114" t="s">
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="115"/>
-      <c r="BS7" s="115"/>
-      <c r="BT7" s="116"/>
-      <c r="BU7" s="114" t="s">
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="115"/>
-      <c r="BW7" s="115"/>
-      <c r="BX7" s="115"/>
-      <c r="BY7" s="115"/>
-      <c r="BZ7" s="115"/>
-      <c r="CA7" s="115"/>
-      <c r="CB7" s="115"/>
-      <c r="CC7" s="116"/>
-      <c r="CD7" s="114" t="s">
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="123"/>
+      <c r="BY7" s="123"/>
+      <c r="BZ7" s="123"/>
+      <c r="CA7" s="123"/>
+      <c r="CB7" s="123"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="115"/>
-      <c r="CF7" s="115"/>
-      <c r="CG7" s="115"/>
-      <c r="CH7" s="115"/>
-      <c r="CI7" s="115"/>
-      <c r="CJ7" s="115"/>
-      <c r="CK7" s="115"/>
-      <c r="CL7" s="116"/>
-      <c r="CM7" s="114" t="s">
+      <c r="CE7" s="123"/>
+      <c r="CF7" s="123"/>
+      <c r="CG7" s="123"/>
+      <c r="CH7" s="123"/>
+      <c r="CI7" s="123"/>
+      <c r="CJ7" s="123"/>
+      <c r="CK7" s="123"/>
+      <c r="CL7" s="124"/>
+      <c r="CM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="115"/>
-      <c r="CO7" s="115"/>
-      <c r="CP7" s="115"/>
-      <c r="CQ7" s="114" t="s">
+      <c r="CN7" s="123"/>
+      <c r="CO7" s="123"/>
+      <c r="CP7" s="123"/>
+      <c r="CQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="115"/>
-      <c r="CS7" s="115"/>
-      <c r="CT7" s="116"/>
-      <c r="CU7" s="114" t="s">
+      <c r="CR7" s="123"/>
+      <c r="CS7" s="123"/>
+      <c r="CT7" s="124"/>
+      <c r="CU7" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="115"/>
-      <c r="CW7" s="115"/>
-      <c r="CX7" s="115"/>
-      <c r="CY7" s="115"/>
-      <c r="CZ7" s="115"/>
-      <c r="DA7" s="115"/>
-      <c r="DB7" s="115"/>
-      <c r="DC7" s="116"/>
-      <c r="DD7" s="114" t="s">
+      <c r="CV7" s="123"/>
+      <c r="CW7" s="123"/>
+      <c r="CX7" s="123"/>
+      <c r="CY7" s="123"/>
+      <c r="CZ7" s="123"/>
+      <c r="DA7" s="123"/>
+      <c r="DB7" s="123"/>
+      <c r="DC7" s="124"/>
+      <c r="DD7" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="115"/>
-      <c r="DF7" s="115"/>
-      <c r="DG7" s="115"/>
-      <c r="DH7" s="115"/>
-      <c r="DI7" s="115"/>
-      <c r="DJ7" s="115"/>
-      <c r="DK7" s="115"/>
-      <c r="DL7" s="116"/>
-      <c r="DM7" s="114" t="s">
+      <c r="DE7" s="123"/>
+      <c r="DF7" s="123"/>
+      <c r="DG7" s="123"/>
+      <c r="DH7" s="123"/>
+      <c r="DI7" s="123"/>
+      <c r="DJ7" s="123"/>
+      <c r="DK7" s="123"/>
+      <c r="DL7" s="124"/>
+      <c r="DM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="115"/>
-      <c r="DO7" s="115"/>
-      <c r="DP7" s="115"/>
-      <c r="DQ7" s="114" t="s">
+      <c r="DN7" s="123"/>
+      <c r="DO7" s="123"/>
+      <c r="DP7" s="123"/>
+      <c r="DQ7" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="116"/>
+      <c r="DR7" s="124"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9717,8 +9724,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="56">
         <v>172</v>
       </c>
@@ -9746,10 +9753,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="151">
+      <c r="L9" s="125">
         <v>5</v>
       </c>
-      <c r="M9" s="151"/>
+      <c r="M9" s="125"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9768,7 +9775,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="151"/>
+      <c r="T9" s="125"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9823,10 +9830,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="151"/>
-      <c r="AO9" s="151"/>
-      <c r="AP9" s="151"/>
+      <c r="AM9" s="125"/>
+      <c r="AN9" s="125"/>
+      <c r="AO9" s="125"/>
+      <c r="AP9" s="125"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10099,24 +10106,24 @@
       <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="152"/>
+      <c r="T10" s="126"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10135,10 +10142,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="152"/>
-      <c r="AO10" s="152"/>
-      <c r="AP10" s="152"/>
+      <c r="AM10" s="126"/>
+      <c r="AN10" s="126"/>
+      <c r="AO10" s="126"/>
+      <c r="AP10" s="126"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10251,24 +10258,24 @@
       <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="152"/>
+      <c r="T11" s="126"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -10287,10 +10294,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="152"/>
-      <c r="AN11" s="152"/>
-      <c r="AO11" s="152"/>
-      <c r="AP11" s="152"/>
+      <c r="AM11" s="126"/>
+      <c r="AN11" s="126"/>
+      <c r="AO11" s="126"/>
+      <c r="AP11" s="126"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -10405,24 +10412,24 @@
       <c r="B12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="152"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="152"/>
+      <c r="T12" s="126"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10441,10 +10448,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="152"/>
-      <c r="AN12" s="152"/>
-      <c r="AO12" s="152"/>
-      <c r="AP12" s="152"/>
+      <c r="AM12" s="126"/>
+      <c r="AN12" s="126"/>
+      <c r="AO12" s="126"/>
+      <c r="AP12" s="126"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10531,24 +10538,24 @@
       <c r="B13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="152"/>
-      <c r="M13" s="152"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="152"/>
+      <c r="T13" s="126"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10567,10 +10574,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="152"/>
-      <c r="AO13" s="152"/>
-      <c r="AP13" s="152"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
+      <c r="AP13" s="126"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10683,24 +10690,24 @@
       <c r="B14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
+      <c r="C14" s="140"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="152"/>
+      <c r="T14" s="126"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10719,10 +10726,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="152"/>
-      <c r="AP14" s="152"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="126"/>
+      <c r="AP14" s="126"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10835,24 +10842,24 @@
       <c r="B15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="152"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="152"/>
+      <c r="T15" s="126"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10871,10 +10878,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="152"/>
-      <c r="AP15" s="152"/>
+      <c r="AM15" s="126"/>
+      <c r="AN15" s="126"/>
+      <c r="AO15" s="126"/>
+      <c r="AP15" s="126"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10987,24 +10994,24 @@
       <c r="B16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="152"/>
+      <c r="T16" s="126"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11023,10 +11030,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="152"/>
-      <c r="AN16" s="152"/>
-      <c r="AO16" s="152"/>
-      <c r="AP16" s="152"/>
+      <c r="AM16" s="126"/>
+      <c r="AN16" s="126"/>
+      <c r="AO16" s="126"/>
+      <c r="AP16" s="126"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11139,24 +11146,24 @@
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="145"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="126"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="152"/>
+      <c r="T17" s="126"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11175,10 +11182,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="152"/>
-      <c r="AN17" s="152"/>
-      <c r="AO17" s="152"/>
-      <c r="AP17" s="152"/>
+      <c r="AM17" s="126"/>
+      <c r="AN17" s="126"/>
+      <c r="AO17" s="126"/>
+      <c r="AP17" s="126"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11265,24 +11272,24 @@
       <c r="B18" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="152"/>
+      <c r="T18" s="126"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11301,10 +11308,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="152"/>
-      <c r="AO18" s="152"/>
-      <c r="AP18" s="152"/>
+      <c r="AM18" s="126"/>
+      <c r="AN18" s="126"/>
+      <c r="AO18" s="126"/>
+      <c r="AP18" s="126"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11389,24 +11396,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="126"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="152"/>
+      <c r="T19" s="126"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11425,10 +11432,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="152"/>
-      <c r="AN19" s="152"/>
-      <c r="AO19" s="152"/>
-      <c r="AP19" s="152"/>
+      <c r="AM19" s="126"/>
+      <c r="AN19" s="126"/>
+      <c r="AO19" s="126"/>
+      <c r="AP19" s="126"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11511,30 +11518,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="145"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="126"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="152"/>
+      <c r="T20" s="126"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11553,10 +11560,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="152"/>
-      <c r="AN20" s="152"/>
-      <c r="AO20" s="152"/>
-      <c r="AP20" s="152"/>
+      <c r="AM20" s="126"/>
+      <c r="AN20" s="126"/>
+      <c r="AO20" s="126"/>
+      <c r="AP20" s="126"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11639,28 +11646,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="136"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="145"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="126"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="152"/>
+      <c r="T21" s="126"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -11679,10 +11686,10 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="152"/>
-      <c r="AN21" s="152"/>
-      <c r="AO21" s="152"/>
-      <c r="AP21" s="152"/>
+      <c r="AM21" s="126"/>
+      <c r="AN21" s="126"/>
+      <c r="AO21" s="126"/>
+      <c r="AP21" s="126"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -11765,28 +11772,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="136"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="152"/>
+      <c r="T22" s="126"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11805,10 +11812,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="152"/>
-      <c r="AN22" s="152"/>
-      <c r="AO22" s="152"/>
-      <c r="AP22" s="152"/>
+      <c r="AM22" s="126"/>
+      <c r="AN22" s="126"/>
+      <c r="AO22" s="126"/>
+      <c r="AP22" s="126"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11891,28 +11898,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="136"/>
-      <c r="B23" s="111" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="126"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="152"/>
+      <c r="T23" s="126"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11931,10 +11938,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="152"/>
-      <c r="AN23" s="152"/>
-      <c r="AO23" s="152"/>
-      <c r="AP23" s="152"/>
+      <c r="AM23" s="126"/>
+      <c r="AN23" s="126"/>
+      <c r="AO23" s="126"/>
+      <c r="AP23" s="126"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12017,28 +12024,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="136"/>
-      <c r="B24" s="112" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="126"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="152"/>
+      <c r="T24" s="126"/>
       <c r="U24" s="21"/>
       <c r="V24" s="21"/>
       <c r="W24" s="21"/>
@@ -12057,10 +12064,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="152"/>
-      <c r="AN24" s="152"/>
-      <c r="AO24" s="152"/>
-      <c r="AP24" s="152"/>
+      <c r="AM24" s="126"/>
+      <c r="AN24" s="126"/>
+      <c r="AO24" s="126"/>
+      <c r="AP24" s="126"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12169,28 +12176,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="136"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="131"/>
+      <c r="B25" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="152"/>
+      <c r="T25" s="126"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -12209,10 +12216,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="152"/>
-      <c r="AN25" s="152"/>
-      <c r="AO25" s="152"/>
-      <c r="AP25" s="152"/>
+      <c r="AM25" s="126"/>
+      <c r="AN25" s="126"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="126"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12321,28 +12328,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="136"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="145"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="152"/>
+      <c r="T26" s="126"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12361,10 +12368,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="152"/>
-      <c r="AO26" s="152"/>
-      <c r="AP26" s="152"/>
+      <c r="AM26" s="126"/>
+      <c r="AN26" s="126"/>
+      <c r="AO26" s="126"/>
+      <c r="AP26" s="126"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12473,28 +12480,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="136"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="131"/>
+      <c r="B27" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="152"/>
-      <c r="M27" s="152"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="152"/>
+      <c r="T27" s="126"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12513,10 +12520,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="152"/>
-      <c r="AN27" s="152"/>
-      <c r="AO27" s="152"/>
-      <c r="AP27" s="152"/>
+      <c r="AM27" s="126"/>
+      <c r="AN27" s="126"/>
+      <c r="AO27" s="126"/>
+      <c r="AP27" s="126"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12625,28 +12632,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="136"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="152"/>
+      <c r="T28" s="126"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12665,10 +12672,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="152"/>
-      <c r="AN28" s="152"/>
-      <c r="AO28" s="152"/>
-      <c r="AP28" s="152"/>
+      <c r="AM28" s="126"/>
+      <c r="AN28" s="126"/>
+      <c r="AO28" s="126"/>
+      <c r="AP28" s="126"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12751,28 +12758,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="136"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="145"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="152"/>
+      <c r="T29" s="126"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12791,10 +12798,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="21"/>
-      <c r="AM29" s="152"/>
-      <c r="AN29" s="152"/>
-      <c r="AO29" s="152"/>
-      <c r="AP29" s="152"/>
+      <c r="AM29" s="126"/>
+      <c r="AN29" s="126"/>
+      <c r="AO29" s="126"/>
+      <c r="AP29" s="126"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12877,28 +12884,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="136"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="126"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="152"/>
+      <c r="T30" s="126"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12917,10 +12924,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="152"/>
-      <c r="AO30" s="152"/>
-      <c r="AP30" s="152"/>
+      <c r="AM30" s="126"/>
+      <c r="AN30" s="126"/>
+      <c r="AO30" s="126"/>
+      <c r="AP30" s="126"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13003,28 +13010,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="136"/>
-      <c r="B31" s="16" t="s">
+      <c r="A31" s="131"/>
+      <c r="B31" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="152"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="152"/>
+      <c r="T31" s="126"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13043,10 +13050,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="152"/>
-      <c r="AN31" s="152"/>
-      <c r="AO31" s="152"/>
-      <c r="AP31" s="152"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -13155,29 +13162,29 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="136"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="152"/>
-      <c r="M32" s="152"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="152"/>
-      <c r="U32" s="21"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="84"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -13195,10 +13202,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="152"/>
-      <c r="AN32" s="152"/>
-      <c r="AO32" s="152"/>
-      <c r="AP32" s="152"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
       <c r="AQ32" s="21"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -13281,28 +13288,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="136"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="152"/>
+      <c r="T33" s="126"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13321,10 +13328,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="152"/>
-      <c r="AN33" s="152"/>
-      <c r="AO33" s="152"/>
-      <c r="AP33" s="152"/>
+      <c r="AM33" s="126"/>
+      <c r="AN33" s="126"/>
+      <c r="AO33" s="126"/>
+      <c r="AP33" s="126"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13433,28 +13440,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="136"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="152"/>
-      <c r="M34" s="152"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="152"/>
+      <c r="T34" s="126"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13473,10 +13480,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="152"/>
-      <c r="AO34" s="152"/>
-      <c r="AP34" s="152"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="126"/>
+      <c r="AO34" s="126"/>
+      <c r="AP34" s="126"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13559,28 +13566,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="136"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
+      <c r="L35" s="126"/>
+      <c r="M35" s="126"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="152"/>
+      <c r="T35" s="126"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13599,10 +13606,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="152"/>
-      <c r="AN35" s="152"/>
-      <c r="AO35" s="152"/>
-      <c r="AP35" s="152"/>
+      <c r="AM35" s="126"/>
+      <c r="AN35" s="126"/>
+      <c r="AO35" s="126"/>
+      <c r="AP35" s="126"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13711,28 +13718,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="136"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="152"/>
-      <c r="M36" s="152"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="152"/>
+      <c r="T36" s="126"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13751,10 +13758,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="152"/>
-      <c r="AN36" s="152"/>
-      <c r="AO36" s="152"/>
-      <c r="AP36" s="152"/>
+      <c r="AM36" s="126"/>
+      <c r="AN36" s="126"/>
+      <c r="AO36" s="126"/>
+      <c r="AP36" s="126"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13837,28 +13844,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="136"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="145"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="152"/>
-      <c r="M37" s="152"/>
+      <c r="L37" s="126"/>
+      <c r="M37" s="126"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="152"/>
+      <c r="T37" s="126"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13877,10 +13884,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="152"/>
-      <c r="AN37" s="152"/>
-      <c r="AO37" s="152"/>
-      <c r="AP37" s="152"/>
+      <c r="AM37" s="126"/>
+      <c r="AN37" s="126"/>
+      <c r="AO37" s="126"/>
+      <c r="AP37" s="126"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13965,24 +13972,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="152"/>
-      <c r="M38" s="152"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="126"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="152"/>
+      <c r="T38" s="126"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14001,10 +14008,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="152"/>
-      <c r="AN38" s="152"/>
-      <c r="AO38" s="152"/>
-      <c r="AP38" s="152"/>
+      <c r="AM38" s="126"/>
+      <c r="AN38" s="126"/>
+      <c r="AO38" s="126"/>
+      <c r="AP38" s="126"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14087,30 +14094,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="131" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="152"/>
-      <c r="M39" s="152"/>
+      <c r="L39" s="126"/>
+      <c r="M39" s="126"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="152"/>
+      <c r="T39" s="126"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14129,10 +14136,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="152"/>
-      <c r="AN39" s="152"/>
-      <c r="AO39" s="152"/>
-      <c r="AP39" s="152"/>
+      <c r="AM39" s="126"/>
+      <c r="AN39" s="126"/>
+      <c r="AO39" s="126"/>
+      <c r="AP39" s="126"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
@@ -14241,28 +14248,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="136"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="152"/>
-      <c r="M40" s="152"/>
+      <c r="L40" s="126"/>
+      <c r="M40" s="126"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="152"/>
+      <c r="T40" s="126"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
@@ -14281,10 +14288,10 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
-      <c r="AM40" s="152"/>
-      <c r="AN40" s="152"/>
-      <c r="AO40" s="152"/>
-      <c r="AP40" s="152"/>
+      <c r="AM40" s="126"/>
+      <c r="AN40" s="126"/>
+      <c r="AO40" s="126"/>
+      <c r="AP40" s="126"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
@@ -14367,28 +14374,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="136"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="152"/>
-      <c r="M41" s="152"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="152"/>
+      <c r="T41" s="126"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14407,10 +14414,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
-      <c r="AM41" s="152"/>
-      <c r="AN41" s="152"/>
-      <c r="AO41" s="152"/>
-      <c r="AP41" s="152"/>
+      <c r="AM41" s="126"/>
+      <c r="AN41" s="126"/>
+      <c r="AO41" s="126"/>
+      <c r="AP41" s="126"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14519,28 +14526,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="136"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="152"/>
+      <c r="T42" s="126"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14559,10 +14566,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="152"/>
-      <c r="AN42" s="152"/>
-      <c r="AO42" s="152"/>
-      <c r="AP42" s="152"/>
+      <c r="AM42" s="126"/>
+      <c r="AN42" s="126"/>
+      <c r="AO42" s="126"/>
+      <c r="AP42" s="126"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14645,28 +14652,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="136"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="145"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="152"/>
-      <c r="M43" s="152"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="152"/>
+      <c r="T43" s="126"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14685,10 +14692,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="152"/>
-      <c r="AN43" s="152"/>
-      <c r="AO43" s="152"/>
-      <c r="AP43" s="152"/>
+      <c r="AM43" s="126"/>
+      <c r="AN43" s="126"/>
+      <c r="AO43" s="126"/>
+      <c r="AP43" s="126"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14799,24 +14806,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="152"/>
-      <c r="M44" s="152"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="152"/>
+      <c r="T44" s="126"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14835,10 +14842,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="152"/>
-      <c r="AN44" s="152"/>
-      <c r="AO44" s="152"/>
-      <c r="AP44" s="152"/>
+      <c r="AM44" s="126"/>
+      <c r="AN44" s="126"/>
+      <c r="AO44" s="126"/>
+      <c r="AP44" s="126"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14947,30 +14954,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="128" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="145"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="141"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="152"/>
-      <c r="M45" s="152"/>
+      <c r="L45" s="126"/>
+      <c r="M45" s="126"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="152"/>
+      <c r="T45" s="126"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14989,10 +14996,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="152"/>
-      <c r="AN45" s="152"/>
-      <c r="AO45" s="152"/>
-      <c r="AP45" s="152"/>
+      <c r="AM45" s="126"/>
+      <c r="AN45" s="126"/>
+      <c r="AO45" s="126"/>
+      <c r="AP45" s="126"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15075,28 +15082,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="134"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
+      <c r="L46" s="126"/>
+      <c r="M46" s="126"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="152"/>
+      <c r="T46" s="126"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15115,10 +15122,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="152"/>
-      <c r="AN46" s="152"/>
-      <c r="AO46" s="152"/>
-      <c r="AP46" s="152"/>
+      <c r="AM46" s="126"/>
+      <c r="AN46" s="126"/>
+      <c r="AO46" s="126"/>
+      <c r="AP46" s="126"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15201,28 +15208,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="134"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="152"/>
+      <c r="L47" s="126"/>
+      <c r="M47" s="126"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="152"/>
+      <c r="T47" s="126"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15241,10 +15248,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="152"/>
-      <c r="AN47" s="152"/>
-      <c r="AO47" s="152"/>
-      <c r="AP47" s="152"/>
+      <c r="AM47" s="126"/>
+      <c r="AN47" s="126"/>
+      <c r="AO47" s="126"/>
+      <c r="AP47" s="126"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15327,28 +15334,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="134"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="145"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="152"/>
+      <c r="T48" s="126"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15367,10 +15374,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="152"/>
-      <c r="AN48" s="152"/>
-      <c r="AO48" s="152"/>
-      <c r="AP48" s="152"/>
+      <c r="AM48" s="126"/>
+      <c r="AN48" s="126"/>
+      <c r="AO48" s="126"/>
+      <c r="AP48" s="126"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15453,28 +15460,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="134"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="152"/>
-      <c r="M49" s="152"/>
+      <c r="L49" s="126"/>
+      <c r="M49" s="126"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="152"/>
+      <c r="T49" s="126"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15493,10 +15500,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="152"/>
-      <c r="AN49" s="152"/>
-      <c r="AO49" s="152"/>
-      <c r="AP49" s="152"/>
+      <c r="AM49" s="126"/>
+      <c r="AN49" s="126"/>
+      <c r="AO49" s="126"/>
+      <c r="AP49" s="126"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15579,28 +15586,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="135"/>
+      <c r="A50" s="130"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="153"/>
-      <c r="M50" s="153"/>
+      <c r="L50" s="127"/>
+      <c r="M50" s="127"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="153"/>
+      <c r="T50" s="127"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15619,10 +15626,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="153"/>
-      <c r="AN50" s="153"/>
-      <c r="AO50" s="153"/>
-      <c r="AP50" s="153"/>
+      <c r="AM50" s="127"/>
+      <c r="AN50" s="127"/>
+      <c r="AO50" s="127"/>
+      <c r="AP50" s="127"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15727,12 +15734,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15749,24 +15768,12 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D1A202-2A21-46F2-A861-B5407C986403}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8248C-AD86-4CFF-BE06-6C1290913D3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +904,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,7 +1155,43 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,34 +1211,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,45 +1271,32 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -2024,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91B9F9-D074-428F-98DE-3CB6D1C2B3BA}">
   <dimension ref="A1:ER56"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AX23" sqref="AX23"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23:AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2045,284 +2038,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="112" t="s">
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="112" t="s">
+      <c r="U3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="112" t="s">
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="125"/>
+      <c r="AS3" s="125"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="113"/>
-      <c r="BG3" s="113"/>
-      <c r="BH3" s="113"/>
-      <c r="BI3" s="113"/>
-      <c r="BJ3" s="113"/>
-      <c r="BK3" s="113"/>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="113"/>
-      <c r="BN3" s="113"/>
-      <c r="BO3" s="113"/>
-      <c r="BP3" s="113"/>
-      <c r="BQ3" s="113"/>
-      <c r="BR3" s="113"/>
-      <c r="BS3" s="113"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="112" t="s">
+      <c r="AV3" s="125"/>
+      <c r="AW3" s="125"/>
+      <c r="AX3" s="125"/>
+      <c r="AY3" s="125"/>
+      <c r="AZ3" s="125"/>
+      <c r="BA3" s="125"/>
+      <c r="BB3" s="125"/>
+      <c r="BC3" s="125"/>
+      <c r="BD3" s="125"/>
+      <c r="BE3" s="125"/>
+      <c r="BF3" s="125"/>
+      <c r="BG3" s="125"/>
+      <c r="BH3" s="125"/>
+      <c r="BI3" s="125"/>
+      <c r="BJ3" s="125"/>
+      <c r="BK3" s="125"/>
+      <c r="BL3" s="125"/>
+      <c r="BM3" s="125"/>
+      <c r="BN3" s="125"/>
+      <c r="BO3" s="125"/>
+      <c r="BP3" s="125"/>
+      <c r="BQ3" s="125"/>
+      <c r="BR3" s="125"/>
+      <c r="BS3" s="125"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="113"/>
-      <c r="BW3" s="113"/>
-      <c r="BX3" s="113"/>
-      <c r="BY3" s="113"/>
-      <c r="BZ3" s="113"/>
-      <c r="CA3" s="113"/>
-      <c r="CB3" s="113"/>
-      <c r="CC3" s="113"/>
-      <c r="CD3" s="113"/>
-      <c r="CE3" s="113"/>
-      <c r="CF3" s="113"/>
-      <c r="CG3" s="113"/>
-      <c r="CH3" s="113"/>
-      <c r="CI3" s="113"/>
-      <c r="CJ3" s="113"/>
-      <c r="CK3" s="113"/>
-      <c r="CL3" s="113"/>
-      <c r="CM3" s="113"/>
-      <c r="CN3" s="113"/>
-      <c r="CO3" s="113"/>
-      <c r="CP3" s="113"/>
-      <c r="CQ3" s="113"/>
-      <c r="CR3" s="113"/>
-      <c r="CS3" s="113"/>
-      <c r="CT3" s="114"/>
-      <c r="CU3" s="112" t="s">
+      <c r="BV3" s="125"/>
+      <c r="BW3" s="125"/>
+      <c r="BX3" s="125"/>
+      <c r="BY3" s="125"/>
+      <c r="BZ3" s="125"/>
+      <c r="CA3" s="125"/>
+      <c r="CB3" s="125"/>
+      <c r="CC3" s="125"/>
+      <c r="CD3" s="125"/>
+      <c r="CE3" s="125"/>
+      <c r="CF3" s="125"/>
+      <c r="CG3" s="125"/>
+      <c r="CH3" s="125"/>
+      <c r="CI3" s="125"/>
+      <c r="CJ3" s="125"/>
+      <c r="CK3" s="125"/>
+      <c r="CL3" s="125"/>
+      <c r="CM3" s="125"/>
+      <c r="CN3" s="125"/>
+      <c r="CO3" s="125"/>
+      <c r="CP3" s="125"/>
+      <c r="CQ3" s="125"/>
+      <c r="CR3" s="125"/>
+      <c r="CS3" s="125"/>
+      <c r="CT3" s="126"/>
+      <c r="CU3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="113"/>
-      <c r="CW3" s="113"/>
-      <c r="CX3" s="113"/>
-      <c r="CY3" s="113"/>
-      <c r="CZ3" s="113"/>
-      <c r="DA3" s="113"/>
-      <c r="DB3" s="113"/>
-      <c r="DC3" s="113"/>
-      <c r="DD3" s="113"/>
-      <c r="DE3" s="113"/>
-      <c r="DF3" s="113"/>
-      <c r="DG3" s="113"/>
-      <c r="DH3" s="113"/>
-      <c r="DI3" s="113"/>
-      <c r="DJ3" s="113"/>
-      <c r="DK3" s="113"/>
-      <c r="DL3" s="113"/>
-      <c r="DM3" s="113"/>
-      <c r="DN3" s="113"/>
-      <c r="DO3" s="113"/>
-      <c r="DP3" s="113"/>
-      <c r="DQ3" s="113"/>
-      <c r="DR3" s="113"/>
-      <c r="DS3" s="114"/>
+      <c r="CV3" s="125"/>
+      <c r="CW3" s="125"/>
+      <c r="CX3" s="125"/>
+      <c r="CY3" s="125"/>
+      <c r="CZ3" s="125"/>
+      <c r="DA3" s="125"/>
+      <c r="DB3" s="125"/>
+      <c r="DC3" s="125"/>
+      <c r="DD3" s="125"/>
+      <c r="DE3" s="125"/>
+      <c r="DF3" s="125"/>
+      <c r="DG3" s="125"/>
+      <c r="DH3" s="125"/>
+      <c r="DI3" s="125"/>
+      <c r="DJ3" s="125"/>
+      <c r="DK3" s="125"/>
+      <c r="DL3" s="125"/>
+      <c r="DM3" s="125"/>
+      <c r="DN3" s="125"/>
+      <c r="DO3" s="125"/>
+      <c r="DP3" s="125"/>
+      <c r="DQ3" s="125"/>
+      <c r="DR3" s="125"/>
+      <c r="DS3" s="126"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="116"/>
-      <c r="BS4" s="116"/>
-      <c r="BT4" s="117"/>
-      <c r="BU4" s="115"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="116"/>
-      <c r="BY4" s="116"/>
-      <c r="BZ4" s="116"/>
-      <c r="CA4" s="116"/>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
-      <c r="CF4" s="116"/>
-      <c r="CG4" s="116"/>
-      <c r="CH4" s="116"/>
-      <c r="CI4" s="116"/>
-      <c r="CJ4" s="116"/>
-      <c r="CK4" s="116"/>
-      <c r="CL4" s="116"/>
-      <c r="CM4" s="116"/>
-      <c r="CN4" s="116"/>
-      <c r="CO4" s="116"/>
-      <c r="CP4" s="116"/>
-      <c r="CQ4" s="116"/>
-      <c r="CR4" s="116"/>
-      <c r="CS4" s="116"/>
-      <c r="CT4" s="117"/>
-      <c r="CU4" s="115"/>
-      <c r="CV4" s="116"/>
-      <c r="CW4" s="116"/>
-      <c r="CX4" s="116"/>
-      <c r="CY4" s="116"/>
-      <c r="CZ4" s="116"/>
-      <c r="DA4" s="116"/>
-      <c r="DB4" s="116"/>
-      <c r="DC4" s="116"/>
-      <c r="DD4" s="116"/>
-      <c r="DE4" s="116"/>
-      <c r="DF4" s="116"/>
-      <c r="DG4" s="116"/>
-      <c r="DH4" s="116"/>
-      <c r="DI4" s="116"/>
-      <c r="DJ4" s="116"/>
-      <c r="DK4" s="116"/>
-      <c r="DL4" s="116"/>
-      <c r="DM4" s="116"/>
-      <c r="DN4" s="116"/>
-      <c r="DO4" s="116"/>
-      <c r="DP4" s="116"/>
-      <c r="DQ4" s="116"/>
-      <c r="DR4" s="116"/>
-      <c r="DS4" s="117"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="128"/>
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="129"/>
+      <c r="BU4" s="127"/>
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="128"/>
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="128"/>
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="129"/>
+      <c r="CU4" s="127"/>
+      <c r="CV4" s="128"/>
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="128"/>
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="128"/>
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="128"/>
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="128"/>
+      <c r="DK4" s="128"/>
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="128"/>
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="128"/>
+      <c r="DQ4" s="128"/>
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="129"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2331,18 +2324,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="155" t="s">
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="156"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2351,7 +2344,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="120" t="s">
+      <c r="T5" s="155" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2474,10 +2467,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2486,7 +2479,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="121"/>
+      <c r="T6" s="156"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2617,10 +2610,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="138" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2634,157 +2627,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="122" t="s">
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="115"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="122" t="s">
+      <c r="U7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="123" t="s">
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="147" t="s">
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="122" t="s">
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="122" t="s">
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
-      <c r="AX7" s="123"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="123"/>
-      <c r="BA7" s="123"/>
-      <c r="BB7" s="123"/>
-      <c r="BC7" s="124"/>
-      <c r="BD7" s="122" t="s">
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="123"/>
-      <c r="BF7" s="123"/>
-      <c r="BG7" s="123"/>
-      <c r="BH7" s="123"/>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="123"/>
-      <c r="BK7" s="123"/>
-      <c r="BL7" s="124"/>
-      <c r="BM7" s="122" t="s">
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="114"/>
+      <c r="BK7" s="114"/>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="123"/>
-      <c r="BO7" s="123"/>
-      <c r="BP7" s="123"/>
-      <c r="BQ7" s="122" t="s">
+      <c r="BN7" s="114"/>
+      <c r="BO7" s="114"/>
+      <c r="BP7" s="114"/>
+      <c r="BQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="123"/>
-      <c r="BS7" s="123"/>
-      <c r="BT7" s="124"/>
-      <c r="BU7" s="122" t="s">
+      <c r="BR7" s="114"/>
+      <c r="BS7" s="114"/>
+      <c r="BT7" s="115"/>
+      <c r="BU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="123"/>
-      <c r="BW7" s="123"/>
-      <c r="BX7" s="123"/>
-      <c r="BY7" s="123"/>
-      <c r="BZ7" s="123"/>
-      <c r="CA7" s="123"/>
-      <c r="CB7" s="123"/>
-      <c r="CC7" s="124"/>
-      <c r="CD7" s="122" t="s">
+      <c r="BV7" s="114"/>
+      <c r="BW7" s="114"/>
+      <c r="BX7" s="114"/>
+      <c r="BY7" s="114"/>
+      <c r="BZ7" s="114"/>
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="114"/>
+      <c r="CC7" s="115"/>
+      <c r="CD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="123"/>
-      <c r="CF7" s="123"/>
-      <c r="CG7" s="123"/>
-      <c r="CH7" s="123"/>
-      <c r="CI7" s="123"/>
-      <c r="CJ7" s="123"/>
-      <c r="CK7" s="123"/>
-      <c r="CL7" s="124"/>
-      <c r="CM7" s="122" t="s">
+      <c r="CE7" s="114"/>
+      <c r="CF7" s="114"/>
+      <c r="CG7" s="114"/>
+      <c r="CH7" s="114"/>
+      <c r="CI7" s="114"/>
+      <c r="CJ7" s="114"/>
+      <c r="CK7" s="114"/>
+      <c r="CL7" s="115"/>
+      <c r="CM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="123"/>
-      <c r="CO7" s="123"/>
-      <c r="CP7" s="123"/>
-      <c r="CQ7" s="122" t="s">
+      <c r="CN7" s="114"/>
+      <c r="CO7" s="114"/>
+      <c r="CP7" s="114"/>
+      <c r="CQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="123"/>
-      <c r="CS7" s="123"/>
-      <c r="CT7" s="124"/>
-      <c r="CU7" s="122" t="s">
+      <c r="CR7" s="114"/>
+      <c r="CS7" s="114"/>
+      <c r="CT7" s="115"/>
+      <c r="CU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="123"/>
-      <c r="CW7" s="123"/>
-      <c r="CX7" s="123"/>
-      <c r="CY7" s="123"/>
-      <c r="CZ7" s="123"/>
-      <c r="DA7" s="123"/>
-      <c r="DB7" s="123"/>
-      <c r="DC7" s="124"/>
-      <c r="DD7" s="122" t="s">
+      <c r="CV7" s="114"/>
+      <c r="CW7" s="114"/>
+      <c r="CX7" s="114"/>
+      <c r="CY7" s="114"/>
+      <c r="CZ7" s="114"/>
+      <c r="DA7" s="114"/>
+      <c r="DB7" s="114"/>
+      <c r="DC7" s="115"/>
+      <c r="DD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="123"/>
-      <c r="DF7" s="123"/>
-      <c r="DG7" s="123"/>
-      <c r="DH7" s="123"/>
-      <c r="DI7" s="123"/>
-      <c r="DJ7" s="123"/>
-      <c r="DK7" s="123"/>
-      <c r="DL7" s="124"/>
-      <c r="DM7" s="122" t="s">
+      <c r="DE7" s="114"/>
+      <c r="DF7" s="114"/>
+      <c r="DG7" s="114"/>
+      <c r="DH7" s="114"/>
+      <c r="DI7" s="114"/>
+      <c r="DJ7" s="114"/>
+      <c r="DK7" s="114"/>
+      <c r="DL7" s="115"/>
+      <c r="DM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="123"/>
-      <c r="DO7" s="123"/>
-      <c r="DP7" s="123"/>
-      <c r="DQ7" s="122" t="s">
+      <c r="DN7" s="114"/>
+      <c r="DO7" s="114"/>
+      <c r="DP7" s="114"/>
+      <c r="DQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="124"/>
+      <c r="DR7" s="115"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="133"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="137"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2907,8 +2900,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="136"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2936,10 +2929,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="150">
         <v>5</v>
       </c>
-      <c r="M9" s="125"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2958,7 +2951,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="125"/>
+      <c r="T9" s="150"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3013,10 +3006,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="125"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="150"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3291,24 +3284,24 @@
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="143"/>
       <c r="H10" s="103"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="126"/>
+      <c r="T10" s="151"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3327,10 +3320,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="126"/>
-      <c r="AO10" s="126"/>
-      <c r="AP10" s="126"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3443,24 +3436,24 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="142"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="102"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="126"/>
+      <c r="T11" s="151"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -3479,10 +3472,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="126"/>
-      <c r="AN11" s="126"/>
-      <c r="AO11" s="126"/>
-      <c r="AP11" s="126"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -3595,24 +3588,24 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="142"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="103"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="126"/>
+      <c r="T12" s="151"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3631,10 +3624,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="126"/>
-      <c r="AO12" s="126"/>
-      <c r="AP12" s="126"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3721,24 +3714,24 @@
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="142"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="104"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="126"/>
+      <c r="T13" s="151"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3757,10 +3750,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="126"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="126"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3873,24 +3866,24 @@
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="142"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="104"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="126"/>
+      <c r="T14" s="151"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3909,10 +3902,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="126"/>
-      <c r="AP14" s="126"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4025,24 +4018,24 @@
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="142"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="104"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="126"/>
+      <c r="T15" s="151"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4061,10 +4054,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="126"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="126"/>
-      <c r="AP15" s="126"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="151"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4177,24 +4170,24 @@
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="142"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="146"/>
       <c r="H16" s="104"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="126"/>
+      <c r="T16" s="151"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4213,10 +4206,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4329,24 +4322,24 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="142"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="146"/>
       <c r="H17" s="104"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="126"/>
+      <c r="T17" s="151"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4365,10 +4358,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="126"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="126"/>
-      <c r="AP17" s="126"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4455,24 +4448,24 @@
       <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146"/>
       <c r="H18" s="104"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="126"/>
+      <c r="T18" s="151"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4491,10 +4484,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="126"/>
-      <c r="AN18" s="126"/>
-      <c r="AO18" s="126"/>
-      <c r="AP18" s="126"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4579,24 +4572,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="142"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="146"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="126"/>
+      <c r="T19" s="151"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4615,10 +4608,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="126"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4701,30 +4694,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="135" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="146"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="126"/>
+      <c r="T20" s="151"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4743,10 +4736,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="126"/>
-      <c r="AN20" s="126"/>
-      <c r="AO20" s="126"/>
-      <c r="AP20" s="126"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="151"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4829,28 +4822,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="131"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="142"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="146"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="126"/>
+      <c r="T21" s="151"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="55"/>
@@ -4869,10 +4862,10 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="126"/>
-      <c r="AN21" s="126"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="151"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -4955,28 +4948,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="131"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="142"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="146"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="126"/>
+      <c r="T22" s="151"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4995,10 +4988,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="126"/>
-      <c r="AN22" s="126"/>
-      <c r="AO22" s="126"/>
-      <c r="AP22" s="126"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5081,28 +5074,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="131"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="142"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="146"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="126"/>
+      <c r="T23" s="151"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5121,10 +5114,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="126"/>
-      <c r="AN23" s="126"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5233,28 +5226,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="131"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="142"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="146"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="126"/>
+      <c r="T24" s="151"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5273,10 +5266,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="126"/>
-      <c r="AN24" s="126"/>
-      <c r="AO24" s="126"/>
-      <c r="AP24" s="126"/>
+      <c r="AM24" s="151"/>
+      <c r="AN24" s="151"/>
+      <c r="AO24" s="151"/>
+      <c r="AP24" s="151"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5385,28 +5378,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="131"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="146"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="126"/>
+      <c r="T25" s="151"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5425,10 +5418,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="126"/>
-      <c r="AN25" s="126"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="126"/>
+      <c r="AM25" s="151"/>
+      <c r="AN25" s="151"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5537,28 +5530,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="131"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="142"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="126"/>
+      <c r="T26" s="151"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5577,10 +5570,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="126"/>
-      <c r="AN26" s="126"/>
-      <c r="AO26" s="126"/>
-      <c r="AP26" s="126"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="151"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5689,28 +5682,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="131"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="146"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="126"/>
+      <c r="T27" s="151"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5729,10 +5722,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="126"/>
-      <c r="AN27" s="126"/>
-      <c r="AO27" s="126"/>
-      <c r="AP27" s="126"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5815,28 +5808,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="131"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="142"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="126"/>
+      <c r="T28" s="151"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5855,10 +5848,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="126"/>
-      <c r="AN28" s="126"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5941,28 +5934,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="131"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="142"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="126"/>
+      <c r="T29" s="151"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5981,10 +5974,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="126"/>
-      <c r="AN29" s="126"/>
-      <c r="AO29" s="126"/>
-      <c r="AP29" s="126"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="151"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6067,28 +6060,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="131"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="142"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="126"/>
+      <c r="T30" s="151"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6107,10 +6100,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="126"/>
-      <c r="AN30" s="126"/>
-      <c r="AO30" s="126"/>
-      <c r="AP30" s="126"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6219,28 +6212,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="131"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="142"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="126"/>
+      <c r="T31" s="151"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6259,10 +6252,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="126"/>
-      <c r="AN31" s="126"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6345,28 +6338,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="131"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="142"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="146"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="126"/>
+      <c r="T32" s="151"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6385,10 +6378,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="126"/>
-      <c r="AN32" s="126"/>
-      <c r="AO32" s="126"/>
-      <c r="AP32" s="126"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6497,28 +6490,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="131"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="126"/>
+      <c r="T33" s="151"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6537,10 +6530,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="126"/>
-      <c r="AN33" s="126"/>
-      <c r="AO33" s="126"/>
-      <c r="AP33" s="126"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="151"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6623,28 +6616,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="131"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="142"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="146"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="126"/>
+      <c r="T34" s="151"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6663,10 +6656,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="126"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="126"/>
-      <c r="AP34" s="126"/>
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6775,28 +6768,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="131"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="142"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="126"/>
+      <c r="T35" s="151"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6815,10 +6808,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="126"/>
-      <c r="AN35" s="126"/>
-      <c r="AO35" s="126"/>
-      <c r="AP35" s="126"/>
+      <c r="AM35" s="151"/>
+      <c r="AN35" s="151"/>
+      <c r="AO35" s="151"/>
+      <c r="AP35" s="151"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6901,28 +6894,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="131"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="146"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="126"/>
+      <c r="T36" s="151"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6941,10 +6934,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="126"/>
-      <c r="AN36" s="126"/>
-      <c r="AO36" s="126"/>
-      <c r="AP36" s="126"/>
+      <c r="AM36" s="151"/>
+      <c r="AN36" s="151"/>
+      <c r="AO36" s="151"/>
+      <c r="AP36" s="151"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7029,24 +7022,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="142"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="146"/>
       <c r="H37" s="105"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="126"/>
+      <c r="T37" s="151"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7065,10 +7058,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="126"/>
-      <c r="AN37" s="126"/>
-      <c r="AO37" s="126"/>
-      <c r="AP37" s="126"/>
+      <c r="AM37" s="151"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7151,30 +7144,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="131" t="s">
+      <c r="A38" s="135" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="142"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="146"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="126"/>
+      <c r="T38" s="151"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7193,10 +7186,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="126"/>
-      <c r="AN38" s="126"/>
-      <c r="AO38" s="126"/>
-      <c r="AP38" s="126"/>
+      <c r="AM38" s="151"/>
+      <c r="AN38" s="151"/>
+      <c r="AO38" s="151"/>
+      <c r="AP38" s="151"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7305,28 +7298,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="131"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="142"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="146"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="126"/>
+      <c r="T39" s="151"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7345,10 +7338,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="126"/>
-      <c r="AN39" s="126"/>
-      <c r="AO39" s="126"/>
-      <c r="AP39" s="126"/>
+      <c r="AM39" s="151"/>
+      <c r="AN39" s="151"/>
+      <c r="AO39" s="151"/>
+      <c r="AP39" s="151"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7431,28 +7424,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="131"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="142"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="146"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="126"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="126"/>
+      <c r="T40" s="151"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7471,10 +7464,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="126"/>
-      <c r="AN40" s="126"/>
-      <c r="AO40" s="126"/>
-      <c r="AP40" s="126"/>
+      <c r="AM40" s="151"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7583,28 +7576,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="131"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="142"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="146"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="126"/>
+      <c r="T41" s="151"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7623,10 +7616,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="126"/>
-      <c r="AN41" s="126"/>
-      <c r="AO41" s="126"/>
-      <c r="AP41" s="126"/>
+      <c r="AM41" s="151"/>
+      <c r="AN41" s="151"/>
+      <c r="AO41" s="151"/>
+      <c r="AP41" s="151"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7709,28 +7702,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="131"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="142"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="146"/>
       <c r="H42" s="106"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="126"/>
+      <c r="T42" s="151"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7749,10 +7742,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="126"/>
-      <c r="AN42" s="126"/>
-      <c r="AO42" s="126"/>
-      <c r="AP42" s="126"/>
+      <c r="AM42" s="151"/>
+      <c r="AN42" s="151"/>
+      <c r="AO42" s="151"/>
+      <c r="AP42" s="151"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7863,24 +7856,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="99"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="142"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="146"/>
       <c r="H43" s="105"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="126"/>
+      <c r="T43" s="151"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7899,10 +7892,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="126"/>
-      <c r="AN43" s="126"/>
-      <c r="AO43" s="126"/>
-      <c r="AP43" s="126"/>
+      <c r="AM43" s="151"/>
+      <c r="AN43" s="151"/>
+      <c r="AO43" s="151"/>
+      <c r="AP43" s="151"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8011,30 +8004,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="132" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="142"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="146"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="126"/>
+      <c r="T44" s="151"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8053,10 +8046,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="126"/>
-      <c r="AN44" s="126"/>
-      <c r="AO44" s="126"/>
-      <c r="AP44" s="126"/>
+      <c r="AM44" s="151"/>
+      <c r="AN44" s="151"/>
+      <c r="AO44" s="151"/>
+      <c r="AP44" s="151"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8139,28 +8132,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="129"/>
+      <c r="A45" s="133"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="142"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="146"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="126"/>
+      <c r="T45" s="151"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8179,10 +8172,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="126"/>
-      <c r="AN45" s="126"/>
-      <c r="AO45" s="126"/>
-      <c r="AP45" s="126"/>
+      <c r="AM45" s="151"/>
+      <c r="AN45" s="151"/>
+      <c r="AO45" s="151"/>
+      <c r="AP45" s="151"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8265,28 +8258,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="129"/>
+      <c r="A46" s="133"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="142"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="146"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="126"/>
+      <c r="T46" s="151"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8305,10 +8298,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="126"/>
-      <c r="AN46" s="126"/>
-      <c r="AO46" s="126"/>
-      <c r="AP46" s="126"/>
+      <c r="AM46" s="151"/>
+      <c r="AN46" s="151"/>
+      <c r="AO46" s="151"/>
+      <c r="AP46" s="151"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8391,28 +8384,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="129"/>
+      <c r="A47" s="133"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="142"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="146"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="126"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="126"/>
+      <c r="T47" s="151"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8431,10 +8424,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="126"/>
-      <c r="AN47" s="126"/>
-      <c r="AO47" s="126"/>
-      <c r="AP47" s="126"/>
+      <c r="AM47" s="151"/>
+      <c r="AN47" s="151"/>
+      <c r="AO47" s="151"/>
+      <c r="AP47" s="151"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8517,28 +8510,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="129"/>
+      <c r="A48" s="133"/>
       <c r="B48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="146"/>
       <c r="H48" s="107"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="126"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="126"/>
+      <c r="T48" s="151"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8557,10 +8550,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="126"/>
-      <c r="AN48" s="126"/>
-      <c r="AO48" s="126"/>
-      <c r="AP48" s="126"/>
+      <c r="AM48" s="151"/>
+      <c r="AN48" s="151"/>
+      <c r="AO48" s="151"/>
+      <c r="AP48" s="151"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8642,28 +8635,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="130"/>
+      <c r="A49" s="134"/>
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="145"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="149"/>
       <c r="H49" s="106"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
+      <c r="L49" s="152"/>
+      <c r="M49" s="152"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="127"/>
+      <c r="T49" s="152"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8682,10 +8675,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="127"/>
-      <c r="AN49" s="127"/>
-      <c r="AO49" s="127"/>
-      <c r="AP49" s="127"/>
+      <c r="AM49" s="152"/>
+      <c r="AN49" s="152"/>
+      <c r="AO49" s="152"/>
+      <c r="AP49" s="152"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8790,25 +8783,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8824,12 +8804,25 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8842,7 +8835,7 @@
   <dimension ref="A1:ER57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="AQ32" sqref="AQ32:AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8862,284 +8855,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="149" t="s">
+      <c r="D3" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="112" t="s">
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="118" t="s">
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="112" t="s">
+      <c r="U3" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
-      <c r="X3" s="113"/>
-      <c r="Y3" s="113"/>
-      <c r="Z3" s="113"/>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="113"/>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="113"/>
-      <c r="AJ3" s="113"/>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113"/>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="112" t="s">
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="125"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="125"/>
+      <c r="AS3" s="125"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="113"/>
-      <c r="BF3" s="113"/>
-      <c r="BG3" s="113"/>
-      <c r="BH3" s="113"/>
-      <c r="BI3" s="113"/>
-      <c r="BJ3" s="113"/>
-      <c r="BK3" s="113"/>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="113"/>
-      <c r="BN3" s="113"/>
-      <c r="BO3" s="113"/>
-      <c r="BP3" s="113"/>
-      <c r="BQ3" s="113"/>
-      <c r="BR3" s="113"/>
-      <c r="BS3" s="113"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="112" t="s">
+      <c r="AV3" s="125"/>
+      <c r="AW3" s="125"/>
+      <c r="AX3" s="125"/>
+      <c r="AY3" s="125"/>
+      <c r="AZ3" s="125"/>
+      <c r="BA3" s="125"/>
+      <c r="BB3" s="125"/>
+      <c r="BC3" s="125"/>
+      <c r="BD3" s="125"/>
+      <c r="BE3" s="125"/>
+      <c r="BF3" s="125"/>
+      <c r="BG3" s="125"/>
+      <c r="BH3" s="125"/>
+      <c r="BI3" s="125"/>
+      <c r="BJ3" s="125"/>
+      <c r="BK3" s="125"/>
+      <c r="BL3" s="125"/>
+      <c r="BM3" s="125"/>
+      <c r="BN3" s="125"/>
+      <c r="BO3" s="125"/>
+      <c r="BP3" s="125"/>
+      <c r="BQ3" s="125"/>
+      <c r="BR3" s="125"/>
+      <c r="BS3" s="125"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="113"/>
-      <c r="BW3" s="113"/>
-      <c r="BX3" s="113"/>
-      <c r="BY3" s="113"/>
-      <c r="BZ3" s="113"/>
-      <c r="CA3" s="113"/>
-      <c r="CB3" s="113"/>
-      <c r="CC3" s="113"/>
-      <c r="CD3" s="113"/>
-      <c r="CE3" s="113"/>
-      <c r="CF3" s="113"/>
-      <c r="CG3" s="113"/>
-      <c r="CH3" s="113"/>
-      <c r="CI3" s="113"/>
-      <c r="CJ3" s="113"/>
-      <c r="CK3" s="113"/>
-      <c r="CL3" s="113"/>
-      <c r="CM3" s="113"/>
-      <c r="CN3" s="113"/>
-      <c r="CO3" s="113"/>
-      <c r="CP3" s="113"/>
-      <c r="CQ3" s="113"/>
-      <c r="CR3" s="113"/>
-      <c r="CS3" s="113"/>
-      <c r="CT3" s="114"/>
-      <c r="CU3" s="112" t="s">
+      <c r="BV3" s="125"/>
+      <c r="BW3" s="125"/>
+      <c r="BX3" s="125"/>
+      <c r="BY3" s="125"/>
+      <c r="BZ3" s="125"/>
+      <c r="CA3" s="125"/>
+      <c r="CB3" s="125"/>
+      <c r="CC3" s="125"/>
+      <c r="CD3" s="125"/>
+      <c r="CE3" s="125"/>
+      <c r="CF3" s="125"/>
+      <c r="CG3" s="125"/>
+      <c r="CH3" s="125"/>
+      <c r="CI3" s="125"/>
+      <c r="CJ3" s="125"/>
+      <c r="CK3" s="125"/>
+      <c r="CL3" s="125"/>
+      <c r="CM3" s="125"/>
+      <c r="CN3" s="125"/>
+      <c r="CO3" s="125"/>
+      <c r="CP3" s="125"/>
+      <c r="CQ3" s="125"/>
+      <c r="CR3" s="125"/>
+      <c r="CS3" s="125"/>
+      <c r="CT3" s="126"/>
+      <c r="CU3" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="113"/>
-      <c r="CW3" s="113"/>
-      <c r="CX3" s="113"/>
-      <c r="CY3" s="113"/>
-      <c r="CZ3" s="113"/>
-      <c r="DA3" s="113"/>
-      <c r="DB3" s="113"/>
-      <c r="DC3" s="113"/>
-      <c r="DD3" s="113"/>
-      <c r="DE3" s="113"/>
-      <c r="DF3" s="113"/>
-      <c r="DG3" s="113"/>
-      <c r="DH3" s="113"/>
-      <c r="DI3" s="113"/>
-      <c r="DJ3" s="113"/>
-      <c r="DK3" s="113"/>
-      <c r="DL3" s="113"/>
-      <c r="DM3" s="113"/>
-      <c r="DN3" s="113"/>
-      <c r="DO3" s="113"/>
-      <c r="DP3" s="113"/>
-      <c r="DQ3" s="113"/>
-      <c r="DR3" s="113"/>
-      <c r="DS3" s="114"/>
+      <c r="CV3" s="125"/>
+      <c r="CW3" s="125"/>
+      <c r="CX3" s="125"/>
+      <c r="CY3" s="125"/>
+      <c r="CZ3" s="125"/>
+      <c r="DA3" s="125"/>
+      <c r="DB3" s="125"/>
+      <c r="DC3" s="125"/>
+      <c r="DD3" s="125"/>
+      <c r="DE3" s="125"/>
+      <c r="DF3" s="125"/>
+      <c r="DG3" s="125"/>
+      <c r="DH3" s="125"/>
+      <c r="DI3" s="125"/>
+      <c r="DJ3" s="125"/>
+      <c r="DK3" s="125"/>
+      <c r="DL3" s="125"/>
+      <c r="DM3" s="125"/>
+      <c r="DN3" s="125"/>
+      <c r="DO3" s="125"/>
+      <c r="DP3" s="125"/>
+      <c r="DQ3" s="125"/>
+      <c r="DR3" s="125"/>
+      <c r="DS3" s="126"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="149" t="s">
+      <c r="D4" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="117"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
-      <c r="AG4" s="116"/>
-      <c r="AH4" s="116"/>
-      <c r="AI4" s="116"/>
-      <c r="AJ4" s="116"/>
-      <c r="AK4" s="116"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="116"/>
-      <c r="AO4" s="116"/>
-      <c r="AP4" s="116"/>
-      <c r="AQ4" s="116"/>
-      <c r="AR4" s="116"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="117"/>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="116"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="116"/>
-      <c r="AY4" s="116"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="116"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="116"/>
-      <c r="BD4" s="116"/>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="116"/>
-      <c r="BK4" s="116"/>
-      <c r="BL4" s="116"/>
-      <c r="BM4" s="116"/>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="116"/>
-      <c r="BS4" s="116"/>
-      <c r="BT4" s="117"/>
-      <c r="BU4" s="115"/>
-      <c r="BV4" s="116"/>
-      <c r="BW4" s="116"/>
-      <c r="BX4" s="116"/>
-      <c r="BY4" s="116"/>
-      <c r="BZ4" s="116"/>
-      <c r="CA4" s="116"/>
-      <c r="CB4" s="116"/>
-      <c r="CC4" s="116"/>
-      <c r="CD4" s="116"/>
-      <c r="CE4" s="116"/>
-      <c r="CF4" s="116"/>
-      <c r="CG4" s="116"/>
-      <c r="CH4" s="116"/>
-      <c r="CI4" s="116"/>
-      <c r="CJ4" s="116"/>
-      <c r="CK4" s="116"/>
-      <c r="CL4" s="116"/>
-      <c r="CM4" s="116"/>
-      <c r="CN4" s="116"/>
-      <c r="CO4" s="116"/>
-      <c r="CP4" s="116"/>
-      <c r="CQ4" s="116"/>
-      <c r="CR4" s="116"/>
-      <c r="CS4" s="116"/>
-      <c r="CT4" s="117"/>
-      <c r="CU4" s="115"/>
-      <c r="CV4" s="116"/>
-      <c r="CW4" s="116"/>
-      <c r="CX4" s="116"/>
-      <c r="CY4" s="116"/>
-      <c r="CZ4" s="116"/>
-      <c r="DA4" s="116"/>
-      <c r="DB4" s="116"/>
-      <c r="DC4" s="116"/>
-      <c r="DD4" s="116"/>
-      <c r="DE4" s="116"/>
-      <c r="DF4" s="116"/>
-      <c r="DG4" s="116"/>
-      <c r="DH4" s="116"/>
-      <c r="DI4" s="116"/>
-      <c r="DJ4" s="116"/>
-      <c r="DK4" s="116"/>
-      <c r="DL4" s="116"/>
-      <c r="DM4" s="116"/>
-      <c r="DN4" s="116"/>
-      <c r="DO4" s="116"/>
-      <c r="DP4" s="116"/>
-      <c r="DQ4" s="116"/>
-      <c r="DR4" s="116"/>
-      <c r="DS4" s="117"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="128"/>
+      <c r="W4" s="128"/>
+      <c r="X4" s="128"/>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="128"/>
+      <c r="AD4" s="128"/>
+      <c r="AE4" s="128"/>
+      <c r="AF4" s="128"/>
+      <c r="AG4" s="128"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="128"/>
+      <c r="AJ4" s="128"/>
+      <c r="AK4" s="128"/>
+      <c r="AL4" s="128"/>
+      <c r="AM4" s="128"/>
+      <c r="AN4" s="128"/>
+      <c r="AO4" s="128"/>
+      <c r="AP4" s="128"/>
+      <c r="AQ4" s="128"/>
+      <c r="AR4" s="128"/>
+      <c r="AS4" s="128"/>
+      <c r="AT4" s="129"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="128"/>
+      <c r="AW4" s="128"/>
+      <c r="AX4" s="128"/>
+      <c r="AY4" s="128"/>
+      <c r="AZ4" s="128"/>
+      <c r="BA4" s="128"/>
+      <c r="BB4" s="128"/>
+      <c r="BC4" s="128"/>
+      <c r="BD4" s="128"/>
+      <c r="BE4" s="128"/>
+      <c r="BF4" s="128"/>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="128"/>
+      <c r="BJ4" s="128"/>
+      <c r="BK4" s="128"/>
+      <c r="BL4" s="128"/>
+      <c r="BM4" s="128"/>
+      <c r="BN4" s="128"/>
+      <c r="BO4" s="128"/>
+      <c r="BP4" s="128"/>
+      <c r="BQ4" s="128"/>
+      <c r="BR4" s="128"/>
+      <c r="BS4" s="128"/>
+      <c r="BT4" s="129"/>
+      <c r="BU4" s="127"/>
+      <c r="BV4" s="128"/>
+      <c r="BW4" s="128"/>
+      <c r="BX4" s="128"/>
+      <c r="BY4" s="128"/>
+      <c r="BZ4" s="128"/>
+      <c r="CA4" s="128"/>
+      <c r="CB4" s="128"/>
+      <c r="CC4" s="128"/>
+      <c r="CD4" s="128"/>
+      <c r="CE4" s="128"/>
+      <c r="CF4" s="128"/>
+      <c r="CG4" s="128"/>
+      <c r="CH4" s="128"/>
+      <c r="CI4" s="128"/>
+      <c r="CJ4" s="128"/>
+      <c r="CK4" s="128"/>
+      <c r="CL4" s="128"/>
+      <c r="CM4" s="128"/>
+      <c r="CN4" s="128"/>
+      <c r="CO4" s="128"/>
+      <c r="CP4" s="128"/>
+      <c r="CQ4" s="128"/>
+      <c r="CR4" s="128"/>
+      <c r="CS4" s="128"/>
+      <c r="CT4" s="129"/>
+      <c r="CU4" s="127"/>
+      <c r="CV4" s="128"/>
+      <c r="CW4" s="128"/>
+      <c r="CX4" s="128"/>
+      <c r="CY4" s="128"/>
+      <c r="CZ4" s="128"/>
+      <c r="DA4" s="128"/>
+      <c r="DB4" s="128"/>
+      <c r="DC4" s="128"/>
+      <c r="DD4" s="128"/>
+      <c r="DE4" s="128"/>
+      <c r="DF4" s="128"/>
+      <c r="DG4" s="128"/>
+      <c r="DH4" s="128"/>
+      <c r="DI4" s="128"/>
+      <c r="DJ4" s="128"/>
+      <c r="DK4" s="128"/>
+      <c r="DL4" s="128"/>
+      <c r="DM4" s="128"/>
+      <c r="DN4" s="128"/>
+      <c r="DO4" s="128"/>
+      <c r="DP4" s="128"/>
+      <c r="DQ4" s="128"/>
+      <c r="DR4" s="128"/>
+      <c r="DS4" s="129"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9148,18 +9141,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="155" t="s">
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="156"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="131"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9168,7 +9161,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="120" t="s">
+      <c r="T5" s="155" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9291,10 +9284,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="117"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="129"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9303,7 +9296,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="121"/>
+      <c r="T6" s="156"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9434,10 +9427,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="138" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9451,157 +9444,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="122" t="s">
+      <c r="L7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="122" t="s">
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="124"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="115"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="122" t="s">
+      <c r="U7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="123" t="s">
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="115"/>
+      <c r="AD7" s="114" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="123"/>
-      <c r="AJ7" s="123"/>
-      <c r="AK7" s="123"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="147" t="s">
+      <c r="AE7" s="114"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="114"/>
+      <c r="AL7" s="115"/>
+      <c r="AM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="122" t="s">
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="117"/>
+      <c r="AP7" s="117"/>
+      <c r="AQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="123"/>
-      <c r="AS7" s="123"/>
-      <c r="AT7" s="124"/>
-      <c r="AU7" s="122" t="s">
+      <c r="AR7" s="114"/>
+      <c r="AS7" s="114"/>
+      <c r="AT7" s="115"/>
+      <c r="AU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
-      <c r="AX7" s="123"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="123"/>
-      <c r="BA7" s="123"/>
-      <c r="BB7" s="123"/>
-      <c r="BC7" s="124"/>
-      <c r="BD7" s="122" t="s">
+      <c r="AV7" s="114"/>
+      <c r="AW7" s="114"/>
+      <c r="AX7" s="114"/>
+      <c r="AY7" s="114"/>
+      <c r="AZ7" s="114"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="114"/>
+      <c r="BC7" s="115"/>
+      <c r="BD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="123"/>
-      <c r="BF7" s="123"/>
-      <c r="BG7" s="123"/>
-      <c r="BH7" s="123"/>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="123"/>
-      <c r="BK7" s="123"/>
-      <c r="BL7" s="124"/>
-      <c r="BM7" s="122" t="s">
+      <c r="BE7" s="114"/>
+      <c r="BF7" s="114"/>
+      <c r="BG7" s="114"/>
+      <c r="BH7" s="114"/>
+      <c r="BI7" s="114"/>
+      <c r="BJ7" s="114"/>
+      <c r="BK7" s="114"/>
+      <c r="BL7" s="115"/>
+      <c r="BM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="123"/>
-      <c r="BO7" s="123"/>
-      <c r="BP7" s="123"/>
-      <c r="BQ7" s="122" t="s">
+      <c r="BN7" s="114"/>
+      <c r="BO7" s="114"/>
+      <c r="BP7" s="114"/>
+      <c r="BQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="123"/>
-      <c r="BS7" s="123"/>
-      <c r="BT7" s="124"/>
-      <c r="BU7" s="122" t="s">
+      <c r="BR7" s="114"/>
+      <c r="BS7" s="114"/>
+      <c r="BT7" s="115"/>
+      <c r="BU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="123"/>
-      <c r="BW7" s="123"/>
-      <c r="BX7" s="123"/>
-      <c r="BY7" s="123"/>
-      <c r="BZ7" s="123"/>
-      <c r="CA7" s="123"/>
-      <c r="CB7" s="123"/>
-      <c r="CC7" s="124"/>
-      <c r="CD7" s="122" t="s">
+      <c r="BV7" s="114"/>
+      <c r="BW7" s="114"/>
+      <c r="BX7" s="114"/>
+      <c r="BY7" s="114"/>
+      <c r="BZ7" s="114"/>
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="114"/>
+      <c r="CC7" s="115"/>
+      <c r="CD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="123"/>
-      <c r="CF7" s="123"/>
-      <c r="CG7" s="123"/>
-      <c r="CH7" s="123"/>
-      <c r="CI7" s="123"/>
-      <c r="CJ7" s="123"/>
-      <c r="CK7" s="123"/>
-      <c r="CL7" s="124"/>
-      <c r="CM7" s="122" t="s">
+      <c r="CE7" s="114"/>
+      <c r="CF7" s="114"/>
+      <c r="CG7" s="114"/>
+      <c r="CH7" s="114"/>
+      <c r="CI7" s="114"/>
+      <c r="CJ7" s="114"/>
+      <c r="CK7" s="114"/>
+      <c r="CL7" s="115"/>
+      <c r="CM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="123"/>
-      <c r="CO7" s="123"/>
-      <c r="CP7" s="123"/>
-      <c r="CQ7" s="122" t="s">
+      <c r="CN7" s="114"/>
+      <c r="CO7" s="114"/>
+      <c r="CP7" s="114"/>
+      <c r="CQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="123"/>
-      <c r="CS7" s="123"/>
-      <c r="CT7" s="124"/>
-      <c r="CU7" s="122" t="s">
+      <c r="CR7" s="114"/>
+      <c r="CS7" s="114"/>
+      <c r="CT7" s="115"/>
+      <c r="CU7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="123"/>
-      <c r="CW7" s="123"/>
-      <c r="CX7" s="123"/>
-      <c r="CY7" s="123"/>
-      <c r="CZ7" s="123"/>
-      <c r="DA7" s="123"/>
-      <c r="DB7" s="123"/>
-      <c r="DC7" s="124"/>
-      <c r="DD7" s="122" t="s">
+      <c r="CV7" s="114"/>
+      <c r="CW7" s="114"/>
+      <c r="CX7" s="114"/>
+      <c r="CY7" s="114"/>
+      <c r="CZ7" s="114"/>
+      <c r="DA7" s="114"/>
+      <c r="DB7" s="114"/>
+      <c r="DC7" s="115"/>
+      <c r="DD7" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="123"/>
-      <c r="DF7" s="123"/>
-      <c r="DG7" s="123"/>
-      <c r="DH7" s="123"/>
-      <c r="DI7" s="123"/>
-      <c r="DJ7" s="123"/>
-      <c r="DK7" s="123"/>
-      <c r="DL7" s="124"/>
-      <c r="DM7" s="122" t="s">
+      <c r="DE7" s="114"/>
+      <c r="DF7" s="114"/>
+      <c r="DG7" s="114"/>
+      <c r="DH7" s="114"/>
+      <c r="DI7" s="114"/>
+      <c r="DJ7" s="114"/>
+      <c r="DK7" s="114"/>
+      <c r="DL7" s="115"/>
+      <c r="DM7" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="123"/>
-      <c r="DO7" s="123"/>
-      <c r="DP7" s="123"/>
-      <c r="DQ7" s="122" t="s">
+      <c r="DN7" s="114"/>
+      <c r="DO7" s="114"/>
+      <c r="DP7" s="114"/>
+      <c r="DQ7" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="124"/>
+      <c r="DR7" s="115"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="135"/>
-      <c r="B8" s="135"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9753,10 +9746,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="125">
+      <c r="L9" s="150">
         <v>5</v>
       </c>
-      <c r="M9" s="125"/>
+      <c r="M9" s="150"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9775,7 +9768,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="125"/>
+      <c r="T9" s="150"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9830,10 +9823,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="125"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="150"/>
+      <c r="AO9" s="150"/>
+      <c r="AP9" s="150"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10106,24 +10099,24 @@
       <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="126"/>
+      <c r="T10" s="151"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10142,10 +10135,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="126"/>
-      <c r="AO10" s="126"/>
-      <c r="AP10" s="126"/>
+      <c r="AM10" s="151"/>
+      <c r="AN10" s="151"/>
+      <c r="AO10" s="151"/>
+      <c r="AP10" s="151"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10258,24 +10251,24 @@
       <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="126"/>
+      <c r="T11" s="151"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -10294,10 +10287,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="126"/>
-      <c r="AN11" s="126"/>
-      <c r="AO11" s="126"/>
-      <c r="AP11" s="126"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="151"/>
+      <c r="AO11" s="151"/>
+      <c r="AP11" s="151"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -10412,24 +10405,24 @@
       <c r="B12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="126"/>
+      <c r="T12" s="151"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10448,10 +10441,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="126"/>
-      <c r="AO12" s="126"/>
-      <c r="AP12" s="126"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10538,24 +10531,24 @@
       <c r="B13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="126"/>
+      <c r="T13" s="151"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10574,10 +10567,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="126"/>
-      <c r="AO13" s="126"/>
-      <c r="AP13" s="126"/>
+      <c r="AM13" s="151"/>
+      <c r="AN13" s="151"/>
+      <c r="AO13" s="151"/>
+      <c r="AP13" s="151"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10690,24 +10683,24 @@
       <c r="B14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="126"/>
+      <c r="T14" s="151"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10726,10 +10719,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="126"/>
-      <c r="AO14" s="126"/>
-      <c r="AP14" s="126"/>
+      <c r="AM14" s="151"/>
+      <c r="AN14" s="151"/>
+      <c r="AO14" s="151"/>
+      <c r="AP14" s="151"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10842,24 +10835,24 @@
       <c r="B15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="126"/>
+      <c r="T15" s="151"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10878,10 +10871,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="126"/>
-      <c r="AN15" s="126"/>
-      <c r="AO15" s="126"/>
-      <c r="AP15" s="126"/>
+      <c r="AM15" s="151"/>
+      <c r="AN15" s="151"/>
+      <c r="AO15" s="151"/>
+      <c r="AP15" s="151"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10994,24 +10987,24 @@
       <c r="B16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="151"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="126"/>
+      <c r="T16" s="151"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11030,10 +11023,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="126"/>
-      <c r="AO16" s="126"/>
-      <c r="AP16" s="126"/>
+      <c r="AM16" s="151"/>
+      <c r="AN16" s="151"/>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11146,24 +11139,24 @@
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="126"/>
+      <c r="T17" s="151"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11182,10 +11175,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="126"/>
-      <c r="AN17" s="126"/>
-      <c r="AO17" s="126"/>
-      <c r="AP17" s="126"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11272,24 +11265,24 @@
       <c r="B18" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="126"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="126"/>
+      <c r="T18" s="151"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11308,10 +11301,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="126"/>
-      <c r="AN18" s="126"/>
-      <c r="AO18" s="126"/>
-      <c r="AP18" s="126"/>
+      <c r="AM18" s="151"/>
+      <c r="AN18" s="151"/>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11396,24 +11389,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="126"/>
+      <c r="T19" s="151"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11432,10 +11425,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="126"/>
-      <c r="AN19" s="126"/>
-      <c r="AO19" s="126"/>
-      <c r="AP19" s="126"/>
+      <c r="AM19" s="151"/>
+      <c r="AN19" s="151"/>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11518,30 +11511,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="131" t="s">
+      <c r="A20" s="135" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="126"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="126"/>
+      <c r="T20" s="151"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11560,10 +11553,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="126"/>
-      <c r="AN20" s="126"/>
-      <c r="AO20" s="126"/>
-      <c r="AP20" s="126"/>
+      <c r="AM20" s="151"/>
+      <c r="AN20" s="151"/>
+      <c r="AO20" s="151"/>
+      <c r="AP20" s="151"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11646,28 +11639,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="131"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="126"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="126"/>
+      <c r="T21" s="151"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -11686,10 +11679,10 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="126"/>
-      <c r="AN21" s="126"/>
-      <c r="AO21" s="126"/>
-      <c r="AP21" s="126"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="151"/>
+      <c r="AO21" s="151"/>
+      <c r="AP21" s="151"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -11772,28 +11765,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="131"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="151"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="126"/>
+      <c r="T22" s="151"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11812,10 +11805,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="126"/>
-      <c r="AN22" s="126"/>
-      <c r="AO22" s="126"/>
-      <c r="AP22" s="126"/>
+      <c r="AM22" s="151"/>
+      <c r="AN22" s="151"/>
+      <c r="AO22" s="151"/>
+      <c r="AP22" s="151"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11898,28 +11891,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="131"/>
-      <c r="B23" s="158" t="s">
+      <c r="A23" s="135"/>
+      <c r="B23" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="126"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="126"/>
+      <c r="T23" s="151"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11938,10 +11931,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="126"/>
-      <c r="AN23" s="126"/>
-      <c r="AO23" s="126"/>
-      <c r="AP23" s="126"/>
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12024,38 +12017,38 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="131"/>
-      <c r="B24" s="111" t="s">
+      <c r="A24" s="135"/>
+      <c r="B24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="126"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
       <c r="AE24" s="21"/>
       <c r="AF24" s="21"/>
       <c r="AG24" s="21"/>
@@ -12064,10 +12057,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="126"/>
-      <c r="AN24" s="126"/>
-      <c r="AO24" s="126"/>
-      <c r="AP24" s="126"/>
+      <c r="AM24" s="151"/>
+      <c r="AN24" s="151"/>
+      <c r="AO24" s="151"/>
+      <c r="AP24" s="151"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12176,50 +12169,50 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="131"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="126"/>
+      <c r="T25" s="151"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="21"/>
-      <c r="AF25" s="21"/>
-      <c r="AG25" s="21"/>
+      <c r="Z25" s="159"/>
+      <c r="AA25" s="159"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="158"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="126"/>
-      <c r="AN25" s="126"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="126"/>
+      <c r="AM25" s="151"/>
+      <c r="AN25" s="151"/>
+      <c r="AO25" s="151"/>
+      <c r="AP25" s="151"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12328,38 +12321,38 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="131"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="151"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="126"/>
+      <c r="T26" s="151"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
@@ -12368,10 +12361,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="126"/>
-      <c r="AN26" s="126"/>
-      <c r="AO26" s="126"/>
-      <c r="AP26" s="126"/>
+      <c r="AM26" s="151"/>
+      <c r="AN26" s="151"/>
+      <c r="AO26" s="151"/>
+      <c r="AP26" s="151"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12480,28 +12473,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="131"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="126"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="151"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="126"/>
+      <c r="T27" s="151"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12515,15 +12508,15 @@
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
-      <c r="AH27" s="21"/>
+      <c r="AH27" s="84"/>
       <c r="AI27" s="21"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="126"/>
-      <c r="AN27" s="126"/>
-      <c r="AO27" s="126"/>
-      <c r="AP27" s="126"/>
+      <c r="AM27" s="151"/>
+      <c r="AN27" s="151"/>
+      <c r="AO27" s="151"/>
+      <c r="AP27" s="151"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12632,28 +12625,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="131"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="126"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="151"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="126"/>
+      <c r="T28" s="151"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12672,10 +12665,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="126"/>
-      <c r="AN28" s="126"/>
-      <c r="AO28" s="126"/>
-      <c r="AP28" s="126"/>
+      <c r="AM28" s="151"/>
+      <c r="AN28" s="151"/>
+      <c r="AO28" s="151"/>
+      <c r="AP28" s="151"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12758,28 +12751,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="131"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="140"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="126"/>
+      <c r="T29" s="151"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12794,14 +12787,14 @@
       <c r="AF29" s="21"/>
       <c r="AG29" s="21"/>
       <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="126"/>
-      <c r="AN29" s="126"/>
-      <c r="AO29" s="126"/>
-      <c r="AP29" s="126"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="151"/>
+      <c r="AN29" s="151"/>
+      <c r="AO29" s="151"/>
+      <c r="AP29" s="151"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12884,28 +12877,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="131"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="126"/>
+      <c r="T30" s="151"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12924,10 +12917,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="126"/>
-      <c r="AN30" s="126"/>
-      <c r="AO30" s="126"/>
-      <c r="AP30" s="126"/>
+      <c r="AM30" s="151"/>
+      <c r="AN30" s="151"/>
+      <c r="AO30" s="151"/>
+      <c r="AP30" s="151"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13010,28 +13003,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="131"/>
-      <c r="B31" s="158" t="s">
+      <c r="A31" s="135"/>
+      <c r="B31" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="151"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="126"/>
+      <c r="T31" s="151"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13050,10 +13043,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="126"/>
-      <c r="AN31" s="126"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
+      <c r="AM31" s="151"/>
+      <c r="AN31" s="151"/>
+      <c r="AO31" s="151"/>
+      <c r="AP31" s="151"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -13162,29 +13155,29 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="131"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="151"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="126"/>
-      <c r="U32" s="84"/>
+      <c r="T32" s="151"/>
+      <c r="U32" s="158"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -13202,14 +13195,14 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="126"/>
-      <c r="AN32" s="126"/>
-      <c r="AO32" s="126"/>
-      <c r="AP32" s="126"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
+      <c r="AM32" s="151"/>
+      <c r="AN32" s="151"/>
+      <c r="AO32" s="151"/>
+      <c r="AP32" s="151"/>
+      <c r="AQ32" s="84"/>
+      <c r="AR32" s="84"/>
+      <c r="AS32" s="84"/>
+      <c r="AT32" s="84"/>
       <c r="AU32" s="21"/>
       <c r="AV32" s="21"/>
       <c r="AW32" s="21"/>
@@ -13288,28 +13281,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="131"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="151"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="126"/>
+      <c r="T33" s="151"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13328,10 +13321,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="126"/>
-      <c r="AN33" s="126"/>
-      <c r="AO33" s="126"/>
-      <c r="AP33" s="126"/>
+      <c r="AM33" s="151"/>
+      <c r="AN33" s="151"/>
+      <c r="AO33" s="151"/>
+      <c r="AP33" s="151"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13440,28 +13433,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="131"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="151"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="126"/>
+      <c r="T34" s="151"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13480,10 +13473,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="126"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="126"/>
-      <c r="AP34" s="126"/>
+      <c r="AM34" s="151"/>
+      <c r="AN34" s="151"/>
+      <c r="AO34" s="151"/>
+      <c r="AP34" s="151"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13566,28 +13559,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="131"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
+      <c r="L35" s="151"/>
+      <c r="M35" s="151"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="126"/>
+      <c r="T35" s="151"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13606,10 +13599,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="126"/>
-      <c r="AN35" s="126"/>
-      <c r="AO35" s="126"/>
-      <c r="AP35" s="126"/>
+      <c r="AM35" s="151"/>
+      <c r="AN35" s="151"/>
+      <c r="AO35" s="151"/>
+      <c r="AP35" s="151"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13718,28 +13711,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="131"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
+      <c r="L36" s="151"/>
+      <c r="M36" s="151"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="126"/>
+      <c r="T36" s="151"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13758,10 +13751,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="126"/>
-      <c r="AN36" s="126"/>
-      <c r="AO36" s="126"/>
-      <c r="AP36" s="126"/>
+      <c r="AM36" s="151"/>
+      <c r="AN36" s="151"/>
+      <c r="AO36" s="151"/>
+      <c r="AP36" s="151"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13844,28 +13837,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="131"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="140"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
+      <c r="L37" s="151"/>
+      <c r="M37" s="151"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="126"/>
+      <c r="T37" s="151"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13884,10 +13877,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="126"/>
-      <c r="AN37" s="126"/>
-      <c r="AO37" s="126"/>
-      <c r="AP37" s="126"/>
+      <c r="AM37" s="151"/>
+      <c r="AN37" s="151"/>
+      <c r="AO37" s="151"/>
+      <c r="AP37" s="151"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13972,24 +13965,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="126"/>
+      <c r="L38" s="151"/>
+      <c r="M38" s="151"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="126"/>
+      <c r="T38" s="151"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14008,10 +14001,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="126"/>
-      <c r="AN38" s="126"/>
-      <c r="AO38" s="126"/>
-      <c r="AP38" s="126"/>
+      <c r="AM38" s="151"/>
+      <c r="AN38" s="151"/>
+      <c r="AO38" s="151"/>
+      <c r="AP38" s="151"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14094,30 +14087,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="131" t="s">
+      <c r="A39" s="135" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
+      <c r="L39" s="151"/>
+      <c r="M39" s="151"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="126"/>
+      <c r="T39" s="151"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14136,10 +14129,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="126"/>
-      <c r="AN39" s="126"/>
-      <c r="AO39" s="126"/>
-      <c r="AP39" s="126"/>
+      <c r="AM39" s="151"/>
+      <c r="AN39" s="151"/>
+      <c r="AO39" s="151"/>
+      <c r="AP39" s="151"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
@@ -14248,28 +14241,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="131"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="141"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="126"/>
-      <c r="M40" s="126"/>
+      <c r="L40" s="151"/>
+      <c r="M40" s="151"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="126"/>
+      <c r="T40" s="151"/>
       <c r="U40" s="21"/>
       <c r="V40" s="21"/>
       <c r="W40" s="21"/>
@@ -14288,10 +14281,10 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
       <c r="AL40" s="21"/>
-      <c r="AM40" s="126"/>
-      <c r="AN40" s="126"/>
-      <c r="AO40" s="126"/>
-      <c r="AP40" s="126"/>
+      <c r="AM40" s="151"/>
+      <c r="AN40" s="151"/>
+      <c r="AO40" s="151"/>
+      <c r="AP40" s="151"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
@@ -14374,28 +14367,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="131"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
+      <c r="L41" s="151"/>
+      <c r="M41" s="151"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="126"/>
+      <c r="T41" s="151"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14414,10 +14407,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="21"/>
-      <c r="AM41" s="126"/>
-      <c r="AN41" s="126"/>
-      <c r="AO41" s="126"/>
-      <c r="AP41" s="126"/>
+      <c r="AM41" s="151"/>
+      <c r="AN41" s="151"/>
+      <c r="AO41" s="151"/>
+      <c r="AP41" s="151"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14526,28 +14519,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="131"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
+      <c r="L42" s="151"/>
+      <c r="M42" s="151"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="126"/>
+      <c r="T42" s="151"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14566,10 +14559,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="126"/>
-      <c r="AN42" s="126"/>
-      <c r="AO42" s="126"/>
-      <c r="AP42" s="126"/>
+      <c r="AM42" s="151"/>
+      <c r="AN42" s="151"/>
+      <c r="AO42" s="151"/>
+      <c r="AP42" s="151"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14652,28 +14645,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="131"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="141"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="126"/>
+      <c r="T43" s="151"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14692,10 +14685,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="126"/>
-      <c r="AN43" s="126"/>
-      <c r="AO43" s="126"/>
-      <c r="AP43" s="126"/>
+      <c r="AM43" s="151"/>
+      <c r="AN43" s="151"/>
+      <c r="AO43" s="151"/>
+      <c r="AP43" s="151"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14806,24 +14799,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="126"/>
+      <c r="T44" s="151"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14842,10 +14835,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="126"/>
-      <c r="AN44" s="126"/>
-      <c r="AO44" s="126"/>
-      <c r="AP44" s="126"/>
+      <c r="AM44" s="151"/>
+      <c r="AN44" s="151"/>
+      <c r="AO44" s="151"/>
+      <c r="AP44" s="151"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14954,30 +14947,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="132" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="141"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="141"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="126"/>
-      <c r="M45" s="126"/>
+      <c r="L45" s="151"/>
+      <c r="M45" s="151"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="126"/>
+      <c r="T45" s="151"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14996,10 +14989,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="126"/>
-      <c r="AN45" s="126"/>
-      <c r="AO45" s="126"/>
-      <c r="AP45" s="126"/>
+      <c r="AM45" s="151"/>
+      <c r="AN45" s="151"/>
+      <c r="AO45" s="151"/>
+      <c r="AP45" s="151"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15082,28 +15075,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="129"/>
+      <c r="A46" s="133"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="141"/>
-      <c r="E46" s="141"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="141"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="126"/>
-      <c r="M46" s="126"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="151"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="126"/>
+      <c r="T46" s="151"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15122,10 +15115,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="126"/>
-      <c r="AN46" s="126"/>
-      <c r="AO46" s="126"/>
-      <c r="AP46" s="126"/>
+      <c r="AM46" s="151"/>
+      <c r="AN46" s="151"/>
+      <c r="AO46" s="151"/>
+      <c r="AP46" s="151"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15208,28 +15201,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="129"/>
+      <c r="A47" s="133"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="141"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="126"/>
-      <c r="M47" s="126"/>
+      <c r="L47" s="151"/>
+      <c r="M47" s="151"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="126"/>
+      <c r="T47" s="151"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15248,10 +15241,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="126"/>
-      <c r="AN47" s="126"/>
-      <c r="AO47" s="126"/>
-      <c r="AP47" s="126"/>
+      <c r="AM47" s="151"/>
+      <c r="AN47" s="151"/>
+      <c r="AO47" s="151"/>
+      <c r="AP47" s="151"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15334,28 +15327,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="129"/>
+      <c r="A48" s="133"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="126"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="126"/>
+      <c r="T48" s="151"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15374,10 +15367,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="126"/>
-      <c r="AN48" s="126"/>
-      <c r="AO48" s="126"/>
-      <c r="AP48" s="126"/>
+      <c r="AM48" s="151"/>
+      <c r="AN48" s="151"/>
+      <c r="AO48" s="151"/>
+      <c r="AP48" s="151"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15460,28 +15453,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="129"/>
+      <c r="A49" s="133"/>
       <c r="B49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="141"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="141"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="126"/>
-      <c r="M49" s="126"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="126"/>
+      <c r="T49" s="151"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15500,10 +15493,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="126"/>
-      <c r="AN49" s="126"/>
-      <c r="AO49" s="126"/>
-      <c r="AP49" s="126"/>
+      <c r="AM49" s="151"/>
+      <c r="AN49" s="151"/>
+      <c r="AO49" s="151"/>
+      <c r="AP49" s="151"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15586,28 +15579,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="130"/>
+      <c r="A50" s="134"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="141"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="141"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="127"/>
-      <c r="M50" s="127"/>
+      <c r="L50" s="152"/>
+      <c r="M50" s="152"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="127"/>
+      <c r="T50" s="152"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15626,10 +15619,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="127"/>
-      <c r="AN50" s="127"/>
-      <c r="AO50" s="127"/>
-      <c r="AP50" s="127"/>
+      <c r="AM50" s="152"/>
+      <c r="AN50" s="152"/>
+      <c r="AO50" s="152"/>
+      <c r="AP50" s="152"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15734,24 +15727,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15768,12 +15749,24 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1.S2\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF4F72-D4A1-4059-8DCA-EB66DE4F2DC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988609-BA88-4263-A026-ADD703139C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -1165,6 +1165,45 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,34 +1222,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,44 +1282,29 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2047,284 +2047,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="148"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="114" t="s">
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="120" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="114" t="s">
+      <c r="U3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="114" t="s">
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="115"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="116"/>
-      <c r="BU3" s="114" t="s">
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="129"/>
+      <c r="BU3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
-      <c r="BZ3" s="115"/>
-      <c r="CA3" s="115"/>
-      <c r="CB3" s="115"/>
-      <c r="CC3" s="115"/>
-      <c r="CD3" s="115"/>
-      <c r="CE3" s="115"/>
-      <c r="CF3" s="115"/>
-      <c r="CG3" s="115"/>
-      <c r="CH3" s="115"/>
-      <c r="CI3" s="115"/>
-      <c r="CJ3" s="115"/>
-      <c r="CK3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="115"/>
-      <c r="CN3" s="115"/>
-      <c r="CO3" s="115"/>
-      <c r="CP3" s="115"/>
-      <c r="CQ3" s="115"/>
-      <c r="CR3" s="115"/>
-      <c r="CS3" s="115"/>
-      <c r="CT3" s="116"/>
-      <c r="CU3" s="114" t="s">
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="129"/>
+      <c r="CU3" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="115"/>
-      <c r="CW3" s="115"/>
-      <c r="CX3" s="115"/>
-      <c r="CY3" s="115"/>
-      <c r="CZ3" s="115"/>
-      <c r="DA3" s="115"/>
-      <c r="DB3" s="115"/>
-      <c r="DC3" s="115"/>
-      <c r="DD3" s="115"/>
-      <c r="DE3" s="115"/>
-      <c r="DF3" s="115"/>
-      <c r="DG3" s="115"/>
-      <c r="DH3" s="115"/>
-      <c r="DI3" s="115"/>
-      <c r="DJ3" s="115"/>
-      <c r="DK3" s="115"/>
-      <c r="DL3" s="115"/>
-      <c r="DM3" s="115"/>
-      <c r="DN3" s="115"/>
-      <c r="DO3" s="115"/>
-      <c r="DP3" s="115"/>
-      <c r="DQ3" s="115"/>
-      <c r="DR3" s="115"/>
-      <c r="DS3" s="116"/>
+      <c r="CV3" s="128"/>
+      <c r="CW3" s="128"/>
+      <c r="CX3" s="128"/>
+      <c r="CY3" s="128"/>
+      <c r="CZ3" s="128"/>
+      <c r="DA3" s="128"/>
+      <c r="DB3" s="128"/>
+      <c r="DC3" s="128"/>
+      <c r="DD3" s="128"/>
+      <c r="DE3" s="128"/>
+      <c r="DF3" s="128"/>
+      <c r="DG3" s="128"/>
+      <c r="DH3" s="128"/>
+      <c r="DI3" s="128"/>
+      <c r="DJ3" s="128"/>
+      <c r="DK3" s="128"/>
+      <c r="DL3" s="128"/>
+      <c r="DM3" s="128"/>
+      <c r="DN3" s="128"/>
+      <c r="DO3" s="128"/>
+      <c r="DP3" s="128"/>
+      <c r="DQ3" s="128"/>
+      <c r="DR3" s="128"/>
+      <c r="DS3" s="129"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118"/>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="118"/>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="118"/>
-      <c r="BO4" s="118"/>
-      <c r="BP4" s="118"/>
-      <c r="BQ4" s="118"/>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="118"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="117"/>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="118"/>
-      <c r="BX4" s="118"/>
-      <c r="BY4" s="118"/>
-      <c r="BZ4" s="118"/>
-      <c r="CA4" s="118"/>
-      <c r="CB4" s="118"/>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="118"/>
-      <c r="CF4" s="118"/>
-      <c r="CG4" s="118"/>
-      <c r="CH4" s="118"/>
-      <c r="CI4" s="118"/>
-      <c r="CJ4" s="118"/>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="118"/>
-      <c r="CN4" s="118"/>
-      <c r="CO4" s="118"/>
-      <c r="CP4" s="118"/>
-      <c r="CQ4" s="118"/>
-      <c r="CR4" s="118"/>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="117"/>
-      <c r="CV4" s="118"/>
-      <c r="CW4" s="118"/>
-      <c r="CX4" s="118"/>
-      <c r="CY4" s="118"/>
-      <c r="CZ4" s="118"/>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="118"/>
-      <c r="DD4" s="118"/>
-      <c r="DE4" s="118"/>
-      <c r="DF4" s="118"/>
-      <c r="DG4" s="118"/>
-      <c r="DH4" s="118"/>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="118"/>
-      <c r="DK4" s="118"/>
-      <c r="DL4" s="118"/>
-      <c r="DM4" s="118"/>
-      <c r="DN4" s="118"/>
-      <c r="DO4" s="118"/>
-      <c r="DP4" s="118"/>
-      <c r="DQ4" s="118"/>
-      <c r="DR4" s="118"/>
-      <c r="DS4" s="119"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131"/>
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="131"/>
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="131"/>
+      <c r="BL4" s="131"/>
+      <c r="BM4" s="131"/>
+      <c r="BN4" s="131"/>
+      <c r="BO4" s="131"/>
+      <c r="BP4" s="131"/>
+      <c r="BQ4" s="131"/>
+      <c r="BR4" s="131"/>
+      <c r="BS4" s="131"/>
+      <c r="BT4" s="132"/>
+      <c r="BU4" s="130"/>
+      <c r="BV4" s="131"/>
+      <c r="BW4" s="131"/>
+      <c r="BX4" s="131"/>
+      <c r="BY4" s="131"/>
+      <c r="BZ4" s="131"/>
+      <c r="CA4" s="131"/>
+      <c r="CB4" s="131"/>
+      <c r="CC4" s="131"/>
+      <c r="CD4" s="131"/>
+      <c r="CE4" s="131"/>
+      <c r="CF4" s="131"/>
+      <c r="CG4" s="131"/>
+      <c r="CH4" s="131"/>
+      <c r="CI4" s="131"/>
+      <c r="CJ4" s="131"/>
+      <c r="CK4" s="131"/>
+      <c r="CL4" s="131"/>
+      <c r="CM4" s="131"/>
+      <c r="CN4" s="131"/>
+      <c r="CO4" s="131"/>
+      <c r="CP4" s="131"/>
+      <c r="CQ4" s="131"/>
+      <c r="CR4" s="131"/>
+      <c r="CS4" s="131"/>
+      <c r="CT4" s="132"/>
+      <c r="CU4" s="130"/>
+      <c r="CV4" s="131"/>
+      <c r="CW4" s="131"/>
+      <c r="CX4" s="131"/>
+      <c r="CY4" s="131"/>
+      <c r="CZ4" s="131"/>
+      <c r="DA4" s="131"/>
+      <c r="DB4" s="131"/>
+      <c r="DC4" s="131"/>
+      <c r="DD4" s="131"/>
+      <c r="DE4" s="131"/>
+      <c r="DF4" s="131"/>
+      <c r="DG4" s="131"/>
+      <c r="DH4" s="131"/>
+      <c r="DI4" s="131"/>
+      <c r="DJ4" s="131"/>
+      <c r="DK4" s="131"/>
+      <c r="DL4" s="131"/>
+      <c r="DM4" s="131"/>
+      <c r="DN4" s="131"/>
+      <c r="DO4" s="131"/>
+      <c r="DP4" s="131"/>
+      <c r="DQ4" s="131"/>
+      <c r="DR4" s="131"/>
+      <c r="DS4" s="132"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2333,18 +2333,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="157" t="s">
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="158"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2353,7 +2353,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="122" t="s">
+      <c r="T5" s="158" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2476,10 +2476,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2488,7 +2488,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="123"/>
+      <c r="T6" s="159"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2619,10 +2619,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="141" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2636,157 +2636,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124" t="s">
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="118"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="125" t="s">
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="149" t="s">
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="117"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="124" t="s">
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="125"/>
-      <c r="AS7" s="125"/>
-      <c r="AT7" s="126"/>
-      <c r="AU7" s="124" t="s">
+      <c r="AR7" s="117"/>
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125"/>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="126"/>
-      <c r="BD7" s="124" t="s">
+      <c r="AV7" s="117"/>
+      <c r="AW7" s="117"/>
+      <c r="AX7" s="117"/>
+      <c r="AY7" s="117"/>
+      <c r="AZ7" s="117"/>
+      <c r="BA7" s="117"/>
+      <c r="BB7" s="117"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125"/>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="126"/>
-      <c r="BM7" s="124" t="s">
+      <c r="BE7" s="117"/>
+      <c r="BF7" s="117"/>
+      <c r="BG7" s="117"/>
+      <c r="BH7" s="117"/>
+      <c r="BI7" s="117"/>
+      <c r="BJ7" s="117"/>
+      <c r="BK7" s="117"/>
+      <c r="BL7" s="118"/>
+      <c r="BM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="125"/>
-      <c r="BO7" s="125"/>
-      <c r="BP7" s="125"/>
-      <c r="BQ7" s="124" t="s">
+      <c r="BN7" s="117"/>
+      <c r="BO7" s="117"/>
+      <c r="BP7" s="117"/>
+      <c r="BQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="125"/>
-      <c r="BS7" s="125"/>
-      <c r="BT7" s="126"/>
-      <c r="BU7" s="124" t="s">
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="118"/>
+      <c r="BU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="125"/>
-      <c r="BW7" s="125"/>
-      <c r="BX7" s="125"/>
-      <c r="BY7" s="125"/>
-      <c r="BZ7" s="125"/>
-      <c r="CA7" s="125"/>
-      <c r="CB7" s="125"/>
-      <c r="CC7" s="126"/>
-      <c r="CD7" s="124" t="s">
+      <c r="BV7" s="117"/>
+      <c r="BW7" s="117"/>
+      <c r="BX7" s="117"/>
+      <c r="BY7" s="117"/>
+      <c r="BZ7" s="117"/>
+      <c r="CA7" s="117"/>
+      <c r="CB7" s="117"/>
+      <c r="CC7" s="118"/>
+      <c r="CD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="125"/>
-      <c r="CF7" s="125"/>
-      <c r="CG7" s="125"/>
-      <c r="CH7" s="125"/>
-      <c r="CI7" s="125"/>
-      <c r="CJ7" s="125"/>
-      <c r="CK7" s="125"/>
-      <c r="CL7" s="126"/>
-      <c r="CM7" s="124" t="s">
+      <c r="CE7" s="117"/>
+      <c r="CF7" s="117"/>
+      <c r="CG7" s="117"/>
+      <c r="CH7" s="117"/>
+      <c r="CI7" s="117"/>
+      <c r="CJ7" s="117"/>
+      <c r="CK7" s="117"/>
+      <c r="CL7" s="118"/>
+      <c r="CM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="125"/>
-      <c r="CO7" s="125"/>
-      <c r="CP7" s="125"/>
-      <c r="CQ7" s="124" t="s">
+      <c r="CN7" s="117"/>
+      <c r="CO7" s="117"/>
+      <c r="CP7" s="117"/>
+      <c r="CQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="125"/>
-      <c r="CS7" s="125"/>
-      <c r="CT7" s="126"/>
-      <c r="CU7" s="124" t="s">
+      <c r="CR7" s="117"/>
+      <c r="CS7" s="117"/>
+      <c r="CT7" s="118"/>
+      <c r="CU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="125"/>
-      <c r="CW7" s="125"/>
-      <c r="CX7" s="125"/>
-      <c r="CY7" s="125"/>
-      <c r="CZ7" s="125"/>
-      <c r="DA7" s="125"/>
-      <c r="DB7" s="125"/>
-      <c r="DC7" s="126"/>
-      <c r="DD7" s="124" t="s">
+      <c r="CV7" s="117"/>
+      <c r="CW7" s="117"/>
+      <c r="CX7" s="117"/>
+      <c r="CY7" s="117"/>
+      <c r="CZ7" s="117"/>
+      <c r="DA7" s="117"/>
+      <c r="DB7" s="117"/>
+      <c r="DC7" s="118"/>
+      <c r="DD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="125"/>
-      <c r="DF7" s="125"/>
-      <c r="DG7" s="125"/>
-      <c r="DH7" s="125"/>
-      <c r="DI7" s="125"/>
-      <c r="DJ7" s="125"/>
-      <c r="DK7" s="125"/>
-      <c r="DL7" s="126"/>
-      <c r="DM7" s="124" t="s">
+      <c r="DE7" s="117"/>
+      <c r="DF7" s="117"/>
+      <c r="DG7" s="117"/>
+      <c r="DH7" s="117"/>
+      <c r="DI7" s="117"/>
+      <c r="DJ7" s="117"/>
+      <c r="DK7" s="117"/>
+      <c r="DL7" s="118"/>
+      <c r="DM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="125"/>
-      <c r="DO7" s="125"/>
-      <c r="DP7" s="125"/>
-      <c r="DQ7" s="124" t="s">
+      <c r="DN7" s="117"/>
+      <c r="DO7" s="117"/>
+      <c r="DP7" s="117"/>
+      <c r="DQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="126"/>
+      <c r="DR7" s="118"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="135"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2909,8 +2909,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="135"/>
-      <c r="B9" s="138"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2938,10 +2938,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="153">
         <v>5</v>
       </c>
-      <c r="M9" s="127"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="127"/>
+      <c r="T9" s="153"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3015,10 +3015,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="127"/>
-      <c r="AO9" s="127"/>
-      <c r="AP9" s="127"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3293,24 +3293,24 @@
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="146"/>
       <c r="H10" s="103"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="128"/>
+      <c r="T10" s="154"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3329,10 +3329,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="154"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3445,24 +3445,24 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="144"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="149"/>
       <c r="H11" s="102"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="128"/>
+      <c r="T11" s="154"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -3481,10 +3481,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="128"/>
-      <c r="AP11" s="128"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -3597,24 +3597,24 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="144"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="149"/>
       <c r="H12" s="103"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="128"/>
+      <c r="T12" s="154"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3633,10 +3633,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="128"/>
-      <c r="AO12" s="128"/>
-      <c r="AP12" s="128"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3723,24 +3723,24 @@
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="144"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="149"/>
       <c r="H13" s="104"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="128"/>
+      <c r="T13" s="154"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3759,10 +3759,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="128"/>
-      <c r="AO13" s="128"/>
-      <c r="AP13" s="128"/>
+      <c r="AM13" s="154"/>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3875,24 +3875,24 @@
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
       <c r="H14" s="104"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="128"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3911,10 +3911,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="128"/>
-      <c r="AP14" s="128"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="154"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="154"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4027,24 +4027,24 @@
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="144"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
       <c r="H15" s="104"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="128"/>
+      <c r="T15" s="154"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4063,10 +4063,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="128"/>
-      <c r="AO15" s="128"/>
-      <c r="AP15" s="128"/>
+      <c r="AM15" s="154"/>
+      <c r="AN15" s="154"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4179,24 +4179,24 @@
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="144"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="149"/>
       <c r="H16" s="104"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="128"/>
+      <c r="T16" s="154"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4215,10 +4215,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="128"/>
-      <c r="AO16" s="128"/>
-      <c r="AP16" s="128"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4331,24 +4331,24 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="149"/>
       <c r="H17" s="104"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="128"/>
+      <c r="T17" s="154"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4367,10 +4367,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="128"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4457,24 +4457,24 @@
       <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="144"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149"/>
       <c r="H18" s="104"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="128"/>
+      <c r="T18" s="154"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4493,10 +4493,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="128"/>
-      <c r="AO18" s="128"/>
-      <c r="AP18" s="128"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4581,24 +4581,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="149"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="128"/>
+      <c r="T19" s="154"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4617,10 +4617,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="128"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="128"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4703,30 +4703,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="138" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="128"/>
+      <c r="T20" s="154"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4745,10 +4745,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="128"/>
-      <c r="AO20" s="128"/>
-      <c r="AP20" s="128"/>
+      <c r="AM20" s="154"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4831,28 +4831,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="133"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="149"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="128"/>
+      <c r="T21" s="154"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="55"/>
@@ -4871,10 +4871,10 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="128"/>
-      <c r="AO21" s="128"/>
-      <c r="AP21" s="128"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -4957,28 +4957,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="133"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="149"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="128"/>
+      <c r="T22" s="154"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4997,10 +4997,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5083,28 +5083,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="133"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="144"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="128"/>
+      <c r="T23" s="154"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5123,10 +5123,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5235,28 +5235,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="133"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="149"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="128"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5275,10 +5275,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="128"/>
-      <c r="AO24" s="128"/>
-      <c r="AP24" s="128"/>
+      <c r="AM24" s="154"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5387,28 +5387,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="133"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="128"/>
+      <c r="T25" s="154"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5427,10 +5427,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
+      <c r="AM25" s="154"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5539,28 +5539,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="133"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="128"/>
+      <c r="T26" s="154"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5579,10 +5579,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="128"/>
-      <c r="AO26" s="128"/>
-      <c r="AP26" s="128"/>
+      <c r="AM26" s="154"/>
+      <c r="AN26" s="154"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5691,28 +5691,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="133"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="128"/>
+      <c r="T27" s="154"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5731,10 +5731,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="128"/>
-      <c r="AO27" s="128"/>
-      <c r="AP27" s="128"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="154"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5817,28 +5817,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="133"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="128"/>
+      <c r="T28" s="154"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5857,10 +5857,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="128"/>
-      <c r="AO28" s="128"/>
-      <c r="AP28" s="128"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5943,28 +5943,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="133"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="128"/>
+      <c r="T29" s="154"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5983,10 +5983,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="128"/>
-      <c r="AO29" s="128"/>
-      <c r="AP29" s="128"/>
+      <c r="AM29" s="154"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6069,28 +6069,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="133"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="128"/>
+      <c r="T30" s="154"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6109,10 +6109,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="128"/>
-      <c r="AO30" s="128"/>
-      <c r="AP30" s="128"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6221,28 +6221,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="133"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="128"/>
+      <c r="T31" s="154"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6261,10 +6261,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="128"/>
-      <c r="AO31" s="128"/>
-      <c r="AP31" s="128"/>
+      <c r="AM31" s="154"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6347,28 +6347,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="133"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="128"/>
+      <c r="T32" s="154"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6387,10 +6387,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="128"/>
-      <c r="AO32" s="128"/>
-      <c r="AP32" s="128"/>
+      <c r="AM32" s="154"/>
+      <c r="AN32" s="154"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6499,28 +6499,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="133"/>
+      <c r="A33" s="138"/>
       <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="144"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="128"/>
+      <c r="T33" s="154"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6539,10 +6539,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="128"/>
+      <c r="AM33" s="154"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6625,28 +6625,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="133"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="144"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="128"/>
+      <c r="T34" s="154"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6665,10 +6665,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="128"/>
-      <c r="AO34" s="128"/>
-      <c r="AP34" s="128"/>
+      <c r="AM34" s="154"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6777,28 +6777,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="133"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="144"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="149"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="128"/>
+      <c r="T35" s="154"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6817,10 +6817,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="128"/>
-      <c r="AN35" s="128"/>
-      <c r="AO35" s="128"/>
-      <c r="AP35" s="128"/>
+      <c r="AM35" s="154"/>
+      <c r="AN35" s="154"/>
+      <c r="AO35" s="154"/>
+      <c r="AP35" s="154"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6903,28 +6903,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="133"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="128"/>
+      <c r="T36" s="154"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6943,10 +6943,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="128"/>
-      <c r="AN36" s="128"/>
-      <c r="AO36" s="128"/>
-      <c r="AP36" s="128"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="154"/>
+      <c r="AP36" s="154"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7031,24 +7031,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="105"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="128"/>
+      <c r="T37" s="154"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7067,10 +7067,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="128"/>
-      <c r="AN37" s="128"/>
-      <c r="AO37" s="128"/>
-      <c r="AP37" s="128"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7153,30 +7153,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="138" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="144"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="128"/>
+      <c r="T38" s="154"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7195,10 +7195,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="128"/>
-      <c r="AN38" s="128"/>
-      <c r="AO38" s="128"/>
-      <c r="AP38" s="128"/>
+      <c r="AM38" s="154"/>
+      <c r="AN38" s="154"/>
+      <c r="AO38" s="154"/>
+      <c r="AP38" s="154"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7307,28 +7307,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="133"/>
+      <c r="A39" s="138"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="142"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="144"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="149"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="128"/>
+      <c r="T39" s="154"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7347,10 +7347,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="128"/>
+      <c r="AM39" s="154"/>
+      <c r="AN39" s="154"/>
+      <c r="AO39" s="154"/>
+      <c r="AP39" s="154"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7433,28 +7433,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="133"/>
+      <c r="A40" s="138"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="149"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="128"/>
+      <c r="T40" s="154"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7473,10 +7473,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="128"/>
-      <c r="AN40" s="128"/>
-      <c r="AO40" s="128"/>
-      <c r="AP40" s="128"/>
+      <c r="AM40" s="154"/>
+      <c r="AN40" s="154"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7585,28 +7585,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="133"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="144"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="149"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="128"/>
+      <c r="T41" s="154"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7625,10 +7625,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="128"/>
-      <c r="AP41" s="128"/>
+      <c r="AM41" s="154"/>
+      <c r="AN41" s="154"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7711,28 +7711,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="133"/>
+      <c r="A42" s="138"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="142"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="144"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="149"/>
       <c r="H42" s="106"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="128"/>
+      <c r="T42" s="154"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7751,10 +7751,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="128"/>
-      <c r="AN42" s="128"/>
-      <c r="AO42" s="128"/>
-      <c r="AP42" s="128"/>
+      <c r="AM42" s="154"/>
+      <c r="AN42" s="154"/>
+      <c r="AO42" s="154"/>
+      <c r="AP42" s="154"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7865,24 +7865,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="99"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="144"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="149"/>
       <c r="H43" s="105"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="128"/>
+      <c r="T43" s="154"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7901,10 +7901,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="128"/>
-      <c r="AN43" s="128"/>
-      <c r="AO43" s="128"/>
-      <c r="AP43" s="128"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8013,30 +8013,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="135" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="142"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="144"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="149"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="128"/>
+      <c r="T44" s="154"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8055,10 +8055,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="128"/>
-      <c r="AN44" s="128"/>
-      <c r="AO44" s="128"/>
-      <c r="AP44" s="128"/>
+      <c r="AM44" s="154"/>
+      <c r="AN44" s="154"/>
+      <c r="AO44" s="154"/>
+      <c r="AP44" s="154"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8141,28 +8141,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="131"/>
+      <c r="A45" s="136"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="144"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="149"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="128"/>
+      <c r="T45" s="154"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8181,10 +8181,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="128"/>
-      <c r="AN45" s="128"/>
-      <c r="AO45" s="128"/>
-      <c r="AP45" s="128"/>
+      <c r="AM45" s="154"/>
+      <c r="AN45" s="154"/>
+      <c r="AO45" s="154"/>
+      <c r="AP45" s="154"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8267,28 +8267,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="131"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="142"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="144"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="149"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="128"/>
+      <c r="T46" s="154"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8307,10 +8307,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="128"/>
-      <c r="AN46" s="128"/>
-      <c r="AO46" s="128"/>
-      <c r="AP46" s="128"/>
+      <c r="AM46" s="154"/>
+      <c r="AN46" s="154"/>
+      <c r="AO46" s="154"/>
+      <c r="AP46" s="154"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8393,28 +8393,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="131"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="144"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="149"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="128"/>
+      <c r="T47" s="154"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8433,10 +8433,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="128"/>
-      <c r="AN47" s="128"/>
-      <c r="AO47" s="128"/>
-      <c r="AP47" s="128"/>
+      <c r="AM47" s="154"/>
+      <c r="AN47" s="154"/>
+      <c r="AO47" s="154"/>
+      <c r="AP47" s="154"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8519,28 +8519,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="131"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="142"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="144"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="149"/>
       <c r="H48" s="107"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="128"/>
+      <c r="T48" s="154"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8559,10 +8559,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="128"/>
-      <c r="AP48" s="128"/>
+      <c r="AM48" s="154"/>
+      <c r="AN48" s="154"/>
+      <c r="AO48" s="154"/>
+      <c r="AP48" s="154"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8644,28 +8644,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="132"/>
+      <c r="A49" s="137"/>
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="145"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="147"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="152"/>
       <c r="H49" s="106"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="129"/>
+      <c r="T49" s="155"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8684,10 +8684,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="129"/>
-      <c r="AN49" s="129"/>
-      <c r="AO49" s="129"/>
-      <c r="AP49" s="129"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="155"/>
+      <c r="AO49" s="155"/>
+      <c r="AP49" s="155"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8792,25 +8792,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8826,12 +8813,25 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8844,7 +8844,7 @@
   <dimension ref="A1:ER57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AL41" sqref="AL41"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,284 +8864,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="148"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="151" t="s">
+      <c r="D2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="148"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="115"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="114" t="s">
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="120" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="114" t="s">
+      <c r="U3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="114" t="s">
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="128"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="128"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="129"/>
+      <c r="AU3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="115"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="116"/>
-      <c r="BU3" s="114" t="s">
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="129"/>
+      <c r="BU3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
-      <c r="BZ3" s="115"/>
-      <c r="CA3" s="115"/>
-      <c r="CB3" s="115"/>
-      <c r="CC3" s="115"/>
-      <c r="CD3" s="115"/>
-      <c r="CE3" s="115"/>
-      <c r="CF3" s="115"/>
-      <c r="CG3" s="115"/>
-      <c r="CH3" s="115"/>
-      <c r="CI3" s="115"/>
-      <c r="CJ3" s="115"/>
-      <c r="CK3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="115"/>
-      <c r="CN3" s="115"/>
-      <c r="CO3" s="115"/>
-      <c r="CP3" s="115"/>
-      <c r="CQ3" s="115"/>
-      <c r="CR3" s="115"/>
-      <c r="CS3" s="115"/>
-      <c r="CT3" s="116"/>
-      <c r="CU3" s="114" t="s">
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="128"/>
+      <c r="CB3" s="128"/>
+      <c r="CC3" s="128"/>
+      <c r="CD3" s="128"/>
+      <c r="CE3" s="128"/>
+      <c r="CF3" s="128"/>
+      <c r="CG3" s="128"/>
+      <c r="CH3" s="128"/>
+      <c r="CI3" s="128"/>
+      <c r="CJ3" s="128"/>
+      <c r="CK3" s="128"/>
+      <c r="CL3" s="128"/>
+      <c r="CM3" s="128"/>
+      <c r="CN3" s="128"/>
+      <c r="CO3" s="128"/>
+      <c r="CP3" s="128"/>
+      <c r="CQ3" s="128"/>
+      <c r="CR3" s="128"/>
+      <c r="CS3" s="128"/>
+      <c r="CT3" s="129"/>
+      <c r="CU3" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="115"/>
-      <c r="CW3" s="115"/>
-      <c r="CX3" s="115"/>
-      <c r="CY3" s="115"/>
-      <c r="CZ3" s="115"/>
-      <c r="DA3" s="115"/>
-      <c r="DB3" s="115"/>
-      <c r="DC3" s="115"/>
-      <c r="DD3" s="115"/>
-      <c r="DE3" s="115"/>
-      <c r="DF3" s="115"/>
-      <c r="DG3" s="115"/>
-      <c r="DH3" s="115"/>
-      <c r="DI3" s="115"/>
-      <c r="DJ3" s="115"/>
-      <c r="DK3" s="115"/>
-      <c r="DL3" s="115"/>
-      <c r="DM3" s="115"/>
-      <c r="DN3" s="115"/>
-      <c r="DO3" s="115"/>
-      <c r="DP3" s="115"/>
-      <c r="DQ3" s="115"/>
-      <c r="DR3" s="115"/>
-      <c r="DS3" s="116"/>
+      <c r="CV3" s="128"/>
+      <c r="CW3" s="128"/>
+      <c r="CX3" s="128"/>
+      <c r="CY3" s="128"/>
+      <c r="CZ3" s="128"/>
+      <c r="DA3" s="128"/>
+      <c r="DB3" s="128"/>
+      <c r="DC3" s="128"/>
+      <c r="DD3" s="128"/>
+      <c r="DE3" s="128"/>
+      <c r="DF3" s="128"/>
+      <c r="DG3" s="128"/>
+      <c r="DH3" s="128"/>
+      <c r="DI3" s="128"/>
+      <c r="DJ3" s="128"/>
+      <c r="DK3" s="128"/>
+      <c r="DL3" s="128"/>
+      <c r="DM3" s="128"/>
+      <c r="DN3" s="128"/>
+      <c r="DO3" s="128"/>
+      <c r="DP3" s="128"/>
+      <c r="DQ3" s="128"/>
+      <c r="DR3" s="128"/>
+      <c r="DS3" s="129"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="118"/>
-      <c r="AJ4" s="118"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="118"/>
-      <c r="AN4" s="118"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="118"/>
-      <c r="AR4" s="118"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="117"/>
-      <c r="AV4" s="118"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="118"/>
-      <c r="AZ4" s="118"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="118"/>
-      <c r="BD4" s="118"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="118"/>
-      <c r="BH4" s="118"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="118"/>
-      <c r="BL4" s="118"/>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="118"/>
-      <c r="BO4" s="118"/>
-      <c r="BP4" s="118"/>
-      <c r="BQ4" s="118"/>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="118"/>
-      <c r="BT4" s="119"/>
-      <c r="BU4" s="117"/>
-      <c r="BV4" s="118"/>
-      <c r="BW4" s="118"/>
-      <c r="BX4" s="118"/>
-      <c r="BY4" s="118"/>
-      <c r="BZ4" s="118"/>
-      <c r="CA4" s="118"/>
-      <c r="CB4" s="118"/>
-      <c r="CC4" s="118"/>
-      <c r="CD4" s="118"/>
-      <c r="CE4" s="118"/>
-      <c r="CF4" s="118"/>
-      <c r="CG4" s="118"/>
-      <c r="CH4" s="118"/>
-      <c r="CI4" s="118"/>
-      <c r="CJ4" s="118"/>
-      <c r="CK4" s="118"/>
-      <c r="CL4" s="118"/>
-      <c r="CM4" s="118"/>
-      <c r="CN4" s="118"/>
-      <c r="CO4" s="118"/>
-      <c r="CP4" s="118"/>
-      <c r="CQ4" s="118"/>
-      <c r="CR4" s="118"/>
-      <c r="CS4" s="118"/>
-      <c r="CT4" s="119"/>
-      <c r="CU4" s="117"/>
-      <c r="CV4" s="118"/>
-      <c r="CW4" s="118"/>
-      <c r="CX4" s="118"/>
-      <c r="CY4" s="118"/>
-      <c r="CZ4" s="118"/>
-      <c r="DA4" s="118"/>
-      <c r="DB4" s="118"/>
-      <c r="DC4" s="118"/>
-      <c r="DD4" s="118"/>
-      <c r="DE4" s="118"/>
-      <c r="DF4" s="118"/>
-      <c r="DG4" s="118"/>
-      <c r="DH4" s="118"/>
-      <c r="DI4" s="118"/>
-      <c r="DJ4" s="118"/>
-      <c r="DK4" s="118"/>
-      <c r="DL4" s="118"/>
-      <c r="DM4" s="118"/>
-      <c r="DN4" s="118"/>
-      <c r="DO4" s="118"/>
-      <c r="DP4" s="118"/>
-      <c r="DQ4" s="118"/>
-      <c r="DR4" s="118"/>
-      <c r="DS4" s="119"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="131"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="131"/>
+      <c r="AJ4" s="131"/>
+      <c r="AK4" s="131"/>
+      <c r="AL4" s="131"/>
+      <c r="AM4" s="131"/>
+      <c r="AN4" s="131"/>
+      <c r="AO4" s="131"/>
+      <c r="AP4" s="131"/>
+      <c r="AQ4" s="131"/>
+      <c r="AR4" s="131"/>
+      <c r="AS4" s="131"/>
+      <c r="AT4" s="132"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="131"/>
+      <c r="AW4" s="131"/>
+      <c r="AX4" s="131"/>
+      <c r="AY4" s="131"/>
+      <c r="AZ4" s="131"/>
+      <c r="BA4" s="131"/>
+      <c r="BB4" s="131"/>
+      <c r="BC4" s="131"/>
+      <c r="BD4" s="131"/>
+      <c r="BE4" s="131"/>
+      <c r="BF4" s="131"/>
+      <c r="BG4" s="131"/>
+      <c r="BH4" s="131"/>
+      <c r="BI4" s="131"/>
+      <c r="BJ4" s="131"/>
+      <c r="BK4" s="131"/>
+      <c r="BL4" s="131"/>
+      <c r="BM4" s="131"/>
+      <c r="BN4" s="131"/>
+      <c r="BO4" s="131"/>
+      <c r="BP4" s="131"/>
+      <c r="BQ4" s="131"/>
+      <c r="BR4" s="131"/>
+      <c r="BS4" s="131"/>
+      <c r="BT4" s="132"/>
+      <c r="BU4" s="130"/>
+      <c r="BV4" s="131"/>
+      <c r="BW4" s="131"/>
+      <c r="BX4" s="131"/>
+      <c r="BY4" s="131"/>
+      <c r="BZ4" s="131"/>
+      <c r="CA4" s="131"/>
+      <c r="CB4" s="131"/>
+      <c r="CC4" s="131"/>
+      <c r="CD4" s="131"/>
+      <c r="CE4" s="131"/>
+      <c r="CF4" s="131"/>
+      <c r="CG4" s="131"/>
+      <c r="CH4" s="131"/>
+      <c r="CI4" s="131"/>
+      <c r="CJ4" s="131"/>
+      <c r="CK4" s="131"/>
+      <c r="CL4" s="131"/>
+      <c r="CM4" s="131"/>
+      <c r="CN4" s="131"/>
+      <c r="CO4" s="131"/>
+      <c r="CP4" s="131"/>
+      <c r="CQ4" s="131"/>
+      <c r="CR4" s="131"/>
+      <c r="CS4" s="131"/>
+      <c r="CT4" s="132"/>
+      <c r="CU4" s="130"/>
+      <c r="CV4" s="131"/>
+      <c r="CW4" s="131"/>
+      <c r="CX4" s="131"/>
+      <c r="CY4" s="131"/>
+      <c r="CZ4" s="131"/>
+      <c r="DA4" s="131"/>
+      <c r="DB4" s="131"/>
+      <c r="DC4" s="131"/>
+      <c r="DD4" s="131"/>
+      <c r="DE4" s="131"/>
+      <c r="DF4" s="131"/>
+      <c r="DG4" s="131"/>
+      <c r="DH4" s="131"/>
+      <c r="DI4" s="131"/>
+      <c r="DJ4" s="131"/>
+      <c r="DK4" s="131"/>
+      <c r="DL4" s="131"/>
+      <c r="DM4" s="131"/>
+      <c r="DN4" s="131"/>
+      <c r="DO4" s="131"/>
+      <c r="DP4" s="131"/>
+      <c r="DQ4" s="131"/>
+      <c r="DR4" s="131"/>
+      <c r="DS4" s="132"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9150,18 +9150,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="154" t="s">
+      <c r="D5" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="157" t="s">
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="158"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="134"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9170,7 +9170,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="122" t="s">
+      <c r="T5" s="158" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9293,10 +9293,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="119"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9305,7 +9305,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="123"/>
+      <c r="T6" s="159"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9436,10 +9436,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="141" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9453,157 +9453,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="124" t="s">
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="126"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="118"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="124" t="s">
+      <c r="U7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="125"/>
-      <c r="W7" s="125"/>
-      <c r="X7" s="125"/>
-      <c r="Y7" s="125"/>
-      <c r="Z7" s="125"/>
-      <c r="AA7" s="125"/>
-      <c r="AB7" s="125"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="125" t="s">
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
+      <c r="AB7" s="117"/>
+      <c r="AC7" s="118"/>
+      <c r="AD7" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="125"/>
-      <c r="AJ7" s="125"/>
-      <c r="AK7" s="125"/>
-      <c r="AL7" s="126"/>
-      <c r="AM7" s="149" t="s">
+      <c r="AE7" s="117"/>
+      <c r="AF7" s="117"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="117"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
+      <c r="AL7" s="118"/>
+      <c r="AM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="124" t="s">
+      <c r="AN7" s="120"/>
+      <c r="AO7" s="120"/>
+      <c r="AP7" s="120"/>
+      <c r="AQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="125"/>
-      <c r="AS7" s="125"/>
-      <c r="AT7" s="126"/>
-      <c r="AU7" s="124" t="s">
+      <c r="AR7" s="117"/>
+      <c r="AS7" s="117"/>
+      <c r="AT7" s="118"/>
+      <c r="AU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="125"/>
-      <c r="AW7" s="125"/>
-      <c r="AX7" s="125"/>
-      <c r="AY7" s="125"/>
-      <c r="AZ7" s="125"/>
-      <c r="BA7" s="125"/>
-      <c r="BB7" s="125"/>
-      <c r="BC7" s="126"/>
-      <c r="BD7" s="124" t="s">
+      <c r="AV7" s="117"/>
+      <c r="AW7" s="117"/>
+      <c r="AX7" s="117"/>
+      <c r="AY7" s="117"/>
+      <c r="AZ7" s="117"/>
+      <c r="BA7" s="117"/>
+      <c r="BB7" s="117"/>
+      <c r="BC7" s="118"/>
+      <c r="BD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="125"/>
-      <c r="BF7" s="125"/>
-      <c r="BG7" s="125"/>
-      <c r="BH7" s="125"/>
-      <c r="BI7" s="125"/>
-      <c r="BJ7" s="125"/>
-      <c r="BK7" s="125"/>
-      <c r="BL7" s="126"/>
-      <c r="BM7" s="124" t="s">
+      <c r="BE7" s="117"/>
+      <c r="BF7" s="117"/>
+      <c r="BG7" s="117"/>
+      <c r="BH7" s="117"/>
+      <c r="BI7" s="117"/>
+      <c r="BJ7" s="117"/>
+      <c r="BK7" s="117"/>
+      <c r="BL7" s="118"/>
+      <c r="BM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="125"/>
-      <c r="BO7" s="125"/>
-      <c r="BP7" s="125"/>
-      <c r="BQ7" s="124" t="s">
+      <c r="BN7" s="117"/>
+      <c r="BO7" s="117"/>
+      <c r="BP7" s="117"/>
+      <c r="BQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="125"/>
-      <c r="BS7" s="125"/>
-      <c r="BT7" s="126"/>
-      <c r="BU7" s="124" t="s">
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="118"/>
+      <c r="BU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="125"/>
-      <c r="BW7" s="125"/>
-      <c r="BX7" s="125"/>
-      <c r="BY7" s="125"/>
-      <c r="BZ7" s="125"/>
-      <c r="CA7" s="125"/>
-      <c r="CB7" s="125"/>
-      <c r="CC7" s="126"/>
-      <c r="CD7" s="124" t="s">
+      <c r="BV7" s="117"/>
+      <c r="BW7" s="117"/>
+      <c r="BX7" s="117"/>
+      <c r="BY7" s="117"/>
+      <c r="BZ7" s="117"/>
+      <c r="CA7" s="117"/>
+      <c r="CB7" s="117"/>
+      <c r="CC7" s="118"/>
+      <c r="CD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="125"/>
-      <c r="CF7" s="125"/>
-      <c r="CG7" s="125"/>
-      <c r="CH7" s="125"/>
-      <c r="CI7" s="125"/>
-      <c r="CJ7" s="125"/>
-      <c r="CK7" s="125"/>
-      <c r="CL7" s="126"/>
-      <c r="CM7" s="124" t="s">
+      <c r="CE7" s="117"/>
+      <c r="CF7" s="117"/>
+      <c r="CG7" s="117"/>
+      <c r="CH7" s="117"/>
+      <c r="CI7" s="117"/>
+      <c r="CJ7" s="117"/>
+      <c r="CK7" s="117"/>
+      <c r="CL7" s="118"/>
+      <c r="CM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="125"/>
-      <c r="CO7" s="125"/>
-      <c r="CP7" s="125"/>
-      <c r="CQ7" s="124" t="s">
+      <c r="CN7" s="117"/>
+      <c r="CO7" s="117"/>
+      <c r="CP7" s="117"/>
+      <c r="CQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="125"/>
-      <c r="CS7" s="125"/>
-      <c r="CT7" s="126"/>
-      <c r="CU7" s="124" t="s">
+      <c r="CR7" s="117"/>
+      <c r="CS7" s="117"/>
+      <c r="CT7" s="118"/>
+      <c r="CU7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="125"/>
-      <c r="CW7" s="125"/>
-      <c r="CX7" s="125"/>
-      <c r="CY7" s="125"/>
-      <c r="CZ7" s="125"/>
-      <c r="DA7" s="125"/>
-      <c r="DB7" s="125"/>
-      <c r="DC7" s="126"/>
-      <c r="DD7" s="124" t="s">
+      <c r="CV7" s="117"/>
+      <c r="CW7" s="117"/>
+      <c r="CX7" s="117"/>
+      <c r="CY7" s="117"/>
+      <c r="CZ7" s="117"/>
+      <c r="DA7" s="117"/>
+      <c r="DB7" s="117"/>
+      <c r="DC7" s="118"/>
+      <c r="DD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="125"/>
-      <c r="DF7" s="125"/>
-      <c r="DG7" s="125"/>
-      <c r="DH7" s="125"/>
-      <c r="DI7" s="125"/>
-      <c r="DJ7" s="125"/>
-      <c r="DK7" s="125"/>
-      <c r="DL7" s="126"/>
-      <c r="DM7" s="124" t="s">
+      <c r="DE7" s="117"/>
+      <c r="DF7" s="117"/>
+      <c r="DG7" s="117"/>
+      <c r="DH7" s="117"/>
+      <c r="DI7" s="117"/>
+      <c r="DJ7" s="117"/>
+      <c r="DK7" s="117"/>
+      <c r="DL7" s="118"/>
+      <c r="DM7" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="125"/>
-      <c r="DO7" s="125"/>
-      <c r="DP7" s="125"/>
-      <c r="DQ7" s="124" t="s">
+      <c r="DN7" s="117"/>
+      <c r="DO7" s="117"/>
+      <c r="DP7" s="117"/>
+      <c r="DQ7" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="126"/>
+      <c r="DR7" s="118"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9726,8 +9726,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="56">
         <v>172</v>
       </c>
@@ -9755,10 +9755,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="127">
+      <c r="L9" s="153">
         <v>5</v>
       </c>
-      <c r="M9" s="127"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="127"/>
+      <c r="T9" s="153"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9832,10 +9832,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="127"/>
-      <c r="AN9" s="127"/>
-      <c r="AO9" s="127"/>
-      <c r="AP9" s="127"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10108,24 +10108,24 @@
       <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="128"/>
+      <c r="T10" s="154"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10144,10 +10144,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="154"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10260,24 +10260,24 @@
       <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="128"/>
+      <c r="T11" s="154"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -10296,10 +10296,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="128"/>
-      <c r="AP11" s="128"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -10414,24 +10414,24 @@
       <c r="B12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="128"/>
+      <c r="T12" s="154"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10450,10 +10450,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="128"/>
-      <c r="AN12" s="128"/>
-      <c r="AO12" s="128"/>
-      <c r="AP12" s="128"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10540,24 +10540,24 @@
       <c r="B13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="128"/>
+      <c r="T13" s="154"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10576,10 +10576,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="128"/>
-      <c r="AN13" s="128"/>
-      <c r="AO13" s="128"/>
-      <c r="AP13" s="128"/>
+      <c r="AM13" s="154"/>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10692,24 +10692,24 @@
       <c r="B14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="128"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10728,10 +10728,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="128"/>
-      <c r="AP14" s="128"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="154"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="154"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10844,24 +10844,24 @@
       <c r="B15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="128"/>
+      <c r="T15" s="154"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10880,10 +10880,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="128"/>
-      <c r="AN15" s="128"/>
-      <c r="AO15" s="128"/>
-      <c r="AP15" s="128"/>
+      <c r="AM15" s="154"/>
+      <c r="AN15" s="154"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10996,24 +10996,24 @@
       <c r="B16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="128"/>
+      <c r="T16" s="154"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11032,10 +11032,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="128"/>
-      <c r="AN16" s="128"/>
-      <c r="AO16" s="128"/>
-      <c r="AP16" s="128"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11148,24 +11148,24 @@
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="128"/>
+      <c r="T17" s="154"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11184,10 +11184,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="128"/>
-      <c r="AN17" s="128"/>
-      <c r="AO17" s="128"/>
-      <c r="AP17" s="128"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11274,24 +11274,24 @@
       <c r="B18" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="128"/>
+      <c r="T18" s="154"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11310,10 +11310,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="128"/>
-      <c r="AN18" s="128"/>
-      <c r="AO18" s="128"/>
-      <c r="AP18" s="128"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11398,24 +11398,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="128"/>
+      <c r="T19" s="154"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11434,10 +11434,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="128"/>
-      <c r="AN19" s="128"/>
-      <c r="AO19" s="128"/>
-      <c r="AP19" s="128"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11520,30 +11520,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="138" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="128"/>
+      <c r="T20" s="154"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11562,10 +11562,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="128"/>
-      <c r="AN20" s="128"/>
-      <c r="AO20" s="128"/>
-      <c r="AP20" s="128"/>
+      <c r="AM20" s="154"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11648,28 +11648,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="133"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="128"/>
+      <c r="T21" s="154"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -11688,10 +11688,10 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="128"/>
-      <c r="AN21" s="128"/>
-      <c r="AO21" s="128"/>
-      <c r="AP21" s="128"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -11774,28 +11774,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="133"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="128"/>
+      <c r="T22" s="154"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11814,10 +11814,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="128"/>
-      <c r="AN22" s="128"/>
-      <c r="AO22" s="128"/>
-      <c r="AP22" s="128"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11900,28 +11900,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="133"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="128"/>
+      <c r="T23" s="154"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11940,10 +11940,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="128"/>
-      <c r="AN23" s="128"/>
-      <c r="AO23" s="128"/>
-      <c r="AP23" s="128"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12026,28 +12026,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="133"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="128"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12066,10 +12066,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="128"/>
-      <c r="AN24" s="128"/>
-      <c r="AO24" s="128"/>
-      <c r="AP24" s="128"/>
+      <c r="AM24" s="154"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12178,28 +12178,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="133"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="128"/>
+      <c r="T25" s="154"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -12218,10 +12218,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
+      <c r="AM25" s="154"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12330,28 +12330,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="133"/>
-      <c r="B26" s="160" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="142"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="128"/>
+      <c r="T26" s="154"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12370,10 +12370,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="128"/>
-      <c r="AO26" s="128"/>
-      <c r="AP26" s="128"/>
+      <c r="AM26" s="154"/>
+      <c r="AN26" s="154"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12482,28 +12482,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="133"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="128"/>
+      <c r="T27" s="154"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12522,10 +12522,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="128"/>
-      <c r="AN27" s="128"/>
-      <c r="AO27" s="128"/>
-      <c r="AP27" s="128"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="154"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12634,28 +12634,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="133"/>
-      <c r="B28" s="160" t="s">
+      <c r="A28" s="138"/>
+      <c r="B28" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="128"/>
+      <c r="T28" s="154"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12674,10 +12674,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="128"/>
-      <c r="AN28" s="128"/>
-      <c r="AO28" s="128"/>
-      <c r="AP28" s="128"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12760,28 +12760,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="133"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="128"/>
+      <c r="T29" s="154"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12800,10 +12800,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="128"/>
-      <c r="AN29" s="128"/>
-      <c r="AO29" s="128"/>
-      <c r="AP29" s="128"/>
+      <c r="AM29" s="154"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12886,28 +12886,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="133"/>
-      <c r="B30" s="160" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="142"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="128"/>
+      <c r="T30" s="154"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12926,10 +12926,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="128"/>
-      <c r="AN30" s="128"/>
-      <c r="AO30" s="128"/>
-      <c r="AP30" s="128"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13012,28 +13012,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="133"/>
+      <c r="A31" s="138"/>
       <c r="B31" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="142"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="128"/>
+      <c r="T31" s="154"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13052,10 +13052,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="128"/>
-      <c r="AN31" s="128"/>
-      <c r="AO31" s="128"/>
-      <c r="AP31" s="128"/>
+      <c r="AM31" s="154"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -13164,28 +13164,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="133"/>
-      <c r="B32" s="160" t="s">
+      <c r="A32" s="138"/>
+      <c r="B32" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="128"/>
+      <c r="T32" s="154"/>
       <c r="U32" s="112"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -13204,10 +13204,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="128"/>
-      <c r="AN32" s="128"/>
-      <c r="AO32" s="128"/>
-      <c r="AP32" s="128"/>
+      <c r="AM32" s="154"/>
+      <c r="AN32" s="154"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
       <c r="AQ32" s="84"/>
       <c r="AR32" s="84"/>
       <c r="AS32" s="84"/>
@@ -13290,28 +13290,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="133"/>
+      <c r="A33" s="138"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="142"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="128"/>
+      <c r="T33" s="154"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13330,10 +13330,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="128"/>
-      <c r="AN33" s="128"/>
-      <c r="AO33" s="128"/>
-      <c r="AP33" s="128"/>
+      <c r="AM33" s="154"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13442,28 +13442,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="133"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="128"/>
+      <c r="T34" s="154"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13482,10 +13482,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="128"/>
-      <c r="AN34" s="128"/>
-      <c r="AO34" s="128"/>
-      <c r="AP34" s="128"/>
+      <c r="AM34" s="154"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13568,28 +13568,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="133"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="128"/>
+      <c r="T35" s="154"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13608,10 +13608,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="128"/>
-      <c r="AN35" s="128"/>
-      <c r="AO35" s="128"/>
-      <c r="AP35" s="128"/>
+      <c r="AM35" s="154"/>
+      <c r="AN35" s="154"/>
+      <c r="AO35" s="154"/>
+      <c r="AP35" s="154"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13720,28 +13720,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="133"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="142"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="128"/>
+      <c r="T36" s="154"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13760,10 +13760,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="128"/>
-      <c r="AN36" s="128"/>
-      <c r="AO36" s="128"/>
-      <c r="AP36" s="128"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="154"/>
+      <c r="AP36" s="154"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13846,28 +13846,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="133"/>
+      <c r="A37" s="138"/>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="142"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="128"/>
+      <c r="T37" s="154"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13886,10 +13886,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="128"/>
-      <c r="AN37" s="128"/>
-      <c r="AO37" s="128"/>
-      <c r="AP37" s="128"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13974,24 +13974,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="128"/>
+      <c r="T38" s="154"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14010,10 +14010,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="128"/>
-      <c r="AN38" s="128"/>
-      <c r="AO38" s="128"/>
-      <c r="AP38" s="128"/>
+      <c r="AM38" s="154"/>
+      <c r="AN38" s="154"/>
+      <c r="AO38" s="154"/>
+      <c r="AP38" s="154"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14096,30 +14096,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="160" t="s">
+      <c r="B39" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="142"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="128"/>
+      <c r="T39" s="154"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14138,10 +14138,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="128"/>
-      <c r="AP39" s="128"/>
+      <c r="AM39" s="154"/>
+      <c r="AN39" s="154"/>
+      <c r="AO39" s="154"/>
+      <c r="AP39" s="154"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
@@ -14250,28 +14250,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="133"/>
-      <c r="B40" s="160" t="s">
+      <c r="A40" s="138"/>
+      <c r="B40" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="142"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="128"/>
+      <c r="T40" s="154"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14290,10 +14290,10 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="128"/>
-      <c r="AN40" s="128"/>
-      <c r="AO40" s="128"/>
-      <c r="AP40" s="128"/>
+      <c r="AM40" s="154"/>
+      <c r="AN40" s="154"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
@@ -14376,28 +14376,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="133"/>
-      <c r="B41" s="160" t="s">
+      <c r="A41" s="138"/>
+      <c r="B41" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="142"/>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="128"/>
+      <c r="T41" s="154"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14416,10 +14416,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="128"/>
-      <c r="AP41" s="128"/>
+      <c r="AM41" s="154"/>
+      <c r="AN41" s="154"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14528,28 +14528,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="133"/>
-      <c r="B42" s="160" t="s">
+      <c r="A42" s="138"/>
+      <c r="B42" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="142"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="128"/>
+      <c r="T42" s="154"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14568,10 +14568,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="128"/>
-      <c r="AN42" s="128"/>
-      <c r="AO42" s="128"/>
-      <c r="AP42" s="128"/>
+      <c r="AM42" s="154"/>
+      <c r="AN42" s="154"/>
+      <c r="AO42" s="154"/>
+      <c r="AP42" s="154"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14654,28 +14654,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="133"/>
+      <c r="A43" s="138"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="142"/>
-      <c r="D43" s="143"/>
-      <c r="E43" s="143"/>
-      <c r="F43" s="143"/>
-      <c r="G43" s="143"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="128"/>
+      <c r="T43" s="154"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14694,10 +14694,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="128"/>
-      <c r="AN43" s="128"/>
-      <c r="AO43" s="128"/>
-      <c r="AP43" s="128"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14808,24 +14808,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="128"/>
+      <c r="T44" s="154"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14844,10 +14844,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="128"/>
-      <c r="AN44" s="128"/>
-      <c r="AO44" s="128"/>
-      <c r="AP44" s="128"/>
+      <c r="AM44" s="154"/>
+      <c r="AN44" s="154"/>
+      <c r="AO44" s="154"/>
+      <c r="AP44" s="154"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14956,30 +14956,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="135" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="142"/>
-      <c r="D45" s="143"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="128"/>
-      <c r="M45" s="128"/>
+      <c r="L45" s="154"/>
+      <c r="M45" s="154"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="128"/>
+      <c r="T45" s="154"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14998,10 +14998,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="128"/>
-      <c r="AN45" s="128"/>
-      <c r="AO45" s="128"/>
-      <c r="AP45" s="128"/>
+      <c r="AM45" s="154"/>
+      <c r="AN45" s="154"/>
+      <c r="AO45" s="154"/>
+      <c r="AP45" s="154"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15084,28 +15084,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="131"/>
+      <c r="A46" s="136"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="142"/>
-      <c r="D46" s="143"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
+      <c r="L46" s="154"/>
+      <c r="M46" s="154"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="128"/>
+      <c r="T46" s="154"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15124,10 +15124,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="128"/>
-      <c r="AN46" s="128"/>
-      <c r="AO46" s="128"/>
-      <c r="AP46" s="128"/>
+      <c r="AM46" s="154"/>
+      <c r="AN46" s="154"/>
+      <c r="AO46" s="154"/>
+      <c r="AP46" s="154"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15210,28 +15210,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="131"/>
+      <c r="A47" s="136"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="142"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="128"/>
-      <c r="M47" s="128"/>
+      <c r="L47" s="154"/>
+      <c r="M47" s="154"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="128"/>
+      <c r="T47" s="154"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15250,10 +15250,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="128"/>
-      <c r="AN47" s="128"/>
-      <c r="AO47" s="128"/>
-      <c r="AP47" s="128"/>
+      <c r="AM47" s="154"/>
+      <c r="AN47" s="154"/>
+      <c r="AO47" s="154"/>
+      <c r="AP47" s="154"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15336,28 +15336,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="131"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="142"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
+      <c r="L48" s="154"/>
+      <c r="M48" s="154"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="128"/>
+      <c r="T48" s="154"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15376,10 +15376,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="128"/>
-      <c r="AP48" s="128"/>
+      <c r="AM48" s="154"/>
+      <c r="AN48" s="154"/>
+      <c r="AO48" s="154"/>
+      <c r="AP48" s="154"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15462,28 +15462,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="131"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="128"/>
-      <c r="M49" s="128"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="128"/>
+      <c r="T49" s="154"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15502,10 +15502,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="128"/>
-      <c r="AN49" s="128"/>
-      <c r="AO49" s="128"/>
-      <c r="AP49" s="128"/>
+      <c r="AM49" s="154"/>
+      <c r="AN49" s="154"/>
+      <c r="AO49" s="154"/>
+      <c r="AP49" s="154"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15588,28 +15588,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="132"/>
+      <c r="A50" s="137"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="142"/>
-      <c r="D50" s="143"/>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="129"/>
-      <c r="M50" s="129"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="129"/>
+      <c r="T50" s="155"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15628,10 +15628,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="129"/>
-      <c r="AN50" s="129"/>
-      <c r="AO50" s="129"/>
-      <c r="AP50" s="129"/>
+      <c r="AM50" s="155"/>
+      <c r="AN50" s="155"/>
+      <c r="AO50" s="155"/>
+      <c r="AP50" s="155"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15736,24 +15736,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15770,12 +15758,24 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1.S2\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE988609-BA88-4263-A026-ADD703139C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA29A91-9E3C-4126-A088-E133623D4DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -1168,42 +1168,6 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,10 +1186,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1282,26 +1270,38 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2047,284 +2047,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="127" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="156" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="127" t="s">
+      <c r="U3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="127" t="s">
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="128"/>
-      <c r="BL3" s="128"/>
-      <c r="BM3" s="128"/>
-      <c r="BN3" s="128"/>
-      <c r="BO3" s="128"/>
-      <c r="BP3" s="128"/>
-      <c r="BQ3" s="128"/>
-      <c r="BR3" s="128"/>
-      <c r="BS3" s="128"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="127" t="s">
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+      <c r="BD3" s="116"/>
+      <c r="BE3" s="116"/>
+      <c r="BF3" s="116"/>
+      <c r="BG3" s="116"/>
+      <c r="BH3" s="116"/>
+      <c r="BI3" s="116"/>
+      <c r="BJ3" s="116"/>
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="116"/>
+      <c r="BN3" s="116"/>
+      <c r="BO3" s="116"/>
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="116"/>
+      <c r="BR3" s="116"/>
+      <c r="BS3" s="116"/>
+      <c r="BT3" s="117"/>
+      <c r="BU3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="128"/>
-      <c r="BW3" s="128"/>
-      <c r="BX3" s="128"/>
-      <c r="BY3" s="128"/>
-      <c r="BZ3" s="128"/>
-      <c r="CA3" s="128"/>
-      <c r="CB3" s="128"/>
-      <c r="CC3" s="128"/>
-      <c r="CD3" s="128"/>
-      <c r="CE3" s="128"/>
-      <c r="CF3" s="128"/>
-      <c r="CG3" s="128"/>
-      <c r="CH3" s="128"/>
-      <c r="CI3" s="128"/>
-      <c r="CJ3" s="128"/>
-      <c r="CK3" s="128"/>
-      <c r="CL3" s="128"/>
-      <c r="CM3" s="128"/>
-      <c r="CN3" s="128"/>
-      <c r="CO3" s="128"/>
-      <c r="CP3" s="128"/>
-      <c r="CQ3" s="128"/>
-      <c r="CR3" s="128"/>
-      <c r="CS3" s="128"/>
-      <c r="CT3" s="129"/>
-      <c r="CU3" s="127" t="s">
+      <c r="BV3" s="116"/>
+      <c r="BW3" s="116"/>
+      <c r="BX3" s="116"/>
+      <c r="BY3" s="116"/>
+      <c r="BZ3" s="116"/>
+      <c r="CA3" s="116"/>
+      <c r="CB3" s="116"/>
+      <c r="CC3" s="116"/>
+      <c r="CD3" s="116"/>
+      <c r="CE3" s="116"/>
+      <c r="CF3" s="116"/>
+      <c r="CG3" s="116"/>
+      <c r="CH3" s="116"/>
+      <c r="CI3" s="116"/>
+      <c r="CJ3" s="116"/>
+      <c r="CK3" s="116"/>
+      <c r="CL3" s="116"/>
+      <c r="CM3" s="116"/>
+      <c r="CN3" s="116"/>
+      <c r="CO3" s="116"/>
+      <c r="CP3" s="116"/>
+      <c r="CQ3" s="116"/>
+      <c r="CR3" s="116"/>
+      <c r="CS3" s="116"/>
+      <c r="CT3" s="117"/>
+      <c r="CU3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="128"/>
-      <c r="CW3" s="128"/>
-      <c r="CX3" s="128"/>
-      <c r="CY3" s="128"/>
-      <c r="CZ3" s="128"/>
-      <c r="DA3" s="128"/>
-      <c r="DB3" s="128"/>
-      <c r="DC3" s="128"/>
-      <c r="DD3" s="128"/>
-      <c r="DE3" s="128"/>
-      <c r="DF3" s="128"/>
-      <c r="DG3" s="128"/>
-      <c r="DH3" s="128"/>
-      <c r="DI3" s="128"/>
-      <c r="DJ3" s="128"/>
-      <c r="DK3" s="128"/>
-      <c r="DL3" s="128"/>
-      <c r="DM3" s="128"/>
-      <c r="DN3" s="128"/>
-      <c r="DO3" s="128"/>
-      <c r="DP3" s="128"/>
-      <c r="DQ3" s="128"/>
-      <c r="DR3" s="128"/>
-      <c r="DS3" s="129"/>
+      <c r="CV3" s="116"/>
+      <c r="CW3" s="116"/>
+      <c r="CX3" s="116"/>
+      <c r="CY3" s="116"/>
+      <c r="CZ3" s="116"/>
+      <c r="DA3" s="116"/>
+      <c r="DB3" s="116"/>
+      <c r="DC3" s="116"/>
+      <c r="DD3" s="116"/>
+      <c r="DE3" s="116"/>
+      <c r="DF3" s="116"/>
+      <c r="DG3" s="116"/>
+      <c r="DH3" s="116"/>
+      <c r="DI3" s="116"/>
+      <c r="DJ3" s="116"/>
+      <c r="DK3" s="116"/>
+      <c r="DL3" s="116"/>
+      <c r="DM3" s="116"/>
+      <c r="DN3" s="116"/>
+      <c r="DO3" s="116"/>
+      <c r="DP3" s="116"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="116"/>
+      <c r="DS3" s="117"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="131"/>
-      <c r="BA4" s="131"/>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="131"/>
-      <c r="BF4" s="131"/>
-      <c r="BG4" s="131"/>
-      <c r="BH4" s="131"/>
-      <c r="BI4" s="131"/>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="131"/>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="131"/>
-      <c r="BN4" s="131"/>
-      <c r="BO4" s="131"/>
-      <c r="BP4" s="131"/>
-      <c r="BQ4" s="131"/>
-      <c r="BR4" s="131"/>
-      <c r="BS4" s="131"/>
-      <c r="BT4" s="132"/>
-      <c r="BU4" s="130"/>
-      <c r="BV4" s="131"/>
-      <c r="BW4" s="131"/>
-      <c r="BX4" s="131"/>
-      <c r="BY4" s="131"/>
-      <c r="BZ4" s="131"/>
-      <c r="CA4" s="131"/>
-      <c r="CB4" s="131"/>
-      <c r="CC4" s="131"/>
-      <c r="CD4" s="131"/>
-      <c r="CE4" s="131"/>
-      <c r="CF4" s="131"/>
-      <c r="CG4" s="131"/>
-      <c r="CH4" s="131"/>
-      <c r="CI4" s="131"/>
-      <c r="CJ4" s="131"/>
-      <c r="CK4" s="131"/>
-      <c r="CL4" s="131"/>
-      <c r="CM4" s="131"/>
-      <c r="CN4" s="131"/>
-      <c r="CO4" s="131"/>
-      <c r="CP4" s="131"/>
-      <c r="CQ4" s="131"/>
-      <c r="CR4" s="131"/>
-      <c r="CS4" s="131"/>
-      <c r="CT4" s="132"/>
-      <c r="CU4" s="130"/>
-      <c r="CV4" s="131"/>
-      <c r="CW4" s="131"/>
-      <c r="CX4" s="131"/>
-      <c r="CY4" s="131"/>
-      <c r="CZ4" s="131"/>
-      <c r="DA4" s="131"/>
-      <c r="DB4" s="131"/>
-      <c r="DC4" s="131"/>
-      <c r="DD4" s="131"/>
-      <c r="DE4" s="131"/>
-      <c r="DF4" s="131"/>
-      <c r="DG4" s="131"/>
-      <c r="DH4" s="131"/>
-      <c r="DI4" s="131"/>
-      <c r="DJ4" s="131"/>
-      <c r="DK4" s="131"/>
-      <c r="DL4" s="131"/>
-      <c r="DM4" s="131"/>
-      <c r="DN4" s="131"/>
-      <c r="DO4" s="131"/>
-      <c r="DP4" s="131"/>
-      <c r="DQ4" s="131"/>
-      <c r="DR4" s="131"/>
-      <c r="DS4" s="132"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="120"/>
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="119"/>
+      <c r="CB4" s="119"/>
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="119"/>
+      <c r="CG4" s="119"/>
+      <c r="CH4" s="119"/>
+      <c r="CI4" s="119"/>
+      <c r="CJ4" s="119"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="119"/>
+      <c r="CO4" s="119"/>
+      <c r="CP4" s="119"/>
+      <c r="CQ4" s="119"/>
+      <c r="CR4" s="119"/>
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="120"/>
+      <c r="CU4" s="118"/>
+      <c r="CV4" s="119"/>
+      <c r="CW4" s="119"/>
+      <c r="CX4" s="119"/>
+      <c r="CY4" s="119"/>
+      <c r="CZ4" s="119"/>
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="119"/>
+      <c r="DE4" s="119"/>
+      <c r="DF4" s="119"/>
+      <c r="DG4" s="119"/>
+      <c r="DH4" s="119"/>
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="119"/>
+      <c r="DM4" s="119"/>
+      <c r="DN4" s="119"/>
+      <c r="DO4" s="119"/>
+      <c r="DP4" s="119"/>
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="119"/>
+      <c r="DS4" s="120"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2333,18 +2333,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="133" t="s">
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="134"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2353,7 +2353,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="123" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2476,10 +2476,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2488,7 +2488,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="159"/>
+      <c r="T6" s="124"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2619,10 +2619,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="139" t="s">
+      <c r="A7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2636,157 +2636,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="116" t="s">
+      <c r="L7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="116" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="118"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="116" t="s">
+      <c r="U7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="117" t="s">
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="117"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="117"/>
-      <c r="AK7" s="117"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="119" t="s">
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="116" t="s">
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="151"/>
+      <c r="AP7" s="151"/>
+      <c r="AQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="117"/>
-      <c r="AS7" s="117"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="116" t="s">
+      <c r="AR7" s="126"/>
+      <c r="AS7" s="126"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="117"/>
-      <c r="AW7" s="117"/>
-      <c r="AX7" s="117"/>
-      <c r="AY7" s="117"/>
-      <c r="AZ7" s="117"/>
-      <c r="BA7" s="117"/>
-      <c r="BB7" s="117"/>
-      <c r="BC7" s="118"/>
-      <c r="BD7" s="116" t="s">
+      <c r="AV7" s="126"/>
+      <c r="AW7" s="126"/>
+      <c r="AX7" s="126"/>
+      <c r="AY7" s="126"/>
+      <c r="AZ7" s="126"/>
+      <c r="BA7" s="126"/>
+      <c r="BB7" s="126"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="117"/>
-      <c r="BF7" s="117"/>
-      <c r="BG7" s="117"/>
-      <c r="BH7" s="117"/>
-      <c r="BI7" s="117"/>
-      <c r="BJ7" s="117"/>
-      <c r="BK7" s="117"/>
-      <c r="BL7" s="118"/>
-      <c r="BM7" s="116" t="s">
+      <c r="BE7" s="126"/>
+      <c r="BF7" s="126"/>
+      <c r="BG7" s="126"/>
+      <c r="BH7" s="126"/>
+      <c r="BI7" s="126"/>
+      <c r="BJ7" s="126"/>
+      <c r="BK7" s="126"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="117"/>
-      <c r="BO7" s="117"/>
-      <c r="BP7" s="117"/>
-      <c r="BQ7" s="116" t="s">
+      <c r="BN7" s="126"/>
+      <c r="BO7" s="126"/>
+      <c r="BP7" s="126"/>
+      <c r="BQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="118"/>
-      <c r="BU7" s="116" t="s">
+      <c r="BR7" s="126"/>
+      <c r="BS7" s="126"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="117"/>
-      <c r="BX7" s="117"/>
-      <c r="BY7" s="117"/>
-      <c r="BZ7" s="117"/>
-      <c r="CA7" s="117"/>
-      <c r="CB7" s="117"/>
-      <c r="CC7" s="118"/>
-      <c r="CD7" s="116" t="s">
+      <c r="BV7" s="126"/>
+      <c r="BW7" s="126"/>
+      <c r="BX7" s="126"/>
+      <c r="BY7" s="126"/>
+      <c r="BZ7" s="126"/>
+      <c r="CA7" s="126"/>
+      <c r="CB7" s="126"/>
+      <c r="CC7" s="127"/>
+      <c r="CD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="117"/>
-      <c r="CF7" s="117"/>
-      <c r="CG7" s="117"/>
-      <c r="CH7" s="117"/>
-      <c r="CI7" s="117"/>
-      <c r="CJ7" s="117"/>
-      <c r="CK7" s="117"/>
-      <c r="CL7" s="118"/>
-      <c r="CM7" s="116" t="s">
+      <c r="CE7" s="126"/>
+      <c r="CF7" s="126"/>
+      <c r="CG7" s="126"/>
+      <c r="CH7" s="126"/>
+      <c r="CI7" s="126"/>
+      <c r="CJ7" s="126"/>
+      <c r="CK7" s="126"/>
+      <c r="CL7" s="127"/>
+      <c r="CM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="117"/>
-      <c r="CO7" s="117"/>
-      <c r="CP7" s="117"/>
-      <c r="CQ7" s="116" t="s">
+      <c r="CN7" s="126"/>
+      <c r="CO7" s="126"/>
+      <c r="CP7" s="126"/>
+      <c r="CQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="117"/>
-      <c r="CS7" s="117"/>
-      <c r="CT7" s="118"/>
-      <c r="CU7" s="116" t="s">
+      <c r="CR7" s="126"/>
+      <c r="CS7" s="126"/>
+      <c r="CT7" s="127"/>
+      <c r="CU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="117"/>
-      <c r="CW7" s="117"/>
-      <c r="CX7" s="117"/>
-      <c r="CY7" s="117"/>
-      <c r="CZ7" s="117"/>
-      <c r="DA7" s="117"/>
-      <c r="DB7" s="117"/>
-      <c r="DC7" s="118"/>
-      <c r="DD7" s="116" t="s">
+      <c r="CV7" s="126"/>
+      <c r="CW7" s="126"/>
+      <c r="CX7" s="126"/>
+      <c r="CY7" s="126"/>
+      <c r="CZ7" s="126"/>
+      <c r="DA7" s="126"/>
+      <c r="DB7" s="126"/>
+      <c r="DC7" s="127"/>
+      <c r="DD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="117"/>
-      <c r="DF7" s="117"/>
-      <c r="DG7" s="117"/>
-      <c r="DH7" s="117"/>
-      <c r="DI7" s="117"/>
-      <c r="DJ7" s="117"/>
-      <c r="DK7" s="117"/>
-      <c r="DL7" s="118"/>
-      <c r="DM7" s="116" t="s">
+      <c r="DE7" s="126"/>
+      <c r="DF7" s="126"/>
+      <c r="DG7" s="126"/>
+      <c r="DH7" s="126"/>
+      <c r="DI7" s="126"/>
+      <c r="DJ7" s="126"/>
+      <c r="DK7" s="126"/>
+      <c r="DL7" s="127"/>
+      <c r="DM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="117"/>
-      <c r="DO7" s="117"/>
-      <c r="DP7" s="117"/>
-      <c r="DQ7" s="116" t="s">
+      <c r="DN7" s="126"/>
+      <c r="DO7" s="126"/>
+      <c r="DP7" s="126"/>
+      <c r="DQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="118"/>
+      <c r="DR7" s="127"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="140"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2909,8 +2909,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="140"/>
-      <c r="B9" s="143"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2938,10 +2938,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="128">
         <v>5</v>
       </c>
-      <c r="M9" s="153"/>
+      <c r="M9" s="128"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="153"/>
+      <c r="T9" s="128"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3015,10 +3015,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="153"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="128"/>
+      <c r="AO9" s="128"/>
+      <c r="AP9" s="128"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3293,24 +3293,24 @@
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="146"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
       <c r="H10" s="103"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="154"/>
+      <c r="T10" s="129"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3329,10 +3329,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="154"/>
-      <c r="AN10" s="154"/>
-      <c r="AO10" s="154"/>
-      <c r="AP10" s="154"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3445,24 +3445,24 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="149"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="145"/>
       <c r="H11" s="102"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="154"/>
+      <c r="T11" s="129"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -3481,10 +3481,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="154"/>
-      <c r="AN11" s="154"/>
-      <c r="AO11" s="154"/>
-      <c r="AP11" s="154"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="129"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -3597,24 +3597,24 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="149"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="145"/>
       <c r="H12" s="103"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="154"/>
+      <c r="T12" s="129"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3633,10 +3633,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="154"/>
-      <c r="AN12" s="154"/>
-      <c r="AO12" s="154"/>
-      <c r="AP12" s="154"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="129"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3723,24 +3723,24 @@
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="149"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
       <c r="H13" s="104"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="154"/>
+      <c r="T13" s="129"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3759,10 +3759,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="154"/>
-      <c r="AN13" s="154"/>
-      <c r="AO13" s="154"/>
-      <c r="AP13" s="154"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3875,24 +3875,24 @@
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="149"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="104"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="154"/>
+      <c r="T14" s="129"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3911,10 +3911,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="154"/>
-      <c r="AO14" s="154"/>
-      <c r="AP14" s="154"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="129"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="129"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4027,24 +4027,24 @@
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="149"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="104"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="154"/>
+      <c r="T15" s="129"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4063,10 +4063,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="154"/>
-      <c r="AN15" s="154"/>
-      <c r="AO15" s="154"/>
-      <c r="AP15" s="154"/>
+      <c r="AM15" s="129"/>
+      <c r="AN15" s="129"/>
+      <c r="AO15" s="129"/>
+      <c r="AP15" s="129"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4179,24 +4179,24 @@
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="149"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="104"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="154"/>
+      <c r="T16" s="129"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4215,10 +4215,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="154"/>
-      <c r="AN16" s="154"/>
-      <c r="AO16" s="154"/>
-      <c r="AP16" s="154"/>
+      <c r="AM16" s="129"/>
+      <c r="AN16" s="129"/>
+      <c r="AO16" s="129"/>
+      <c r="AP16" s="129"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4331,24 +4331,24 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="149"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="104"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="154"/>
+      <c r="T17" s="129"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4367,10 +4367,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="154"/>
-      <c r="AN17" s="154"/>
-      <c r="AO17" s="154"/>
-      <c r="AP17" s="154"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="129"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="129"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4457,24 +4457,24 @@
       <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="104"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="154"/>
+      <c r="T18" s="129"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4493,10 +4493,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="154"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="154"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="129"/>
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="129"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4581,24 +4581,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="149"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="145"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="154"/>
+      <c r="T19" s="129"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4617,10 +4617,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="154"/>
-      <c r="AO19" s="154"/>
-      <c r="AP19" s="154"/>
+      <c r="AM19" s="129"/>
+      <c r="AN19" s="129"/>
+      <c r="AO19" s="129"/>
+      <c r="AP19" s="129"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4703,30 +4703,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="149"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="154"/>
+      <c r="T20" s="129"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4745,10 +4745,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="154"/>
-      <c r="AN20" s="154"/>
-      <c r="AO20" s="154"/>
-      <c r="AP20" s="154"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
+      <c r="AP20" s="129"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4831,28 +4831,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="138"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="149"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="154"/>
+      <c r="T21" s="129"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="55"/>
@@ -4871,10 +4871,10 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="154"/>
-      <c r="AN21" s="154"/>
-      <c r="AO21" s="154"/>
-      <c r="AP21" s="154"/>
+      <c r="AM21" s="129"/>
+      <c r="AN21" s="129"/>
+      <c r="AO21" s="129"/>
+      <c r="AP21" s="129"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -4957,28 +4957,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="138"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="149"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="154"/>
+      <c r="T22" s="129"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4997,10 +4997,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="154"/>
-      <c r="AN22" s="154"/>
-      <c r="AO22" s="154"/>
-      <c r="AP22" s="154"/>
+      <c r="AM22" s="129"/>
+      <c r="AN22" s="129"/>
+      <c r="AO22" s="129"/>
+      <c r="AP22" s="129"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5083,28 +5083,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="138"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="149"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="154"/>
+      <c r="T23" s="129"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5123,10 +5123,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="154"/>
-      <c r="AN23" s="154"/>
-      <c r="AO23" s="154"/>
-      <c r="AP23" s="154"/>
+      <c r="AM23" s="129"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5235,28 +5235,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="138"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="149"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="154"/>
+      <c r="T24" s="129"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5275,10 +5275,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
+      <c r="AM24" s="129"/>
+      <c r="AN24" s="129"/>
+      <c r="AO24" s="129"/>
+      <c r="AP24" s="129"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5387,28 +5387,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="138"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="154"/>
+      <c r="T25" s="129"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5427,10 +5427,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="154"/>
+      <c r="AM25" s="129"/>
+      <c r="AN25" s="129"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5539,28 +5539,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="138"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="149"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="154"/>
+      <c r="T26" s="129"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5579,10 +5579,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="154"/>
-      <c r="AN26" s="154"/>
-      <c r="AO26" s="154"/>
-      <c r="AP26" s="154"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5691,28 +5691,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="138"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="154"/>
+      <c r="T27" s="129"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5731,10 +5731,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="154"/>
-      <c r="AN27" s="154"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
+      <c r="AM27" s="129"/>
+      <c r="AN27" s="129"/>
+      <c r="AO27" s="129"/>
+      <c r="AP27" s="129"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5817,28 +5817,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="138"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="154"/>
+      <c r="T28" s="129"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5857,10 +5857,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
+      <c r="AM28" s="129"/>
+      <c r="AN28" s="129"/>
+      <c r="AO28" s="129"/>
+      <c r="AP28" s="129"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5943,28 +5943,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="138"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="149"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="154"/>
+      <c r="T29" s="129"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5983,10 +5983,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="154"/>
-      <c r="AN29" s="154"/>
-      <c r="AO29" s="154"/>
-      <c r="AP29" s="154"/>
+      <c r="AM29" s="129"/>
+      <c r="AN29" s="129"/>
+      <c r="AO29" s="129"/>
+      <c r="AP29" s="129"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6069,28 +6069,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="138"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="154"/>
+      <c r="T30" s="129"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6109,10 +6109,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="154"/>
-      <c r="AN30" s="154"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="154"/>
+      <c r="AM30" s="129"/>
+      <c r="AN30" s="129"/>
+      <c r="AO30" s="129"/>
+      <c r="AP30" s="129"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6221,28 +6221,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="138"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="154"/>
+      <c r="T31" s="129"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6261,10 +6261,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="154"/>
-      <c r="AN31" s="154"/>
-      <c r="AO31" s="154"/>
-      <c r="AP31" s="154"/>
+      <c r="AM31" s="129"/>
+      <c r="AN31" s="129"/>
+      <c r="AO31" s="129"/>
+      <c r="AP31" s="129"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6347,28 +6347,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="138"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="149"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="154"/>
+      <c r="T32" s="129"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6387,10 +6387,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="154"/>
-      <c r="AN32" s="154"/>
-      <c r="AO32" s="154"/>
-      <c r="AP32" s="154"/>
+      <c r="AM32" s="129"/>
+      <c r="AN32" s="129"/>
+      <c r="AO32" s="129"/>
+      <c r="AP32" s="129"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6499,28 +6499,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="138"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="154"/>
+      <c r="T33" s="129"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6539,10 +6539,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="154"/>
-      <c r="AN33" s="154"/>
-      <c r="AO33" s="154"/>
-      <c r="AP33" s="154"/>
+      <c r="AM33" s="129"/>
+      <c r="AN33" s="129"/>
+      <c r="AO33" s="129"/>
+      <c r="AP33" s="129"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6625,28 +6625,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="138"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="149"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="154"/>
+      <c r="T34" s="129"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6665,10 +6665,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="154"/>
-      <c r="AN34" s="154"/>
-      <c r="AO34" s="154"/>
-      <c r="AP34" s="154"/>
+      <c r="AM34" s="129"/>
+      <c r="AN34" s="129"/>
+      <c r="AO34" s="129"/>
+      <c r="AP34" s="129"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6777,28 +6777,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="138"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="149"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="154"/>
+      <c r="T35" s="129"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6817,10 +6817,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="154"/>
-      <c r="AN35" s="154"/>
-      <c r="AO35" s="154"/>
-      <c r="AP35" s="154"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
+      <c r="AP35" s="129"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6903,28 +6903,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="138"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="149"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="154"/>
+      <c r="T36" s="129"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6943,10 +6943,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="154"/>
-      <c r="AN36" s="154"/>
-      <c r="AO36" s="154"/>
-      <c r="AP36" s="154"/>
+      <c r="AM36" s="129"/>
+      <c r="AN36" s="129"/>
+      <c r="AO36" s="129"/>
+      <c r="AP36" s="129"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7031,24 +7031,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
       <c r="H37" s="105"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="154"/>
+      <c r="T37" s="129"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7067,10 +7067,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="154"/>
-      <c r="AN37" s="154"/>
-      <c r="AO37" s="154"/>
-      <c r="AP37" s="154"/>
+      <c r="AM37" s="129"/>
+      <c r="AN37" s="129"/>
+      <c r="AO37" s="129"/>
+      <c r="AP37" s="129"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7153,30 +7153,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="138" t="s">
+      <c r="A38" s="134" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="145"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="154"/>
+      <c r="T38" s="129"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7195,10 +7195,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="154"/>
-      <c r="AN38" s="154"/>
-      <c r="AO38" s="154"/>
-      <c r="AP38" s="154"/>
+      <c r="AM38" s="129"/>
+      <c r="AN38" s="129"/>
+      <c r="AO38" s="129"/>
+      <c r="AP38" s="129"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7307,28 +7307,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="138"/>
+      <c r="A39" s="134"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="145"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="154"/>
+      <c r="T39" s="129"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7347,10 +7347,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="154"/>
-      <c r="AN39" s="154"/>
-      <c r="AO39" s="154"/>
-      <c r="AP39" s="154"/>
+      <c r="AM39" s="129"/>
+      <c r="AN39" s="129"/>
+      <c r="AO39" s="129"/>
+      <c r="AP39" s="129"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7433,28 +7433,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="138"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="149"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="145"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="154"/>
+      <c r="T40" s="129"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7473,10 +7473,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="154"/>
-      <c r="AN40" s="154"/>
-      <c r="AO40" s="154"/>
-      <c r="AP40" s="154"/>
+      <c r="AM40" s="129"/>
+      <c r="AN40" s="129"/>
+      <c r="AO40" s="129"/>
+      <c r="AP40" s="129"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7585,28 +7585,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="138"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="149"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="145"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="154"/>
+      <c r="T41" s="129"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7625,10 +7625,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="154"/>
-      <c r="AN41" s="154"/>
-      <c r="AO41" s="154"/>
-      <c r="AP41" s="154"/>
+      <c r="AM41" s="129"/>
+      <c r="AN41" s="129"/>
+      <c r="AO41" s="129"/>
+      <c r="AP41" s="129"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7711,28 +7711,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="138"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="149"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="145"/>
       <c r="H42" s="106"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="154"/>
+      <c r="T42" s="129"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7751,10 +7751,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="154"/>
-      <c r="AN42" s="154"/>
-      <c r="AO42" s="154"/>
-      <c r="AP42" s="154"/>
+      <c r="AM42" s="129"/>
+      <c r="AN42" s="129"/>
+      <c r="AO42" s="129"/>
+      <c r="AP42" s="129"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7865,24 +7865,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="99"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="149"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="145"/>
       <c r="H43" s="105"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="154"/>
+      <c r="T43" s="129"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7901,10 +7901,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="154"/>
-      <c r="AN43" s="154"/>
-      <c r="AO43" s="154"/>
-      <c r="AP43" s="154"/>
+      <c r="AM43" s="129"/>
+      <c r="AN43" s="129"/>
+      <c r="AO43" s="129"/>
+      <c r="AP43" s="129"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8013,30 +8013,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="135" t="s">
+      <c r="A44" s="131" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="147"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="149"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="145"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="154"/>
+      <c r="T44" s="129"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8055,10 +8055,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="154"/>
-      <c r="AN44" s="154"/>
-      <c r="AO44" s="154"/>
-      <c r="AP44" s="154"/>
+      <c r="AM44" s="129"/>
+      <c r="AN44" s="129"/>
+      <c r="AO44" s="129"/>
+      <c r="AP44" s="129"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8141,28 +8141,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="136"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="149"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="145"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="154"/>
+      <c r="T45" s="129"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8181,10 +8181,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="154"/>
-      <c r="AN45" s="154"/>
-      <c r="AO45" s="154"/>
-      <c r="AP45" s="154"/>
+      <c r="AM45" s="129"/>
+      <c r="AN45" s="129"/>
+      <c r="AO45" s="129"/>
+      <c r="AP45" s="129"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8267,28 +8267,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="136"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="149"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="145"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="154"/>
+      <c r="T46" s="129"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8307,10 +8307,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="154"/>
-      <c r="AN46" s="154"/>
-      <c r="AO46" s="154"/>
-      <c r="AP46" s="154"/>
+      <c r="AM46" s="129"/>
+      <c r="AN46" s="129"/>
+      <c r="AO46" s="129"/>
+      <c r="AP46" s="129"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8393,28 +8393,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="136"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="149"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="145"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="154"/>
+      <c r="T47" s="129"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8433,10 +8433,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="154"/>
-      <c r="AN47" s="154"/>
-      <c r="AO47" s="154"/>
-      <c r="AP47" s="154"/>
+      <c r="AM47" s="129"/>
+      <c r="AN47" s="129"/>
+      <c r="AO47" s="129"/>
+      <c r="AP47" s="129"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8519,28 +8519,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="136"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="149"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="145"/>
       <c r="H48" s="107"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="154"/>
+      <c r="T48" s="129"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8559,10 +8559,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="154"/>
-      <c r="AN48" s="154"/>
-      <c r="AO48" s="154"/>
-      <c r="AP48" s="154"/>
+      <c r="AM48" s="129"/>
+      <c r="AN48" s="129"/>
+      <c r="AO48" s="129"/>
+      <c r="AP48" s="129"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8644,28 +8644,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="137"/>
+      <c r="A49" s="133"/>
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="150"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="152"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="148"/>
       <c r="H49" s="106"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="155"/>
+      <c r="T49" s="130"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8684,10 +8684,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="155"/>
-      <c r="AN49" s="155"/>
-      <c r="AO49" s="155"/>
-      <c r="AP49" s="155"/>
+      <c r="AM49" s="130"/>
+      <c r="AN49" s="130"/>
+      <c r="AO49" s="130"/>
+      <c r="AP49" s="130"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8792,12 +8792,25 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8813,25 +8826,12 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8844,7 +8844,7 @@
   <dimension ref="A1:ER57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,284 +8864,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="149"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="149"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="127" t="s">
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="156" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="127" t="s">
+      <c r="U3" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
-      <c r="AI3" s="128"/>
-      <c r="AJ3" s="128"/>
-      <c r="AK3" s="128"/>
-      <c r="AL3" s="128"/>
-      <c r="AM3" s="128"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="128"/>
-      <c r="AP3" s="128"/>
-      <c r="AQ3" s="128"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="128"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="127" t="s">
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
+      <c r="AG3" s="116"/>
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="128"/>
-      <c r="AW3" s="128"/>
-      <c r="AX3" s="128"/>
-      <c r="AY3" s="128"/>
-      <c r="AZ3" s="128"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="128"/>
-      <c r="BC3" s="128"/>
-      <c r="BD3" s="128"/>
-      <c r="BE3" s="128"/>
-      <c r="BF3" s="128"/>
-      <c r="BG3" s="128"/>
-      <c r="BH3" s="128"/>
-      <c r="BI3" s="128"/>
-      <c r="BJ3" s="128"/>
-      <c r="BK3" s="128"/>
-      <c r="BL3" s="128"/>
-      <c r="BM3" s="128"/>
-      <c r="BN3" s="128"/>
-      <c r="BO3" s="128"/>
-      <c r="BP3" s="128"/>
-      <c r="BQ3" s="128"/>
-      <c r="BR3" s="128"/>
-      <c r="BS3" s="128"/>
-      <c r="BT3" s="129"/>
-      <c r="BU3" s="127" t="s">
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+      <c r="BD3" s="116"/>
+      <c r="BE3" s="116"/>
+      <c r="BF3" s="116"/>
+      <c r="BG3" s="116"/>
+      <c r="BH3" s="116"/>
+      <c r="BI3" s="116"/>
+      <c r="BJ3" s="116"/>
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="116"/>
+      <c r="BN3" s="116"/>
+      <c r="BO3" s="116"/>
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="116"/>
+      <c r="BR3" s="116"/>
+      <c r="BS3" s="116"/>
+      <c r="BT3" s="117"/>
+      <c r="BU3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="128"/>
-      <c r="BW3" s="128"/>
-      <c r="BX3" s="128"/>
-      <c r="BY3" s="128"/>
-      <c r="BZ3" s="128"/>
-      <c r="CA3" s="128"/>
-      <c r="CB3" s="128"/>
-      <c r="CC3" s="128"/>
-      <c r="CD3" s="128"/>
-      <c r="CE3" s="128"/>
-      <c r="CF3" s="128"/>
-      <c r="CG3" s="128"/>
-      <c r="CH3" s="128"/>
-      <c r="CI3" s="128"/>
-      <c r="CJ3" s="128"/>
-      <c r="CK3" s="128"/>
-      <c r="CL3" s="128"/>
-      <c r="CM3" s="128"/>
-      <c r="CN3" s="128"/>
-      <c r="CO3" s="128"/>
-      <c r="CP3" s="128"/>
-      <c r="CQ3" s="128"/>
-      <c r="CR3" s="128"/>
-      <c r="CS3" s="128"/>
-      <c r="CT3" s="129"/>
-      <c r="CU3" s="127" t="s">
+      <c r="BV3" s="116"/>
+      <c r="BW3" s="116"/>
+      <c r="BX3" s="116"/>
+      <c r="BY3" s="116"/>
+      <c r="BZ3" s="116"/>
+      <c r="CA3" s="116"/>
+      <c r="CB3" s="116"/>
+      <c r="CC3" s="116"/>
+      <c r="CD3" s="116"/>
+      <c r="CE3" s="116"/>
+      <c r="CF3" s="116"/>
+      <c r="CG3" s="116"/>
+      <c r="CH3" s="116"/>
+      <c r="CI3" s="116"/>
+      <c r="CJ3" s="116"/>
+      <c r="CK3" s="116"/>
+      <c r="CL3" s="116"/>
+      <c r="CM3" s="116"/>
+      <c r="CN3" s="116"/>
+      <c r="CO3" s="116"/>
+      <c r="CP3" s="116"/>
+      <c r="CQ3" s="116"/>
+      <c r="CR3" s="116"/>
+      <c r="CS3" s="116"/>
+      <c r="CT3" s="117"/>
+      <c r="CU3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="128"/>
-      <c r="CW3" s="128"/>
-      <c r="CX3" s="128"/>
-      <c r="CY3" s="128"/>
-      <c r="CZ3" s="128"/>
-      <c r="DA3" s="128"/>
-      <c r="DB3" s="128"/>
-      <c r="DC3" s="128"/>
-      <c r="DD3" s="128"/>
-      <c r="DE3" s="128"/>
-      <c r="DF3" s="128"/>
-      <c r="DG3" s="128"/>
-      <c r="DH3" s="128"/>
-      <c r="DI3" s="128"/>
-      <c r="DJ3" s="128"/>
-      <c r="DK3" s="128"/>
-      <c r="DL3" s="128"/>
-      <c r="DM3" s="128"/>
-      <c r="DN3" s="128"/>
-      <c r="DO3" s="128"/>
-      <c r="DP3" s="128"/>
-      <c r="DQ3" s="128"/>
-      <c r="DR3" s="128"/>
-      <c r="DS3" s="129"/>
+      <c r="CV3" s="116"/>
+      <c r="CW3" s="116"/>
+      <c r="CX3" s="116"/>
+      <c r="CY3" s="116"/>
+      <c r="CZ3" s="116"/>
+      <c r="DA3" s="116"/>
+      <c r="DB3" s="116"/>
+      <c r="DC3" s="116"/>
+      <c r="DD3" s="116"/>
+      <c r="DE3" s="116"/>
+      <c r="DF3" s="116"/>
+      <c r="DG3" s="116"/>
+      <c r="DH3" s="116"/>
+      <c r="DI3" s="116"/>
+      <c r="DJ3" s="116"/>
+      <c r="DK3" s="116"/>
+      <c r="DL3" s="116"/>
+      <c r="DM3" s="116"/>
+      <c r="DN3" s="116"/>
+      <c r="DO3" s="116"/>
+      <c r="DP3" s="116"/>
+      <c r="DQ3" s="116"/>
+      <c r="DR3" s="116"/>
+      <c r="DS3" s="117"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="149"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="131"/>
-      <c r="AJ4" s="131"/>
-      <c r="AK4" s="131"/>
-      <c r="AL4" s="131"/>
-      <c r="AM4" s="131"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="131"/>
-      <c r="AP4" s="131"/>
-      <c r="AQ4" s="131"/>
-      <c r="AR4" s="131"/>
-      <c r="AS4" s="131"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="131"/>
-      <c r="AW4" s="131"/>
-      <c r="AX4" s="131"/>
-      <c r="AY4" s="131"/>
-      <c r="AZ4" s="131"/>
-      <c r="BA4" s="131"/>
-      <c r="BB4" s="131"/>
-      <c r="BC4" s="131"/>
-      <c r="BD4" s="131"/>
-      <c r="BE4" s="131"/>
-      <c r="BF4" s="131"/>
-      <c r="BG4" s="131"/>
-      <c r="BH4" s="131"/>
-      <c r="BI4" s="131"/>
-      <c r="BJ4" s="131"/>
-      <c r="BK4" s="131"/>
-      <c r="BL4" s="131"/>
-      <c r="BM4" s="131"/>
-      <c r="BN4" s="131"/>
-      <c r="BO4" s="131"/>
-      <c r="BP4" s="131"/>
-      <c r="BQ4" s="131"/>
-      <c r="BR4" s="131"/>
-      <c r="BS4" s="131"/>
-      <c r="BT4" s="132"/>
-      <c r="BU4" s="130"/>
-      <c r="BV4" s="131"/>
-      <c r="BW4" s="131"/>
-      <c r="BX4" s="131"/>
-      <c r="BY4" s="131"/>
-      <c r="BZ4" s="131"/>
-      <c r="CA4" s="131"/>
-      <c r="CB4" s="131"/>
-      <c r="CC4" s="131"/>
-      <c r="CD4" s="131"/>
-      <c r="CE4" s="131"/>
-      <c r="CF4" s="131"/>
-      <c r="CG4" s="131"/>
-      <c r="CH4" s="131"/>
-      <c r="CI4" s="131"/>
-      <c r="CJ4" s="131"/>
-      <c r="CK4" s="131"/>
-      <c r="CL4" s="131"/>
-      <c r="CM4" s="131"/>
-      <c r="CN4" s="131"/>
-      <c r="CO4" s="131"/>
-      <c r="CP4" s="131"/>
-      <c r="CQ4" s="131"/>
-      <c r="CR4" s="131"/>
-      <c r="CS4" s="131"/>
-      <c r="CT4" s="132"/>
-      <c r="CU4" s="130"/>
-      <c r="CV4" s="131"/>
-      <c r="CW4" s="131"/>
-      <c r="CX4" s="131"/>
-      <c r="CY4" s="131"/>
-      <c r="CZ4" s="131"/>
-      <c r="DA4" s="131"/>
-      <c r="DB4" s="131"/>
-      <c r="DC4" s="131"/>
-      <c r="DD4" s="131"/>
-      <c r="DE4" s="131"/>
-      <c r="DF4" s="131"/>
-      <c r="DG4" s="131"/>
-      <c r="DH4" s="131"/>
-      <c r="DI4" s="131"/>
-      <c r="DJ4" s="131"/>
-      <c r="DK4" s="131"/>
-      <c r="DL4" s="131"/>
-      <c r="DM4" s="131"/>
-      <c r="DN4" s="131"/>
-      <c r="DO4" s="131"/>
-      <c r="DP4" s="131"/>
-      <c r="DQ4" s="131"/>
-      <c r="DR4" s="131"/>
-      <c r="DS4" s="132"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="119"/>
+      <c r="X4" s="119"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="119"/>
+      <c r="AB4" s="119"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="119"/>
+      <c r="AJ4" s="119"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="119"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="119"/>
+      <c r="AR4" s="119"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="118"/>
+      <c r="AV4" s="119"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="119"/>
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="119"/>
+      <c r="BD4" s="119"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="119"/>
+      <c r="BH4" s="119"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="119"/>
+      <c r="BL4" s="119"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="119"/>
+      <c r="BP4" s="119"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="119"/>
+      <c r="BT4" s="120"/>
+      <c r="BU4" s="118"/>
+      <c r="BV4" s="119"/>
+      <c r="BW4" s="119"/>
+      <c r="BX4" s="119"/>
+      <c r="BY4" s="119"/>
+      <c r="BZ4" s="119"/>
+      <c r="CA4" s="119"/>
+      <c r="CB4" s="119"/>
+      <c r="CC4" s="119"/>
+      <c r="CD4" s="119"/>
+      <c r="CE4" s="119"/>
+      <c r="CF4" s="119"/>
+      <c r="CG4" s="119"/>
+      <c r="CH4" s="119"/>
+      <c r="CI4" s="119"/>
+      <c r="CJ4" s="119"/>
+      <c r="CK4" s="119"/>
+      <c r="CL4" s="119"/>
+      <c r="CM4" s="119"/>
+      <c r="CN4" s="119"/>
+      <c r="CO4" s="119"/>
+      <c r="CP4" s="119"/>
+      <c r="CQ4" s="119"/>
+      <c r="CR4" s="119"/>
+      <c r="CS4" s="119"/>
+      <c r="CT4" s="120"/>
+      <c r="CU4" s="118"/>
+      <c r="CV4" s="119"/>
+      <c r="CW4" s="119"/>
+      <c r="CX4" s="119"/>
+      <c r="CY4" s="119"/>
+      <c r="CZ4" s="119"/>
+      <c r="DA4" s="119"/>
+      <c r="DB4" s="119"/>
+      <c r="DC4" s="119"/>
+      <c r="DD4" s="119"/>
+      <c r="DE4" s="119"/>
+      <c r="DF4" s="119"/>
+      <c r="DG4" s="119"/>
+      <c r="DH4" s="119"/>
+      <c r="DI4" s="119"/>
+      <c r="DJ4" s="119"/>
+      <c r="DK4" s="119"/>
+      <c r="DL4" s="119"/>
+      <c r="DM4" s="119"/>
+      <c r="DN4" s="119"/>
+      <c r="DO4" s="119"/>
+      <c r="DP4" s="119"/>
+      <c r="DQ4" s="119"/>
+      <c r="DR4" s="119"/>
+      <c r="DS4" s="120"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9150,18 +9150,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="124" t="s">
+      <c r="D5" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="133" t="s">
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="158" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="134"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="159"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9170,7 +9170,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="123" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9293,10 +9293,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="132"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="120"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9305,7 +9305,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="159"/>
+      <c r="T6" s="124"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9436,10 +9436,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="137" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9453,157 +9453,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="116" t="s">
+      <c r="L7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="116" t="s">
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="118"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="127"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="116" t="s">
+      <c r="U7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="117"/>
-      <c r="W7" s="117"/>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AC7" s="118"/>
-      <c r="AD7" s="117" t="s">
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="117"/>
-      <c r="AF7" s="117"/>
-      <c r="AG7" s="117"/>
-      <c r="AH7" s="117"/>
-      <c r="AI7" s="117"/>
-      <c r="AJ7" s="117"/>
-      <c r="AK7" s="117"/>
-      <c r="AL7" s="118"/>
-      <c r="AM7" s="119" t="s">
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="126"/>
+      <c r="AK7" s="126"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="120"/>
-      <c r="AO7" s="120"/>
-      <c r="AP7" s="120"/>
-      <c r="AQ7" s="116" t="s">
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="151"/>
+      <c r="AP7" s="151"/>
+      <c r="AQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="117"/>
-      <c r="AS7" s="117"/>
-      <c r="AT7" s="118"/>
-      <c r="AU7" s="116" t="s">
+      <c r="AR7" s="126"/>
+      <c r="AS7" s="126"/>
+      <c r="AT7" s="127"/>
+      <c r="AU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="117"/>
-      <c r="AW7" s="117"/>
-      <c r="AX7" s="117"/>
-      <c r="AY7" s="117"/>
-      <c r="AZ7" s="117"/>
-      <c r="BA7" s="117"/>
-      <c r="BB7" s="117"/>
-      <c r="BC7" s="118"/>
-      <c r="BD7" s="116" t="s">
+      <c r="AV7" s="126"/>
+      <c r="AW7" s="126"/>
+      <c r="AX7" s="126"/>
+      <c r="AY7" s="126"/>
+      <c r="AZ7" s="126"/>
+      <c r="BA7" s="126"/>
+      <c r="BB7" s="126"/>
+      <c r="BC7" s="127"/>
+      <c r="BD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="117"/>
-      <c r="BF7" s="117"/>
-      <c r="BG7" s="117"/>
-      <c r="BH7" s="117"/>
-      <c r="BI7" s="117"/>
-      <c r="BJ7" s="117"/>
-      <c r="BK7" s="117"/>
-      <c r="BL7" s="118"/>
-      <c r="BM7" s="116" t="s">
+      <c r="BE7" s="126"/>
+      <c r="BF7" s="126"/>
+      <c r="BG7" s="126"/>
+      <c r="BH7" s="126"/>
+      <c r="BI7" s="126"/>
+      <c r="BJ7" s="126"/>
+      <c r="BK7" s="126"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="117"/>
-      <c r="BO7" s="117"/>
-      <c r="BP7" s="117"/>
-      <c r="BQ7" s="116" t="s">
+      <c r="BN7" s="126"/>
+      <c r="BO7" s="126"/>
+      <c r="BP7" s="126"/>
+      <c r="BQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="118"/>
-      <c r="BU7" s="116" t="s">
+      <c r="BR7" s="126"/>
+      <c r="BS7" s="126"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="117"/>
-      <c r="BX7" s="117"/>
-      <c r="BY7" s="117"/>
-      <c r="BZ7" s="117"/>
-      <c r="CA7" s="117"/>
-      <c r="CB7" s="117"/>
-      <c r="CC7" s="118"/>
-      <c r="CD7" s="116" t="s">
+      <c r="BV7" s="126"/>
+      <c r="BW7" s="126"/>
+      <c r="BX7" s="126"/>
+      <c r="BY7" s="126"/>
+      <c r="BZ7" s="126"/>
+      <c r="CA7" s="126"/>
+      <c r="CB7" s="126"/>
+      <c r="CC7" s="127"/>
+      <c r="CD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="117"/>
-      <c r="CF7" s="117"/>
-      <c r="CG7" s="117"/>
-      <c r="CH7" s="117"/>
-      <c r="CI7" s="117"/>
-      <c r="CJ7" s="117"/>
-      <c r="CK7" s="117"/>
-      <c r="CL7" s="118"/>
-      <c r="CM7" s="116" t="s">
+      <c r="CE7" s="126"/>
+      <c r="CF7" s="126"/>
+      <c r="CG7" s="126"/>
+      <c r="CH7" s="126"/>
+      <c r="CI7" s="126"/>
+      <c r="CJ7" s="126"/>
+      <c r="CK7" s="126"/>
+      <c r="CL7" s="127"/>
+      <c r="CM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="117"/>
-      <c r="CO7" s="117"/>
-      <c r="CP7" s="117"/>
-      <c r="CQ7" s="116" t="s">
+      <c r="CN7" s="126"/>
+      <c r="CO7" s="126"/>
+      <c r="CP7" s="126"/>
+      <c r="CQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="117"/>
-      <c r="CS7" s="117"/>
-      <c r="CT7" s="118"/>
-      <c r="CU7" s="116" t="s">
+      <c r="CR7" s="126"/>
+      <c r="CS7" s="126"/>
+      <c r="CT7" s="127"/>
+      <c r="CU7" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="117"/>
-      <c r="CW7" s="117"/>
-      <c r="CX7" s="117"/>
-      <c r="CY7" s="117"/>
-      <c r="CZ7" s="117"/>
-      <c r="DA7" s="117"/>
-      <c r="DB7" s="117"/>
-      <c r="DC7" s="118"/>
-      <c r="DD7" s="116" t="s">
+      <c r="CV7" s="126"/>
+      <c r="CW7" s="126"/>
+      <c r="CX7" s="126"/>
+      <c r="CY7" s="126"/>
+      <c r="CZ7" s="126"/>
+      <c r="DA7" s="126"/>
+      <c r="DB7" s="126"/>
+      <c r="DC7" s="127"/>
+      <c r="DD7" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="117"/>
-      <c r="DF7" s="117"/>
-      <c r="DG7" s="117"/>
-      <c r="DH7" s="117"/>
-      <c r="DI7" s="117"/>
-      <c r="DJ7" s="117"/>
-      <c r="DK7" s="117"/>
-      <c r="DL7" s="118"/>
-      <c r="DM7" s="116" t="s">
+      <c r="DE7" s="126"/>
+      <c r="DF7" s="126"/>
+      <c r="DG7" s="126"/>
+      <c r="DH7" s="126"/>
+      <c r="DI7" s="126"/>
+      <c r="DJ7" s="126"/>
+      <c r="DK7" s="126"/>
+      <c r="DL7" s="127"/>
+      <c r="DM7" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="117"/>
-      <c r="DO7" s="117"/>
-      <c r="DP7" s="117"/>
-      <c r="DQ7" s="116" t="s">
+      <c r="DN7" s="126"/>
+      <c r="DO7" s="126"/>
+      <c r="DP7" s="126"/>
+      <c r="DQ7" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="118"/>
+      <c r="DR7" s="127"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="142"/>
-      <c r="B8" s="142"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9755,10 +9755,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="153">
+      <c r="L9" s="128">
         <v>5</v>
       </c>
-      <c r="M9" s="153"/>
+      <c r="M9" s="128"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="153"/>
+      <c r="T9" s="128"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9832,10 +9832,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="153"/>
+      <c r="AM9" s="128"/>
+      <c r="AN9" s="128"/>
+      <c r="AO9" s="128"/>
+      <c r="AP9" s="128"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10108,24 +10108,24 @@
       <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="154"/>
+      <c r="T10" s="129"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10144,10 +10144,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="154"/>
-      <c r="AN10" s="154"/>
-      <c r="AO10" s="154"/>
-      <c r="AP10" s="154"/>
+      <c r="AM10" s="129"/>
+      <c r="AN10" s="129"/>
+      <c r="AO10" s="129"/>
+      <c r="AP10" s="129"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10260,24 +10260,24 @@
       <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="154"/>
+      <c r="T11" s="129"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -10296,10 +10296,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="154"/>
-      <c r="AN11" s="154"/>
-      <c r="AO11" s="154"/>
-      <c r="AP11" s="154"/>
+      <c r="AM11" s="129"/>
+      <c r="AN11" s="129"/>
+      <c r="AO11" s="129"/>
+      <c r="AP11" s="129"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -10414,24 +10414,24 @@
       <c r="B12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="154"/>
+      <c r="T12" s="129"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10450,10 +10450,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="154"/>
-      <c r="AN12" s="154"/>
-      <c r="AO12" s="154"/>
-      <c r="AP12" s="154"/>
+      <c r="AM12" s="129"/>
+      <c r="AN12" s="129"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="129"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10540,24 +10540,24 @@
       <c r="B13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="154"/>
+      <c r="T13" s="129"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10576,10 +10576,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="154"/>
-      <c r="AN13" s="154"/>
-      <c r="AO13" s="154"/>
-      <c r="AP13" s="154"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10692,24 +10692,24 @@
       <c r="B14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="154"/>
+      <c r="T14" s="129"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10728,10 +10728,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="154"/>
-      <c r="AN14" s="154"/>
-      <c r="AO14" s="154"/>
-      <c r="AP14" s="154"/>
+      <c r="AM14" s="129"/>
+      <c r="AN14" s="129"/>
+      <c r="AO14" s="129"/>
+      <c r="AP14" s="129"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10844,24 +10844,24 @@
       <c r="B15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="154"/>
+      <c r="T15" s="129"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10880,10 +10880,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="154"/>
-      <c r="AN15" s="154"/>
-      <c r="AO15" s="154"/>
-      <c r="AP15" s="154"/>
+      <c r="AM15" s="129"/>
+      <c r="AN15" s="129"/>
+      <c r="AO15" s="129"/>
+      <c r="AP15" s="129"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10996,24 +10996,24 @@
       <c r="B16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="154"/>
+      <c r="T16" s="129"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11032,10 +11032,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="154"/>
-      <c r="AN16" s="154"/>
-      <c r="AO16" s="154"/>
-      <c r="AP16" s="154"/>
+      <c r="AM16" s="129"/>
+      <c r="AN16" s="129"/>
+      <c r="AO16" s="129"/>
+      <c r="AP16" s="129"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11148,24 +11148,24 @@
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="154"/>
+      <c r="T17" s="129"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11184,10 +11184,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="154"/>
-      <c r="AN17" s="154"/>
-      <c r="AO17" s="154"/>
-      <c r="AP17" s="154"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="129"/>
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="129"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11274,24 +11274,24 @@
       <c r="B18" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="154"/>
+      <c r="T18" s="129"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11310,10 +11310,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="154"/>
-      <c r="AN18" s="154"/>
-      <c r="AO18" s="154"/>
-      <c r="AP18" s="154"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="129"/>
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="129"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11398,24 +11398,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="154"/>
+      <c r="T19" s="129"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11434,10 +11434,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="154"/>
-      <c r="AN19" s="154"/>
-      <c r="AO19" s="154"/>
-      <c r="AP19" s="154"/>
+      <c r="AM19" s="129"/>
+      <c r="AN19" s="129"/>
+      <c r="AO19" s="129"/>
+      <c r="AP19" s="129"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11520,30 +11520,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="134" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="154"/>
-      <c r="M20" s="154"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="154"/>
+      <c r="T20" s="129"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11562,10 +11562,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="154"/>
-      <c r="AN20" s="154"/>
-      <c r="AO20" s="154"/>
-      <c r="AP20" s="154"/>
+      <c r="AM20" s="129"/>
+      <c r="AN20" s="129"/>
+      <c r="AO20" s="129"/>
+      <c r="AP20" s="129"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11648,28 +11648,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="138"/>
+      <c r="A21" s="134"/>
       <c r="B21" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="154"/>
+      <c r="T21" s="129"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -11688,10 +11688,10 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="154"/>
-      <c r="AN21" s="154"/>
-      <c r="AO21" s="154"/>
-      <c r="AP21" s="154"/>
+      <c r="AM21" s="129"/>
+      <c r="AN21" s="129"/>
+      <c r="AO21" s="129"/>
+      <c r="AP21" s="129"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -11774,28 +11774,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="138"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="154"/>
+      <c r="T22" s="129"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11814,10 +11814,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="154"/>
-      <c r="AN22" s="154"/>
-      <c r="AO22" s="154"/>
-      <c r="AP22" s="154"/>
+      <c r="AM22" s="129"/>
+      <c r="AN22" s="129"/>
+      <c r="AO22" s="129"/>
+      <c r="AP22" s="129"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11900,28 +11900,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="138"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="154"/>
-      <c r="M23" s="154"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="154"/>
+      <c r="T23" s="129"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11940,10 +11940,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="154"/>
-      <c r="AN23" s="154"/>
-      <c r="AO23" s="154"/>
-      <c r="AP23" s="154"/>
+      <c r="AM23" s="129"/>
+      <c r="AN23" s="129"/>
+      <c r="AO23" s="129"/>
+      <c r="AP23" s="129"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12026,28 +12026,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="138"/>
+      <c r="A24" s="134"/>
       <c r="B24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="129"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="154"/>
+      <c r="T24" s="129"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12066,10 +12066,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
+      <c r="AM24" s="129"/>
+      <c r="AN24" s="129"/>
+      <c r="AO24" s="129"/>
+      <c r="AP24" s="129"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12178,28 +12178,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="138"/>
+      <c r="A25" s="134"/>
       <c r="B25" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="154"/>
+      <c r="T25" s="129"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -12218,10 +12218,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="154"/>
+      <c r="AM25" s="129"/>
+      <c r="AN25" s="129"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12330,28 +12330,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="138"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="154"/>
-      <c r="M26" s="154"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="154"/>
+      <c r="T26" s="129"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12370,10 +12370,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="154"/>
-      <c r="AN26" s="154"/>
-      <c r="AO26" s="154"/>
-      <c r="AP26" s="154"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12482,28 +12482,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="138"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="154"/>
+      <c r="T27" s="129"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12522,10 +12522,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="154"/>
-      <c r="AN27" s="154"/>
-      <c r="AO27" s="154"/>
-      <c r="AP27" s="154"/>
+      <c r="AM27" s="129"/>
+      <c r="AN27" s="129"/>
+      <c r="AO27" s="129"/>
+      <c r="AP27" s="129"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12634,28 +12634,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="138"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="154"/>
+      <c r="T28" s="129"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12674,10 +12674,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="154"/>
-      <c r="AN28" s="154"/>
-      <c r="AO28" s="154"/>
-      <c r="AP28" s="154"/>
+      <c r="AM28" s="129"/>
+      <c r="AN28" s="129"/>
+      <c r="AO28" s="129"/>
+      <c r="AP28" s="129"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12760,28 +12760,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="138"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="154"/>
+      <c r="T29" s="129"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12800,10 +12800,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="154"/>
-      <c r="AN29" s="154"/>
-      <c r="AO29" s="154"/>
-      <c r="AP29" s="154"/>
+      <c r="AM29" s="129"/>
+      <c r="AN29" s="129"/>
+      <c r="AO29" s="129"/>
+      <c r="AP29" s="129"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12886,28 +12886,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="138"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="154"/>
-      <c r="M30" s="154"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="154"/>
+      <c r="T30" s="129"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12926,10 +12926,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="154"/>
-      <c r="AN30" s="154"/>
-      <c r="AO30" s="154"/>
-      <c r="AP30" s="154"/>
+      <c r="AM30" s="129"/>
+      <c r="AN30" s="129"/>
+      <c r="AO30" s="129"/>
+      <c r="AP30" s="129"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13012,28 +13012,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="138"/>
+      <c r="A31" s="134"/>
       <c r="B31" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="154"/>
-      <c r="M31" s="154"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="154"/>
+      <c r="T31" s="129"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13052,10 +13052,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="154"/>
-      <c r="AN31" s="154"/>
-      <c r="AO31" s="154"/>
-      <c r="AP31" s="154"/>
+      <c r="AM31" s="129"/>
+      <c r="AN31" s="129"/>
+      <c r="AO31" s="129"/>
+      <c r="AP31" s="129"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -13164,28 +13164,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="138"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="154"/>
-      <c r="M32" s="154"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="154"/>
+      <c r="T32" s="129"/>
       <c r="U32" s="112"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -13204,23 +13204,23 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="154"/>
-      <c r="AN32" s="154"/>
-      <c r="AO32" s="154"/>
-      <c r="AP32" s="154"/>
+      <c r="AM32" s="129"/>
+      <c r="AN32" s="129"/>
+      <c r="AO32" s="129"/>
+      <c r="AP32" s="129"/>
       <c r="AQ32" s="84"/>
       <c r="AR32" s="84"/>
       <c r="AS32" s="84"/>
       <c r="AT32" s="84"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
+      <c r="AU32" s="84"/>
+      <c r="AV32" s="84"/>
+      <c r="AW32" s="84"/>
+      <c r="AX32" s="84"/>
+      <c r="AY32" s="84"/>
+      <c r="AZ32" s="84"/>
+      <c r="BA32" s="84"/>
+      <c r="BB32" s="84"/>
+      <c r="BC32" s="84"/>
       <c r="BD32" s="21"/>
       <c r="BE32" s="21"/>
       <c r="BF32" s="21"/>
@@ -13290,28 +13290,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="138"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="147"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="154"/>
-      <c r="M33" s="154"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="154"/>
+      <c r="T33" s="129"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13330,10 +13330,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="154"/>
-      <c r="AN33" s="154"/>
-      <c r="AO33" s="154"/>
-      <c r="AP33" s="154"/>
+      <c r="AM33" s="129"/>
+      <c r="AN33" s="129"/>
+      <c r="AO33" s="129"/>
+      <c r="AP33" s="129"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13442,28 +13442,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="138"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="147"/>
-      <c r="D34" s="148"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="154"/>
-      <c r="M34" s="154"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="154"/>
+      <c r="T34" s="129"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13482,10 +13482,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="154"/>
-      <c r="AN34" s="154"/>
-      <c r="AO34" s="154"/>
-      <c r="AP34" s="154"/>
+      <c r="AM34" s="129"/>
+      <c r="AN34" s="129"/>
+      <c r="AO34" s="129"/>
+      <c r="AP34" s="129"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13568,28 +13568,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="138"/>
+      <c r="A35" s="134"/>
       <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="154"/>
-      <c r="M35" s="154"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="154"/>
+      <c r="T35" s="129"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13608,10 +13608,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="154"/>
-      <c r="AN35" s="154"/>
-      <c r="AO35" s="154"/>
-      <c r="AP35" s="154"/>
+      <c r="AM35" s="129"/>
+      <c r="AN35" s="129"/>
+      <c r="AO35" s="129"/>
+      <c r="AP35" s="129"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13720,28 +13720,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="138"/>
+      <c r="A36" s="134"/>
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="154"/>
-      <c r="M36" s="154"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="154"/>
+      <c r="T36" s="129"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13760,10 +13760,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="154"/>
-      <c r="AN36" s="154"/>
-      <c r="AO36" s="154"/>
-      <c r="AP36" s="154"/>
+      <c r="AM36" s="129"/>
+      <c r="AN36" s="129"/>
+      <c r="AO36" s="129"/>
+      <c r="AP36" s="129"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13846,28 +13846,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="138"/>
+      <c r="A37" s="134"/>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="147"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="154"/>
-      <c r="M37" s="154"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="154"/>
+      <c r="T37" s="129"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13886,10 +13886,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="154"/>
-      <c r="AN37" s="154"/>
-      <c r="AO37" s="154"/>
-      <c r="AP37" s="154"/>
+      <c r="AM37" s="129"/>
+      <c r="AN37" s="129"/>
+      <c r="AO37" s="129"/>
+      <c r="AP37" s="129"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13974,24 +13974,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="154"/>
+      <c r="T38" s="129"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14010,10 +14010,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="154"/>
-      <c r="AN38" s="154"/>
-      <c r="AO38" s="154"/>
-      <c r="AP38" s="154"/>
+      <c r="AM38" s="129"/>
+      <c r="AN38" s="129"/>
+      <c r="AO38" s="129"/>
+      <c r="AP38" s="129"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14096,30 +14096,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="134" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
+      <c r="L39" s="129"/>
+      <c r="M39" s="129"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="154"/>
+      <c r="T39" s="129"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14138,10 +14138,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="154"/>
-      <c r="AN39" s="154"/>
-      <c r="AO39" s="154"/>
-      <c r="AP39" s="154"/>
+      <c r="AM39" s="129"/>
+      <c r="AN39" s="129"/>
+      <c r="AO39" s="129"/>
+      <c r="AP39" s="129"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
@@ -14250,28 +14250,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="138"/>
+      <c r="A40" s="134"/>
       <c r="B40" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="147"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="154"/>
+      <c r="T40" s="129"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14290,10 +14290,10 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="154"/>
-      <c r="AN40" s="154"/>
-      <c r="AO40" s="154"/>
-      <c r="AP40" s="154"/>
+      <c r="AM40" s="129"/>
+      <c r="AN40" s="129"/>
+      <c r="AO40" s="129"/>
+      <c r="AP40" s="129"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
@@ -14376,28 +14376,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="138"/>
+      <c r="A41" s="134"/>
       <c r="B41" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="154"/>
+      <c r="T41" s="129"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14416,10 +14416,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="154"/>
-      <c r="AN41" s="154"/>
-      <c r="AO41" s="154"/>
-      <c r="AP41" s="154"/>
+      <c r="AM41" s="129"/>
+      <c r="AN41" s="129"/>
+      <c r="AO41" s="129"/>
+      <c r="AP41" s="129"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14528,28 +14528,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="138"/>
+      <c r="A42" s="134"/>
       <c r="B42" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
+      <c r="C42" s="143"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="154"/>
+      <c r="T42" s="129"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14568,10 +14568,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="154"/>
-      <c r="AN42" s="154"/>
-      <c r="AO42" s="154"/>
-      <c r="AP42" s="154"/>
+      <c r="AM42" s="129"/>
+      <c r="AN42" s="129"/>
+      <c r="AO42" s="129"/>
+      <c r="AP42" s="129"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14654,28 +14654,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="138"/>
+      <c r="A43" s="134"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="148"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
+      <c r="C43" s="143"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="154"/>
-      <c r="M43" s="154"/>
+      <c r="L43" s="129"/>
+      <c r="M43" s="129"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="154"/>
+      <c r="T43" s="129"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14694,10 +14694,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="154"/>
-      <c r="AN43" s="154"/>
-      <c r="AO43" s="154"/>
-      <c r="AP43" s="154"/>
+      <c r="AM43" s="129"/>
+      <c r="AN43" s="129"/>
+      <c r="AO43" s="129"/>
+      <c r="AP43" s="129"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14808,24 +14808,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="154"/>
-      <c r="M44" s="154"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="154"/>
+      <c r="T44" s="129"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14844,10 +14844,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="154"/>
-      <c r="AN44" s="154"/>
-      <c r="AO44" s="154"/>
-      <c r="AP44" s="154"/>
+      <c r="AM44" s="129"/>
+      <c r="AN44" s="129"/>
+      <c r="AO44" s="129"/>
+      <c r="AP44" s="129"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14956,30 +14956,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="135" t="s">
+      <c r="A45" s="131" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="147"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="154"/>
-      <c r="M45" s="154"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="154"/>
+      <c r="T45" s="129"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14998,10 +14998,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="154"/>
-      <c r="AN45" s="154"/>
-      <c r="AO45" s="154"/>
-      <c r="AP45" s="154"/>
+      <c r="AM45" s="129"/>
+      <c r="AN45" s="129"/>
+      <c r="AO45" s="129"/>
+      <c r="AP45" s="129"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15084,28 +15084,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="136"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="147"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="154"/>
-      <c r="M46" s="154"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="154"/>
+      <c r="T46" s="129"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15124,10 +15124,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="154"/>
-      <c r="AN46" s="154"/>
-      <c r="AO46" s="154"/>
-      <c r="AP46" s="154"/>
+      <c r="AM46" s="129"/>
+      <c r="AN46" s="129"/>
+      <c r="AO46" s="129"/>
+      <c r="AP46" s="129"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15210,28 +15210,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="136"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="147"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="154"/>
-      <c r="M47" s="154"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="154"/>
+      <c r="T47" s="129"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15250,10 +15250,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="154"/>
-      <c r="AN47" s="154"/>
-      <c r="AO47" s="154"/>
-      <c r="AP47" s="154"/>
+      <c r="AM47" s="129"/>
+      <c r="AN47" s="129"/>
+      <c r="AO47" s="129"/>
+      <c r="AP47" s="129"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15336,28 +15336,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="136"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="154"/>
-      <c r="M48" s="154"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="154"/>
+      <c r="T48" s="129"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15376,10 +15376,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="154"/>
-      <c r="AN48" s="154"/>
-      <c r="AO48" s="154"/>
-      <c r="AP48" s="154"/>
+      <c r="AM48" s="129"/>
+      <c r="AN48" s="129"/>
+      <c r="AO48" s="129"/>
+      <c r="AP48" s="129"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15462,28 +15462,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="136"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="147"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="154"/>
+      <c r="T49" s="129"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15502,10 +15502,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="154"/>
-      <c r="AN49" s="154"/>
-      <c r="AO49" s="154"/>
-      <c r="AP49" s="154"/>
+      <c r="AM49" s="129"/>
+      <c r="AN49" s="129"/>
+      <c r="AO49" s="129"/>
+      <c r="AP49" s="129"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15588,28 +15588,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="137"/>
+      <c r="A50" s="133"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="147"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="155"/>
+      <c r="T50" s="130"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15628,10 +15628,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="155"/>
-      <c r="AN50" s="155"/>
-      <c r="AO50" s="155"/>
-      <c r="AP50" s="155"/>
+      <c r="AM50" s="130"/>
+      <c r="AN50" s="130"/>
+      <c r="AO50" s="130"/>
+      <c r="AP50" s="130"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15736,12 +15736,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15758,24 +15770,12 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1.S2\Desktop\GuessWho\Documentation\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA29A91-9E3C-4126-A088-E133623D4DEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE03FEDC-5DB5-4CDE-84E7-C9611857AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -910,7 +910,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1163,10 +1163,45 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,34 +1221,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,38 +1281,26 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,9 +1727,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1768,7 +1767,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1874,7 +1873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2016,7 +2015,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2047,284 +2046,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="115" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="121" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="115" t="s">
+      <c r="U3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="115" t="s">
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="116"/>
-      <c r="BC3" s="116"/>
-      <c r="BD3" s="116"/>
-      <c r="BE3" s="116"/>
-      <c r="BF3" s="116"/>
-      <c r="BG3" s="116"/>
-      <c r="BH3" s="116"/>
-      <c r="BI3" s="116"/>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="116"/>
-      <c r="BN3" s="116"/>
-      <c r="BO3" s="116"/>
-      <c r="BP3" s="116"/>
-      <c r="BQ3" s="116"/>
-      <c r="BR3" s="116"/>
-      <c r="BS3" s="116"/>
-      <c r="BT3" s="117"/>
-      <c r="BU3" s="115" t="s">
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="127"/>
+      <c r="AY3" s="127"/>
+      <c r="AZ3" s="127"/>
+      <c r="BA3" s="127"/>
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="127"/>
+      <c r="BK3" s="127"/>
+      <c r="BL3" s="127"/>
+      <c r="BM3" s="127"/>
+      <c r="BN3" s="127"/>
+      <c r="BO3" s="127"/>
+      <c r="BP3" s="127"/>
+      <c r="BQ3" s="127"/>
+      <c r="BR3" s="127"/>
+      <c r="BS3" s="127"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="116"/>
-      <c r="BW3" s="116"/>
-      <c r="BX3" s="116"/>
-      <c r="BY3" s="116"/>
-      <c r="BZ3" s="116"/>
-      <c r="CA3" s="116"/>
-      <c r="CB3" s="116"/>
-      <c r="CC3" s="116"/>
-      <c r="CD3" s="116"/>
-      <c r="CE3" s="116"/>
-      <c r="CF3" s="116"/>
-      <c r="CG3" s="116"/>
-      <c r="CH3" s="116"/>
-      <c r="CI3" s="116"/>
-      <c r="CJ3" s="116"/>
-      <c r="CK3" s="116"/>
-      <c r="CL3" s="116"/>
-      <c r="CM3" s="116"/>
-      <c r="CN3" s="116"/>
-      <c r="CO3" s="116"/>
-      <c r="CP3" s="116"/>
-      <c r="CQ3" s="116"/>
-      <c r="CR3" s="116"/>
-      <c r="CS3" s="116"/>
-      <c r="CT3" s="117"/>
-      <c r="CU3" s="115" t="s">
+      <c r="BV3" s="127"/>
+      <c r="BW3" s="127"/>
+      <c r="BX3" s="127"/>
+      <c r="BY3" s="127"/>
+      <c r="BZ3" s="127"/>
+      <c r="CA3" s="127"/>
+      <c r="CB3" s="127"/>
+      <c r="CC3" s="127"/>
+      <c r="CD3" s="127"/>
+      <c r="CE3" s="127"/>
+      <c r="CF3" s="127"/>
+      <c r="CG3" s="127"/>
+      <c r="CH3" s="127"/>
+      <c r="CI3" s="127"/>
+      <c r="CJ3" s="127"/>
+      <c r="CK3" s="127"/>
+      <c r="CL3" s="127"/>
+      <c r="CM3" s="127"/>
+      <c r="CN3" s="127"/>
+      <c r="CO3" s="127"/>
+      <c r="CP3" s="127"/>
+      <c r="CQ3" s="127"/>
+      <c r="CR3" s="127"/>
+      <c r="CS3" s="127"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="116"/>
-      <c r="CW3" s="116"/>
-      <c r="CX3" s="116"/>
-      <c r="CY3" s="116"/>
-      <c r="CZ3" s="116"/>
-      <c r="DA3" s="116"/>
-      <c r="DB3" s="116"/>
-      <c r="DC3" s="116"/>
-      <c r="DD3" s="116"/>
-      <c r="DE3" s="116"/>
-      <c r="DF3" s="116"/>
-      <c r="DG3" s="116"/>
-      <c r="DH3" s="116"/>
-      <c r="DI3" s="116"/>
-      <c r="DJ3" s="116"/>
-      <c r="DK3" s="116"/>
-      <c r="DL3" s="116"/>
-      <c r="DM3" s="116"/>
-      <c r="DN3" s="116"/>
-      <c r="DO3" s="116"/>
-      <c r="DP3" s="116"/>
-      <c r="DQ3" s="116"/>
-      <c r="DR3" s="116"/>
-      <c r="DS3" s="117"/>
+      <c r="CV3" s="127"/>
+      <c r="CW3" s="127"/>
+      <c r="CX3" s="127"/>
+      <c r="CY3" s="127"/>
+      <c r="CZ3" s="127"/>
+      <c r="DA3" s="127"/>
+      <c r="DB3" s="127"/>
+      <c r="DC3" s="127"/>
+      <c r="DD3" s="127"/>
+      <c r="DE3" s="127"/>
+      <c r="DF3" s="127"/>
+      <c r="DG3" s="127"/>
+      <c r="DH3" s="127"/>
+      <c r="DI3" s="127"/>
+      <c r="DJ3" s="127"/>
+      <c r="DK3" s="127"/>
+      <c r="DL3" s="127"/>
+      <c r="DM3" s="127"/>
+      <c r="DN3" s="127"/>
+      <c r="DO3" s="127"/>
+      <c r="DP3" s="127"/>
+      <c r="DQ3" s="127"/>
+      <c r="DR3" s="127"/>
+      <c r="DS3" s="128"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="120"/>
-      <c r="BU4" s="118"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="119"/>
-      <c r="CB4" s="119"/>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="119"/>
-      <c r="CG4" s="119"/>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="119"/>
-      <c r="CJ4" s="119"/>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="119"/>
-      <c r="CQ4" s="119"/>
-      <c r="CR4" s="119"/>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="120"/>
-      <c r="CU4" s="118"/>
-      <c r="CV4" s="119"/>
-      <c r="CW4" s="119"/>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="119"/>
-      <c r="CZ4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="119"/>
-      <c r="DE4" s="119"/>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DH4" s="119"/>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="119"/>
-      <c r="DO4" s="119"/>
-      <c r="DP4" s="119"/>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="130"/>
+      <c r="BM4" s="130"/>
+      <c r="BN4" s="130"/>
+      <c r="BO4" s="130"/>
+      <c r="BP4" s="130"/>
+      <c r="BQ4" s="130"/>
+      <c r="BR4" s="130"/>
+      <c r="BS4" s="130"/>
+      <c r="BT4" s="131"/>
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="130"/>
+      <c r="BW4" s="130"/>
+      <c r="BX4" s="130"/>
+      <c r="BY4" s="130"/>
+      <c r="BZ4" s="130"/>
+      <c r="CA4" s="130"/>
+      <c r="CB4" s="130"/>
+      <c r="CC4" s="130"/>
+      <c r="CD4" s="130"/>
+      <c r="CE4" s="130"/>
+      <c r="CF4" s="130"/>
+      <c r="CG4" s="130"/>
+      <c r="CH4" s="130"/>
+      <c r="CI4" s="130"/>
+      <c r="CJ4" s="130"/>
+      <c r="CK4" s="130"/>
+      <c r="CL4" s="130"/>
+      <c r="CM4" s="130"/>
+      <c r="CN4" s="130"/>
+      <c r="CO4" s="130"/>
+      <c r="CP4" s="130"/>
+      <c r="CQ4" s="130"/>
+      <c r="CR4" s="130"/>
+      <c r="CS4" s="130"/>
+      <c r="CT4" s="131"/>
+      <c r="CU4" s="129"/>
+      <c r="CV4" s="130"/>
+      <c r="CW4" s="130"/>
+      <c r="CX4" s="130"/>
+      <c r="CY4" s="130"/>
+      <c r="CZ4" s="130"/>
+      <c r="DA4" s="130"/>
+      <c r="DB4" s="130"/>
+      <c r="DC4" s="130"/>
+      <c r="DD4" s="130"/>
+      <c r="DE4" s="130"/>
+      <c r="DF4" s="130"/>
+      <c r="DG4" s="130"/>
+      <c r="DH4" s="130"/>
+      <c r="DI4" s="130"/>
+      <c r="DJ4" s="130"/>
+      <c r="DK4" s="130"/>
+      <c r="DL4" s="130"/>
+      <c r="DM4" s="130"/>
+      <c r="DN4" s="130"/>
+      <c r="DO4" s="130"/>
+      <c r="DP4" s="130"/>
+      <c r="DQ4" s="130"/>
+      <c r="DR4" s="130"/>
+      <c r="DS4" s="131"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2333,18 +2332,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="159"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2353,7 +2352,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="123" t="s">
+      <c r="T5" s="157" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2476,10 +2475,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="120"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2488,7 +2487,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="124"/>
+      <c r="T6" s="158"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2619,10 +2618,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2636,157 +2635,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="125" t="s">
+      <c r="L7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="117"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="125" t="s">
+      <c r="U7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="126" t="s">
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="150" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="151"/>
-      <c r="AQ7" s="125" t="s">
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="126"/>
-      <c r="AS7" s="126"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="125" t="s">
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="126"/>
-      <c r="AW7" s="126"/>
-      <c r="AX7" s="126"/>
-      <c r="AY7" s="126"/>
-      <c r="AZ7" s="126"/>
-      <c r="BA7" s="126"/>
-      <c r="BB7" s="126"/>
-      <c r="BC7" s="127"/>
-      <c r="BD7" s="125" t="s">
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="117"/>
+      <c r="BD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="126"/>
-      <c r="BF7" s="126"/>
-      <c r="BG7" s="126"/>
-      <c r="BH7" s="126"/>
-      <c r="BI7" s="126"/>
-      <c r="BJ7" s="126"/>
-      <c r="BK7" s="126"/>
-      <c r="BL7" s="127"/>
-      <c r="BM7" s="125" t="s">
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
+      <c r="BI7" s="116"/>
+      <c r="BJ7" s="116"/>
+      <c r="BK7" s="116"/>
+      <c r="BL7" s="117"/>
+      <c r="BM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="126"/>
-      <c r="BO7" s="126"/>
-      <c r="BP7" s="126"/>
-      <c r="BQ7" s="125" t="s">
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="126"/>
-      <c r="BS7" s="126"/>
-      <c r="BT7" s="127"/>
-      <c r="BU7" s="125" t="s">
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="117"/>
+      <c r="BU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="126"/>
-      <c r="BW7" s="126"/>
-      <c r="BX7" s="126"/>
-      <c r="BY7" s="126"/>
-      <c r="BZ7" s="126"/>
-      <c r="CA7" s="126"/>
-      <c r="CB7" s="126"/>
-      <c r="CC7" s="127"/>
-      <c r="CD7" s="125" t="s">
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="116"/>
+      <c r="CC7" s="117"/>
+      <c r="CD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="126"/>
-      <c r="CF7" s="126"/>
-      <c r="CG7" s="126"/>
-      <c r="CH7" s="126"/>
-      <c r="CI7" s="126"/>
-      <c r="CJ7" s="126"/>
-      <c r="CK7" s="126"/>
-      <c r="CL7" s="127"/>
-      <c r="CM7" s="125" t="s">
+      <c r="CE7" s="116"/>
+      <c r="CF7" s="116"/>
+      <c r="CG7" s="116"/>
+      <c r="CH7" s="116"/>
+      <c r="CI7" s="116"/>
+      <c r="CJ7" s="116"/>
+      <c r="CK7" s="116"/>
+      <c r="CL7" s="117"/>
+      <c r="CM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="126"/>
-      <c r="CO7" s="126"/>
-      <c r="CP7" s="126"/>
-      <c r="CQ7" s="125" t="s">
+      <c r="CN7" s="116"/>
+      <c r="CO7" s="116"/>
+      <c r="CP7" s="116"/>
+      <c r="CQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="126"/>
-      <c r="CS7" s="126"/>
-      <c r="CT7" s="127"/>
-      <c r="CU7" s="125" t="s">
+      <c r="CR7" s="116"/>
+      <c r="CS7" s="116"/>
+      <c r="CT7" s="117"/>
+      <c r="CU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="126"/>
-      <c r="CW7" s="126"/>
-      <c r="CX7" s="126"/>
-      <c r="CY7" s="126"/>
-      <c r="CZ7" s="126"/>
-      <c r="DA7" s="126"/>
-      <c r="DB7" s="126"/>
-      <c r="DC7" s="127"/>
-      <c r="DD7" s="125" t="s">
+      <c r="CV7" s="116"/>
+      <c r="CW7" s="116"/>
+      <c r="CX7" s="116"/>
+      <c r="CY7" s="116"/>
+      <c r="CZ7" s="116"/>
+      <c r="DA7" s="116"/>
+      <c r="DB7" s="116"/>
+      <c r="DC7" s="117"/>
+      <c r="DD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="126"/>
-      <c r="DF7" s="126"/>
-      <c r="DG7" s="126"/>
-      <c r="DH7" s="126"/>
-      <c r="DI7" s="126"/>
-      <c r="DJ7" s="126"/>
-      <c r="DK7" s="126"/>
-      <c r="DL7" s="127"/>
-      <c r="DM7" s="125" t="s">
+      <c r="DE7" s="116"/>
+      <c r="DF7" s="116"/>
+      <c r="DG7" s="116"/>
+      <c r="DH7" s="116"/>
+      <c r="DI7" s="116"/>
+      <c r="DJ7" s="116"/>
+      <c r="DK7" s="116"/>
+      <c r="DL7" s="117"/>
+      <c r="DM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="126"/>
-      <c r="DO7" s="126"/>
-      <c r="DP7" s="126"/>
-      <c r="DQ7" s="125" t="s">
+      <c r="DN7" s="116"/>
+      <c r="DO7" s="116"/>
+      <c r="DP7" s="116"/>
+      <c r="DQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="127"/>
+      <c r="DR7" s="117"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="136"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2909,8 +2908,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136"/>
-      <c r="B9" s="139"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2938,10 +2937,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="128">
+      <c r="L9" s="152">
         <v>5</v>
       </c>
-      <c r="M9" s="128"/>
+      <c r="M9" s="152"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2960,7 +2959,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="128"/>
+      <c r="T9" s="152"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3015,10 +3014,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="128"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3293,24 +3292,24 @@
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="103"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="129"/>
+      <c r="T10" s="153"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3329,10 +3328,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="129"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
+      <c r="AM10" s="153"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3445,24 +3444,24 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="102"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="129"/>
+      <c r="T11" s="153"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -3481,10 +3480,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="129"/>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="129"/>
+      <c r="AM11" s="153"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="153"/>
+      <c r="AP11" s="153"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -3597,24 +3596,24 @@
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="145"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="103"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="129"/>
+      <c r="T12" s="153"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3633,10 +3632,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="129"/>
-      <c r="AN12" s="129"/>
-      <c r="AO12" s="129"/>
-      <c r="AP12" s="129"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="153"/>
+      <c r="AP12" s="153"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3723,24 +3722,24 @@
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="104"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="129"/>
+      <c r="T13" s="153"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3759,10 +3758,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="129"/>
-      <c r="AN13" s="129"/>
-      <c r="AO13" s="129"/>
-      <c r="AP13" s="129"/>
+      <c r="AM13" s="153"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="153"/>
+      <c r="AP13" s="153"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3875,24 +3874,24 @@
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="145"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
       <c r="H14" s="104"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="129"/>
+      <c r="T14" s="153"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3911,10 +3910,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="129"/>
-      <c r="AO14" s="129"/>
-      <c r="AP14" s="129"/>
+      <c r="AM14" s="153"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4027,24 +4026,24 @@
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="145"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="104"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="129"/>
+      <c r="T15" s="153"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4063,10 +4062,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="129"/>
-      <c r="AO15" s="129"/>
-      <c r="AP15" s="129"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="153"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4179,24 +4178,24 @@
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="145"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="104"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="129"/>
+      <c r="T16" s="153"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4215,10 +4214,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="129"/>
-      <c r="AN16" s="129"/>
-      <c r="AO16" s="129"/>
-      <c r="AP16" s="129"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="153"/>
+      <c r="AP16" s="153"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4331,24 +4330,24 @@
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="104"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="129"/>
+      <c r="T17" s="153"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4367,10 +4366,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="129"/>
-      <c r="AN17" s="129"/>
-      <c r="AO17" s="129"/>
-      <c r="AP17" s="129"/>
+      <c r="AM17" s="153"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="153"/>
+      <c r="AP17" s="153"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4457,24 +4456,24 @@
       <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
       <c r="H18" s="104"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="129"/>
+      <c r="T18" s="153"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4493,10 +4492,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="129"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="129"/>
-      <c r="AP18" s="129"/>
+      <c r="AM18" s="153"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="153"/>
+      <c r="AP18" s="153"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4581,24 +4580,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="129"/>
+      <c r="T19" s="153"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4617,10 +4616,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="129"/>
-      <c r="AN19" s="129"/>
-      <c r="AO19" s="129"/>
-      <c r="AP19" s="129"/>
+      <c r="AM19" s="153"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="153"/>
+      <c r="AP19" s="153"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4703,30 +4702,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="137" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="129"/>
+      <c r="T20" s="153"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4745,10 +4744,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="129"/>
-      <c r="AN20" s="129"/>
-      <c r="AO20" s="129"/>
-      <c r="AP20" s="129"/>
+      <c r="AM20" s="153"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="153"/>
+      <c r="AP20" s="153"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4831,28 +4830,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="134"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="129"/>
+      <c r="T21" s="153"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="55"/>
@@ -4871,10 +4870,10 @@
       <c r="AJ21" s="55"/>
       <c r="AK21" s="55"/>
       <c r="AL21" s="66"/>
-      <c r="AM21" s="129"/>
-      <c r="AN21" s="129"/>
-      <c r="AO21" s="129"/>
-      <c r="AP21" s="129"/>
+      <c r="AM21" s="153"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="153"/>
+      <c r="AP21" s="153"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -4957,28 +4956,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="134"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="129"/>
+      <c r="T22" s="153"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4997,10 +4996,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="129"/>
-      <c r="AN22" s="129"/>
-      <c r="AO22" s="129"/>
-      <c r="AP22" s="129"/>
+      <c r="AM22" s="153"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="153"/>
+      <c r="AP22" s="153"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5083,28 +5082,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="134"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="129"/>
+      <c r="T23" s="153"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5123,10 +5122,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="129"/>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="129"/>
-      <c r="AP23" s="129"/>
+      <c r="AM23" s="153"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="153"/>
+      <c r="AP23" s="153"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5235,28 +5234,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="134"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="129"/>
+      <c r="T24" s="153"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5275,10 +5274,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="129"/>
-      <c r="AN24" s="129"/>
-      <c r="AO24" s="129"/>
-      <c r="AP24" s="129"/>
+      <c r="AM24" s="153"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="153"/>
+      <c r="AP24" s="153"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5387,28 +5386,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="134"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="129"/>
+      <c r="T25" s="153"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5427,10 +5426,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="129"/>
-      <c r="AN25" s="129"/>
-      <c r="AO25" s="129"/>
-      <c r="AP25" s="129"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="153"/>
+      <c r="AP25" s="153"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5539,28 +5538,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="134"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="129"/>
+      <c r="T26" s="153"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5579,10 +5578,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="129"/>
-      <c r="AN26" s="129"/>
-      <c r="AO26" s="129"/>
-      <c r="AP26" s="129"/>
+      <c r="AM26" s="153"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="153"/>
+      <c r="AP26" s="153"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5691,28 +5690,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="134"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="129"/>
+      <c r="T27" s="153"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5731,10 +5730,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="129"/>
-      <c r="AN27" s="129"/>
-      <c r="AO27" s="129"/>
-      <c r="AP27" s="129"/>
+      <c r="AM27" s="153"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="153"/>
+      <c r="AP27" s="153"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5817,28 +5816,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="134"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="129"/>
+      <c r="T28" s="153"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5857,10 +5856,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="129"/>
-      <c r="AN28" s="129"/>
-      <c r="AO28" s="129"/>
-      <c r="AP28" s="129"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="153"/>
+      <c r="AP28" s="153"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5943,28 +5942,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="134"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="129"/>
+      <c r="T29" s="153"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5983,10 +5982,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="129"/>
-      <c r="AN29" s="129"/>
-      <c r="AO29" s="129"/>
-      <c r="AP29" s="129"/>
+      <c r="AM29" s="153"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="153"/>
+      <c r="AP29" s="153"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6069,28 +6068,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="134"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="129"/>
+      <c r="T30" s="153"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6109,10 +6108,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="129"/>
-      <c r="AN30" s="129"/>
-      <c r="AO30" s="129"/>
-      <c r="AP30" s="129"/>
+      <c r="AM30" s="153"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="153"/>
+      <c r="AP30" s="153"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6221,28 +6220,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="134"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="129"/>
+      <c r="T31" s="153"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6261,10 +6260,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="129"/>
-      <c r="AN31" s="129"/>
-      <c r="AO31" s="129"/>
-      <c r="AP31" s="129"/>
+      <c r="AM31" s="153"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="153"/>
+      <c r="AP31" s="153"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6347,28 +6346,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="134"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="129"/>
+      <c r="T32" s="153"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6387,10 +6386,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="129"/>
-      <c r="AN32" s="129"/>
-      <c r="AO32" s="129"/>
-      <c r="AP32" s="129"/>
+      <c r="AM32" s="153"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="153"/>
+      <c r="AP32" s="153"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6499,28 +6498,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="134"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="129"/>
+      <c r="T33" s="153"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6539,10 +6538,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="129"/>
-      <c r="AN33" s="129"/>
-      <c r="AO33" s="129"/>
-      <c r="AP33" s="129"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="153"/>
+      <c r="AP33" s="153"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6625,28 +6624,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="134"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="129"/>
+      <c r="T34" s="153"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6665,10 +6664,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="129"/>
-      <c r="AN34" s="129"/>
-      <c r="AO34" s="129"/>
-      <c r="AP34" s="129"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6777,28 +6776,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="134"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="129"/>
+      <c r="T35" s="153"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6817,10 +6816,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="129"/>
+      <c r="AM35" s="153"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="153"/>
+      <c r="AP35" s="153"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6903,28 +6902,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="134"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="129"/>
+      <c r="T36" s="153"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6943,10 +6942,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="129"/>
-      <c r="AN36" s="129"/>
-      <c r="AO36" s="129"/>
-      <c r="AP36" s="129"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7031,24 +7030,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="105"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="129"/>
+      <c r="T37" s="153"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7067,10 +7066,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="129"/>
-      <c r="AN37" s="129"/>
-      <c r="AO37" s="129"/>
-      <c r="AP37" s="129"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153"/>
+      <c r="AP37" s="153"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7153,30 +7152,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="129"/>
+      <c r="T38" s="153"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7195,10 +7194,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="129"/>
-      <c r="AN38" s="129"/>
-      <c r="AO38" s="129"/>
-      <c r="AP38" s="129"/>
+      <c r="AM38" s="153"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="153"/>
+      <c r="AP38" s="153"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7307,28 +7306,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="134"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="148"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="129"/>
+      <c r="T39" s="153"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7347,10 +7346,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="129"/>
-      <c r="AN39" s="129"/>
-      <c r="AO39" s="129"/>
-      <c r="AP39" s="129"/>
+      <c r="AM39" s="153"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="153"/>
+      <c r="AP39" s="153"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7433,28 +7432,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="134"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="129"/>
+      <c r="T40" s="153"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7473,10 +7472,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="129"/>
-      <c r="AN40" s="129"/>
-      <c r="AO40" s="129"/>
-      <c r="AP40" s="129"/>
+      <c r="AM40" s="153"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="153"/>
+      <c r="AP40" s="153"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7585,28 +7584,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="134"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="129"/>
+      <c r="T41" s="153"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7625,10 +7624,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="129"/>
-      <c r="AN41" s="129"/>
-      <c r="AO41" s="129"/>
-      <c r="AP41" s="129"/>
+      <c r="AM41" s="153"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="153"/>
+      <c r="AP41" s="153"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7711,28 +7710,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="134"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="145"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="148"/>
       <c r="H42" s="106"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="129"/>
+      <c r="T42" s="153"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7751,10 +7750,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="129"/>
-      <c r="AN42" s="129"/>
-      <c r="AO42" s="129"/>
-      <c r="AP42" s="129"/>
+      <c r="AM42" s="153"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="153"/>
+      <c r="AP42" s="153"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7865,24 +7864,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="99"/>
-      <c r="C43" s="143"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="145"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="148"/>
       <c r="H43" s="105"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="129"/>
+      <c r="T43" s="153"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7901,10 +7900,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="129"/>
-      <c r="AN43" s="129"/>
-      <c r="AO43" s="129"/>
-      <c r="AP43" s="129"/>
+      <c r="AM43" s="153"/>
+      <c r="AN43" s="153"/>
+      <c r="AO43" s="153"/>
+      <c r="AP43" s="153"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8013,30 +8012,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="134" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="145"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="129"/>
+      <c r="T44" s="153"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8055,10 +8054,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="129"/>
-      <c r="AN44" s="129"/>
-      <c r="AO44" s="129"/>
-      <c r="AP44" s="129"/>
+      <c r="AM44" s="153"/>
+      <c r="AN44" s="153"/>
+      <c r="AO44" s="153"/>
+      <c r="AP44" s="153"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8141,28 +8140,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="132"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="145"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="148"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="129"/>
+      <c r="T45" s="153"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8181,10 +8180,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="129"/>
-      <c r="AN45" s="129"/>
-      <c r="AO45" s="129"/>
-      <c r="AP45" s="129"/>
+      <c r="AM45" s="153"/>
+      <c r="AN45" s="153"/>
+      <c r="AO45" s="153"/>
+      <c r="AP45" s="153"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8267,28 +8266,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="132"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="145"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="148"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="129"/>
+      <c r="T46" s="153"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8307,10 +8306,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="129"/>
-      <c r="AN46" s="129"/>
-      <c r="AO46" s="129"/>
-      <c r="AP46" s="129"/>
+      <c r="AM46" s="153"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="153"/>
+      <c r="AP46" s="153"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8393,28 +8392,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="132"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="145"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="148"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="129"/>
+      <c r="T47" s="153"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8433,10 +8432,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="129"/>
-      <c r="AN47" s="129"/>
-      <c r="AO47" s="129"/>
-      <c r="AP47" s="129"/>
+      <c r="AM47" s="153"/>
+      <c r="AN47" s="153"/>
+      <c r="AO47" s="153"/>
+      <c r="AP47" s="153"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8519,28 +8518,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="132"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="145"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="148"/>
       <c r="H48" s="107"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="129"/>
+      <c r="T48" s="153"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8559,10 +8558,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="129"/>
-      <c r="AN48" s="129"/>
-      <c r="AO48" s="129"/>
-      <c r="AP48" s="129"/>
+      <c r="AM48" s="153"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="153"/>
+      <c r="AP48" s="153"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8644,28 +8643,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="133"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="148"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
       <c r="H49" s="106"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
+      <c r="L49" s="154"/>
+      <c r="M49" s="154"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="130"/>
+      <c r="T49" s="154"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8684,10 +8683,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="130"/>
-      <c r="AN49" s="130"/>
-      <c r="AO49" s="130"/>
-      <c r="AP49" s="130"/>
+      <c r="AM49" s="154"/>
+      <c r="AN49" s="154"/>
+      <c r="AO49" s="154"/>
+      <c r="AP49" s="154"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8792,25 +8791,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8826,12 +8812,25 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8844,7 +8843,7 @@
   <dimension ref="A1:ER57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,284 +8863,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="149"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="152" t="s">
+      <c r="D2" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="115" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="121" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="115" t="s">
+      <c r="U3" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="117"/>
-      <c r="AU3" s="115" t="s">
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="127"/>
+      <c r="AK3" s="127"/>
+      <c r="AL3" s="127"/>
+      <c r="AM3" s="127"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="127"/>
+      <c r="AP3" s="127"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="127"/>
+      <c r="AS3" s="127"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="116"/>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116"/>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="116"/>
-      <c r="BC3" s="116"/>
-      <c r="BD3" s="116"/>
-      <c r="BE3" s="116"/>
-      <c r="BF3" s="116"/>
-      <c r="BG3" s="116"/>
-      <c r="BH3" s="116"/>
-      <c r="BI3" s="116"/>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="116"/>
-      <c r="BN3" s="116"/>
-      <c r="BO3" s="116"/>
-      <c r="BP3" s="116"/>
-      <c r="BQ3" s="116"/>
-      <c r="BR3" s="116"/>
-      <c r="BS3" s="116"/>
-      <c r="BT3" s="117"/>
-      <c r="BU3" s="115" t="s">
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="127"/>
+      <c r="AX3" s="127"/>
+      <c r="AY3" s="127"/>
+      <c r="AZ3" s="127"/>
+      <c r="BA3" s="127"/>
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
+      <c r="BH3" s="127"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="127"/>
+      <c r="BK3" s="127"/>
+      <c r="BL3" s="127"/>
+      <c r="BM3" s="127"/>
+      <c r="BN3" s="127"/>
+      <c r="BO3" s="127"/>
+      <c r="BP3" s="127"/>
+      <c r="BQ3" s="127"/>
+      <c r="BR3" s="127"/>
+      <c r="BS3" s="127"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="116"/>
-      <c r="BW3" s="116"/>
-      <c r="BX3" s="116"/>
-      <c r="BY3" s="116"/>
-      <c r="BZ3" s="116"/>
-      <c r="CA3" s="116"/>
-      <c r="CB3" s="116"/>
-      <c r="CC3" s="116"/>
-      <c r="CD3" s="116"/>
-      <c r="CE3" s="116"/>
-      <c r="CF3" s="116"/>
-      <c r="CG3" s="116"/>
-      <c r="CH3" s="116"/>
-      <c r="CI3" s="116"/>
-      <c r="CJ3" s="116"/>
-      <c r="CK3" s="116"/>
-      <c r="CL3" s="116"/>
-      <c r="CM3" s="116"/>
-      <c r="CN3" s="116"/>
-      <c r="CO3" s="116"/>
-      <c r="CP3" s="116"/>
-      <c r="CQ3" s="116"/>
-      <c r="CR3" s="116"/>
-      <c r="CS3" s="116"/>
-      <c r="CT3" s="117"/>
-      <c r="CU3" s="115" t="s">
+      <c r="BV3" s="127"/>
+      <c r="BW3" s="127"/>
+      <c r="BX3" s="127"/>
+      <c r="BY3" s="127"/>
+      <c r="BZ3" s="127"/>
+      <c r="CA3" s="127"/>
+      <c r="CB3" s="127"/>
+      <c r="CC3" s="127"/>
+      <c r="CD3" s="127"/>
+      <c r="CE3" s="127"/>
+      <c r="CF3" s="127"/>
+      <c r="CG3" s="127"/>
+      <c r="CH3" s="127"/>
+      <c r="CI3" s="127"/>
+      <c r="CJ3" s="127"/>
+      <c r="CK3" s="127"/>
+      <c r="CL3" s="127"/>
+      <c r="CM3" s="127"/>
+      <c r="CN3" s="127"/>
+      <c r="CO3" s="127"/>
+      <c r="CP3" s="127"/>
+      <c r="CQ3" s="127"/>
+      <c r="CR3" s="127"/>
+      <c r="CS3" s="127"/>
+      <c r="CT3" s="128"/>
+      <c r="CU3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="116"/>
-      <c r="CW3" s="116"/>
-      <c r="CX3" s="116"/>
-      <c r="CY3" s="116"/>
-      <c r="CZ3" s="116"/>
-      <c r="DA3" s="116"/>
-      <c r="DB3" s="116"/>
-      <c r="DC3" s="116"/>
-      <c r="DD3" s="116"/>
-      <c r="DE3" s="116"/>
-      <c r="DF3" s="116"/>
-      <c r="DG3" s="116"/>
-      <c r="DH3" s="116"/>
-      <c r="DI3" s="116"/>
-      <c r="DJ3" s="116"/>
-      <c r="DK3" s="116"/>
-      <c r="DL3" s="116"/>
-      <c r="DM3" s="116"/>
-      <c r="DN3" s="116"/>
-      <c r="DO3" s="116"/>
-      <c r="DP3" s="116"/>
-      <c r="DQ3" s="116"/>
-      <c r="DR3" s="116"/>
-      <c r="DS3" s="117"/>
+      <c r="CV3" s="127"/>
+      <c r="CW3" s="127"/>
+      <c r="CX3" s="127"/>
+      <c r="CY3" s="127"/>
+      <c r="CZ3" s="127"/>
+      <c r="DA3" s="127"/>
+      <c r="DB3" s="127"/>
+      <c r="DC3" s="127"/>
+      <c r="DD3" s="127"/>
+      <c r="DE3" s="127"/>
+      <c r="DF3" s="127"/>
+      <c r="DG3" s="127"/>
+      <c r="DH3" s="127"/>
+      <c r="DI3" s="127"/>
+      <c r="DJ3" s="127"/>
+      <c r="DK3" s="127"/>
+      <c r="DL3" s="127"/>
+      <c r="DM3" s="127"/>
+      <c r="DN3" s="127"/>
+      <c r="DO3" s="127"/>
+      <c r="DP3" s="127"/>
+      <c r="DQ3" s="127"/>
+      <c r="DR3" s="127"/>
+      <c r="DS3" s="128"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="152" t="s">
+      <c r="D4" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="119"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="119"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="119"/>
-      <c r="AD4" s="119"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="119"/>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
-      <c r="AK4" s="119"/>
-      <c r="AL4" s="119"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="119"/>
-      <c r="AO4" s="119"/>
-      <c r="AP4" s="119"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="119"/>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="118"/>
-      <c r="AV4" s="119"/>
-      <c r="AW4" s="119"/>
-      <c r="AX4" s="119"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="119"/>
-      <c r="BB4" s="119"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="119"/>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
-      <c r="BI4" s="119"/>
-      <c r="BJ4" s="119"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="119"/>
-      <c r="BM4" s="119"/>
-      <c r="BN4" s="119"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="119"/>
-      <c r="BQ4" s="119"/>
-      <c r="BR4" s="119"/>
-      <c r="BS4" s="119"/>
-      <c r="BT4" s="120"/>
-      <c r="BU4" s="118"/>
-      <c r="BV4" s="119"/>
-      <c r="BW4" s="119"/>
-      <c r="BX4" s="119"/>
-      <c r="BY4" s="119"/>
-      <c r="BZ4" s="119"/>
-      <c r="CA4" s="119"/>
-      <c r="CB4" s="119"/>
-      <c r="CC4" s="119"/>
-      <c r="CD4" s="119"/>
-      <c r="CE4" s="119"/>
-      <c r="CF4" s="119"/>
-      <c r="CG4" s="119"/>
-      <c r="CH4" s="119"/>
-      <c r="CI4" s="119"/>
-      <c r="CJ4" s="119"/>
-      <c r="CK4" s="119"/>
-      <c r="CL4" s="119"/>
-      <c r="CM4" s="119"/>
-      <c r="CN4" s="119"/>
-      <c r="CO4" s="119"/>
-      <c r="CP4" s="119"/>
-      <c r="CQ4" s="119"/>
-      <c r="CR4" s="119"/>
-      <c r="CS4" s="119"/>
-      <c r="CT4" s="120"/>
-      <c r="CU4" s="118"/>
-      <c r="CV4" s="119"/>
-      <c r="CW4" s="119"/>
-      <c r="CX4" s="119"/>
-      <c r="CY4" s="119"/>
-      <c r="CZ4" s="119"/>
-      <c r="DA4" s="119"/>
-      <c r="DB4" s="119"/>
-      <c r="DC4" s="119"/>
-      <c r="DD4" s="119"/>
-      <c r="DE4" s="119"/>
-      <c r="DF4" s="119"/>
-      <c r="DG4" s="119"/>
-      <c r="DH4" s="119"/>
-      <c r="DI4" s="119"/>
-      <c r="DJ4" s="119"/>
-      <c r="DK4" s="119"/>
-      <c r="DL4" s="119"/>
-      <c r="DM4" s="119"/>
-      <c r="DN4" s="119"/>
-      <c r="DO4" s="119"/>
-      <c r="DP4" s="119"/>
-      <c r="DQ4" s="119"/>
-      <c r="DR4" s="119"/>
-      <c r="DS4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="131"/>
+      <c r="AU4" s="129"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="130"/>
+      <c r="BM4" s="130"/>
+      <c r="BN4" s="130"/>
+      <c r="BO4" s="130"/>
+      <c r="BP4" s="130"/>
+      <c r="BQ4" s="130"/>
+      <c r="BR4" s="130"/>
+      <c r="BS4" s="130"/>
+      <c r="BT4" s="131"/>
+      <c r="BU4" s="129"/>
+      <c r="BV4" s="130"/>
+      <c r="BW4" s="130"/>
+      <c r="BX4" s="130"/>
+      <c r="BY4" s="130"/>
+      <c r="BZ4" s="130"/>
+      <c r="CA4" s="130"/>
+      <c r="CB4" s="130"/>
+      <c r="CC4" s="130"/>
+      <c r="CD4" s="130"/>
+      <c r="CE4" s="130"/>
+      <c r="CF4" s="130"/>
+      <c r="CG4" s="130"/>
+      <c r="CH4" s="130"/>
+      <c r="CI4" s="130"/>
+      <c r="CJ4" s="130"/>
+      <c r="CK4" s="130"/>
+      <c r="CL4" s="130"/>
+      <c r="CM4" s="130"/>
+      <c r="CN4" s="130"/>
+      <c r="CO4" s="130"/>
+      <c r="CP4" s="130"/>
+      <c r="CQ4" s="130"/>
+      <c r="CR4" s="130"/>
+      <c r="CS4" s="130"/>
+      <c r="CT4" s="131"/>
+      <c r="CU4" s="129"/>
+      <c r="CV4" s="130"/>
+      <c r="CW4" s="130"/>
+      <c r="CX4" s="130"/>
+      <c r="CY4" s="130"/>
+      <c r="CZ4" s="130"/>
+      <c r="DA4" s="130"/>
+      <c r="DB4" s="130"/>
+      <c r="DC4" s="130"/>
+      <c r="DD4" s="130"/>
+      <c r="DE4" s="130"/>
+      <c r="DF4" s="130"/>
+      <c r="DG4" s="130"/>
+      <c r="DH4" s="130"/>
+      <c r="DI4" s="130"/>
+      <c r="DJ4" s="130"/>
+      <c r="DK4" s="130"/>
+      <c r="DL4" s="130"/>
+      <c r="DM4" s="130"/>
+      <c r="DN4" s="130"/>
+      <c r="DO4" s="130"/>
+      <c r="DP4" s="130"/>
+      <c r="DQ4" s="130"/>
+      <c r="DR4" s="130"/>
+      <c r="DS4" s="131"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9150,18 +9149,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="155" t="s">
+      <c r="D5" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="158" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="159"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="133"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9170,7 +9169,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="123" t="s">
+      <c r="T5" s="157" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9293,10 +9292,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="120"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9305,7 +9304,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="124"/>
+      <c r="T6" s="158"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9436,10 +9435,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9453,157 +9452,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="125" t="s">
+      <c r="L7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125" t="s">
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="127"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="117"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="125" t="s">
+      <c r="U7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="126" t="s">
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="126"/>
-      <c r="AK7" s="126"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="150" t="s">
+      <c r="AE7" s="116"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="151"/>
-      <c r="AP7" s="151"/>
-      <c r="AQ7" s="125" t="s">
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+      <c r="AP7" s="119"/>
+      <c r="AQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="126"/>
-      <c r="AS7" s="126"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="125" t="s">
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="117"/>
+      <c r="AU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="126"/>
-      <c r="AW7" s="126"/>
-      <c r="AX7" s="126"/>
-      <c r="AY7" s="126"/>
-      <c r="AZ7" s="126"/>
-      <c r="BA7" s="126"/>
-      <c r="BB7" s="126"/>
-      <c r="BC7" s="127"/>
-      <c r="BD7" s="125" t="s">
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="117"/>
+      <c r="BD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="126"/>
-      <c r="BF7" s="126"/>
-      <c r="BG7" s="126"/>
-      <c r="BH7" s="126"/>
-      <c r="BI7" s="126"/>
-      <c r="BJ7" s="126"/>
-      <c r="BK7" s="126"/>
-      <c r="BL7" s="127"/>
-      <c r="BM7" s="125" t="s">
+      <c r="BE7" s="116"/>
+      <c r="BF7" s="116"/>
+      <c r="BG7" s="116"/>
+      <c r="BH7" s="116"/>
+      <c r="BI7" s="116"/>
+      <c r="BJ7" s="116"/>
+      <c r="BK7" s="116"/>
+      <c r="BL7" s="117"/>
+      <c r="BM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="126"/>
-      <c r="BO7" s="126"/>
-      <c r="BP7" s="126"/>
-      <c r="BQ7" s="125" t="s">
+      <c r="BN7" s="116"/>
+      <c r="BO7" s="116"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="126"/>
-      <c r="BS7" s="126"/>
-      <c r="BT7" s="127"/>
-      <c r="BU7" s="125" t="s">
+      <c r="BR7" s="116"/>
+      <c r="BS7" s="116"/>
+      <c r="BT7" s="117"/>
+      <c r="BU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="126"/>
-      <c r="BW7" s="126"/>
-      <c r="BX7" s="126"/>
-      <c r="BY7" s="126"/>
-      <c r="BZ7" s="126"/>
-      <c r="CA7" s="126"/>
-      <c r="CB7" s="126"/>
-      <c r="CC7" s="127"/>
-      <c r="CD7" s="125" t="s">
+      <c r="BV7" s="116"/>
+      <c r="BW7" s="116"/>
+      <c r="BX7" s="116"/>
+      <c r="BY7" s="116"/>
+      <c r="BZ7" s="116"/>
+      <c r="CA7" s="116"/>
+      <c r="CB7" s="116"/>
+      <c r="CC7" s="117"/>
+      <c r="CD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="126"/>
-      <c r="CF7" s="126"/>
-      <c r="CG7" s="126"/>
-      <c r="CH7" s="126"/>
-      <c r="CI7" s="126"/>
-      <c r="CJ7" s="126"/>
-      <c r="CK7" s="126"/>
-      <c r="CL7" s="127"/>
-      <c r="CM7" s="125" t="s">
+      <c r="CE7" s="116"/>
+      <c r="CF7" s="116"/>
+      <c r="CG7" s="116"/>
+      <c r="CH7" s="116"/>
+      <c r="CI7" s="116"/>
+      <c r="CJ7" s="116"/>
+      <c r="CK7" s="116"/>
+      <c r="CL7" s="117"/>
+      <c r="CM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="126"/>
-      <c r="CO7" s="126"/>
-      <c r="CP7" s="126"/>
-      <c r="CQ7" s="125" t="s">
+      <c r="CN7" s="116"/>
+      <c r="CO7" s="116"/>
+      <c r="CP7" s="116"/>
+      <c r="CQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="126"/>
-      <c r="CS7" s="126"/>
-      <c r="CT7" s="127"/>
-      <c r="CU7" s="125" t="s">
+      <c r="CR7" s="116"/>
+      <c r="CS7" s="116"/>
+      <c r="CT7" s="117"/>
+      <c r="CU7" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="126"/>
-      <c r="CW7" s="126"/>
-      <c r="CX7" s="126"/>
-      <c r="CY7" s="126"/>
-      <c r="CZ7" s="126"/>
-      <c r="DA7" s="126"/>
-      <c r="DB7" s="126"/>
-      <c r="DC7" s="127"/>
-      <c r="DD7" s="125" t="s">
+      <c r="CV7" s="116"/>
+      <c r="CW7" s="116"/>
+      <c r="CX7" s="116"/>
+      <c r="CY7" s="116"/>
+      <c r="CZ7" s="116"/>
+      <c r="DA7" s="116"/>
+      <c r="DB7" s="116"/>
+      <c r="DC7" s="117"/>
+      <c r="DD7" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="126"/>
-      <c r="DF7" s="126"/>
-      <c r="DG7" s="126"/>
-      <c r="DH7" s="126"/>
-      <c r="DI7" s="126"/>
-      <c r="DJ7" s="126"/>
-      <c r="DK7" s="126"/>
-      <c r="DL7" s="127"/>
-      <c r="DM7" s="125" t="s">
+      <c r="DE7" s="116"/>
+      <c r="DF7" s="116"/>
+      <c r="DG7" s="116"/>
+      <c r="DH7" s="116"/>
+      <c r="DI7" s="116"/>
+      <c r="DJ7" s="116"/>
+      <c r="DK7" s="116"/>
+      <c r="DL7" s="117"/>
+      <c r="DM7" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="126"/>
-      <c r="DO7" s="126"/>
-      <c r="DP7" s="126"/>
-      <c r="DQ7" s="125" t="s">
+      <c r="DN7" s="116"/>
+      <c r="DO7" s="116"/>
+      <c r="DP7" s="116"/>
+      <c r="DQ7" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="127"/>
+      <c r="DR7" s="117"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9726,8 +9725,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="56">
         <v>172</v>
       </c>
@@ -9755,10 +9754,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="128">
+      <c r="L9" s="152">
         <v>5</v>
       </c>
-      <c r="M9" s="128"/>
+      <c r="M9" s="152"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9777,7 +9776,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="128"/>
+      <c r="T9" s="152"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9832,10 +9831,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="128"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="152"/>
+      <c r="AO9" s="152"/>
+      <c r="AP9" s="152"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10108,24 +10107,24 @@
       <c r="B10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="129"/>
+      <c r="T10" s="153"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10144,10 +10143,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="129"/>
-      <c r="AN10" s="129"/>
-      <c r="AO10" s="129"/>
-      <c r="AP10" s="129"/>
+      <c r="AM10" s="153"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10260,24 +10259,24 @@
       <c r="B11" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="91"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
+      <c r="L11" s="153"/>
+      <c r="M11" s="153"/>
       <c r="N11" s="93"/>
       <c r="O11" s="93"/>
       <c r="P11" s="93"/>
       <c r="Q11" s="93"/>
       <c r="R11" s="93"/>
       <c r="S11" s="93"/>
-      <c r="T11" s="129"/>
+      <c r="T11" s="153"/>
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
@@ -10296,10 +10295,10 @@
       <c r="AJ11" s="93"/>
       <c r="AK11" s="93"/>
       <c r="AL11" s="94"/>
-      <c r="AM11" s="129"/>
-      <c r="AN11" s="129"/>
-      <c r="AO11" s="129"/>
-      <c r="AP11" s="129"/>
+      <c r="AM11" s="153"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="153"/>
+      <c r="AP11" s="153"/>
       <c r="AQ11" s="95"/>
       <c r="AR11" s="93"/>
       <c r="AS11" s="93"/>
@@ -10414,24 +10413,24 @@
       <c r="B12" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="129"/>
+      <c r="T12" s="153"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10450,10 +10449,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="129"/>
-      <c r="AN12" s="129"/>
-      <c r="AO12" s="129"/>
-      <c r="AP12" s="129"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="153"/>
+      <c r="AP12" s="153"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10540,24 +10539,24 @@
       <c r="B13" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="129"/>
+      <c r="T13" s="153"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10576,10 +10575,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="129"/>
-      <c r="AN13" s="129"/>
-      <c r="AO13" s="129"/>
-      <c r="AP13" s="129"/>
+      <c r="AM13" s="153"/>
+      <c r="AN13" s="153"/>
+      <c r="AO13" s="153"/>
+      <c r="AP13" s="153"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10692,24 +10691,24 @@
       <c r="B14" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="129"/>
+      <c r="T14" s="153"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10728,10 +10727,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="129"/>
-      <c r="AN14" s="129"/>
-      <c r="AO14" s="129"/>
-      <c r="AP14" s="129"/>
+      <c r="AM14" s="153"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10844,24 +10843,24 @@
       <c r="B15" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="129"/>
+      <c r="T15" s="153"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10880,10 +10879,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="129"/>
-      <c r="AO15" s="129"/>
-      <c r="AP15" s="129"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="153"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10996,24 +10995,24 @@
       <c r="B16" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="129"/>
+      <c r="T16" s="153"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11032,10 +11031,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="129"/>
-      <c r="AN16" s="129"/>
-      <c r="AO16" s="129"/>
-      <c r="AP16" s="129"/>
+      <c r="AM16" s="153"/>
+      <c r="AN16" s="153"/>
+      <c r="AO16" s="153"/>
+      <c r="AP16" s="153"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11148,24 +11147,24 @@
       <c r="B17" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="129"/>
+      <c r="T17" s="153"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11184,10 +11183,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="129"/>
-      <c r="AN17" s="129"/>
-      <c r="AO17" s="129"/>
-      <c r="AP17" s="129"/>
+      <c r="AM17" s="153"/>
+      <c r="AN17" s="153"/>
+      <c r="AO17" s="153"/>
+      <c r="AP17" s="153"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11274,24 +11273,24 @@
       <c r="B18" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="129"/>
+      <c r="T18" s="153"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11310,10 +11309,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="129"/>
-      <c r="AN18" s="129"/>
-      <c r="AO18" s="129"/>
-      <c r="AP18" s="129"/>
+      <c r="AM18" s="153"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="153"/>
+      <c r="AP18" s="153"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11398,24 +11397,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="129"/>
+      <c r="T19" s="153"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11434,10 +11433,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="129"/>
-      <c r="AN19" s="129"/>
-      <c r="AO19" s="129"/>
-      <c r="AP19" s="129"/>
+      <c r="AM19" s="153"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="153"/>
+      <c r="AP19" s="153"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11520,30 +11519,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="137" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="L20" s="153"/>
+      <c r="M20" s="153"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="129"/>
+      <c r="T20" s="153"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11562,10 +11561,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="129"/>
-      <c r="AN20" s="129"/>
-      <c r="AO20" s="129"/>
-      <c r="AP20" s="129"/>
+      <c r="AM20" s="153"/>
+      <c r="AN20" s="153"/>
+      <c r="AO20" s="153"/>
+      <c r="AP20" s="153"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11648,28 +11647,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="134"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
-      <c r="T21" s="129"/>
+      <c r="T21" s="153"/>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
@@ -11688,10 +11687,10 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
-      <c r="AM21" s="129"/>
-      <c r="AN21" s="129"/>
-      <c r="AO21" s="129"/>
-      <c r="AP21" s="129"/>
+      <c r="AM21" s="153"/>
+      <c r="AN21" s="153"/>
+      <c r="AO21" s="153"/>
+      <c r="AP21" s="153"/>
       <c r="AQ21" s="33"/>
       <c r="AR21" s="55"/>
       <c r="AS21" s="55"/>
@@ -11774,28 +11773,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="134"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="129"/>
+      <c r="T22" s="153"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11814,10 +11813,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="129"/>
-      <c r="AN22" s="129"/>
-      <c r="AO22" s="129"/>
-      <c r="AP22" s="129"/>
+      <c r="AM22" s="153"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="153"/>
+      <c r="AP22" s="153"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11900,28 +11899,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="134"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="L23" s="153"/>
+      <c r="M23" s="153"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="129"/>
+      <c r="T23" s="153"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11940,10 +11939,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="129"/>
-      <c r="AN23" s="129"/>
-      <c r="AO23" s="129"/>
-      <c r="AP23" s="129"/>
+      <c r="AM23" s="153"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="153"/>
+      <c r="AP23" s="153"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12026,28 +12025,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="134"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
+      <c r="L24" s="153"/>
+      <c r="M24" s="153"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="129"/>
+      <c r="T24" s="153"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12066,10 +12065,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="129"/>
-      <c r="AN24" s="129"/>
-      <c r="AO24" s="129"/>
-      <c r="AP24" s="129"/>
+      <c r="AM24" s="153"/>
+      <c r="AN24" s="153"/>
+      <c r="AO24" s="153"/>
+      <c r="AP24" s="153"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12178,38 +12177,38 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="134"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="129"/>
+      <c r="T25" s="153"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="113"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
       <c r="AE25" s="84"/>
       <c r="AF25" s="84"/>
       <c r="AG25" s="84"/>
@@ -12218,10 +12217,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="129"/>
-      <c r="AN25" s="129"/>
-      <c r="AO25" s="129"/>
-      <c r="AP25" s="129"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="153"/>
+      <c r="AP25" s="153"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12330,38 +12329,38 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="134"/>
-      <c r="B26" s="114" t="s">
+      <c r="A26" s="137"/>
+      <c r="B26" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="129"/>
+      <c r="T26" s="153"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="21"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
       <c r="AE26" s="21"/>
       <c r="AF26" s="21"/>
       <c r="AG26" s="21"/>
@@ -12370,10 +12369,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="129"/>
-      <c r="AN26" s="129"/>
-      <c r="AO26" s="129"/>
-      <c r="AP26" s="129"/>
+      <c r="AM26" s="153"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="153"/>
+      <c r="AP26" s="153"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12482,28 +12481,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="134"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="129"/>
+      <c r="T27" s="153"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12522,10 +12521,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="129"/>
-      <c r="AN27" s="129"/>
-      <c r="AO27" s="129"/>
-      <c r="AP27" s="129"/>
+      <c r="AM27" s="153"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="153"/>
+      <c r="AP27" s="153"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12634,28 +12633,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="134"/>
-      <c r="B28" s="114" t="s">
+      <c r="A28" s="137"/>
+      <c r="B28" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="129"/>
+      <c r="T28" s="153"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12674,10 +12673,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="129"/>
-      <c r="AN28" s="129"/>
-      <c r="AO28" s="129"/>
-      <c r="AP28" s="129"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="153"/>
+      <c r="AP28" s="153"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12760,28 +12759,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="134"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="L29" s="153"/>
+      <c r="M29" s="153"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="129"/>
+      <c r="T29" s="153"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12800,10 +12799,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="129"/>
-      <c r="AN29" s="129"/>
-      <c r="AO29" s="129"/>
-      <c r="AP29" s="129"/>
+      <c r="AM29" s="153"/>
+      <c r="AN29" s="153"/>
+      <c r="AO29" s="153"/>
+      <c r="AP29" s="153"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12886,28 +12885,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="134"/>
-      <c r="B30" s="114" t="s">
+      <c r="A30" s="137"/>
+      <c r="B30" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="143"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="L30" s="153"/>
+      <c r="M30" s="153"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="129"/>
+      <c r="T30" s="153"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12926,10 +12925,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="129"/>
-      <c r="AN30" s="129"/>
-      <c r="AO30" s="129"/>
-      <c r="AP30" s="129"/>
+      <c r="AM30" s="153"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="153"/>
+      <c r="AP30" s="153"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13012,28 +13011,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="134"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="129"/>
+      <c r="T31" s="153"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13052,10 +13051,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="129"/>
-      <c r="AN31" s="129"/>
-      <c r="AO31" s="129"/>
-      <c r="AP31" s="129"/>
+      <c r="AM31" s="153"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="153"/>
+      <c r="AP31" s="153"/>
       <c r="AQ31" s="21"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -13164,29 +13163,29 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="134"/>
-      <c r="B32" s="114" t="s">
+      <c r="A32" s="137"/>
+      <c r="B32" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="129"/>
-      <c r="U32" s="112"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="55"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
       <c r="X32" s="21"/>
@@ -13204,10 +13203,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="129"/>
-      <c r="AN32" s="129"/>
-      <c r="AO32" s="129"/>
-      <c r="AP32" s="129"/>
+      <c r="AM32" s="153"/>
+      <c r="AN32" s="153"/>
+      <c r="AO32" s="153"/>
+      <c r="AP32" s="153"/>
       <c r="AQ32" s="84"/>
       <c r="AR32" s="84"/>
       <c r="AS32" s="84"/>
@@ -13290,28 +13289,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="134"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="129"/>
+      <c r="T33" s="153"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13330,10 +13329,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="129"/>
-      <c r="AN33" s="129"/>
-      <c r="AO33" s="129"/>
-      <c r="AP33" s="129"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="153"/>
+      <c r="AP33" s="153"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13442,28 +13441,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="134"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
+      <c r="L34" s="153"/>
+      <c r="M34" s="153"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="129"/>
+      <c r="T34" s="153"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13482,10 +13481,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="129"/>
-      <c r="AN34" s="129"/>
-      <c r="AO34" s="129"/>
-      <c r="AP34" s="129"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13568,28 +13567,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="134"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="L35" s="153"/>
+      <c r="M35" s="153"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="129"/>
+      <c r="T35" s="153"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13608,10 +13607,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="129"/>
-      <c r="AN35" s="129"/>
-      <c r="AO35" s="129"/>
-      <c r="AP35" s="129"/>
+      <c r="AM35" s="153"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="153"/>
+      <c r="AP35" s="153"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13720,28 +13719,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="134"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="129"/>
+      <c r="T36" s="153"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13760,10 +13759,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="129"/>
-      <c r="AN36" s="129"/>
-      <c r="AO36" s="129"/>
-      <c r="AP36" s="129"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13846,28 +13845,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="134"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
+      <c r="L37" s="153"/>
+      <c r="M37" s="153"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="129"/>
+      <c r="T37" s="153"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13886,10 +13885,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="129"/>
-      <c r="AN37" s="129"/>
-      <c r="AO37" s="129"/>
-      <c r="AP37" s="129"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153"/>
+      <c r="AP37" s="153"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13974,24 +13973,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
+      <c r="L38" s="153"/>
+      <c r="M38" s="153"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="129"/>
+      <c r="T38" s="153"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14010,10 +14009,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="129"/>
-      <c r="AN38" s="129"/>
-      <c r="AO38" s="129"/>
-      <c r="AP38" s="129"/>
+      <c r="AM38" s="153"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="153"/>
+      <c r="AP38" s="153"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14096,30 +14095,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="129"/>
+      <c r="T39" s="153"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14138,10 +14137,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="129"/>
-      <c r="AN39" s="129"/>
-      <c r="AO39" s="129"/>
-      <c r="AP39" s="129"/>
+      <c r="AM39" s="153"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="153"/>
+      <c r="AP39" s="153"/>
       <c r="AQ39" s="21"/>
       <c r="AR39" s="21"/>
       <c r="AS39" s="21"/>
@@ -14250,28 +14249,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="134"/>
-      <c r="B40" s="114" t="s">
+      <c r="A40" s="137"/>
+      <c r="B40" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
+      <c r="L40" s="153"/>
+      <c r="M40" s="153"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="129"/>
+      <c r="T40" s="153"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14290,10 +14289,10 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="129"/>
-      <c r="AN40" s="129"/>
-      <c r="AO40" s="129"/>
-      <c r="AP40" s="129"/>
+      <c r="AM40" s="153"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="153"/>
+      <c r="AP40" s="153"/>
       <c r="AQ40" s="21"/>
       <c r="AR40" s="21"/>
       <c r="AS40" s="21"/>
@@ -14376,28 +14375,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="134"/>
-      <c r="B41" s="114" t="s">
+      <c r="A41" s="137"/>
+      <c r="B41" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="129"/>
+      <c r="T41" s="153"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14416,10 +14415,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="129"/>
-      <c r="AN41" s="129"/>
-      <c r="AO41" s="129"/>
-      <c r="AP41" s="129"/>
+      <c r="AM41" s="153"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="153"/>
+      <c r="AP41" s="153"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14528,28 +14527,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="134"/>
-      <c r="B42" s="114" t="s">
+      <c r="A42" s="137"/>
+      <c r="B42" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="143"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
+      <c r="L42" s="153"/>
+      <c r="M42" s="153"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="129"/>
+      <c r="T42" s="153"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14568,10 +14567,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="129"/>
-      <c r="AN42" s="129"/>
-      <c r="AO42" s="129"/>
-      <c r="AP42" s="129"/>
+      <c r="AM42" s="153"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="153"/>
+      <c r="AP42" s="153"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14654,28 +14653,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="134"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="143"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
+      <c r="L43" s="153"/>
+      <c r="M43" s="153"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="129"/>
+      <c r="T43" s="153"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14694,10 +14693,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="129"/>
-      <c r="AN43" s="129"/>
-      <c r="AO43" s="129"/>
-      <c r="AP43" s="129"/>
+      <c r="AM43" s="153"/>
+      <c r="AN43" s="153"/>
+      <c r="AO43" s="153"/>
+      <c r="AP43" s="153"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14808,24 +14807,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
+      <c r="L44" s="153"/>
+      <c r="M44" s="153"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="129"/>
+      <c r="T44" s="153"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14844,10 +14843,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="129"/>
-      <c r="AN44" s="129"/>
-      <c r="AO44" s="129"/>
-      <c r="AP44" s="129"/>
+      <c r="AM44" s="153"/>
+      <c r="AN44" s="153"/>
+      <c r="AO44" s="153"/>
+      <c r="AP44" s="153"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14956,30 +14955,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="134" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="143"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="129"/>
+      <c r="T45" s="153"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14998,10 +14997,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="129"/>
-      <c r="AN45" s="129"/>
-      <c r="AO45" s="129"/>
-      <c r="AP45" s="129"/>
+      <c r="AM45" s="153"/>
+      <c r="AN45" s="153"/>
+      <c r="AO45" s="153"/>
+      <c r="AP45" s="153"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15084,28 +15083,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="132"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="143"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="129"/>
+      <c r="T46" s="153"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15124,10 +15123,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="129"/>
-      <c r="AN46" s="129"/>
-      <c r="AO46" s="129"/>
-      <c r="AP46" s="129"/>
+      <c r="AM46" s="153"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="153"/>
+      <c r="AP46" s="153"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15210,28 +15209,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="132"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="129"/>
+      <c r="T47" s="153"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15250,10 +15249,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="129"/>
-      <c r="AN47" s="129"/>
-      <c r="AO47" s="129"/>
-      <c r="AP47" s="129"/>
+      <c r="AM47" s="153"/>
+      <c r="AN47" s="153"/>
+      <c r="AO47" s="153"/>
+      <c r="AP47" s="153"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15336,28 +15335,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="132"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="153"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="129"/>
+      <c r="T48" s="153"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15376,10 +15375,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="129"/>
-      <c r="AN48" s="129"/>
-      <c r="AO48" s="129"/>
-      <c r="AP48" s="129"/>
+      <c r="AM48" s="153"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="153"/>
+      <c r="AP48" s="153"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15462,28 +15461,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="132"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="143"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
+      <c r="L49" s="153"/>
+      <c r="M49" s="153"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="129"/>
+      <c r="T49" s="153"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15502,10 +15501,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="129"/>
-      <c r="AN49" s="129"/>
-      <c r="AO49" s="129"/>
-      <c r="AP49" s="129"/>
+      <c r="AM49" s="153"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="153"/>
+      <c r="AP49" s="153"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15588,28 +15587,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="133"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="143"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
+      <c r="L50" s="154"/>
+      <c r="M50" s="154"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="130"/>
+      <c r="T50" s="154"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15628,10 +15627,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="130"/>
-      <c r="AN50" s="130"/>
-      <c r="AO50" s="130"/>
-      <c r="AP50" s="130"/>
+      <c r="AM50" s="154"/>
+      <c r="AN50" s="154"/>
+      <c r="AO50" s="154"/>
+      <c r="AP50" s="154"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15736,24 +15735,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15770,12 +15757,24 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE03FEDC-5DB5-4CDE-84E7-C9611857AA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121172ED-BB57-44FF-AF6A-3C1F266B3A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
   <si>
     <t>Semaine 1</t>
   </si>
@@ -174,13 +174,7 @@
     <t>Échéances</t>
   </si>
   <si>
-    <t>Tâche prévue</t>
-  </si>
-  <si>
     <t>Congé</t>
-  </si>
-  <si>
-    <t>Tâche optionnelle</t>
   </si>
   <si>
     <t>Rendre l'interface responsive</t>
@@ -190,9 +184,6 @@
   </si>
   <si>
     <t>Travail UX/UI sur les fenêtres</t>
-  </si>
-  <si>
-    <t>Contour pour afficher sur quel portrait est le focus</t>
   </si>
   <si>
     <t>Affichage du portrait à faire deviner en haut à droite</t>
@@ -213,16 +204,31 @@
     <t>Relecture du tout</t>
   </si>
   <si>
-    <t>Créer les différentes classes</t>
-  </si>
-  <si>
     <t>Mise en place de l'environnement</t>
   </si>
   <si>
-    <t>Tâche faites</t>
+    <t>Recherche d'un moyen de récupérer chaque SVG du repos Avataaars rapidement</t>
   </si>
   <si>
-    <t>Recherche d'un moyen de récupérer chaque SVG du repos Avataaars rapidement</t>
+    <t>Affichage des images PNG superposées</t>
+  </si>
+  <si>
+    <t>Tâches abandonnées</t>
+  </si>
+  <si>
+    <t>Tâches faites</t>
+  </si>
+  <si>
+    <t>Tâches prévues</t>
+  </si>
+  <si>
+    <t>Tâches optionnelles</t>
+  </si>
+  <si>
+    <t>Effet pour afficher sur quel portrait est le focus</t>
+  </si>
+  <si>
+    <t>Développer les différentes classes</t>
   </si>
 </sst>
 </file>
@@ -910,7 +916,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1103,9 +1109,6 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1167,6 +1170,10 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,6 +1312,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1727,9 +1738,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1767,7 +1778,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1873,7 +1884,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2015,7 +2026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2025,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91B9F9-D074-428F-98DE-3CB6D1C2B3BA}">
   <dimension ref="A1:ER56"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23:AD23"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AR19" sqref="AR19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,284 +2057,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126" t="s">
+      <c r="D3" s="123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="155" t="s">
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="126" t="s">
+      <c r="U3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="127"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="126" t="s">
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
-      <c r="AX3" s="127"/>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="127"/>
-      <c r="BA3" s="127"/>
-      <c r="BB3" s="127"/>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="127"/>
-      <c r="BK3" s="127"/>
-      <c r="BL3" s="127"/>
-      <c r="BM3" s="127"/>
-      <c r="BN3" s="127"/>
-      <c r="BO3" s="127"/>
-      <c r="BP3" s="127"/>
-      <c r="BQ3" s="127"/>
-      <c r="BR3" s="127"/>
-      <c r="BS3" s="127"/>
-      <c r="BT3" s="128"/>
-      <c r="BU3" s="126" t="s">
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="131"/>
+      <c r="BU3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="127"/>
-      <c r="BW3" s="127"/>
-      <c r="BX3" s="127"/>
-      <c r="BY3" s="127"/>
-      <c r="BZ3" s="127"/>
-      <c r="CA3" s="127"/>
-      <c r="CB3" s="127"/>
-      <c r="CC3" s="127"/>
-      <c r="CD3" s="127"/>
-      <c r="CE3" s="127"/>
-      <c r="CF3" s="127"/>
-      <c r="CG3" s="127"/>
-      <c r="CH3" s="127"/>
-      <c r="CI3" s="127"/>
-      <c r="CJ3" s="127"/>
-      <c r="CK3" s="127"/>
-      <c r="CL3" s="127"/>
-      <c r="CM3" s="127"/>
-      <c r="CN3" s="127"/>
-      <c r="CO3" s="127"/>
-      <c r="CP3" s="127"/>
-      <c r="CQ3" s="127"/>
-      <c r="CR3" s="127"/>
-      <c r="CS3" s="127"/>
-      <c r="CT3" s="128"/>
-      <c r="CU3" s="126" t="s">
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="130"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="130"/>
+      <c r="CC3" s="130"/>
+      <c r="CD3" s="130"/>
+      <c r="CE3" s="130"/>
+      <c r="CF3" s="130"/>
+      <c r="CG3" s="130"/>
+      <c r="CH3" s="130"/>
+      <c r="CI3" s="130"/>
+      <c r="CJ3" s="130"/>
+      <c r="CK3" s="130"/>
+      <c r="CL3" s="130"/>
+      <c r="CM3" s="130"/>
+      <c r="CN3" s="130"/>
+      <c r="CO3" s="130"/>
+      <c r="CP3" s="130"/>
+      <c r="CQ3" s="130"/>
+      <c r="CR3" s="130"/>
+      <c r="CS3" s="130"/>
+      <c r="CT3" s="131"/>
+      <c r="CU3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="127"/>
-      <c r="CW3" s="127"/>
-      <c r="CX3" s="127"/>
-      <c r="CY3" s="127"/>
-      <c r="CZ3" s="127"/>
-      <c r="DA3" s="127"/>
-      <c r="DB3" s="127"/>
-      <c r="DC3" s="127"/>
-      <c r="DD3" s="127"/>
-      <c r="DE3" s="127"/>
-      <c r="DF3" s="127"/>
-      <c r="DG3" s="127"/>
-      <c r="DH3" s="127"/>
-      <c r="DI3" s="127"/>
-      <c r="DJ3" s="127"/>
-      <c r="DK3" s="127"/>
-      <c r="DL3" s="127"/>
-      <c r="DM3" s="127"/>
-      <c r="DN3" s="127"/>
-      <c r="DO3" s="127"/>
-      <c r="DP3" s="127"/>
-      <c r="DQ3" s="127"/>
-      <c r="DR3" s="127"/>
-      <c r="DS3" s="128"/>
+      <c r="CV3" s="130"/>
+      <c r="CW3" s="130"/>
+      <c r="CX3" s="130"/>
+      <c r="CY3" s="130"/>
+      <c r="CZ3" s="130"/>
+      <c r="DA3" s="130"/>
+      <c r="DB3" s="130"/>
+      <c r="DC3" s="130"/>
+      <c r="DD3" s="130"/>
+      <c r="DE3" s="130"/>
+      <c r="DF3" s="130"/>
+      <c r="DG3" s="130"/>
+      <c r="DH3" s="130"/>
+      <c r="DI3" s="130"/>
+      <c r="DJ3" s="130"/>
+      <c r="DK3" s="130"/>
+      <c r="DL3" s="130"/>
+      <c r="DM3" s="130"/>
+      <c r="DN3" s="130"/>
+      <c r="DO3" s="130"/>
+      <c r="DP3" s="130"/>
+      <c r="DQ3" s="130"/>
+      <c r="DR3" s="130"/>
+      <c r="DS3" s="131"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="130"/>
-      <c r="BN4" s="130"/>
-      <c r="BO4" s="130"/>
-      <c r="BP4" s="130"/>
-      <c r="BQ4" s="130"/>
-      <c r="BR4" s="130"/>
-      <c r="BS4" s="130"/>
-      <c r="BT4" s="131"/>
-      <c r="BU4" s="129"/>
-      <c r="BV4" s="130"/>
-      <c r="BW4" s="130"/>
-      <c r="BX4" s="130"/>
-      <c r="BY4" s="130"/>
-      <c r="BZ4" s="130"/>
-      <c r="CA4" s="130"/>
-      <c r="CB4" s="130"/>
-      <c r="CC4" s="130"/>
-      <c r="CD4" s="130"/>
-      <c r="CE4" s="130"/>
-      <c r="CF4" s="130"/>
-      <c r="CG4" s="130"/>
-      <c r="CH4" s="130"/>
-      <c r="CI4" s="130"/>
-      <c r="CJ4" s="130"/>
-      <c r="CK4" s="130"/>
-      <c r="CL4" s="130"/>
-      <c r="CM4" s="130"/>
-      <c r="CN4" s="130"/>
-      <c r="CO4" s="130"/>
-      <c r="CP4" s="130"/>
-      <c r="CQ4" s="130"/>
-      <c r="CR4" s="130"/>
-      <c r="CS4" s="130"/>
-      <c r="CT4" s="131"/>
-      <c r="CU4" s="129"/>
-      <c r="CV4" s="130"/>
-      <c r="CW4" s="130"/>
-      <c r="CX4" s="130"/>
-      <c r="CY4" s="130"/>
-      <c r="CZ4" s="130"/>
-      <c r="DA4" s="130"/>
-      <c r="DB4" s="130"/>
-      <c r="DC4" s="130"/>
-      <c r="DD4" s="130"/>
-      <c r="DE4" s="130"/>
-      <c r="DF4" s="130"/>
-      <c r="DG4" s="130"/>
-      <c r="DH4" s="130"/>
-      <c r="DI4" s="130"/>
-      <c r="DJ4" s="130"/>
-      <c r="DK4" s="130"/>
-      <c r="DL4" s="130"/>
-      <c r="DM4" s="130"/>
-      <c r="DN4" s="130"/>
-      <c r="DO4" s="130"/>
-      <c r="DP4" s="130"/>
-      <c r="DQ4" s="130"/>
-      <c r="DR4" s="130"/>
-      <c r="DS4" s="131"/>
+      <c r="D4" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="134"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="133"/>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="133"/>
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133"/>
+      <c r="BT4" s="134"/>
+      <c r="BU4" s="132"/>
+      <c r="BV4" s="133"/>
+      <c r="BW4" s="133"/>
+      <c r="BX4" s="133"/>
+      <c r="BY4" s="133"/>
+      <c r="BZ4" s="133"/>
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="133"/>
+      <c r="CD4" s="133"/>
+      <c r="CE4" s="133"/>
+      <c r="CF4" s="133"/>
+      <c r="CG4" s="133"/>
+      <c r="CH4" s="133"/>
+      <c r="CI4" s="133"/>
+      <c r="CJ4" s="133"/>
+      <c r="CK4" s="133"/>
+      <c r="CL4" s="133"/>
+      <c r="CM4" s="133"/>
+      <c r="CN4" s="133"/>
+      <c r="CO4" s="133"/>
+      <c r="CP4" s="133"/>
+      <c r="CQ4" s="133"/>
+      <c r="CR4" s="133"/>
+      <c r="CS4" s="133"/>
+      <c r="CT4" s="134"/>
+      <c r="CU4" s="132"/>
+      <c r="CV4" s="133"/>
+      <c r="CW4" s="133"/>
+      <c r="CX4" s="133"/>
+      <c r="CY4" s="133"/>
+      <c r="CZ4" s="133"/>
+      <c r="DA4" s="133"/>
+      <c r="DB4" s="133"/>
+      <c r="DC4" s="133"/>
+      <c r="DD4" s="133"/>
+      <c r="DE4" s="133"/>
+      <c r="DF4" s="133"/>
+      <c r="DG4" s="133"/>
+      <c r="DH4" s="133"/>
+      <c r="DI4" s="133"/>
+      <c r="DJ4" s="133"/>
+      <c r="DK4" s="133"/>
+      <c r="DL4" s="133"/>
+      <c r="DM4" s="133"/>
+      <c r="DN4" s="133"/>
+      <c r="DO4" s="133"/>
+      <c r="DP4" s="133"/>
+      <c r="DQ4" s="133"/>
+      <c r="DR4" s="133"/>
+      <c r="DS4" s="134"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2332,18 +2343,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="132" t="s">
+      <c r="D5" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="133"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2352,7 +2363,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="157" t="s">
+      <c r="T5" s="160" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2475,10 +2486,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2487,7 +2498,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="158"/>
+      <c r="T6" s="161"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2618,10 +2629,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="143" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2635,157 +2646,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115" t="s">
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="117"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="115" t="s">
+      <c r="U7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="116" t="s">
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="117"/>
-      <c r="AM7" s="118" t="s">
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="115" t="s">
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="117"/>
-      <c r="AU7" s="115" t="s">
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="116"/>
-      <c r="AZ7" s="116"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="116"/>
-      <c r="BC7" s="117"/>
-      <c r="BD7" s="115" t="s">
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="116"/>
-      <c r="BF7" s="116"/>
-      <c r="BG7" s="116"/>
-      <c r="BH7" s="116"/>
-      <c r="BI7" s="116"/>
-      <c r="BJ7" s="116"/>
-      <c r="BK7" s="116"/>
-      <c r="BL7" s="117"/>
-      <c r="BM7" s="115" t="s">
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="120"/>
+      <c r="BM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="115" t="s">
+      <c r="BN7" s="119"/>
+      <c r="BO7" s="119"/>
+      <c r="BP7" s="119"/>
+      <c r="BQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="115" t="s">
+      <c r="BR7" s="119"/>
+      <c r="BS7" s="119"/>
+      <c r="BT7" s="120"/>
+      <c r="BU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="116"/>
-      <c r="CC7" s="117"/>
-      <c r="CD7" s="115" t="s">
+      <c r="BV7" s="119"/>
+      <c r="BW7" s="119"/>
+      <c r="BX7" s="119"/>
+      <c r="BY7" s="119"/>
+      <c r="BZ7" s="119"/>
+      <c r="CA7" s="119"/>
+      <c r="CB7" s="119"/>
+      <c r="CC7" s="120"/>
+      <c r="CD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="116"/>
-      <c r="CF7" s="116"/>
-      <c r="CG7" s="116"/>
-      <c r="CH7" s="116"/>
-      <c r="CI7" s="116"/>
-      <c r="CJ7" s="116"/>
-      <c r="CK7" s="116"/>
-      <c r="CL7" s="117"/>
-      <c r="CM7" s="115" t="s">
+      <c r="CE7" s="119"/>
+      <c r="CF7" s="119"/>
+      <c r="CG7" s="119"/>
+      <c r="CH7" s="119"/>
+      <c r="CI7" s="119"/>
+      <c r="CJ7" s="119"/>
+      <c r="CK7" s="119"/>
+      <c r="CL7" s="120"/>
+      <c r="CM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="116"/>
-      <c r="CO7" s="116"/>
-      <c r="CP7" s="116"/>
-      <c r="CQ7" s="115" t="s">
+      <c r="CN7" s="119"/>
+      <c r="CO7" s="119"/>
+      <c r="CP7" s="119"/>
+      <c r="CQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="116"/>
-      <c r="CS7" s="116"/>
-      <c r="CT7" s="117"/>
-      <c r="CU7" s="115" t="s">
+      <c r="CR7" s="119"/>
+      <c r="CS7" s="119"/>
+      <c r="CT7" s="120"/>
+      <c r="CU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="116"/>
-      <c r="CW7" s="116"/>
-      <c r="CX7" s="116"/>
-      <c r="CY7" s="116"/>
-      <c r="CZ7" s="116"/>
-      <c r="DA7" s="116"/>
-      <c r="DB7" s="116"/>
-      <c r="DC7" s="117"/>
-      <c r="DD7" s="115" t="s">
+      <c r="CV7" s="119"/>
+      <c r="CW7" s="119"/>
+      <c r="CX7" s="119"/>
+      <c r="CY7" s="119"/>
+      <c r="CZ7" s="119"/>
+      <c r="DA7" s="119"/>
+      <c r="DB7" s="119"/>
+      <c r="DC7" s="120"/>
+      <c r="DD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="116"/>
-      <c r="DF7" s="116"/>
-      <c r="DG7" s="116"/>
-      <c r="DH7" s="116"/>
-      <c r="DI7" s="116"/>
-      <c r="DJ7" s="116"/>
-      <c r="DK7" s="116"/>
-      <c r="DL7" s="117"/>
-      <c r="DM7" s="115" t="s">
+      <c r="DE7" s="119"/>
+      <c r="DF7" s="119"/>
+      <c r="DG7" s="119"/>
+      <c r="DH7" s="119"/>
+      <c r="DI7" s="119"/>
+      <c r="DJ7" s="119"/>
+      <c r="DK7" s="119"/>
+      <c r="DL7" s="120"/>
+      <c r="DM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="116"/>
-      <c r="DO7" s="116"/>
-      <c r="DP7" s="116"/>
-      <c r="DQ7" s="115" t="s">
+      <c r="DN7" s="119"/>
+      <c r="DO7" s="119"/>
+      <c r="DP7" s="119"/>
+      <c r="DQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="117"/>
+      <c r="DR7" s="120"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="139"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2908,8 +2919,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139"/>
-      <c r="B9" s="142"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2922,7 +2933,7 @@
       <c r="F9" s="87">
         <v>175</v>
       </c>
-      <c r="G9" s="98">
+      <c r="G9" s="97">
         <v>176</v>
       </c>
       <c r="H9" s="87">
@@ -2937,10 +2948,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="152">
+      <c r="L9" s="155">
         <v>5</v>
       </c>
-      <c r="M9" s="152"/>
+      <c r="M9" s="155"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2959,7 +2970,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="152"/>
+      <c r="T9" s="155"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3014,10 +3025,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
+      <c r="AM9" s="155"/>
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="155"/>
+      <c r="AP9" s="155"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3286,35 +3297,35 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="140" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="103"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="102"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="153"/>
+      <c r="T10" s="156"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
       <c r="X10" s="80"/>
-      <c r="Y10" s="97"/>
+      <c r="Y10" s="96"/>
       <c r="Z10" s="80"/>
       <c r="AA10" s="80"/>
       <c r="AB10" s="80"/>
@@ -3328,10 +3339,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
+      <c r="AM10" s="156"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3440,130 +3451,130 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
+      <c r="A11" s="140"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="153"/>
-      <c r="AN11" s="153"/>
-      <c r="AO11" s="153"/>
-      <c r="AP11" s="153"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="93"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="93"/>
-      <c r="BY11" s="93"/>
-      <c r="BZ11" s="93"/>
-      <c r="CA11" s="93"/>
-      <c r="CB11" s="93"/>
-      <c r="CC11" s="93"/>
-      <c r="CD11" s="93"/>
-      <c r="CE11" s="93"/>
-      <c r="CF11" s="93"/>
-      <c r="CG11" s="93"/>
-      <c r="CH11" s="93"/>
-      <c r="CI11" s="93"/>
-      <c r="CJ11" s="93"/>
-      <c r="CK11" s="93"/>
-      <c r="CL11" s="93"/>
-      <c r="CM11" s="93"/>
-      <c r="CN11" s="93"/>
-      <c r="CO11" s="93"/>
-      <c r="CP11" s="93"/>
-      <c r="CQ11" s="93"/>
-      <c r="CR11" s="93"/>
-      <c r="CS11" s="93"/>
-      <c r="CT11" s="93"/>
-      <c r="CU11" s="93"/>
-      <c r="CV11" s="93"/>
-      <c r="CW11" s="93"/>
-      <c r="CX11" s="93"/>
-      <c r="CY11" s="93"/>
-      <c r="CZ11" s="93"/>
-      <c r="DA11" s="93"/>
-      <c r="DB11" s="93"/>
-      <c r="DC11" s="93"/>
-      <c r="DD11" s="93"/>
-      <c r="DE11" s="93"/>
-      <c r="DF11" s="93"/>
-      <c r="DG11" s="93"/>
-      <c r="DH11" s="93"/>
-      <c r="DI11" s="93"/>
-      <c r="DJ11" s="93"/>
-      <c r="DK11" s="93"/>
-      <c r="DL11" s="93"/>
-      <c r="DM11" s="93"/>
-      <c r="DN11" s="93"/>
-      <c r="DO11" s="93"/>
-      <c r="DP11" s="93"/>
-      <c r="DQ11" s="93"/>
-      <c r="DR11" s="96"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="92"/>
+      <c r="CE11" s="92"/>
+      <c r="CF11" s="92"/>
+      <c r="CG11" s="92"/>
+      <c r="CH11" s="92"/>
+      <c r="CI11" s="92"/>
+      <c r="CJ11" s="92"/>
+      <c r="CK11" s="92"/>
+      <c r="CL11" s="92"/>
+      <c r="CM11" s="92"/>
+      <c r="CN11" s="92"/>
+      <c r="CO11" s="92"/>
+      <c r="CP11" s="92"/>
+      <c r="CQ11" s="92"/>
+      <c r="CR11" s="92"/>
+      <c r="CS11" s="92"/>
+      <c r="CT11" s="92"/>
+      <c r="CU11" s="92"/>
+      <c r="CV11" s="92"/>
+      <c r="CW11" s="92"/>
+      <c r="CX11" s="92"/>
+      <c r="CY11" s="92"/>
+      <c r="CZ11" s="92"/>
+      <c r="DA11" s="92"/>
+      <c r="DB11" s="92"/>
+      <c r="DC11" s="92"/>
+      <c r="DD11" s="92"/>
+      <c r="DE11" s="92"/>
+      <c r="DF11" s="92"/>
+      <c r="DG11" s="92"/>
+      <c r="DH11" s="92"/>
+      <c r="DI11" s="92"/>
+      <c r="DJ11" s="92"/>
+      <c r="DK11" s="92"/>
+      <c r="DL11" s="92"/>
+      <c r="DM11" s="92"/>
+      <c r="DN11" s="92"/>
+      <c r="DO11" s="92"/>
+      <c r="DP11" s="92"/>
+      <c r="DQ11" s="92"/>
+      <c r="DR11" s="95"/>
       <c r="DS11"/>
       <c r="DT11"/>
       <c r="DU11"/>
@@ -3592,28 +3603,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
+      <c r="A12" s="140"/>
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="103"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="102"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="153"/>
+      <c r="T12" s="156"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3632,10 +3643,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="153"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="156"/>
+      <c r="AO12" s="156"/>
+      <c r="AP12" s="156"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3718,28 +3729,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
+      <c r="A13" s="140"/>
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="104"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="153"/>
+      <c r="T13" s="156"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3758,10 +3769,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="153"/>
-      <c r="AP13" s="153"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="156"/>
+      <c r="AO13" s="156"/>
+      <c r="AP13" s="156"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3870,28 +3881,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="104"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="153"/>
+      <c r="T14" s="156"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3910,10 +3921,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="153"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4022,28 +4033,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="140"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="104"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="153"/>
+      <c r="T15" s="156"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4062,10 +4073,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4174,28 +4185,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="104"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="153"/>
+      <c r="T16" s="156"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4214,10 +4225,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4326,28 +4337,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="104"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="153"/>
+      <c r="T17" s="156"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4366,10 +4377,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="153"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="156"/>
+      <c r="AO17" s="156"/>
+      <c r="AP17" s="156"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4452,28 +4463,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="104"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="153"/>
+      <c r="T18" s="156"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4492,10 +4503,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="153"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4580,24 +4591,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="153"/>
+      <c r="T19" s="156"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4616,10 +4627,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="153"/>
-      <c r="AN19" s="153"/>
-      <c r="AO19" s="153"/>
-      <c r="AP19" s="153"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4702,30 +4713,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="140" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="153"/>
+      <c r="T20" s="156"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4744,10 +4755,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="153"/>
+      <c r="AM20" s="156"/>
+      <c r="AN20" s="156"/>
+      <c r="AO20" s="156"/>
+      <c r="AP20" s="156"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4830,54 +4841,54 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="137"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+        <v>66</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="153"/>
+      <c r="T21" s="156"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="55"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="55"/>
-      <c r="AJ21" s="55"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="153"/>
-      <c r="AO21" s="153"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="156"/>
+      <c r="AO21" s="156"/>
+      <c r="AP21" s="156"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
       <c r="AU21" s="55"/>
       <c r="AV21" s="55"/>
       <c r="AW21" s="55"/>
@@ -4956,28 +4967,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="137"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="151"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="153"/>
+      <c r="T22" s="156"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -4996,10 +5007,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="153"/>
-      <c r="AP22" s="153"/>
+      <c r="AM22" s="156"/>
+      <c r="AN22" s="156"/>
+      <c r="AO22" s="156"/>
+      <c r="AP22" s="156"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5082,28 +5093,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="137"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="153"/>
+      <c r="T23" s="156"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5122,10 +5133,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="153"/>
-      <c r="AO23" s="153"/>
-      <c r="AP23" s="153"/>
+      <c r="AM23" s="156"/>
+      <c r="AN23" s="156"/>
+      <c r="AO23" s="156"/>
+      <c r="AP23" s="156"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5234,28 +5245,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="137"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="148"/>
+        <v>56</v>
+      </c>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="153"/>
+      <c r="T24" s="156"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5274,10 +5285,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="153"/>
-      <c r="AN24" s="153"/>
-      <c r="AO24" s="153"/>
-      <c r="AP24" s="153"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="156"/>
+      <c r="AO24" s="156"/>
+      <c r="AP24" s="156"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5386,28 +5397,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="137"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="153"/>
+      <c r="T25" s="156"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5426,10 +5437,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="153"/>
-      <c r="AN25" s="153"/>
-      <c r="AO25" s="153"/>
-      <c r="AP25" s="153"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="156"/>
+      <c r="AO25" s="156"/>
+      <c r="AP25" s="156"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5538,28 +5549,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="137"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="153"/>
+      <c r="T26" s="156"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5578,10 +5589,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="153"/>
-      <c r="AN26" s="153"/>
-      <c r="AO26" s="153"/>
-      <c r="AP26" s="153"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="156"/>
+      <c r="AO26" s="156"/>
+      <c r="AP26" s="156"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5690,28 +5701,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="137"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="153"/>
+      <c r="T27" s="156"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5730,10 +5741,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="153"/>
-      <c r="AO27" s="153"/>
-      <c r="AP27" s="153"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="156"/>
+      <c r="AO27" s="156"/>
+      <c r="AP27" s="156"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5816,28 +5827,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="137"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="151"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="153"/>
+      <c r="T28" s="156"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5856,10 +5867,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="153"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5942,28 +5953,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="137"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="153"/>
+      <c r="T29" s="156"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5982,10 +5993,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="153"/>
-      <c r="AN29" s="153"/>
-      <c r="AO29" s="153"/>
-      <c r="AP29" s="153"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="156"/>
+      <c r="AO29" s="156"/>
+      <c r="AP29" s="156"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6068,28 +6079,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="137"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
+        <v>50</v>
+      </c>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="151"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="153"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6108,10 +6119,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="153"/>
-      <c r="AN30" s="153"/>
-      <c r="AO30" s="153"/>
-      <c r="AP30" s="153"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="156"/>
+      <c r="AO30" s="156"/>
+      <c r="AP30" s="156"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6220,28 +6231,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="137"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+        <v>51</v>
+      </c>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="153"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6260,10 +6271,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="153"/>
-      <c r="AN31" s="153"/>
-      <c r="AO31" s="153"/>
-      <c r="AP31" s="153"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6346,28 +6357,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="137"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
+        <v>65</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="153"/>
+      <c r="T32" s="156"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6386,10 +6397,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="153"/>
-      <c r="AN32" s="153"/>
-      <c r="AO32" s="153"/>
-      <c r="AP32" s="153"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="156"/>
+      <c r="AO32" s="156"/>
+      <c r="AP32" s="156"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6498,28 +6509,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="137"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="148"/>
+        <v>52</v>
+      </c>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="153"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6538,10 +6549,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="153"/>
-      <c r="AN33" s="153"/>
-      <c r="AO33" s="153"/>
-      <c r="AP33" s="153"/>
+      <c r="AM33" s="156"/>
+      <c r="AN33" s="156"/>
+      <c r="AO33" s="156"/>
+      <c r="AP33" s="156"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6624,28 +6635,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="137"/>
+      <c r="A34" s="140"/>
       <c r="B34" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+        <v>53</v>
+      </c>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="153"/>
+      <c r="T34" s="156"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6664,10 +6675,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="153"/>
-      <c r="AN34" s="153"/>
-      <c r="AO34" s="153"/>
-      <c r="AP34" s="153"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="156"/>
+      <c r="AO34" s="156"/>
+      <c r="AP34" s="156"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6776,28 +6787,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="137"/>
+      <c r="A35" s="140"/>
       <c r="B35" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
+        <v>54</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="151"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="153"/>
+      <c r="T35" s="156"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6816,10 +6827,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="153"/>
-      <c r="AN35" s="153"/>
-      <c r="AO35" s="153"/>
-      <c r="AP35" s="153"/>
+      <c r="AM35" s="156"/>
+      <c r="AN35" s="156"/>
+      <c r="AO35" s="156"/>
+      <c r="AP35" s="156"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6902,28 +6913,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="137"/>
+      <c r="A36" s="140"/>
       <c r="B36" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="148"/>
+        <v>55</v>
+      </c>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="151"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="153"/>
+      <c r="T36" s="156"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6942,10 +6953,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="153"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="153"/>
+      <c r="AM36" s="156"/>
+      <c r="AN36" s="156"/>
+      <c r="AO36" s="156"/>
+      <c r="AP36" s="156"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7030,24 +7041,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="105"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="104"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="153"/>
+      <c r="T37" s="156"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7066,10 +7077,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="153"/>
-      <c r="AN37" s="153"/>
-      <c r="AO37" s="153"/>
-      <c r="AP37" s="153"/>
+      <c r="AM37" s="156"/>
+      <c r="AN37" s="156"/>
+      <c r="AO37" s="156"/>
+      <c r="AP37" s="156"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7152,30 +7163,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="140" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="153"/>
+      <c r="T38" s="156"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7194,10 +7205,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="153"/>
-      <c r="AN38" s="153"/>
-      <c r="AO38" s="153"/>
-      <c r="AP38" s="153"/>
+      <c r="AM38" s="156"/>
+      <c r="AN38" s="156"/>
+      <c r="AO38" s="156"/>
+      <c r="AP38" s="156"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7306,28 +7317,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="137"/>
+      <c r="A39" s="140"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="153"/>
+      <c r="T39" s="156"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7346,10 +7357,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="153"/>
-      <c r="AN39" s="153"/>
-      <c r="AO39" s="153"/>
-      <c r="AP39" s="153"/>
+      <c r="AM39" s="156"/>
+      <c r="AN39" s="156"/>
+      <c r="AO39" s="156"/>
+      <c r="AP39" s="156"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7432,28 +7443,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="137"/>
+      <c r="A40" s="140"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="148"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="151"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="153"/>
+      <c r="T40" s="156"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7472,10 +7483,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="153"/>
-      <c r="AN40" s="153"/>
-      <c r="AO40" s="153"/>
-      <c r="AP40" s="153"/>
+      <c r="AM40" s="156"/>
+      <c r="AN40" s="156"/>
+      <c r="AO40" s="156"/>
+      <c r="AP40" s="156"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7584,28 +7595,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="137"/>
+      <c r="A41" s="140"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="151"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="153"/>
+      <c r="T41" s="156"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7624,10 +7635,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="153"/>
-      <c r="AN41" s="153"/>
-      <c r="AO41" s="153"/>
-      <c r="AP41" s="153"/>
+      <c r="AM41" s="156"/>
+      <c r="AN41" s="156"/>
+      <c r="AO41" s="156"/>
+      <c r="AP41" s="156"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7710,28 +7721,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="137"/>
+      <c r="A42" s="140"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="106"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="105"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="153"/>
+      <c r="T42" s="156"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7750,10 +7761,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="153"/>
-      <c r="AN42" s="153"/>
-      <c r="AO42" s="153"/>
-      <c r="AP42" s="153"/>
+      <c r="AM42" s="156"/>
+      <c r="AN42" s="156"/>
+      <c r="AO42" s="156"/>
+      <c r="AP42" s="156"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7863,25 +7874,25 @@
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="105"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="104"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="153"/>
+      <c r="T43" s="156"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7900,10 +7911,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="153"/>
-      <c r="AN43" s="153"/>
-      <c r="AO43" s="153"/>
-      <c r="AP43" s="153"/>
+      <c r="AM43" s="156"/>
+      <c r="AN43" s="156"/>
+      <c r="AO43" s="156"/>
+      <c r="AP43" s="156"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8012,30 +8023,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="137" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="148"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="153"/>
+      <c r="T44" s="156"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8054,10 +8065,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="153"/>
-      <c r="AN44" s="153"/>
-      <c r="AO44" s="153"/>
-      <c r="AP44" s="153"/>
+      <c r="AM44" s="156"/>
+      <c r="AN44" s="156"/>
+      <c r="AO44" s="156"/>
+      <c r="AP44" s="156"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8140,28 +8151,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="135"/>
+      <c r="A45" s="138"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="148"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="153"/>
+      <c r="T45" s="156"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8180,10 +8191,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="153"/>
-      <c r="AN45" s="153"/>
-      <c r="AO45" s="153"/>
-      <c r="AP45" s="153"/>
+      <c r="AM45" s="156"/>
+      <c r="AN45" s="156"/>
+      <c r="AO45" s="156"/>
+      <c r="AP45" s="156"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8266,28 +8277,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="135"/>
+      <c r="A46" s="138"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="148"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="151"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="153"/>
+      <c r="T46" s="156"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8306,10 +8317,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="153"/>
-      <c r="AN46" s="153"/>
-      <c r="AO46" s="153"/>
-      <c r="AP46" s="153"/>
+      <c r="AM46" s="156"/>
+      <c r="AN46" s="156"/>
+      <c r="AO46" s="156"/>
+      <c r="AP46" s="156"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8392,28 +8403,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="135"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="148"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="151"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="153"/>
+      <c r="T47" s="156"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8432,10 +8443,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="153"/>
-      <c r="AN47" s="153"/>
-      <c r="AO47" s="153"/>
-      <c r="AP47" s="153"/>
+      <c r="AM47" s="156"/>
+      <c r="AN47" s="156"/>
+      <c r="AO47" s="156"/>
+      <c r="AP47" s="156"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8518,28 +8529,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="135"/>
-      <c r="B48" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="107"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="149"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="106"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="153"/>
+      <c r="T48" s="156"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8558,10 +8569,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="153"/>
-      <c r="AN48" s="153"/>
-      <c r="AO48" s="153"/>
-      <c r="AP48" s="153"/>
+      <c r="AM48" s="156"/>
+      <c r="AN48" s="156"/>
+      <c r="AO48" s="156"/>
+      <c r="AP48" s="156"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8643,28 +8654,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="136"/>
-      <c r="B49" s="101" t="s">
+      <c r="A49" s="139"/>
+      <c r="B49" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="149"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="106"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="105"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="154"/>
-      <c r="M49" s="154"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="154"/>
+      <c r="T49" s="157"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8683,10 +8694,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="154"/>
-      <c r="AN49" s="154"/>
-      <c r="AO49" s="154"/>
-      <c r="AP49" s="154"/>
+      <c r="AM49" s="157"/>
+      <c r="AN49" s="157"/>
+      <c r="AO49" s="157"/>
+      <c r="AP49" s="157"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8790,7 +8801,7 @@
       <c r="A56" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="CU3:DS4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="T5:T6"/>
@@ -8820,6 +8831,7 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C10:G49"/>
     <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="U7:AC7"/>
@@ -8842,8 +8854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD4E70-A401-418C-840B-3BA1B1FB16B9}">
   <dimension ref="A1:ER57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8863,284 +8875,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="114"/>
+      <c r="B2" s="117"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="126" t="s">
+      <c r="D3" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="155" t="s">
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="126" t="s">
+      <c r="U3" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="127"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="127"/>
-      <c r="AN3" s="127"/>
-      <c r="AO3" s="127"/>
-      <c r="AP3" s="127"/>
-      <c r="AQ3" s="127"/>
-      <c r="AR3" s="127"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="128"/>
-      <c r="AU3" s="126" t="s">
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="127"/>
-      <c r="AW3" s="127"/>
-      <c r="AX3" s="127"/>
-      <c r="AY3" s="127"/>
-      <c r="AZ3" s="127"/>
-      <c r="BA3" s="127"/>
-      <c r="BB3" s="127"/>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127"/>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
-      <c r="BH3" s="127"/>
-      <c r="BI3" s="127"/>
-      <c r="BJ3" s="127"/>
-      <c r="BK3" s="127"/>
-      <c r="BL3" s="127"/>
-      <c r="BM3" s="127"/>
-      <c r="BN3" s="127"/>
-      <c r="BO3" s="127"/>
-      <c r="BP3" s="127"/>
-      <c r="BQ3" s="127"/>
-      <c r="BR3" s="127"/>
-      <c r="BS3" s="127"/>
-      <c r="BT3" s="128"/>
-      <c r="BU3" s="126" t="s">
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="131"/>
+      <c r="BU3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="127"/>
-      <c r="BW3" s="127"/>
-      <c r="BX3" s="127"/>
-      <c r="BY3" s="127"/>
-      <c r="BZ3" s="127"/>
-      <c r="CA3" s="127"/>
-      <c r="CB3" s="127"/>
-      <c r="CC3" s="127"/>
-      <c r="CD3" s="127"/>
-      <c r="CE3" s="127"/>
-      <c r="CF3" s="127"/>
-      <c r="CG3" s="127"/>
-      <c r="CH3" s="127"/>
-      <c r="CI3" s="127"/>
-      <c r="CJ3" s="127"/>
-      <c r="CK3" s="127"/>
-      <c r="CL3" s="127"/>
-      <c r="CM3" s="127"/>
-      <c r="CN3" s="127"/>
-      <c r="CO3" s="127"/>
-      <c r="CP3" s="127"/>
-      <c r="CQ3" s="127"/>
-      <c r="CR3" s="127"/>
-      <c r="CS3" s="127"/>
-      <c r="CT3" s="128"/>
-      <c r="CU3" s="126" t="s">
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="130"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="130"/>
+      <c r="CC3" s="130"/>
+      <c r="CD3" s="130"/>
+      <c r="CE3" s="130"/>
+      <c r="CF3" s="130"/>
+      <c r="CG3" s="130"/>
+      <c r="CH3" s="130"/>
+      <c r="CI3" s="130"/>
+      <c r="CJ3" s="130"/>
+      <c r="CK3" s="130"/>
+      <c r="CL3" s="130"/>
+      <c r="CM3" s="130"/>
+      <c r="CN3" s="130"/>
+      <c r="CO3" s="130"/>
+      <c r="CP3" s="130"/>
+      <c r="CQ3" s="130"/>
+      <c r="CR3" s="130"/>
+      <c r="CS3" s="130"/>
+      <c r="CT3" s="131"/>
+      <c r="CU3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="127"/>
-      <c r="CW3" s="127"/>
-      <c r="CX3" s="127"/>
-      <c r="CY3" s="127"/>
-      <c r="CZ3" s="127"/>
-      <c r="DA3" s="127"/>
-      <c r="DB3" s="127"/>
-      <c r="DC3" s="127"/>
-      <c r="DD3" s="127"/>
-      <c r="DE3" s="127"/>
-      <c r="DF3" s="127"/>
-      <c r="DG3" s="127"/>
-      <c r="DH3" s="127"/>
-      <c r="DI3" s="127"/>
-      <c r="DJ3" s="127"/>
-      <c r="DK3" s="127"/>
-      <c r="DL3" s="127"/>
-      <c r="DM3" s="127"/>
-      <c r="DN3" s="127"/>
-      <c r="DO3" s="127"/>
-      <c r="DP3" s="127"/>
-      <c r="DQ3" s="127"/>
-      <c r="DR3" s="127"/>
-      <c r="DS3" s="128"/>
+      <c r="CV3" s="130"/>
+      <c r="CW3" s="130"/>
+      <c r="CX3" s="130"/>
+      <c r="CY3" s="130"/>
+      <c r="CZ3" s="130"/>
+      <c r="DA3" s="130"/>
+      <c r="DB3" s="130"/>
+      <c r="DC3" s="130"/>
+      <c r="DD3" s="130"/>
+      <c r="DE3" s="130"/>
+      <c r="DF3" s="130"/>
+      <c r="DG3" s="130"/>
+      <c r="DH3" s="130"/>
+      <c r="DI3" s="130"/>
+      <c r="DJ3" s="130"/>
+      <c r="DK3" s="130"/>
+      <c r="DL3" s="130"/>
+      <c r="DM3" s="130"/>
+      <c r="DN3" s="130"/>
+      <c r="DO3" s="130"/>
+      <c r="DP3" s="130"/>
+      <c r="DQ3" s="130"/>
+      <c r="DR3" s="130"/>
+      <c r="DS3" s="131"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="114"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="131"/>
-      <c r="AU4" s="129"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="130"/>
-      <c r="BN4" s="130"/>
-      <c r="BO4" s="130"/>
-      <c r="BP4" s="130"/>
-      <c r="BQ4" s="130"/>
-      <c r="BR4" s="130"/>
-      <c r="BS4" s="130"/>
-      <c r="BT4" s="131"/>
-      <c r="BU4" s="129"/>
-      <c r="BV4" s="130"/>
-      <c r="BW4" s="130"/>
-      <c r="BX4" s="130"/>
-      <c r="BY4" s="130"/>
-      <c r="BZ4" s="130"/>
-      <c r="CA4" s="130"/>
-      <c r="CB4" s="130"/>
-      <c r="CC4" s="130"/>
-      <c r="CD4" s="130"/>
-      <c r="CE4" s="130"/>
-      <c r="CF4" s="130"/>
-      <c r="CG4" s="130"/>
-      <c r="CH4" s="130"/>
-      <c r="CI4" s="130"/>
-      <c r="CJ4" s="130"/>
-      <c r="CK4" s="130"/>
-      <c r="CL4" s="130"/>
-      <c r="CM4" s="130"/>
-      <c r="CN4" s="130"/>
-      <c r="CO4" s="130"/>
-      <c r="CP4" s="130"/>
-      <c r="CQ4" s="130"/>
-      <c r="CR4" s="130"/>
-      <c r="CS4" s="130"/>
-      <c r="CT4" s="131"/>
-      <c r="CU4" s="129"/>
-      <c r="CV4" s="130"/>
-      <c r="CW4" s="130"/>
-      <c r="CX4" s="130"/>
-      <c r="CY4" s="130"/>
-      <c r="CZ4" s="130"/>
-      <c r="DA4" s="130"/>
-      <c r="DB4" s="130"/>
-      <c r="DC4" s="130"/>
-      <c r="DD4" s="130"/>
-      <c r="DE4" s="130"/>
-      <c r="DF4" s="130"/>
-      <c r="DG4" s="130"/>
-      <c r="DH4" s="130"/>
-      <c r="DI4" s="130"/>
-      <c r="DJ4" s="130"/>
-      <c r="DK4" s="130"/>
-      <c r="DL4" s="130"/>
-      <c r="DM4" s="130"/>
-      <c r="DN4" s="130"/>
-      <c r="DO4" s="130"/>
-      <c r="DP4" s="130"/>
-      <c r="DQ4" s="130"/>
-      <c r="DR4" s="130"/>
-      <c r="DS4" s="131"/>
+      <c r="D4" s="123" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="133"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="133"/>
+      <c r="P4" s="133"/>
+      <c r="Q4" s="133"/>
+      <c r="R4" s="133"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="133"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="133"/>
+      <c r="AA4" s="133"/>
+      <c r="AB4" s="133"/>
+      <c r="AC4" s="133"/>
+      <c r="AD4" s="133"/>
+      <c r="AE4" s="133"/>
+      <c r="AF4" s="133"/>
+      <c r="AG4" s="133"/>
+      <c r="AH4" s="133"/>
+      <c r="AI4" s="133"/>
+      <c r="AJ4" s="133"/>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="133"/>
+      <c r="AS4" s="133"/>
+      <c r="AT4" s="134"/>
+      <c r="AU4" s="132"/>
+      <c r="AV4" s="133"/>
+      <c r="AW4" s="133"/>
+      <c r="AX4" s="133"/>
+      <c r="AY4" s="133"/>
+      <c r="AZ4" s="133"/>
+      <c r="BA4" s="133"/>
+      <c r="BB4" s="133"/>
+      <c r="BC4" s="133"/>
+      <c r="BD4" s="133"/>
+      <c r="BE4" s="133"/>
+      <c r="BF4" s="133"/>
+      <c r="BG4" s="133"/>
+      <c r="BH4" s="133"/>
+      <c r="BI4" s="133"/>
+      <c r="BJ4" s="133"/>
+      <c r="BK4" s="133"/>
+      <c r="BL4" s="133"/>
+      <c r="BM4" s="133"/>
+      <c r="BN4" s="133"/>
+      <c r="BO4" s="133"/>
+      <c r="BP4" s="133"/>
+      <c r="BQ4" s="133"/>
+      <c r="BR4" s="133"/>
+      <c r="BS4" s="133"/>
+      <c r="BT4" s="134"/>
+      <c r="BU4" s="132"/>
+      <c r="BV4" s="133"/>
+      <c r="BW4" s="133"/>
+      <c r="BX4" s="133"/>
+      <c r="BY4" s="133"/>
+      <c r="BZ4" s="133"/>
+      <c r="CA4" s="133"/>
+      <c r="CB4" s="133"/>
+      <c r="CC4" s="133"/>
+      <c r="CD4" s="133"/>
+      <c r="CE4" s="133"/>
+      <c r="CF4" s="133"/>
+      <c r="CG4" s="133"/>
+      <c r="CH4" s="133"/>
+      <c r="CI4" s="133"/>
+      <c r="CJ4" s="133"/>
+      <c r="CK4" s="133"/>
+      <c r="CL4" s="133"/>
+      <c r="CM4" s="133"/>
+      <c r="CN4" s="133"/>
+      <c r="CO4" s="133"/>
+      <c r="CP4" s="133"/>
+      <c r="CQ4" s="133"/>
+      <c r="CR4" s="133"/>
+      <c r="CS4" s="133"/>
+      <c r="CT4" s="134"/>
+      <c r="CU4" s="132"/>
+      <c r="CV4" s="133"/>
+      <c r="CW4" s="133"/>
+      <c r="CX4" s="133"/>
+      <c r="CY4" s="133"/>
+      <c r="CZ4" s="133"/>
+      <c r="DA4" s="133"/>
+      <c r="DB4" s="133"/>
+      <c r="DC4" s="133"/>
+      <c r="DD4" s="133"/>
+      <c r="DE4" s="133"/>
+      <c r="DF4" s="133"/>
+      <c r="DG4" s="133"/>
+      <c r="DH4" s="133"/>
+      <c r="DI4" s="133"/>
+      <c r="DJ4" s="133"/>
+      <c r="DK4" s="133"/>
+      <c r="DL4" s="133"/>
+      <c r="DM4" s="133"/>
+      <c r="DN4" s="133"/>
+      <c r="DO4" s="133"/>
+      <c r="DP4" s="133"/>
+      <c r="DQ4" s="133"/>
+      <c r="DR4" s="133"/>
+      <c r="DS4" s="134"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9148,19 +9160,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="123" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="132" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="133"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="136"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9169,7 +9181,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="157" t="s">
+      <c r="T5" s="160" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9292,10 +9304,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="131"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="134"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9304,7 +9316,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="158"/>
+      <c r="T6" s="161"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9435,10 +9447,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="143" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9452,157 +9464,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="115" t="s">
+      <c r="L7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115" t="s">
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="116"/>
-      <c r="R7" s="116"/>
-      <c r="S7" s="117"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="115" t="s">
+      <c r="U7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="117"/>
-      <c r="AD7" s="116" t="s">
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="116"/>
-      <c r="AF7" s="116"/>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="116"/>
-      <c r="AJ7" s="116"/>
-      <c r="AK7" s="116"/>
-      <c r="AL7" s="117"/>
-      <c r="AM7" s="118" t="s">
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="120"/>
+      <c r="AM7" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="119"/>
-      <c r="AO7" s="119"/>
-      <c r="AP7" s="119"/>
-      <c r="AQ7" s="115" t="s">
+      <c r="AN7" s="122"/>
+      <c r="AO7" s="122"/>
+      <c r="AP7" s="122"/>
+      <c r="AQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="116"/>
-      <c r="AS7" s="116"/>
-      <c r="AT7" s="117"/>
-      <c r="AU7" s="115" t="s">
+      <c r="AR7" s="119"/>
+      <c r="AS7" s="119"/>
+      <c r="AT7" s="120"/>
+      <c r="AU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="116"/>
-      <c r="AW7" s="116"/>
-      <c r="AX7" s="116"/>
-      <c r="AY7" s="116"/>
-      <c r="AZ7" s="116"/>
-      <c r="BA7" s="116"/>
-      <c r="BB7" s="116"/>
-      <c r="BC7" s="117"/>
-      <c r="BD7" s="115" t="s">
+      <c r="AV7" s="119"/>
+      <c r="AW7" s="119"/>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="119"/>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="119"/>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="120"/>
+      <c r="BD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="116"/>
-      <c r="BF7" s="116"/>
-      <c r="BG7" s="116"/>
-      <c r="BH7" s="116"/>
-      <c r="BI7" s="116"/>
-      <c r="BJ7" s="116"/>
-      <c r="BK7" s="116"/>
-      <c r="BL7" s="117"/>
-      <c r="BM7" s="115" t="s">
+      <c r="BE7" s="119"/>
+      <c r="BF7" s="119"/>
+      <c r="BG7" s="119"/>
+      <c r="BH7" s="119"/>
+      <c r="BI7" s="119"/>
+      <c r="BJ7" s="119"/>
+      <c r="BK7" s="119"/>
+      <c r="BL7" s="120"/>
+      <c r="BM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="116"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="115" t="s">
+      <c r="BN7" s="119"/>
+      <c r="BO7" s="119"/>
+      <c r="BP7" s="119"/>
+      <c r="BQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="116"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="115" t="s">
+      <c r="BR7" s="119"/>
+      <c r="BS7" s="119"/>
+      <c r="BT7" s="120"/>
+      <c r="BU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="116"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="116"/>
-      <c r="BY7" s="116"/>
-      <c r="BZ7" s="116"/>
-      <c r="CA7" s="116"/>
-      <c r="CB7" s="116"/>
-      <c r="CC7" s="117"/>
-      <c r="CD7" s="115" t="s">
+      <c r="BV7" s="119"/>
+      <c r="BW7" s="119"/>
+      <c r="BX7" s="119"/>
+      <c r="BY7" s="119"/>
+      <c r="BZ7" s="119"/>
+      <c r="CA7" s="119"/>
+      <c r="CB7" s="119"/>
+      <c r="CC7" s="120"/>
+      <c r="CD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="116"/>
-      <c r="CF7" s="116"/>
-      <c r="CG7" s="116"/>
-      <c r="CH7" s="116"/>
-      <c r="CI7" s="116"/>
-      <c r="CJ7" s="116"/>
-      <c r="CK7" s="116"/>
-      <c r="CL7" s="117"/>
-      <c r="CM7" s="115" t="s">
+      <c r="CE7" s="119"/>
+      <c r="CF7" s="119"/>
+      <c r="CG7" s="119"/>
+      <c r="CH7" s="119"/>
+      <c r="CI7" s="119"/>
+      <c r="CJ7" s="119"/>
+      <c r="CK7" s="119"/>
+      <c r="CL7" s="120"/>
+      <c r="CM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="116"/>
-      <c r="CO7" s="116"/>
-      <c r="CP7" s="116"/>
-      <c r="CQ7" s="115" t="s">
+      <c r="CN7" s="119"/>
+      <c r="CO7" s="119"/>
+      <c r="CP7" s="119"/>
+      <c r="CQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="116"/>
-      <c r="CS7" s="116"/>
-      <c r="CT7" s="117"/>
-      <c r="CU7" s="115" t="s">
+      <c r="CR7" s="119"/>
+      <c r="CS7" s="119"/>
+      <c r="CT7" s="120"/>
+      <c r="CU7" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="116"/>
-      <c r="CW7" s="116"/>
-      <c r="CX7" s="116"/>
-      <c r="CY7" s="116"/>
-      <c r="CZ7" s="116"/>
-      <c r="DA7" s="116"/>
-      <c r="DB7" s="116"/>
-      <c r="DC7" s="117"/>
-      <c r="DD7" s="115" t="s">
+      <c r="CV7" s="119"/>
+      <c r="CW7" s="119"/>
+      <c r="CX7" s="119"/>
+      <c r="CY7" s="119"/>
+      <c r="CZ7" s="119"/>
+      <c r="DA7" s="119"/>
+      <c r="DB7" s="119"/>
+      <c r="DC7" s="120"/>
+      <c r="DD7" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="116"/>
-      <c r="DF7" s="116"/>
-      <c r="DG7" s="116"/>
-      <c r="DH7" s="116"/>
-      <c r="DI7" s="116"/>
-      <c r="DJ7" s="116"/>
-      <c r="DK7" s="116"/>
-      <c r="DL7" s="117"/>
-      <c r="DM7" s="115" t="s">
+      <c r="DE7" s="119"/>
+      <c r="DF7" s="119"/>
+      <c r="DG7" s="119"/>
+      <c r="DH7" s="119"/>
+      <c r="DI7" s="119"/>
+      <c r="DJ7" s="119"/>
+      <c r="DK7" s="119"/>
+      <c r="DL7" s="120"/>
+      <c r="DM7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="116"/>
-      <c r="DO7" s="116"/>
-      <c r="DP7" s="116"/>
-      <c r="DQ7" s="115" t="s">
+      <c r="DN7" s="119"/>
+      <c r="DO7" s="119"/>
+      <c r="DP7" s="119"/>
+      <c r="DQ7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="117"/>
+      <c r="DR7" s="120"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9725,8 +9737,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="159"/>
-      <c r="B9" s="159"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="56">
         <v>172</v>
       </c>
@@ -9754,10 +9766,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="152">
+      <c r="L9" s="155">
         <v>5</v>
       </c>
-      <c r="M9" s="152"/>
+      <c r="M9" s="155"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9776,7 +9788,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="152"/>
+      <c r="T9" s="155"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9831,10 +9843,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
+      <c r="AM9" s="155"/>
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="155"/>
+      <c r="AP9" s="155"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10103,33 +10115,35 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="108" t="s">
+      <c r="A10" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="153"/>
-      <c r="M10" s="153"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="156"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="153"/>
+      <c r="T10" s="156"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
       <c r="X10" s="80"/>
-      <c r="Y10" s="97"/>
+      <c r="Y10" s="96"/>
       <c r="Z10" s="80"/>
       <c r="AA10" s="80"/>
       <c r="AB10" s="80"/>
@@ -10143,10 +10157,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
+      <c r="AM10" s="156"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10255,130 +10269,130 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="140"/>
+      <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="153"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="153"/>
-      <c r="AN11" s="153"/>
-      <c r="AO11" s="153"/>
-      <c r="AP11" s="153"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="93"/>
-      <c r="AU11" s="93"/>
-      <c r="AV11" s="93"/>
-      <c r="AW11" s="93"/>
-      <c r="AX11" s="93"/>
-      <c r="AY11" s="93"/>
-      <c r="AZ11" s="93"/>
-      <c r="BA11" s="93"/>
-      <c r="BB11" s="93"/>
-      <c r="BC11" s="93"/>
-      <c r="BD11" s="93"/>
-      <c r="BE11" s="93"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="93"/>
-      <c r="BH11" s="93"/>
-      <c r="BI11" s="93"/>
-      <c r="BJ11" s="93"/>
-      <c r="BK11" s="93"/>
-      <c r="BL11" s="93"/>
-      <c r="BM11" s="93"/>
-      <c r="BN11" s="93"/>
-      <c r="BO11" s="93"/>
-      <c r="BP11" s="93"/>
-      <c r="BQ11" s="93"/>
-      <c r="BR11" s="93"/>
-      <c r="BS11" s="93"/>
-      <c r="BT11" s="93"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="93"/>
-      <c r="BW11" s="93"/>
-      <c r="BX11" s="93"/>
-      <c r="BY11" s="93"/>
-      <c r="BZ11" s="93"/>
-      <c r="CA11" s="93"/>
-      <c r="CB11" s="93"/>
-      <c r="CC11" s="93"/>
-      <c r="CD11" s="93"/>
-      <c r="CE11" s="93"/>
-      <c r="CF11" s="93"/>
-      <c r="CG11" s="93"/>
-      <c r="CH11" s="93"/>
-      <c r="CI11" s="93"/>
-      <c r="CJ11" s="93"/>
-      <c r="CK11" s="93"/>
-      <c r="CL11" s="93"/>
-      <c r="CM11" s="93"/>
-      <c r="CN11" s="93"/>
-      <c r="CO11" s="93"/>
-      <c r="CP11" s="93"/>
-      <c r="CQ11" s="93"/>
-      <c r="CR11" s="93"/>
-      <c r="CS11" s="93"/>
-      <c r="CT11" s="93"/>
-      <c r="CU11" s="93"/>
-      <c r="CV11" s="93"/>
-      <c r="CW11" s="93"/>
-      <c r="CX11" s="93"/>
-      <c r="CY11" s="93"/>
-      <c r="CZ11" s="93"/>
-      <c r="DA11" s="93"/>
-      <c r="DB11" s="93"/>
-      <c r="DC11" s="93"/>
-      <c r="DD11" s="93"/>
-      <c r="DE11" s="93"/>
-      <c r="DF11" s="93"/>
-      <c r="DG11" s="93"/>
-      <c r="DH11" s="93"/>
-      <c r="DI11" s="93"/>
-      <c r="DJ11" s="93"/>
-      <c r="DK11" s="93"/>
-      <c r="DL11" s="93"/>
-      <c r="DM11" s="93"/>
-      <c r="DN11" s="93"/>
-      <c r="DO11" s="93"/>
-      <c r="DP11" s="93"/>
-      <c r="DQ11" s="93"/>
-      <c r="DR11" s="96"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="92"/>
+      <c r="BA11" s="92"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="92"/>
+      <c r="BD11" s="92"/>
+      <c r="BE11" s="92"/>
+      <c r="BF11" s="92"/>
+      <c r="BG11" s="92"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="92"/>
+      <c r="BJ11" s="92"/>
+      <c r="BK11" s="92"/>
+      <c r="BL11" s="92"/>
+      <c r="BM11" s="92"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="92"/>
+      <c r="BP11" s="92"/>
+      <c r="BQ11" s="92"/>
+      <c r="BR11" s="92"/>
+      <c r="BS11" s="92"/>
+      <c r="BT11" s="92"/>
+      <c r="BU11" s="92"/>
+      <c r="BV11" s="92"/>
+      <c r="BW11" s="92"/>
+      <c r="BX11" s="92"/>
+      <c r="BY11" s="92"/>
+      <c r="BZ11" s="92"/>
+      <c r="CA11" s="92"/>
+      <c r="CB11" s="92"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="92"/>
+      <c r="CE11" s="92"/>
+      <c r="CF11" s="92"/>
+      <c r="CG11" s="92"/>
+      <c r="CH11" s="92"/>
+      <c r="CI11" s="92"/>
+      <c r="CJ11" s="92"/>
+      <c r="CK11" s="92"/>
+      <c r="CL11" s="92"/>
+      <c r="CM11" s="92"/>
+      <c r="CN11" s="92"/>
+      <c r="CO11" s="92"/>
+      <c r="CP11" s="92"/>
+      <c r="CQ11" s="92"/>
+      <c r="CR11" s="92"/>
+      <c r="CS11" s="92"/>
+      <c r="CT11" s="92"/>
+      <c r="CU11" s="92"/>
+      <c r="CV11" s="92"/>
+      <c r="CW11" s="92"/>
+      <c r="CX11" s="92"/>
+      <c r="CY11" s="92"/>
+      <c r="CZ11" s="92"/>
+      <c r="DA11" s="92"/>
+      <c r="DB11" s="92"/>
+      <c r="DC11" s="92"/>
+      <c r="DD11" s="92"/>
+      <c r="DE11" s="92"/>
+      <c r="DF11" s="92"/>
+      <c r="DG11" s="92"/>
+      <c r="DH11" s="92"/>
+      <c r="DI11" s="92"/>
+      <c r="DJ11" s="92"/>
+      <c r="DK11" s="92"/>
+      <c r="DL11" s="92"/>
+      <c r="DM11" s="92"/>
+      <c r="DN11" s="92"/>
+      <c r="DO11" s="92"/>
+      <c r="DP11" s="92"/>
+      <c r="DQ11" s="92"/>
+      <c r="DR11" s="95"/>
       <c r="DS11"/>
       <c r="DT11"/>
       <c r="DU11"/>
@@ -10407,30 +10421,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="140"/>
+      <c r="B12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="153"/>
+      <c r="T12" s="156"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10449,10 +10461,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="153"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="156"/>
+      <c r="AO12" s="156"/>
+      <c r="AP12" s="156"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10535,28 +10547,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="110" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="153"/>
+      <c r="T13" s="156"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10575,10 +10587,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="153"/>
-      <c r="AP13" s="153"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="156"/>
+      <c r="AO13" s="156"/>
+      <c r="AP13" s="156"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10687,28 +10699,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="109" t="s">
+      <c r="A14" s="140"/>
+      <c r="B14" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="156"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="153"/>
+      <c r="T14" s="156"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10727,10 +10739,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="153"/>
+      <c r="AM14" s="156"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10839,28 +10851,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="90"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="140"/>
+      <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
+      <c r="L15" s="156"/>
+      <c r="M15" s="156"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="153"/>
+      <c r="T15" s="156"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10879,10 +10891,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -10991,28 +11003,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="90"/>
-      <c r="B16" s="109" t="s">
+      <c r="A16" s="140"/>
+      <c r="B16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
+      <c r="L16" s="156"/>
+      <c r="M16" s="156"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="153"/>
+      <c r="T16" s="156"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11031,10 +11043,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11143,28 +11155,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="90"/>
-      <c r="B17" s="109" t="s">
+      <c r="A17" s="140"/>
+      <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="153"/>
+      <c r="T17" s="156"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11183,10 +11195,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="153"/>
-      <c r="AN17" s="153"/>
-      <c r="AO17" s="153"/>
-      <c r="AP17" s="153"/>
+      <c r="AM17" s="156"/>
+      <c r="AN17" s="156"/>
+      <c r="AO17" s="156"/>
+      <c r="AP17" s="156"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11269,28 +11281,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="90"/>
-      <c r="B18" s="109" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
+      <c r="L18" s="156"/>
+      <c r="M18" s="156"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="153"/>
+      <c r="T18" s="156"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11309,10 +11321,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="153"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11397,24 +11409,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
+      <c r="L19" s="156"/>
+      <c r="M19" s="156"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="153"/>
+      <c r="T19" s="156"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11433,10 +11445,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="153"/>
-      <c r="AN19" s="153"/>
-      <c r="AO19" s="153"/>
-      <c r="AP19" s="153"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11519,30 +11531,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
+      <c r="L20" s="156"/>
+      <c r="M20" s="156"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="153"/>
+      <c r="T20" s="156"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11561,10 +11573,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="153"/>
-      <c r="AN20" s="153"/>
-      <c r="AO20" s="153"/>
-      <c r="AP20" s="153"/>
+      <c r="AM20" s="156"/>
+      <c r="AN20" s="156"/>
+      <c r="AO20" s="156"/>
+      <c r="AP20" s="156"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11647,80 +11659,80 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="137"/>
-      <c r="B21" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
+      <c r="L21" s="156"/>
+      <c r="M21" s="156"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="21"/>
-      <c r="AF21" s="21"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="153"/>
-      <c r="AN21" s="153"/>
-      <c r="AO21" s="153"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="55"/>
-      <c r="AU21" s="55"/>
-      <c r="AV21" s="55"/>
-      <c r="AW21" s="55"/>
-      <c r="AX21" s="55"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
-      <c r="BC21" s="21"/>
-      <c r="BD21" s="21"/>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="21"/>
-      <c r="BJ21" s="21"/>
-      <c r="BK21" s="21"/>
-      <c r="BL21" s="21"/>
-      <c r="BM21" s="21"/>
-      <c r="BN21" s="21"/>
-      <c r="BO21" s="21"/>
-      <c r="BP21" s="21"/>
-      <c r="BQ21" s="21"/>
-      <c r="BR21" s="21"/>
-      <c r="BS21" s="21"/>
-      <c r="BT21" s="21"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="156"/>
+      <c r="AO21" s="156"/>
+      <c r="AP21" s="156"/>
+      <c r="AQ21" s="164"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="84"/>
+      <c r="AZ21" s="84"/>
+      <c r="BA21" s="84"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="84"/>
+      <c r="BE21" s="84"/>
+      <c r="BF21" s="84"/>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="84"/>
+      <c r="BI21" s="84"/>
+      <c r="BJ21" s="84"/>
+      <c r="BK21" s="84"/>
+      <c r="BL21" s="84"/>
+      <c r="BM21" s="84"/>
+      <c r="BN21" s="84"/>
+      <c r="BO21" s="84"/>
+      <c r="BP21" s="84"/>
+      <c r="BQ21" s="84"/>
+      <c r="BR21" s="84"/>
+      <c r="BS21" s="84"/>
+      <c r="BT21" s="84"/>
       <c r="BU21" s="21"/>
       <c r="BV21" s="21"/>
       <c r="BW21" s="21"/>
@@ -11773,28 +11785,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="137"/>
-      <c r="B22" s="109" t="s">
+      <c r="A22" s="140"/>
+      <c r="B22" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="153"/>
+      <c r="T22" s="156"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11813,10 +11825,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="153"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="153"/>
-      <c r="AP22" s="153"/>
+      <c r="AM22" s="156"/>
+      <c r="AN22" s="156"/>
+      <c r="AO22" s="156"/>
+      <c r="AP22" s="156"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11899,28 +11911,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="137"/>
-      <c r="B23" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="149"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="153"/>
+      <c r="T23" s="156"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11939,10 +11951,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="153"/>
-      <c r="AN23" s="153"/>
-      <c r="AO23" s="153"/>
-      <c r="AP23" s="153"/>
+      <c r="AM23" s="156"/>
+      <c r="AN23" s="156"/>
+      <c r="AO23" s="156"/>
+      <c r="AP23" s="156"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12025,28 +12037,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="137"/>
-      <c r="B24" s="110" t="s">
+      <c r="A24" s="140"/>
+      <c r="B24" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="153"/>
+      <c r="T24" s="156"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12065,10 +12077,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="153"/>
-      <c r="AN24" s="153"/>
-      <c r="AO24" s="153"/>
-      <c r="AP24" s="153"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="156"/>
+      <c r="AO24" s="156"/>
+      <c r="AP24" s="156"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12177,35 +12189,35 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="137"/>
-      <c r="B25" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="153"/>
+      <c r="T25" s="156"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="21"/>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="55"/>
       <c r="AD25" s="55"/>
@@ -12217,10 +12229,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="153"/>
-      <c r="AN25" s="153"/>
-      <c r="AO25" s="153"/>
-      <c r="AP25" s="153"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="156"/>
+      <c r="AO25" s="156"/>
+      <c r="AP25" s="156"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12329,28 +12341,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="137"/>
-      <c r="B26" s="113" t="s">
+      <c r="A26" s="140"/>
+      <c r="B26" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="153"/>
+      <c r="T26" s="156"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12369,10 +12381,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="153"/>
-      <c r="AN26" s="153"/>
-      <c r="AO26" s="153"/>
-      <c r="AP26" s="153"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="156"/>
+      <c r="AO26" s="156"/>
+      <c r="AP26" s="156"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12386,9 +12398,9 @@
       <c r="BA26" s="21"/>
       <c r="BB26" s="21"/>
       <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="21"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
       <c r="BG26" s="21"/>
       <c r="BH26" s="21"/>
       <c r="BI26" s="21"/>
@@ -12481,28 +12493,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="137"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="140"/>
+      <c r="B27" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="153"/>
-      <c r="M27" s="153"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="153"/>
+      <c r="T27" s="156"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12521,10 +12533,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="153"/>
-      <c r="AN27" s="153"/>
-      <c r="AO27" s="153"/>
-      <c r="AP27" s="153"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="156"/>
+      <c r="AO27" s="156"/>
+      <c r="AP27" s="156"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12633,28 +12645,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="137"/>
-      <c r="B28" s="113" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="149"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="153"/>
-      <c r="M28" s="153"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="153"/>
+      <c r="T28" s="156"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12673,10 +12685,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="153"/>
-      <c r="AN28" s="153"/>
-      <c r="AO28" s="153"/>
-      <c r="AP28" s="153"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12685,11 +12697,11 @@
       <c r="AV28" s="21"/>
       <c r="AW28" s="21"/>
       <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
-      <c r="BC28" s="21"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="84"/>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="84"/>
       <c r="BD28" s="21"/>
       <c r="BE28" s="21"/>
       <c r="BF28" s="21"/>
@@ -12759,28 +12771,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="137"/>
-      <c r="B29" s="109" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="153"/>
+      <c r="T29" s="156"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12799,10 +12811,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="153"/>
-      <c r="AN29" s="153"/>
-      <c r="AO29" s="153"/>
-      <c r="AP29" s="153"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="156"/>
+      <c r="AO29" s="156"/>
+      <c r="AP29" s="156"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12885,28 +12897,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="137"/>
-      <c r="B30" s="113" t="s">
+      <c r="A30" s="140"/>
+      <c r="B30" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="153"/>
-      <c r="M30" s="153"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="153"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12925,10 +12937,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="153"/>
-      <c r="AN30" s="153"/>
-      <c r="AO30" s="153"/>
-      <c r="AP30" s="153"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="156"/>
+      <c r="AO30" s="156"/>
+      <c r="AP30" s="156"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13011,28 +13023,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="137"/>
-      <c r="B31" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="149"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="153"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13051,18 +13063,18 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="153"/>
-      <c r="AN31" s="153"/>
-      <c r="AO31" s="153"/>
-      <c r="AP31" s="153"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
+      <c r="AQ31" s="84"/>
+      <c r="AR31" s="84"/>
+      <c r="AS31" s="84"/>
+      <c r="AT31" s="84"/>
+      <c r="AU31" s="84"/>
+      <c r="AV31" s="84"/>
+      <c r="AW31" s="84"/>
+      <c r="AX31" s="84"/>
       <c r="AY31" s="21"/>
       <c r="AZ31" s="21"/>
       <c r="BA31" s="21"/>
@@ -13163,28 +13175,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="137"/>
-      <c r="B32" s="113" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="153"/>
+      <c r="T32" s="156"/>
       <c r="U32" s="55"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -13203,44 +13215,44 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="153"/>
-      <c r="AN32" s="153"/>
-      <c r="AO32" s="153"/>
-      <c r="AP32" s="153"/>
-      <c r="AQ32" s="84"/>
-      <c r="AR32" s="84"/>
-      <c r="AS32" s="84"/>
-      <c r="AT32" s="84"/>
-      <c r="AU32" s="84"/>
-      <c r="AV32" s="84"/>
-      <c r="AW32" s="84"/>
-      <c r="AX32" s="84"/>
-      <c r="AY32" s="84"/>
-      <c r="AZ32" s="84"/>
-      <c r="BA32" s="84"/>
-      <c r="BB32" s="84"/>
-      <c r="BC32" s="84"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
-      <c r="BJ32" s="21"/>
-      <c r="BK32" s="21"/>
-      <c r="BL32" s="21"/>
-      <c r="BM32" s="21"/>
-      <c r="BN32" s="21"/>
-      <c r="BO32" s="21"/>
-      <c r="BP32" s="21"/>
-      <c r="BQ32" s="21"/>
-      <c r="BR32" s="21"/>
-      <c r="BS32" s="21"/>
-      <c r="BT32" s="21"/>
-      <c r="BU32" s="21"/>
-      <c r="BV32" s="21"/>
-      <c r="BW32" s="21"/>
-      <c r="BX32" s="21"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="156"/>
+      <c r="AO32" s="156"/>
+      <c r="AP32" s="156"/>
+      <c r="AQ32" s="113"/>
+      <c r="AR32" s="113"/>
+      <c r="AS32" s="113"/>
+      <c r="AT32" s="113"/>
+      <c r="AU32" s="113"/>
+      <c r="AV32" s="113"/>
+      <c r="AW32" s="113"/>
+      <c r="AX32" s="113"/>
+      <c r="AY32" s="113"/>
+      <c r="AZ32" s="113"/>
+      <c r="BA32" s="113"/>
+      <c r="BB32" s="113"/>
+      <c r="BC32" s="113"/>
+      <c r="BD32" s="116"/>
+      <c r="BE32" s="116"/>
+      <c r="BF32" s="116"/>
+      <c r="BG32" s="113"/>
+      <c r="BH32" s="113"/>
+      <c r="BI32" s="113"/>
+      <c r="BJ32" s="116"/>
+      <c r="BK32" s="116"/>
+      <c r="BL32" s="84"/>
+      <c r="BM32" s="84"/>
+      <c r="BN32" s="84"/>
+      <c r="BO32" s="84"/>
+      <c r="BP32" s="84"/>
+      <c r="BQ32" s="84"/>
+      <c r="BR32" s="84"/>
+      <c r="BS32" s="84"/>
+      <c r="BT32" s="84"/>
+      <c r="BU32" s="115"/>
+      <c r="BV32" s="115"/>
+      <c r="BW32" s="115"/>
+      <c r="BX32" s="115"/>
       <c r="BY32" s="21"/>
       <c r="BZ32" s="21"/>
       <c r="CA32" s="21"/>
@@ -13289,28 +13301,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="137"/>
-      <c r="B33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="149"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="153"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13329,10 +13341,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="153"/>
-      <c r="AN33" s="153"/>
-      <c r="AO33" s="153"/>
-      <c r="AP33" s="153"/>
+      <c r="AM33" s="156"/>
+      <c r="AN33" s="156"/>
+      <c r="AO33" s="156"/>
+      <c r="AP33" s="156"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13349,9 +13361,9 @@
       <c r="BD33" s="21"/>
       <c r="BE33" s="21"/>
       <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
+      <c r="BG33" s="84"/>
+      <c r="BH33" s="84"/>
+      <c r="BI33" s="84"/>
       <c r="BJ33" s="21"/>
       <c r="BK33" s="21"/>
       <c r="BL33" s="21"/>
@@ -13441,28 +13453,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="137"/>
-      <c r="B34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="153"/>
+      <c r="T34" s="156"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13481,10 +13493,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="153"/>
-      <c r="AN34" s="153"/>
-      <c r="AO34" s="153"/>
-      <c r="AP34" s="153"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="156"/>
+      <c r="AO34" s="156"/>
+      <c r="AP34" s="156"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13511,8 +13523,8 @@
       <c r="BN34" s="21"/>
       <c r="BO34" s="21"/>
       <c r="BP34" s="21"/>
-      <c r="BQ34" s="21"/>
-      <c r="BR34" s="21"/>
+      <c r="BQ34" s="84"/>
+      <c r="BR34" s="84"/>
       <c r="BS34" s="21"/>
       <c r="BT34" s="21"/>
       <c r="BU34" s="21"/>
@@ -13567,28 +13579,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="137"/>
-      <c r="B35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="153"/>
-      <c r="M35" s="153"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="153"/>
+      <c r="T35" s="156"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13607,10 +13619,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="153"/>
-      <c r="AN35" s="153"/>
-      <c r="AO35" s="153"/>
-      <c r="AP35" s="153"/>
+      <c r="AM35" s="156"/>
+      <c r="AN35" s="156"/>
+      <c r="AO35" s="156"/>
+      <c r="AP35" s="156"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13719,28 +13731,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="137"/>
-      <c r="B36" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="153"/>
+      <c r="T36" s="156"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13759,10 +13771,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="153"/>
-      <c r="AN36" s="153"/>
-      <c r="AO36" s="153"/>
-      <c r="AP36" s="153"/>
+      <c r="AM36" s="156"/>
+      <c r="AN36" s="156"/>
+      <c r="AO36" s="156"/>
+      <c r="AP36" s="156"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13845,28 +13857,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="137"/>
-      <c r="B37" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="149"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="153"/>
-      <c r="M37" s="153"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="153"/>
+      <c r="T37" s="156"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13885,10 +13897,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="153"/>
-      <c r="AN37" s="153"/>
-      <c r="AO37" s="153"/>
-      <c r="AP37" s="153"/>
+      <c r="AM37" s="156"/>
+      <c r="AN37" s="156"/>
+      <c r="AO37" s="156"/>
+      <c r="AP37" s="156"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13973,24 +13985,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="153"/>
-      <c r="M38" s="153"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="153"/>
+      <c r="T38" s="156"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14009,10 +14021,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="153"/>
-      <c r="AN38" s="153"/>
-      <c r="AO38" s="153"/>
-      <c r="AP38" s="153"/>
+      <c r="AM38" s="156"/>
+      <c r="AN38" s="156"/>
+      <c r="AO38" s="156"/>
+      <c r="AP38" s="156"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14095,30 +14107,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="153"/>
+      <c r="T39" s="156"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14137,42 +14149,42 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="153"/>
-      <c r="AN39" s="153"/>
-      <c r="AO39" s="153"/>
-      <c r="AP39" s="153"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
-      <c r="BC39" s="21"/>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-      <c r="BJ39" s="21"/>
-      <c r="BK39" s="21"/>
-      <c r="BL39" s="21"/>
-      <c r="BM39" s="21"/>
-      <c r="BN39" s="21"/>
-      <c r="BO39" s="21"/>
-      <c r="BP39" s="21"/>
-      <c r="BQ39" s="21"/>
-      <c r="BR39" s="21"/>
-      <c r="BS39" s="21"/>
-      <c r="BT39" s="21"/>
-      <c r="BU39" s="21"/>
-      <c r="BV39" s="21"/>
+      <c r="AM39" s="156"/>
+      <c r="AN39" s="156"/>
+      <c r="AO39" s="156"/>
+      <c r="AP39" s="156"/>
+      <c r="AQ39" s="84"/>
+      <c r="AR39" s="84"/>
+      <c r="AS39" s="84"/>
+      <c r="AT39" s="84"/>
+      <c r="AU39" s="84"/>
+      <c r="AV39" s="84"/>
+      <c r="AW39" s="84"/>
+      <c r="AX39" s="84"/>
+      <c r="AY39" s="84"/>
+      <c r="AZ39" s="84"/>
+      <c r="BA39" s="84"/>
+      <c r="BB39" s="84"/>
+      <c r="BC39" s="84"/>
+      <c r="BD39" s="84"/>
+      <c r="BE39" s="84"/>
+      <c r="BF39" s="84"/>
+      <c r="BG39" s="84"/>
+      <c r="BH39" s="84"/>
+      <c r="BI39" s="84"/>
+      <c r="BJ39" s="84"/>
+      <c r="BK39" s="84"/>
+      <c r="BL39" s="84"/>
+      <c r="BM39" s="84"/>
+      <c r="BN39" s="84"/>
+      <c r="BO39" s="84"/>
+      <c r="BP39" s="84"/>
+      <c r="BQ39" s="84"/>
+      <c r="BR39" s="84"/>
+      <c r="BS39" s="84"/>
+      <c r="BT39" s="84"/>
+      <c r="BU39" s="84"/>
+      <c r="BV39" s="84"/>
       <c r="BW39" s="21"/>
       <c r="BX39" s="21"/>
       <c r="BY39" s="21"/>
@@ -14249,28 +14261,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="137"/>
-      <c r="B40" s="113" t="s">
+      <c r="A40" s="140"/>
+      <c r="B40" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="153"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="153"/>
+      <c r="T40" s="156"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14289,49 +14301,49 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="153"/>
-      <c r="AN40" s="153"/>
-      <c r="AO40" s="153"/>
-      <c r="AP40" s="153"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
-      <c r="BC40" s="21"/>
-      <c r="BD40" s="21"/>
-      <c r="BE40" s="21"/>
-      <c r="BF40" s="21"/>
-      <c r="BG40" s="21"/>
-      <c r="BH40" s="21"/>
-      <c r="BI40" s="21"/>
-      <c r="BJ40" s="21"/>
-      <c r="BK40" s="21"/>
-      <c r="BL40" s="21"/>
-      <c r="BM40" s="21"/>
-      <c r="BN40" s="21"/>
-      <c r="BO40" s="21"/>
-      <c r="BP40" s="21"/>
-      <c r="BQ40" s="21"/>
-      <c r="BR40" s="21"/>
-      <c r="BS40" s="21"/>
-      <c r="BT40" s="21"/>
-      <c r="BU40" s="21"/>
-      <c r="BV40" s="21"/>
-      <c r="BW40" s="21"/>
-      <c r="BX40" s="21"/>
-      <c r="BY40" s="21"/>
-      <c r="BZ40" s="21"/>
-      <c r="CA40" s="21"/>
-      <c r="CB40" s="21"/>
-      <c r="CC40" s="21"/>
+      <c r="AM40" s="156"/>
+      <c r="AN40" s="156"/>
+      <c r="AO40" s="156"/>
+      <c r="AP40" s="156"/>
+      <c r="AQ40" s="84"/>
+      <c r="AR40" s="84"/>
+      <c r="AS40" s="84"/>
+      <c r="AT40" s="84"/>
+      <c r="AU40" s="84"/>
+      <c r="AV40" s="84"/>
+      <c r="AW40" s="84"/>
+      <c r="AX40" s="84"/>
+      <c r="AY40" s="84"/>
+      <c r="AZ40" s="84"/>
+      <c r="BA40" s="84"/>
+      <c r="BB40" s="84"/>
+      <c r="BC40" s="84"/>
+      <c r="BD40" s="84"/>
+      <c r="BE40" s="84"/>
+      <c r="BF40" s="84"/>
+      <c r="BG40" s="84"/>
+      <c r="BH40" s="84"/>
+      <c r="BI40" s="84"/>
+      <c r="BJ40" s="84"/>
+      <c r="BK40" s="84"/>
+      <c r="BL40" s="84"/>
+      <c r="BM40" s="84"/>
+      <c r="BN40" s="84"/>
+      <c r="BO40" s="84"/>
+      <c r="BP40" s="84"/>
+      <c r="BQ40" s="84"/>
+      <c r="BR40" s="84"/>
+      <c r="BS40" s="84"/>
+      <c r="BT40" s="84"/>
+      <c r="BU40" s="84"/>
+      <c r="BV40" s="84"/>
+      <c r="BW40" s="84"/>
+      <c r="BX40" s="84"/>
+      <c r="BY40" s="84"/>
+      <c r="BZ40" s="84"/>
+      <c r="CA40" s="84"/>
+      <c r="CB40" s="84"/>
+      <c r="CC40" s="84"/>
       <c r="CD40" s="21"/>
       <c r="CE40" s="21"/>
       <c r="CF40" s="21"/>
@@ -14375,28 +14387,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="137"/>
-      <c r="B41" s="113" t="s">
+      <c r="A41" s="140"/>
+      <c r="B41" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="153"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="153"/>
+      <c r="T41" s="156"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14415,14 +14427,14 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="153"/>
-      <c r="AN41" s="153"/>
-      <c r="AO41" s="153"/>
-      <c r="AP41" s="153"/>
+      <c r="AM41" s="156"/>
+      <c r="AN41" s="156"/>
+      <c r="AO41" s="156"/>
+      <c r="AP41" s="156"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
+      <c r="AT41" s="84"/>
       <c r="AU41" s="21"/>
       <c r="AV41" s="21"/>
       <c r="AW41" s="21"/>
@@ -14431,7 +14443,7 @@
       <c r="AZ41" s="21"/>
       <c r="BA41" s="21"/>
       <c r="BB41" s="21"/>
-      <c r="BC41" s="21"/>
+      <c r="BC41" s="84"/>
       <c r="BD41" s="21"/>
       <c r="BE41" s="21"/>
       <c r="BF41" s="21"/>
@@ -14440,7 +14452,7 @@
       <c r="BI41" s="21"/>
       <c r="BJ41" s="21"/>
       <c r="BK41" s="21"/>
-      <c r="BL41" s="21"/>
+      <c r="BL41" s="84"/>
       <c r="BM41" s="21"/>
       <c r="BN41" s="21"/>
       <c r="BO41" s="21"/>
@@ -14448,9 +14460,9 @@
       <c r="BQ41" s="21"/>
       <c r="BR41" s="21"/>
       <c r="BS41" s="21"/>
-      <c r="BT41" s="21"/>
+      <c r="BT41" s="84"/>
       <c r="BU41" s="21"/>
-      <c r="BV41" s="21"/>
+      <c r="BV41" s="84"/>
       <c r="BW41" s="21"/>
       <c r="BX41" s="21"/>
       <c r="BY41" s="21"/>
@@ -14527,28 +14539,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="137"/>
-      <c r="B42" s="113" t="s">
+      <c r="A42" s="140"/>
+      <c r="B42" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="153"/>
-      <c r="M42" s="153"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="153"/>
+      <c r="T42" s="156"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14567,10 +14579,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="153"/>
-      <c r="AN42" s="153"/>
-      <c r="AO42" s="153"/>
-      <c r="AP42" s="153"/>
+      <c r="AM42" s="156"/>
+      <c r="AN42" s="156"/>
+      <c r="AO42" s="156"/>
+      <c r="AP42" s="156"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14653,28 +14665,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="137"/>
+      <c r="A43" s="140"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="153"/>
+      <c r="T43" s="156"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14693,10 +14705,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="153"/>
-      <c r="AN43" s="153"/>
-      <c r="AO43" s="153"/>
-      <c r="AP43" s="153"/>
+      <c r="AM43" s="156"/>
+      <c r="AN43" s="156"/>
+      <c r="AO43" s="156"/>
+      <c r="AP43" s="156"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14807,24 +14819,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="153"/>
+      <c r="T44" s="156"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14843,10 +14855,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="153"/>
-      <c r="AN44" s="153"/>
-      <c r="AO44" s="153"/>
-      <c r="AP44" s="153"/>
+      <c r="AM44" s="156"/>
+      <c r="AN44" s="156"/>
+      <c r="AO44" s="156"/>
+      <c r="AP44" s="156"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14955,30 +14967,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="137" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
+      <c r="C45" s="149"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="153"/>
-      <c r="M45" s="153"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="153"/>
+      <c r="T45" s="156"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -14997,10 +15009,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="153"/>
-      <c r="AN45" s="153"/>
-      <c r="AO45" s="153"/>
-      <c r="AP45" s="153"/>
+      <c r="AM45" s="156"/>
+      <c r="AN45" s="156"/>
+      <c r="AO45" s="156"/>
+      <c r="AP45" s="156"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15083,28 +15095,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="135"/>
+      <c r="A46" s="138"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="153"/>
+      <c r="T46" s="156"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15123,10 +15135,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="153"/>
-      <c r="AN46" s="153"/>
-      <c r="AO46" s="153"/>
-      <c r="AP46" s="153"/>
+      <c r="AM46" s="156"/>
+      <c r="AN46" s="156"/>
+      <c r="AO46" s="156"/>
+      <c r="AP46" s="156"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15209,28 +15221,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="135"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="153"/>
+      <c r="T47" s="156"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15249,10 +15261,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="153"/>
-      <c r="AN47" s="153"/>
-      <c r="AO47" s="153"/>
-      <c r="AP47" s="153"/>
+      <c r="AM47" s="156"/>
+      <c r="AN47" s="156"/>
+      <c r="AO47" s="156"/>
+      <c r="AP47" s="156"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15335,28 +15347,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="135"/>
+      <c r="A48" s="138"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="153"/>
-      <c r="M48" s="153"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="153"/>
+      <c r="T48" s="156"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15375,10 +15387,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="153"/>
-      <c r="AN48" s="153"/>
-      <c r="AO48" s="153"/>
-      <c r="AP48" s="153"/>
+      <c r="AM48" s="156"/>
+      <c r="AN48" s="156"/>
+      <c r="AO48" s="156"/>
+      <c r="AP48" s="156"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15461,28 +15473,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="135"/>
+      <c r="A49" s="138"/>
       <c r="B49" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
+        <v>57</v>
+      </c>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="153"/>
-      <c r="M49" s="153"/>
+      <c r="L49" s="156"/>
+      <c r="M49" s="156"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="153"/>
+      <c r="T49" s="156"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15501,10 +15513,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="153"/>
-      <c r="AN49" s="153"/>
-      <c r="AO49" s="153"/>
-      <c r="AP49" s="153"/>
+      <c r="AM49" s="156"/>
+      <c r="AN49" s="156"/>
+      <c r="AO49" s="156"/>
+      <c r="AP49" s="156"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15587,28 +15599,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="136"/>
+      <c r="A50" s="139"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="154"/>
+      <c r="T50" s="157"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15627,10 +15639,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="154"/>
-      <c r="AN50" s="154"/>
-      <c r="AO50" s="154"/>
-      <c r="AP50" s="154"/>
+      <c r="AM50" s="157"/>
+      <c r="AN50" s="157"/>
+      <c r="AO50" s="157"/>
+      <c r="AP50" s="157"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15734,13 +15746,14 @@
       <c r="A57" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="41">
     <mergeCell ref="C10:G50"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="T9:T50"/>
     <mergeCell ref="AM9:AP50"/>
     <mergeCell ref="L9:M50"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121172ED-BB57-44FF-AF6A-3C1F266B3A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E6701-5C57-44DC-B59A-D84B804D4283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="5" r:id="rId1"/>
@@ -1174,42 +1174,7 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,10 +1193,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,26 +1277,38 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1315,7 +1316,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -2036,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91B9F9-D074-428F-98DE-3CB6D1C2B3BA}">
   <dimension ref="A1:ER56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AR19" sqref="AR19"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,284 +2057,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="129" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="158" t="s">
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="U3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="129" t="s">
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="131"/>
-      <c r="BU3" s="129" t="s">
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="120"/>
+      <c r="BU3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="130"/>
-      <c r="CC3" s="130"/>
-      <c r="CD3" s="130"/>
-      <c r="CE3" s="130"/>
-      <c r="CF3" s="130"/>
-      <c r="CG3" s="130"/>
-      <c r="CH3" s="130"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
-      <c r="CN3" s="130"/>
-      <c r="CO3" s="130"/>
-      <c r="CP3" s="130"/>
-      <c r="CQ3" s="130"/>
-      <c r="CR3" s="130"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="131"/>
-      <c r="CU3" s="129" t="s">
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="119"/>
+      <c r="CN3" s="119"/>
+      <c r="CO3" s="119"/>
+      <c r="CP3" s="119"/>
+      <c r="CQ3" s="119"/>
+      <c r="CR3" s="119"/>
+      <c r="CS3" s="119"/>
+      <c r="CT3" s="120"/>
+      <c r="CU3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="130"/>
-      <c r="CW3" s="130"/>
-      <c r="CX3" s="130"/>
-      <c r="CY3" s="130"/>
-      <c r="CZ3" s="130"/>
-      <c r="DA3" s="130"/>
-      <c r="DB3" s="130"/>
-      <c r="DC3" s="130"/>
-      <c r="DD3" s="130"/>
-      <c r="DE3" s="130"/>
-      <c r="DF3" s="130"/>
-      <c r="DG3" s="130"/>
-      <c r="DH3" s="130"/>
-      <c r="DI3" s="130"/>
-      <c r="DJ3" s="130"/>
-      <c r="DK3" s="130"/>
-      <c r="DL3" s="130"/>
-      <c r="DM3" s="130"/>
-      <c r="DN3" s="130"/>
-      <c r="DO3" s="130"/>
-      <c r="DP3" s="130"/>
-      <c r="DQ3" s="130"/>
-      <c r="DR3" s="130"/>
-      <c r="DS3" s="131"/>
+      <c r="CV3" s="119"/>
+      <c r="CW3" s="119"/>
+      <c r="CX3" s="119"/>
+      <c r="CY3" s="119"/>
+      <c r="CZ3" s="119"/>
+      <c r="DA3" s="119"/>
+      <c r="DB3" s="119"/>
+      <c r="DC3" s="119"/>
+      <c r="DD3" s="119"/>
+      <c r="DE3" s="119"/>
+      <c r="DF3" s="119"/>
+      <c r="DG3" s="119"/>
+      <c r="DH3" s="119"/>
+      <c r="DI3" s="119"/>
+      <c r="DJ3" s="119"/>
+      <c r="DK3" s="119"/>
+      <c r="DL3" s="119"/>
+      <c r="DM3" s="119"/>
+      <c r="DN3" s="119"/>
+      <c r="DO3" s="119"/>
+      <c r="DP3" s="119"/>
+      <c r="DQ3" s="119"/>
+      <c r="DR3" s="119"/>
+      <c r="DS3" s="120"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="134"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="133"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="133"/>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="133"/>
-      <c r="BP4" s="133"/>
-      <c r="BQ4" s="133"/>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="133"/>
-      <c r="BT4" s="134"/>
-      <c r="BU4" s="132"/>
-      <c r="BV4" s="133"/>
-      <c r="BW4" s="133"/>
-      <c r="BX4" s="133"/>
-      <c r="BY4" s="133"/>
-      <c r="BZ4" s="133"/>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="133"/>
-      <c r="CD4" s="133"/>
-      <c r="CE4" s="133"/>
-      <c r="CF4" s="133"/>
-      <c r="CG4" s="133"/>
-      <c r="CH4" s="133"/>
-      <c r="CI4" s="133"/>
-      <c r="CJ4" s="133"/>
-      <c r="CK4" s="133"/>
-      <c r="CL4" s="133"/>
-      <c r="CM4" s="133"/>
-      <c r="CN4" s="133"/>
-      <c r="CO4" s="133"/>
-      <c r="CP4" s="133"/>
-      <c r="CQ4" s="133"/>
-      <c r="CR4" s="133"/>
-      <c r="CS4" s="133"/>
-      <c r="CT4" s="134"/>
-      <c r="CU4" s="132"/>
-      <c r="CV4" s="133"/>
-      <c r="CW4" s="133"/>
-      <c r="CX4" s="133"/>
-      <c r="CY4" s="133"/>
-      <c r="CZ4" s="133"/>
-      <c r="DA4" s="133"/>
-      <c r="DB4" s="133"/>
-      <c r="DC4" s="133"/>
-      <c r="DD4" s="133"/>
-      <c r="DE4" s="133"/>
-      <c r="DF4" s="133"/>
-      <c r="DG4" s="133"/>
-      <c r="DH4" s="133"/>
-      <c r="DI4" s="133"/>
-      <c r="DJ4" s="133"/>
-      <c r="DK4" s="133"/>
-      <c r="DL4" s="133"/>
-      <c r="DM4" s="133"/>
-      <c r="DN4" s="133"/>
-      <c r="DO4" s="133"/>
-      <c r="DP4" s="133"/>
-      <c r="DQ4" s="133"/>
-      <c r="DR4" s="133"/>
-      <c r="DS4" s="134"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="123"/>
+      <c r="BU4" s="121"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="122"/>
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="122"/>
+      <c r="CK4" s="122"/>
+      <c r="CL4" s="122"/>
+      <c r="CM4" s="122"/>
+      <c r="CN4" s="122"/>
+      <c r="CO4" s="122"/>
+      <c r="CP4" s="122"/>
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="122"/>
+      <c r="CS4" s="122"/>
+      <c r="CT4" s="123"/>
+      <c r="CU4" s="121"/>
+      <c r="CV4" s="122"/>
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="122"/>
+      <c r="CZ4" s="122"/>
+      <c r="DA4" s="122"/>
+      <c r="DB4" s="122"/>
+      <c r="DC4" s="122"/>
+      <c r="DD4" s="122"/>
+      <c r="DE4" s="122"/>
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="122"/>
+      <c r="DI4" s="122"/>
+      <c r="DJ4" s="122"/>
+      <c r="DK4" s="122"/>
+      <c r="DL4" s="122"/>
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="122"/>
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="122"/>
+      <c r="DQ4" s="122"/>
+      <c r="DR4" s="122"/>
+      <c r="DS4" s="123"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2343,18 +2343,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="135" t="s">
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="136"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="162"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2363,7 +2363,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="160" t="s">
+      <c r="T5" s="126" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2486,10 +2486,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2498,7 +2498,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="161"/>
+      <c r="T6" s="127"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2629,10 +2629,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2646,157 +2646,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="118" t="s">
+      <c r="L7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="118" t="s">
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="130"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="118" t="s">
+      <c r="U7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="119" t="s">
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="121" t="s">
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="122"/>
-      <c r="AP7" s="122"/>
-      <c r="AQ7" s="118" t="s">
+      <c r="AN7" s="154"/>
+      <c r="AO7" s="154"/>
+      <c r="AP7" s="154"/>
+      <c r="AQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="118" t="s">
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="120"/>
-      <c r="BD7" s="118" t="s">
+      <c r="AV7" s="129"/>
+      <c r="AW7" s="129"/>
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="129"/>
+      <c r="AZ7" s="129"/>
+      <c r="BA7" s="129"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="120"/>
-      <c r="BM7" s="118" t="s">
+      <c r="BE7" s="129"/>
+      <c r="BF7" s="129"/>
+      <c r="BG7" s="129"/>
+      <c r="BH7" s="129"/>
+      <c r="BI7" s="129"/>
+      <c r="BJ7" s="129"/>
+      <c r="BK7" s="129"/>
+      <c r="BL7" s="130"/>
+      <c r="BM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="119"/>
-      <c r="BO7" s="119"/>
-      <c r="BP7" s="119"/>
-      <c r="BQ7" s="118" t="s">
+      <c r="BN7" s="129"/>
+      <c r="BO7" s="129"/>
+      <c r="BP7" s="129"/>
+      <c r="BQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="119"/>
-      <c r="BS7" s="119"/>
-      <c r="BT7" s="120"/>
-      <c r="BU7" s="118" t="s">
+      <c r="BR7" s="129"/>
+      <c r="BS7" s="129"/>
+      <c r="BT7" s="130"/>
+      <c r="BU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="119"/>
-      <c r="BW7" s="119"/>
-      <c r="BX7" s="119"/>
-      <c r="BY7" s="119"/>
-      <c r="BZ7" s="119"/>
-      <c r="CA7" s="119"/>
-      <c r="CB7" s="119"/>
-      <c r="CC7" s="120"/>
-      <c r="CD7" s="118" t="s">
+      <c r="BV7" s="129"/>
+      <c r="BW7" s="129"/>
+      <c r="BX7" s="129"/>
+      <c r="BY7" s="129"/>
+      <c r="BZ7" s="129"/>
+      <c r="CA7" s="129"/>
+      <c r="CB7" s="129"/>
+      <c r="CC7" s="130"/>
+      <c r="CD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="119"/>
-      <c r="CF7" s="119"/>
-      <c r="CG7" s="119"/>
-      <c r="CH7" s="119"/>
-      <c r="CI7" s="119"/>
-      <c r="CJ7" s="119"/>
-      <c r="CK7" s="119"/>
-      <c r="CL7" s="120"/>
-      <c r="CM7" s="118" t="s">
+      <c r="CE7" s="129"/>
+      <c r="CF7" s="129"/>
+      <c r="CG7" s="129"/>
+      <c r="CH7" s="129"/>
+      <c r="CI7" s="129"/>
+      <c r="CJ7" s="129"/>
+      <c r="CK7" s="129"/>
+      <c r="CL7" s="130"/>
+      <c r="CM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="119"/>
-      <c r="CO7" s="119"/>
-      <c r="CP7" s="119"/>
-      <c r="CQ7" s="118" t="s">
+      <c r="CN7" s="129"/>
+      <c r="CO7" s="129"/>
+      <c r="CP7" s="129"/>
+      <c r="CQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="119"/>
-      <c r="CS7" s="119"/>
-      <c r="CT7" s="120"/>
-      <c r="CU7" s="118" t="s">
+      <c r="CR7" s="129"/>
+      <c r="CS7" s="129"/>
+      <c r="CT7" s="130"/>
+      <c r="CU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="119"/>
-      <c r="CW7" s="119"/>
-      <c r="CX7" s="119"/>
-      <c r="CY7" s="119"/>
-      <c r="CZ7" s="119"/>
-      <c r="DA7" s="119"/>
-      <c r="DB7" s="119"/>
-      <c r="DC7" s="120"/>
-      <c r="DD7" s="118" t="s">
+      <c r="CV7" s="129"/>
+      <c r="CW7" s="129"/>
+      <c r="CX7" s="129"/>
+      <c r="CY7" s="129"/>
+      <c r="CZ7" s="129"/>
+      <c r="DA7" s="129"/>
+      <c r="DB7" s="129"/>
+      <c r="DC7" s="130"/>
+      <c r="DD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="119"/>
-      <c r="DF7" s="119"/>
-      <c r="DG7" s="119"/>
-      <c r="DH7" s="119"/>
-      <c r="DI7" s="119"/>
-      <c r="DJ7" s="119"/>
-      <c r="DK7" s="119"/>
-      <c r="DL7" s="120"/>
-      <c r="DM7" s="118" t="s">
+      <c r="DE7" s="129"/>
+      <c r="DF7" s="129"/>
+      <c r="DG7" s="129"/>
+      <c r="DH7" s="129"/>
+      <c r="DI7" s="129"/>
+      <c r="DJ7" s="129"/>
+      <c r="DK7" s="129"/>
+      <c r="DL7" s="130"/>
+      <c r="DM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="119"/>
-      <c r="DO7" s="119"/>
-      <c r="DP7" s="119"/>
-      <c r="DQ7" s="118" t="s">
+      <c r="DN7" s="129"/>
+      <c r="DO7" s="129"/>
+      <c r="DP7" s="129"/>
+      <c r="DQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="120"/>
+      <c r="DR7" s="130"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="142"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2919,8 +2919,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="142"/>
-      <c r="B9" s="145"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2948,10 +2948,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="155">
+      <c r="L9" s="131">
         <v>5</v>
       </c>
-      <c r="M9" s="155"/>
+      <c r="M9" s="131"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="155"/>
+      <c r="T9" s="131"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3025,10 +3025,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155"/>
-      <c r="AO9" s="155"/>
-      <c r="AP9" s="155"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3297,30 +3297,30 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="137" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="102"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="156"/>
+      <c r="T10" s="132"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3339,10 +3339,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="156"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="132"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3451,28 +3451,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="151"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="101"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="92"/>
       <c r="O11" s="92"/>
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
       <c r="S11" s="92"/>
-      <c r="T11" s="156"/>
+      <c r="T11" s="132"/>
       <c r="U11" s="92"/>
       <c r="V11" s="92"/>
       <c r="W11" s="92"/>
@@ -3491,10 +3491,10 @@
       <c r="AJ11" s="92"/>
       <c r="AK11" s="92"/>
       <c r="AL11" s="93"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="132"/>
       <c r="AQ11" s="94"/>
       <c r="AR11" s="92"/>
       <c r="AS11" s="92"/>
@@ -3603,28 +3603,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="151"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="148"/>
       <c r="H12" s="102"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="156"/>
+      <c r="T12" s="132"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3643,10 +3643,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="156"/>
-      <c r="AN12" s="156"/>
-      <c r="AO12" s="156"/>
-      <c r="AP12" s="156"/>
+      <c r="AM12" s="132"/>
+      <c r="AN12" s="132"/>
+      <c r="AO12" s="132"/>
+      <c r="AP12" s="132"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3729,28 +3729,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="151"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="103"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="156"/>
+      <c r="T13" s="132"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3769,10 +3769,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="156"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
+      <c r="AM13" s="132"/>
+      <c r="AN13" s="132"/>
+      <c r="AO13" s="132"/>
+      <c r="AP13" s="132"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3881,28 +3881,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="151"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
       <c r="H14" s="103"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="156"/>
+      <c r="T14" s="132"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3921,10 +3921,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
+      <c r="AM14" s="132"/>
+      <c r="AN14" s="132"/>
+      <c r="AO14" s="132"/>
+      <c r="AP14" s="132"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4033,28 +4033,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="151"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="103"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="156"/>
+      <c r="T15" s="132"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4073,10 +4073,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="156"/>
+      <c r="AM15" s="132"/>
+      <c r="AN15" s="132"/>
+      <c r="AO15" s="132"/>
+      <c r="AP15" s="132"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4185,28 +4185,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="151"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="148"/>
       <c r="H16" s="103"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="156"/>
+      <c r="T16" s="132"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4225,10 +4225,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="156"/>
-      <c r="AN16" s="156"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="156"/>
+      <c r="AM16" s="132"/>
+      <c r="AN16" s="132"/>
+      <c r="AO16" s="132"/>
+      <c r="AP16" s="132"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4337,28 +4337,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="151"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="103"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="156"/>
+      <c r="T17" s="132"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4377,10 +4377,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="156"/>
-      <c r="AN17" s="156"/>
-      <c r="AO17" s="156"/>
-      <c r="AP17" s="156"/>
+      <c r="AM17" s="132"/>
+      <c r="AN17" s="132"/>
+      <c r="AO17" s="132"/>
+      <c r="AP17" s="132"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4463,28 +4463,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="151"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="148"/>
       <c r="H18" s="103"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="156"/>
+      <c r="T18" s="132"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4503,10 +4503,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="156"/>
-      <c r="AN18" s="156"/>
-      <c r="AO18" s="156"/>
-      <c r="AP18" s="156"/>
+      <c r="AM18" s="132"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="132"/>
+      <c r="AP18" s="132"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4591,24 +4591,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="156"/>
+      <c r="T19" s="132"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4627,10 +4627,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="156"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
+      <c r="AM19" s="132"/>
+      <c r="AN19" s="132"/>
+      <c r="AO19" s="132"/>
+      <c r="AP19" s="132"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4713,30 +4713,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="137" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="148"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="156"/>
+      <c r="T20" s="132"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4755,10 +4755,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="156"/>
-      <c r="AN20" s="156"/>
-      <c r="AO20" s="156"/>
-      <c r="AP20" s="156"/>
+      <c r="AM20" s="132"/>
+      <c r="AN20" s="132"/>
+      <c r="AO20" s="132"/>
+      <c r="AP20" s="132"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4841,28 +4841,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="140"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="156"/>
+      <c r="T21" s="132"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
@@ -4881,10 +4881,10 @@
       <c r="AJ21" s="48"/>
       <c r="AK21" s="48"/>
       <c r="AL21" s="63"/>
-      <c r="AM21" s="156"/>
-      <c r="AN21" s="156"/>
-      <c r="AO21" s="156"/>
-      <c r="AP21" s="156"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="132"/>
+      <c r="AO21" s="132"/>
+      <c r="AP21" s="132"/>
       <c r="AQ21" s="64"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
@@ -4967,28 +4967,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="140"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="148"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="156"/>
+      <c r="T22" s="132"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -5007,10 +5007,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="156"/>
-      <c r="AN22" s="156"/>
-      <c r="AO22" s="156"/>
-      <c r="AP22" s="156"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="132"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5093,28 +5093,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="140"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="151"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="156"/>
+      <c r="T23" s="132"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5133,10 +5133,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="156"/>
-      <c r="AN23" s="156"/>
-      <c r="AO23" s="156"/>
-      <c r="AP23" s="156"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="132"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5245,28 +5245,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="140"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="151"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="156"/>
+      <c r="T24" s="132"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5285,10 +5285,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="156"/>
-      <c r="AN24" s="156"/>
-      <c r="AO24" s="156"/>
-      <c r="AP24" s="156"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="132"/>
+      <c r="AP24" s="132"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5397,28 +5397,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="140"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="156"/>
+      <c r="T25" s="132"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5437,10 +5437,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="156"/>
-      <c r="AN25" s="156"/>
-      <c r="AO25" s="156"/>
-      <c r="AP25" s="156"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="132"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5549,28 +5549,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="140"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="151"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="156"/>
+      <c r="T26" s="132"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5589,10 +5589,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="156"/>
-      <c r="AN26" s="156"/>
-      <c r="AO26" s="156"/>
-      <c r="AP26" s="156"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="132"/>
+      <c r="AP26" s="132"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5701,28 +5701,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="140"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="156"/>
+      <c r="T27" s="132"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5741,10 +5741,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="156"/>
-      <c r="AN27" s="156"/>
-      <c r="AO27" s="156"/>
-      <c r="AP27" s="156"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="132"/>
+      <c r="AP27" s="132"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5827,28 +5827,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="140"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="151"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="156"/>
+      <c r="T28" s="132"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5867,10 +5867,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="132"/>
+      <c r="AP28" s="132"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5953,28 +5953,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="140"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="156"/>
+      <c r="T29" s="132"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5993,10 +5993,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="156"/>
-      <c r="AN29" s="156"/>
-      <c r="AO29" s="156"/>
-      <c r="AP29" s="156"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="132"/>
+      <c r="AP29" s="132"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6079,28 +6079,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="140"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="151"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="156"/>
+      <c r="T30" s="132"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6119,10 +6119,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="156"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="156"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="132"/>
+      <c r="AP30" s="132"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6231,28 +6231,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="140"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="156"/>
+      <c r="T31" s="132"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6271,10 +6271,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="156"/>
-      <c r="AN31" s="156"/>
-      <c r="AO31" s="156"/>
-      <c r="AP31" s="156"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="132"/>
+      <c r="AP31" s="132"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6357,28 +6357,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="140"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="156"/>
+      <c r="T32" s="132"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6397,10 +6397,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="156"/>
-      <c r="AN32" s="156"/>
-      <c r="AO32" s="156"/>
-      <c r="AP32" s="156"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="132"/>
+      <c r="AP32" s="132"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6509,28 +6509,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="140"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="151"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="148"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="156"/>
+      <c r="T33" s="132"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6549,10 +6549,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="156"/>
-      <c r="AN33" s="156"/>
-      <c r="AO33" s="156"/>
-      <c r="AP33" s="156"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="132"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6635,28 +6635,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="140"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="156"/>
+      <c r="T34" s="132"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6675,10 +6675,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="156"/>
-      <c r="AN34" s="156"/>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="132"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6787,28 +6787,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="140"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="151"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="148"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="156"/>
+      <c r="T35" s="132"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6827,10 +6827,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="156"/>
-      <c r="AN35" s="156"/>
-      <c r="AO35" s="156"/>
-      <c r="AP35" s="156"/>
+      <c r="AM35" s="132"/>
+      <c r="AN35" s="132"/>
+      <c r="AO35" s="132"/>
+      <c r="AP35" s="132"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6913,28 +6913,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="140"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="151"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="156"/>
+      <c r="T36" s="132"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6953,10 +6953,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="156"/>
-      <c r="AN36" s="156"/>
-      <c r="AO36" s="156"/>
-      <c r="AP36" s="156"/>
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
+      <c r="AO36" s="132"/>
+      <c r="AP36" s="132"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7041,24 +7041,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="104"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="156"/>
+      <c r="T37" s="132"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7077,10 +7077,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="156"/>
-      <c r="AN37" s="156"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="156"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="132"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7163,30 +7163,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="156"/>
+      <c r="T38" s="132"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7205,10 +7205,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="156"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="132"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7317,28 +7317,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="140"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="148"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="156"/>
+      <c r="T39" s="132"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7357,10 +7357,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="156"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="156"/>
-      <c r="AP39" s="156"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
+      <c r="AO39" s="132"/>
+      <c r="AP39" s="132"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7443,28 +7443,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="140"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="149"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="156"/>
+      <c r="T40" s="132"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7483,10 +7483,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="156"/>
-      <c r="AN40" s="156"/>
-      <c r="AO40" s="156"/>
-      <c r="AP40" s="156"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="132"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7595,28 +7595,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="140"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="151"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="156"/>
+      <c r="T41" s="132"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7635,10 +7635,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="156"/>
-      <c r="AN41" s="156"/>
-      <c r="AO41" s="156"/>
-      <c r="AP41" s="156"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="132"/>
+      <c r="AO41" s="132"/>
+      <c r="AP41" s="132"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7721,28 +7721,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="140"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="151"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="148"/>
       <c r="H42" s="105"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="156"/>
+      <c r="T42" s="132"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7761,10 +7761,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="156"/>
-      <c r="AN42" s="156"/>
-      <c r="AO42" s="156"/>
-      <c r="AP42" s="156"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="132"/>
+      <c r="AO42" s="132"/>
+      <c r="AP42" s="132"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7875,24 +7875,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="151"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="148"/>
       <c r="H43" s="104"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="156"/>
+      <c r="T43" s="132"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7911,10 +7911,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="156"/>
-      <c r="AN43" s="156"/>
-      <c r="AO43" s="156"/>
-      <c r="AP43" s="156"/>
+      <c r="AM43" s="132"/>
+      <c r="AN43" s="132"/>
+      <c r="AO43" s="132"/>
+      <c r="AP43" s="132"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8023,30 +8023,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="137" t="s">
+      <c r="A44" s="134" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="149"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="151"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="148"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="156"/>
+      <c r="T44" s="132"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8065,10 +8065,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="156"/>
-      <c r="AN44" s="156"/>
-      <c r="AO44" s="156"/>
-      <c r="AP44" s="156"/>
+      <c r="AM44" s="132"/>
+      <c r="AN44" s="132"/>
+      <c r="AO44" s="132"/>
+      <c r="AP44" s="132"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8151,28 +8151,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="138"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="149"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="151"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="148"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="156"/>
+      <c r="T45" s="132"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8191,10 +8191,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="156"/>
-      <c r="AN45" s="156"/>
-      <c r="AO45" s="156"/>
-      <c r="AP45" s="156"/>
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="132"/>
+      <c r="AO45" s="132"/>
+      <c r="AP45" s="132"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8277,28 +8277,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="138"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="149"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="151"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="148"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="156"/>
+      <c r="T46" s="132"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8317,10 +8317,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="156"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
+      <c r="AM46" s="132"/>
+      <c r="AN46" s="132"/>
+      <c r="AO46" s="132"/>
+      <c r="AP46" s="132"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8403,28 +8403,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="138"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="149"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="151"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="148"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="156"/>
+      <c r="T47" s="132"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8443,10 +8443,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="156"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="156"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="132"/>
+      <c r="AO47" s="132"/>
+      <c r="AP47" s="132"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8529,28 +8529,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="138"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="148"/>
       <c r="H48" s="106"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="156"/>
+      <c r="T48" s="132"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8569,10 +8569,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="156"/>
-      <c r="AN48" s="156"/>
-      <c r="AO48" s="156"/>
-      <c r="AP48" s="156"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8654,28 +8654,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="139"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="152"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="154"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="151"/>
       <c r="H49" s="105"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="157"/>
+      <c r="T49" s="133"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8694,10 +8694,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="157"/>
-      <c r="AN49" s="157"/>
-      <c r="AO49" s="157"/>
-      <c r="AP49" s="157"/>
+      <c r="AM49" s="133"/>
+      <c r="AN49" s="133"/>
+      <c r="AO49" s="133"/>
+      <c r="AP49" s="133"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8802,12 +8802,26 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8823,26 +8837,12 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8854,8 +8854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD4E70-A401-418C-840B-3BA1B1FB16B9}">
   <dimension ref="A1:ER57"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8875,284 +8875,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="117"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="129" t="s">
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="158" t="s">
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="129" t="s">
+      <c r="U3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="129" t="s">
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="131"/>
-      <c r="BU3" s="129" t="s">
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="120"/>
+      <c r="BU3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="130"/>
-      <c r="CC3" s="130"/>
-      <c r="CD3" s="130"/>
-      <c r="CE3" s="130"/>
-      <c r="CF3" s="130"/>
-      <c r="CG3" s="130"/>
-      <c r="CH3" s="130"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
-      <c r="CN3" s="130"/>
-      <c r="CO3" s="130"/>
-      <c r="CP3" s="130"/>
-      <c r="CQ3" s="130"/>
-      <c r="CR3" s="130"/>
-      <c r="CS3" s="130"/>
-      <c r="CT3" s="131"/>
-      <c r="CU3" s="129" t="s">
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="119"/>
+      <c r="CN3" s="119"/>
+      <c r="CO3" s="119"/>
+      <c r="CP3" s="119"/>
+      <c r="CQ3" s="119"/>
+      <c r="CR3" s="119"/>
+      <c r="CS3" s="119"/>
+      <c r="CT3" s="120"/>
+      <c r="CU3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="130"/>
-      <c r="CW3" s="130"/>
-      <c r="CX3" s="130"/>
-      <c r="CY3" s="130"/>
-      <c r="CZ3" s="130"/>
-      <c r="DA3" s="130"/>
-      <c r="DB3" s="130"/>
-      <c r="DC3" s="130"/>
-      <c r="DD3" s="130"/>
-      <c r="DE3" s="130"/>
-      <c r="DF3" s="130"/>
-      <c r="DG3" s="130"/>
-      <c r="DH3" s="130"/>
-      <c r="DI3" s="130"/>
-      <c r="DJ3" s="130"/>
-      <c r="DK3" s="130"/>
-      <c r="DL3" s="130"/>
-      <c r="DM3" s="130"/>
-      <c r="DN3" s="130"/>
-      <c r="DO3" s="130"/>
-      <c r="DP3" s="130"/>
-      <c r="DQ3" s="130"/>
-      <c r="DR3" s="130"/>
-      <c r="DS3" s="131"/>
+      <c r="CV3" s="119"/>
+      <c r="CW3" s="119"/>
+      <c r="CX3" s="119"/>
+      <c r="CY3" s="119"/>
+      <c r="CZ3" s="119"/>
+      <c r="DA3" s="119"/>
+      <c r="DB3" s="119"/>
+      <c r="DC3" s="119"/>
+      <c r="DD3" s="119"/>
+      <c r="DE3" s="119"/>
+      <c r="DF3" s="119"/>
+      <c r="DG3" s="119"/>
+      <c r="DH3" s="119"/>
+      <c r="DI3" s="119"/>
+      <c r="DJ3" s="119"/>
+      <c r="DK3" s="119"/>
+      <c r="DL3" s="119"/>
+      <c r="DM3" s="119"/>
+      <c r="DN3" s="119"/>
+      <c r="DO3" s="119"/>
+      <c r="DP3" s="119"/>
+      <c r="DQ3" s="119"/>
+      <c r="DR3" s="119"/>
+      <c r="DS3" s="120"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="133"/>
-      <c r="AA4" s="133"/>
-      <c r="AB4" s="133"/>
-      <c r="AC4" s="133"/>
-      <c r="AD4" s="133"/>
-      <c r="AE4" s="133"/>
-      <c r="AF4" s="133"/>
-      <c r="AG4" s="133"/>
-      <c r="AH4" s="133"/>
-      <c r="AI4" s="133"/>
-      <c r="AJ4" s="133"/>
-      <c r="AK4" s="133"/>
-      <c r="AL4" s="133"/>
-      <c r="AM4" s="133"/>
-      <c r="AN4" s="133"/>
-      <c r="AO4" s="133"/>
-      <c r="AP4" s="133"/>
-      <c r="AQ4" s="133"/>
-      <c r="AR4" s="133"/>
-      <c r="AS4" s="133"/>
-      <c r="AT4" s="134"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="133"/>
-      <c r="AX4" s="133"/>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="133"/>
-      <c r="BA4" s="133"/>
-      <c r="BB4" s="133"/>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="133"/>
-      <c r="BE4" s="133"/>
-      <c r="BF4" s="133"/>
-      <c r="BG4" s="133"/>
-      <c r="BH4" s="133"/>
-      <c r="BI4" s="133"/>
-      <c r="BJ4" s="133"/>
-      <c r="BK4" s="133"/>
-      <c r="BL4" s="133"/>
-      <c r="BM4" s="133"/>
-      <c r="BN4" s="133"/>
-      <c r="BO4" s="133"/>
-      <c r="BP4" s="133"/>
-      <c r="BQ4" s="133"/>
-      <c r="BR4" s="133"/>
-      <c r="BS4" s="133"/>
-      <c r="BT4" s="134"/>
-      <c r="BU4" s="132"/>
-      <c r="BV4" s="133"/>
-      <c r="BW4" s="133"/>
-      <c r="BX4" s="133"/>
-      <c r="BY4" s="133"/>
-      <c r="BZ4" s="133"/>
-      <c r="CA4" s="133"/>
-      <c r="CB4" s="133"/>
-      <c r="CC4" s="133"/>
-      <c r="CD4" s="133"/>
-      <c r="CE4" s="133"/>
-      <c r="CF4" s="133"/>
-      <c r="CG4" s="133"/>
-      <c r="CH4" s="133"/>
-      <c r="CI4" s="133"/>
-      <c r="CJ4" s="133"/>
-      <c r="CK4" s="133"/>
-      <c r="CL4" s="133"/>
-      <c r="CM4" s="133"/>
-      <c r="CN4" s="133"/>
-      <c r="CO4" s="133"/>
-      <c r="CP4" s="133"/>
-      <c r="CQ4" s="133"/>
-      <c r="CR4" s="133"/>
-      <c r="CS4" s="133"/>
-      <c r="CT4" s="134"/>
-      <c r="CU4" s="132"/>
-      <c r="CV4" s="133"/>
-      <c r="CW4" s="133"/>
-      <c r="CX4" s="133"/>
-      <c r="CY4" s="133"/>
-      <c r="CZ4" s="133"/>
-      <c r="DA4" s="133"/>
-      <c r="DB4" s="133"/>
-      <c r="DC4" s="133"/>
-      <c r="DD4" s="133"/>
-      <c r="DE4" s="133"/>
-      <c r="DF4" s="133"/>
-      <c r="DG4" s="133"/>
-      <c r="DH4" s="133"/>
-      <c r="DI4" s="133"/>
-      <c r="DJ4" s="133"/>
-      <c r="DK4" s="133"/>
-      <c r="DL4" s="133"/>
-      <c r="DM4" s="133"/>
-      <c r="DN4" s="133"/>
-      <c r="DO4" s="133"/>
-      <c r="DP4" s="133"/>
-      <c r="DQ4" s="133"/>
-      <c r="DR4" s="133"/>
-      <c r="DS4" s="134"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="122"/>
+      <c r="AO4" s="122"/>
+      <c r="AP4" s="122"/>
+      <c r="AQ4" s="122"/>
+      <c r="AR4" s="122"/>
+      <c r="AS4" s="122"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="123"/>
+      <c r="BU4" s="121"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="122"/>
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
+      <c r="CJ4" s="122"/>
+      <c r="CK4" s="122"/>
+      <c r="CL4" s="122"/>
+      <c r="CM4" s="122"/>
+      <c r="CN4" s="122"/>
+      <c r="CO4" s="122"/>
+      <c r="CP4" s="122"/>
+      <c r="CQ4" s="122"/>
+      <c r="CR4" s="122"/>
+      <c r="CS4" s="122"/>
+      <c r="CT4" s="123"/>
+      <c r="CU4" s="121"/>
+      <c r="CV4" s="122"/>
+      <c r="CW4" s="122"/>
+      <c r="CX4" s="122"/>
+      <c r="CY4" s="122"/>
+      <c r="CZ4" s="122"/>
+      <c r="DA4" s="122"/>
+      <c r="DB4" s="122"/>
+      <c r="DC4" s="122"/>
+      <c r="DD4" s="122"/>
+      <c r="DE4" s="122"/>
+      <c r="DF4" s="122"/>
+      <c r="DG4" s="122"/>
+      <c r="DH4" s="122"/>
+      <c r="DI4" s="122"/>
+      <c r="DJ4" s="122"/>
+      <c r="DK4" s="122"/>
+      <c r="DL4" s="122"/>
+      <c r="DM4" s="122"/>
+      <c r="DN4" s="122"/>
+      <c r="DO4" s="122"/>
+      <c r="DP4" s="122"/>
+      <c r="DQ4" s="122"/>
+      <c r="DR4" s="122"/>
+      <c r="DS4" s="123"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9161,18 +9161,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="114"/>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="135" t="s">
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="136"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="162"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9181,7 +9181,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="160" t="s">
+      <c r="T5" s="126" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9304,10 +9304,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9316,7 +9316,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="161"/>
+      <c r="T6" s="127"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9447,10 +9447,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="140" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9464,157 +9464,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="118" t="s">
+      <c r="L7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="118" t="s">
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="130"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="118" t="s">
+      <c r="U7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="119" t="s">
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="129"/>
+      <c r="Y7" s="129"/>
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="129"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="119"/>
-      <c r="AK7" s="119"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="121" t="s">
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="129"/>
+      <c r="AH7" s="129"/>
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="129"/>
+      <c r="AK7" s="129"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="122"/>
-      <c r="AO7" s="122"/>
-      <c r="AP7" s="122"/>
-      <c r="AQ7" s="118" t="s">
+      <c r="AN7" s="154"/>
+      <c r="AO7" s="154"/>
+      <c r="AP7" s="154"/>
+      <c r="AQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="119"/>
-      <c r="AS7" s="119"/>
-      <c r="AT7" s="120"/>
-      <c r="AU7" s="118" t="s">
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="119"/>
-      <c r="AW7" s="119"/>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="119"/>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="119"/>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="120"/>
-      <c r="BD7" s="118" t="s">
+      <c r="AV7" s="129"/>
+      <c r="AW7" s="129"/>
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="129"/>
+      <c r="AZ7" s="129"/>
+      <c r="BA7" s="129"/>
+      <c r="BB7" s="129"/>
+      <c r="BC7" s="130"/>
+      <c r="BD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="119"/>
-      <c r="BF7" s="119"/>
-      <c r="BG7" s="119"/>
-      <c r="BH7" s="119"/>
-      <c r="BI7" s="119"/>
-      <c r="BJ7" s="119"/>
-      <c r="BK7" s="119"/>
-      <c r="BL7" s="120"/>
-      <c r="BM7" s="118" t="s">
+      <c r="BE7" s="129"/>
+      <c r="BF7" s="129"/>
+      <c r="BG7" s="129"/>
+      <c r="BH7" s="129"/>
+      <c r="BI7" s="129"/>
+      <c r="BJ7" s="129"/>
+      <c r="BK7" s="129"/>
+      <c r="BL7" s="130"/>
+      <c r="BM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="119"/>
-      <c r="BO7" s="119"/>
-      <c r="BP7" s="119"/>
-      <c r="BQ7" s="118" t="s">
+      <c r="BN7" s="129"/>
+      <c r="BO7" s="129"/>
+      <c r="BP7" s="129"/>
+      <c r="BQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="119"/>
-      <c r="BS7" s="119"/>
-      <c r="BT7" s="120"/>
-      <c r="BU7" s="118" t="s">
+      <c r="BR7" s="129"/>
+      <c r="BS7" s="129"/>
+      <c r="BT7" s="130"/>
+      <c r="BU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="119"/>
-      <c r="BW7" s="119"/>
-      <c r="BX7" s="119"/>
-      <c r="BY7" s="119"/>
-      <c r="BZ7" s="119"/>
-      <c r="CA7" s="119"/>
-      <c r="CB7" s="119"/>
-      <c r="CC7" s="120"/>
-      <c r="CD7" s="118" t="s">
+      <c r="BV7" s="129"/>
+      <c r="BW7" s="129"/>
+      <c r="BX7" s="129"/>
+      <c r="BY7" s="129"/>
+      <c r="BZ7" s="129"/>
+      <c r="CA7" s="129"/>
+      <c r="CB7" s="129"/>
+      <c r="CC7" s="130"/>
+      <c r="CD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="119"/>
-      <c r="CF7" s="119"/>
-      <c r="CG7" s="119"/>
-      <c r="CH7" s="119"/>
-      <c r="CI7" s="119"/>
-      <c r="CJ7" s="119"/>
-      <c r="CK7" s="119"/>
-      <c r="CL7" s="120"/>
-      <c r="CM7" s="118" t="s">
+      <c r="CE7" s="129"/>
+      <c r="CF7" s="129"/>
+      <c r="CG7" s="129"/>
+      <c r="CH7" s="129"/>
+      <c r="CI7" s="129"/>
+      <c r="CJ7" s="129"/>
+      <c r="CK7" s="129"/>
+      <c r="CL7" s="130"/>
+      <c r="CM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="119"/>
-      <c r="CO7" s="119"/>
-      <c r="CP7" s="119"/>
-      <c r="CQ7" s="118" t="s">
+      <c r="CN7" s="129"/>
+      <c r="CO7" s="129"/>
+      <c r="CP7" s="129"/>
+      <c r="CQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="119"/>
-      <c r="CS7" s="119"/>
-      <c r="CT7" s="120"/>
-      <c r="CU7" s="118" t="s">
+      <c r="CR7" s="129"/>
+      <c r="CS7" s="129"/>
+      <c r="CT7" s="130"/>
+      <c r="CU7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="119"/>
-      <c r="CW7" s="119"/>
-      <c r="CX7" s="119"/>
-      <c r="CY7" s="119"/>
-      <c r="CZ7" s="119"/>
-      <c r="DA7" s="119"/>
-      <c r="DB7" s="119"/>
-      <c r="DC7" s="120"/>
-      <c r="DD7" s="118" t="s">
+      <c r="CV7" s="129"/>
+      <c r="CW7" s="129"/>
+      <c r="CX7" s="129"/>
+      <c r="CY7" s="129"/>
+      <c r="CZ7" s="129"/>
+      <c r="DA7" s="129"/>
+      <c r="DB7" s="129"/>
+      <c r="DC7" s="130"/>
+      <c r="DD7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="119"/>
-      <c r="DF7" s="119"/>
-      <c r="DG7" s="119"/>
-      <c r="DH7" s="119"/>
-      <c r="DI7" s="119"/>
-      <c r="DJ7" s="119"/>
-      <c r="DK7" s="119"/>
-      <c r="DL7" s="120"/>
-      <c r="DM7" s="118" t="s">
+      <c r="DE7" s="129"/>
+      <c r="DF7" s="129"/>
+      <c r="DG7" s="129"/>
+      <c r="DH7" s="129"/>
+      <c r="DI7" s="129"/>
+      <c r="DJ7" s="129"/>
+      <c r="DK7" s="129"/>
+      <c r="DL7" s="130"/>
+      <c r="DM7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="119"/>
-      <c r="DO7" s="119"/>
-      <c r="DP7" s="119"/>
-      <c r="DQ7" s="118" t="s">
+      <c r="DN7" s="129"/>
+      <c r="DO7" s="129"/>
+      <c r="DP7" s="129"/>
+      <c r="DQ7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="120"/>
+      <c r="DR7" s="130"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9737,8 +9737,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
-      <c r="B9" s="162"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="56">
         <v>172</v>
       </c>
@@ -9766,10 +9766,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="155">
+      <c r="L9" s="131">
         <v>5</v>
       </c>
-      <c r="M9" s="155"/>
+      <c r="M9" s="131"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9788,7 +9788,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="155"/>
+      <c r="T9" s="131"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9843,10 +9843,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="155"/>
-      <c r="AN9" s="155"/>
-      <c r="AO9" s="155"/>
-      <c r="AP9" s="155"/>
+      <c r="AM9" s="131"/>
+      <c r="AN9" s="131"/>
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="131"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10115,30 +10115,30 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="164" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="146"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="156"/>
+      <c r="T10" s="132"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10157,10 +10157,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="156"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="132"/>
+      <c r="AP10" s="132"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10269,28 +10269,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="156"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="92"/>
       <c r="O11" s="92"/>
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
       <c r="S11" s="92"/>
-      <c r="T11" s="156"/>
+      <c r="T11" s="132"/>
       <c r="U11" s="92"/>
       <c r="V11" s="92"/>
       <c r="W11" s="92"/>
@@ -10309,10 +10309,10 @@
       <c r="AJ11" s="92"/>
       <c r="AK11" s="92"/>
       <c r="AL11" s="93"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="132"/>
       <c r="AQ11" s="94"/>
       <c r="AR11" s="92"/>
       <c r="AS11" s="92"/>
@@ -10421,28 +10421,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="156"/>
+      <c r="T12" s="132"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10461,10 +10461,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="156"/>
-      <c r="AN12" s="156"/>
-      <c r="AO12" s="156"/>
-      <c r="AP12" s="156"/>
+      <c r="AM12" s="132"/>
+      <c r="AN12" s="132"/>
+      <c r="AO12" s="132"/>
+      <c r="AP12" s="132"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10547,28 +10547,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="156"/>
+      <c r="T13" s="132"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10587,10 +10587,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="156"/>
-      <c r="AN13" s="156"/>
-      <c r="AO13" s="156"/>
-      <c r="AP13" s="156"/>
+      <c r="AM13" s="132"/>
+      <c r="AN13" s="132"/>
+      <c r="AO13" s="132"/>
+      <c r="AP13" s="132"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10699,28 +10699,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="156"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="156"/>
+      <c r="T14" s="132"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10739,10 +10739,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="156"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
+      <c r="AM14" s="132"/>
+      <c r="AN14" s="132"/>
+      <c r="AO14" s="132"/>
+      <c r="AP14" s="132"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10851,28 +10851,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="140"/>
+      <c r="A15" s="137"/>
       <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="156"/>
+      <c r="T15" s="132"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10891,10 +10891,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="156"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="156"/>
+      <c r="AM15" s="132"/>
+      <c r="AN15" s="132"/>
+      <c r="AO15" s="132"/>
+      <c r="AP15" s="132"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -11003,28 +11003,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="140"/>
+      <c r="A16" s="137"/>
       <c r="B16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="156"/>
+      <c r="T16" s="132"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11043,10 +11043,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="156"/>
-      <c r="AN16" s="156"/>
-      <c r="AO16" s="156"/>
-      <c r="AP16" s="156"/>
+      <c r="AM16" s="132"/>
+      <c r="AN16" s="132"/>
+      <c r="AO16" s="132"/>
+      <c r="AP16" s="132"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11155,28 +11155,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="140"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="156"/>
+      <c r="T17" s="132"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11195,10 +11195,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="156"/>
-      <c r="AN17" s="156"/>
-      <c r="AO17" s="156"/>
-      <c r="AP17" s="156"/>
+      <c r="AM17" s="132"/>
+      <c r="AN17" s="132"/>
+      <c r="AO17" s="132"/>
+      <c r="AP17" s="132"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11281,28 +11281,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="140"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="156"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="156"/>
+      <c r="T18" s="132"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11321,10 +11321,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="156"/>
-      <c r="AN18" s="156"/>
-      <c r="AO18" s="156"/>
-      <c r="AP18" s="156"/>
+      <c r="AM18" s="132"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="132"/>
+      <c r="AP18" s="132"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11409,24 +11409,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="156"/>
-      <c r="M19" s="156"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="156"/>
+      <c r="T19" s="132"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11445,10 +11445,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="156"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
+      <c r="AM19" s="132"/>
+      <c r="AN19" s="132"/>
+      <c r="AO19" s="132"/>
+      <c r="AP19" s="132"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11531,30 +11531,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="137" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="156"/>
+      <c r="T20" s="132"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11573,10 +11573,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="156"/>
-      <c r="AN20" s="156"/>
-      <c r="AO20" s="156"/>
-      <c r="AP20" s="156"/>
+      <c r="AM20" s="132"/>
+      <c r="AN20" s="132"/>
+      <c r="AO20" s="132"/>
+      <c r="AP20" s="132"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11659,28 +11659,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="140"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="84"/>
       <c r="S21" s="84"/>
-      <c r="T21" s="156"/>
+      <c r="T21" s="132"/>
       <c r="U21" s="84"/>
       <c r="V21" s="84"/>
       <c r="W21" s="84"/>
@@ -11699,11 +11699,11 @@
       <c r="AJ21" s="84"/>
       <c r="AK21" s="84"/>
       <c r="AL21" s="84"/>
-      <c r="AM21" s="156"/>
-      <c r="AN21" s="156"/>
-      <c r="AO21" s="156"/>
-      <c r="AP21" s="156"/>
-      <c r="AQ21" s="164"/>
+      <c r="AM21" s="132"/>
+      <c r="AN21" s="132"/>
+      <c r="AO21" s="132"/>
+      <c r="AP21" s="132"/>
+      <c r="AQ21" s="117"/>
       <c r="AR21" s="84"/>
       <c r="AS21" s="84"/>
       <c r="AT21" s="84"/>
@@ -11785,28 +11785,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="140"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="156"/>
+      <c r="T22" s="132"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11825,10 +11825,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="156"/>
-      <c r="AN22" s="156"/>
-      <c r="AO22" s="156"/>
-      <c r="AP22" s="156"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="132"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11911,28 +11911,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="140"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="156"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="156"/>
+      <c r="T23" s="132"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11951,10 +11951,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="156"/>
-      <c r="AN23" s="156"/>
-      <c r="AO23" s="156"/>
-      <c r="AP23" s="156"/>
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="132"/>
+      <c r="AP23" s="132"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12037,28 +12037,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="140"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="156"/>
+      <c r="T24" s="132"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12077,10 +12077,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="156"/>
-      <c r="AN24" s="156"/>
-      <c r="AO24" s="156"/>
-      <c r="AP24" s="156"/>
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="132"/>
+      <c r="AP24" s="132"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12189,28 +12189,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="140"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="156"/>
+      <c r="T25" s="132"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -12229,10 +12229,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="156"/>
-      <c r="AN25" s="156"/>
-      <c r="AO25" s="156"/>
-      <c r="AP25" s="156"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="132"/>
+      <c r="AP25" s="132"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12341,28 +12341,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="140"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="156"/>
+      <c r="T26" s="132"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12381,10 +12381,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="156"/>
-      <c r="AN26" s="156"/>
-      <c r="AO26" s="156"/>
-      <c r="AP26" s="156"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="132"/>
+      <c r="AP26" s="132"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12493,28 +12493,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="140"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="156"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="156"/>
+      <c r="T27" s="132"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12533,10 +12533,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="156"/>
-      <c r="AN27" s="156"/>
-      <c r="AO27" s="156"/>
-      <c r="AP27" s="156"/>
+      <c r="AM27" s="132"/>
+      <c r="AN27" s="132"/>
+      <c r="AO27" s="132"/>
+      <c r="AP27" s="132"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12645,28 +12645,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="140"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="156"/>
+      <c r="T28" s="132"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12685,10 +12685,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="156"/>
-      <c r="AN28" s="156"/>
-      <c r="AO28" s="156"/>
-      <c r="AP28" s="156"/>
+      <c r="AM28" s="132"/>
+      <c r="AN28" s="132"/>
+      <c r="AO28" s="132"/>
+      <c r="AP28" s="132"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12771,28 +12771,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="140"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="156"/>
+      <c r="T29" s="132"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12811,10 +12811,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="156"/>
-      <c r="AN29" s="156"/>
-      <c r="AO29" s="156"/>
-      <c r="AP29" s="156"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="132"/>
+      <c r="AP29" s="132"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12897,28 +12897,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="140"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="156"/>
+      <c r="T30" s="132"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12937,10 +12937,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="156"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="156"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="132"/>
+      <c r="AP30" s="132"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13023,28 +13023,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="140"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="156"/>
+      <c r="T31" s="132"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13063,10 +13063,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="156"/>
-      <c r="AN31" s="156"/>
-      <c r="AO31" s="156"/>
-      <c r="AP31" s="156"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="132"/>
+      <c r="AP31" s="132"/>
       <c r="AQ31" s="84"/>
       <c r="AR31" s="84"/>
       <c r="AS31" s="84"/>
@@ -13175,28 +13175,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="140"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="156"/>
+      <c r="T32" s="132"/>
       <c r="U32" s="55"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -13215,10 +13215,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="156"/>
-      <c r="AN32" s="156"/>
-      <c r="AO32" s="156"/>
-      <c r="AP32" s="156"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="132"/>
+      <c r="AP32" s="132"/>
       <c r="AQ32" s="113"/>
       <c r="AR32" s="113"/>
       <c r="AS32" s="113"/>
@@ -13301,28 +13301,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="140"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="156"/>
+      <c r="T33" s="132"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13341,10 +13341,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="156"/>
-      <c r="AN33" s="156"/>
-      <c r="AO33" s="156"/>
-      <c r="AP33" s="156"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="132"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13453,28 +13453,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="140"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="156"/>
+      <c r="T34" s="132"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13493,10 +13493,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="156"/>
-      <c r="AN34" s="156"/>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="132"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13579,28 +13579,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="140"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="156"/>
+      <c r="T35" s="132"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13619,10 +13619,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="156"/>
-      <c r="AN35" s="156"/>
-      <c r="AO35" s="156"/>
-      <c r="AP35" s="156"/>
+      <c r="AM35" s="132"/>
+      <c r="AN35" s="132"/>
+      <c r="AO35" s="132"/>
+      <c r="AP35" s="132"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13731,28 +13731,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="140"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
+      <c r="L36" s="132"/>
+      <c r="M36" s="132"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="156"/>
+      <c r="T36" s="132"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13771,10 +13771,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="156"/>
-      <c r="AN36" s="156"/>
-      <c r="AO36" s="156"/>
-      <c r="AP36" s="156"/>
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
+      <c r="AO36" s="132"/>
+      <c r="AP36" s="132"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13857,28 +13857,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="140"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="156"/>
+      <c r="T37" s="132"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13897,10 +13897,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="156"/>
-      <c r="AN37" s="156"/>
-      <c r="AO37" s="156"/>
-      <c r="AP37" s="156"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="132"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13985,24 +13985,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="156"/>
+      <c r="T38" s="132"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14021,10 +14021,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="156"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="132"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14107,30 +14107,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="140" t="s">
+      <c r="A39" s="137" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="156"/>
+      <c r="T39" s="132"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14149,10 +14149,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="156"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="156"/>
-      <c r="AP39" s="156"/>
+      <c r="AM39" s="132"/>
+      <c r="AN39" s="132"/>
+      <c r="AO39" s="132"/>
+      <c r="AP39" s="132"/>
       <c r="AQ39" s="84"/>
       <c r="AR39" s="84"/>
       <c r="AS39" s="84"/>
@@ -14261,28 +14261,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="140"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="149"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="156"/>
+      <c r="T40" s="132"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14301,10 +14301,10 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="156"/>
-      <c r="AN40" s="156"/>
-      <c r="AO40" s="156"/>
-      <c r="AP40" s="156"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="132"/>
       <c r="AQ40" s="84"/>
       <c r="AR40" s="84"/>
       <c r="AS40" s="84"/>
@@ -14387,28 +14387,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="140"/>
+      <c r="A41" s="137"/>
       <c r="B41" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
+      <c r="L41" s="132"/>
+      <c r="M41" s="132"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="156"/>
+      <c r="T41" s="132"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14427,10 +14427,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="156"/>
-      <c r="AN41" s="156"/>
-      <c r="AO41" s="156"/>
-      <c r="AP41" s="156"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="132"/>
+      <c r="AO41" s="132"/>
+      <c r="AP41" s="132"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14539,28 +14539,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="140"/>
+      <c r="A42" s="137"/>
       <c r="B42" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="156"/>
+      <c r="T42" s="132"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14579,10 +14579,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="156"/>
-      <c r="AN42" s="156"/>
-      <c r="AO42" s="156"/>
-      <c r="AP42" s="156"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="132"/>
+      <c r="AO42" s="132"/>
+      <c r="AP42" s="132"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14665,28 +14665,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="140"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="156"/>
+      <c r="T43" s="132"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14705,10 +14705,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="156"/>
-      <c r="AN43" s="156"/>
-      <c r="AO43" s="156"/>
-      <c r="AP43" s="156"/>
+      <c r="AM43" s="132"/>
+      <c r="AN43" s="132"/>
+      <c r="AO43" s="132"/>
+      <c r="AP43" s="132"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14819,24 +14819,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="156"/>
+      <c r="T44" s="132"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14855,10 +14855,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="156"/>
-      <c r="AN44" s="156"/>
-      <c r="AO44" s="156"/>
-      <c r="AP44" s="156"/>
+      <c r="AM44" s="132"/>
+      <c r="AN44" s="132"/>
+      <c r="AO44" s="132"/>
+      <c r="AP44" s="132"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14967,30 +14967,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="134" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="149"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
+      <c r="C45" s="146"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="132"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="156"/>
+      <c r="T45" s="132"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -15009,10 +15009,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="156"/>
-      <c r="AN45" s="156"/>
-      <c r="AO45" s="156"/>
-      <c r="AP45" s="156"/>
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="132"/>
+      <c r="AO45" s="132"/>
+      <c r="AP45" s="132"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15095,28 +15095,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="138"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="149"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="156"/>
+      <c r="T46" s="132"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15135,10 +15135,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="156"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
+      <c r="AM46" s="132"/>
+      <c r="AN46" s="132"/>
+      <c r="AO46" s="132"/>
+      <c r="AP46" s="132"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15221,28 +15221,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="138"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="149"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
+      <c r="C47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="156"/>
+      <c r="T47" s="132"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15261,10 +15261,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="156"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="156"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="132"/>
+      <c r="AO47" s="132"/>
+      <c r="AP47" s="132"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15347,28 +15347,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="138"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="156"/>
+      <c r="T48" s="132"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15387,10 +15387,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="156"/>
-      <c r="AN48" s="156"/>
-      <c r="AO48" s="156"/>
-      <c r="AP48" s="156"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15473,28 +15473,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="138"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="149"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="156"/>
+      <c r="T49" s="132"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15513,10 +15513,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="156"/>
-      <c r="AN49" s="156"/>
-      <c r="AO49" s="156"/>
-      <c r="AP49" s="156"/>
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="132"/>
+      <c r="AO49" s="132"/>
+      <c r="AP49" s="132"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15599,28 +15599,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="139"/>
+      <c r="A50" s="136"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="149"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
+      <c r="C50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="157"/>
+      <c r="T50" s="133"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15639,10 +15639,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="157"/>
-      <c r="AN50" s="157"/>
-      <c r="AO50" s="157"/>
-      <c r="AP50" s="157"/>
+      <c r="AM50" s="133"/>
+      <c r="AN50" s="133"/>
+      <c r="AO50" s="133"/>
+      <c r="AP50" s="133"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15747,13 +15747,24 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
-    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15770,24 +15781,13 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="A10:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E6701-5C57-44DC-B59A-D84B804D4283}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362727A9-5E2C-4322-BE3B-6A922323A56C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
@@ -916,7 +916,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1175,6 +1175,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1193,34 +1229,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1277,38 +1289,26 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,6 +1316,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -2057,284 +2058,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="60"/>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="124" t="s">
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="118" t="s">
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="120"/>
-      <c r="BU3" s="118" t="s">
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="131"/>
+      <c r="BG3" s="131"/>
+      <c r="BH3" s="131"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
+      <c r="BR3" s="131"/>
+      <c r="BS3" s="131"/>
+      <c r="BT3" s="132"/>
+      <c r="BU3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-      <c r="CA3" s="119"/>
-      <c r="CB3" s="119"/>
-      <c r="CC3" s="119"/>
-      <c r="CD3" s="119"/>
-      <c r="CE3" s="119"/>
-      <c r="CF3" s="119"/>
-      <c r="CG3" s="119"/>
-      <c r="CH3" s="119"/>
-      <c r="CI3" s="119"/>
-      <c r="CJ3" s="119"/>
-      <c r="CK3" s="119"/>
-      <c r="CL3" s="119"/>
-      <c r="CM3" s="119"/>
-      <c r="CN3" s="119"/>
-      <c r="CO3" s="119"/>
-      <c r="CP3" s="119"/>
-      <c r="CQ3" s="119"/>
-      <c r="CR3" s="119"/>
-      <c r="CS3" s="119"/>
-      <c r="CT3" s="120"/>
-      <c r="CU3" s="118" t="s">
+      <c r="BV3" s="131"/>
+      <c r="BW3" s="131"/>
+      <c r="BX3" s="131"/>
+      <c r="BY3" s="131"/>
+      <c r="BZ3" s="131"/>
+      <c r="CA3" s="131"/>
+      <c r="CB3" s="131"/>
+      <c r="CC3" s="131"/>
+      <c r="CD3" s="131"/>
+      <c r="CE3" s="131"/>
+      <c r="CF3" s="131"/>
+      <c r="CG3" s="131"/>
+      <c r="CH3" s="131"/>
+      <c r="CI3" s="131"/>
+      <c r="CJ3" s="131"/>
+      <c r="CK3" s="131"/>
+      <c r="CL3" s="131"/>
+      <c r="CM3" s="131"/>
+      <c r="CN3" s="131"/>
+      <c r="CO3" s="131"/>
+      <c r="CP3" s="131"/>
+      <c r="CQ3" s="131"/>
+      <c r="CR3" s="131"/>
+      <c r="CS3" s="131"/>
+      <c r="CT3" s="132"/>
+      <c r="CU3" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="119"/>
-      <c r="CW3" s="119"/>
-      <c r="CX3" s="119"/>
-      <c r="CY3" s="119"/>
-      <c r="CZ3" s="119"/>
-      <c r="DA3" s="119"/>
-      <c r="DB3" s="119"/>
-      <c r="DC3" s="119"/>
-      <c r="DD3" s="119"/>
-      <c r="DE3" s="119"/>
-      <c r="DF3" s="119"/>
-      <c r="DG3" s="119"/>
-      <c r="DH3" s="119"/>
-      <c r="DI3" s="119"/>
-      <c r="DJ3" s="119"/>
-      <c r="DK3" s="119"/>
-      <c r="DL3" s="119"/>
-      <c r="DM3" s="119"/>
-      <c r="DN3" s="119"/>
-      <c r="DO3" s="119"/>
-      <c r="DP3" s="119"/>
-      <c r="DQ3" s="119"/>
-      <c r="DR3" s="119"/>
-      <c r="DS3" s="120"/>
+      <c r="CV3" s="131"/>
+      <c r="CW3" s="131"/>
+      <c r="CX3" s="131"/>
+      <c r="CY3" s="131"/>
+      <c r="CZ3" s="131"/>
+      <c r="DA3" s="131"/>
+      <c r="DB3" s="131"/>
+      <c r="DC3" s="131"/>
+      <c r="DD3" s="131"/>
+      <c r="DE3" s="131"/>
+      <c r="DF3" s="131"/>
+      <c r="DG3" s="131"/>
+      <c r="DH3" s="131"/>
+      <c r="DI3" s="131"/>
+      <c r="DJ3" s="131"/>
+      <c r="DK3" s="131"/>
+      <c r="DL3" s="131"/>
+      <c r="DM3" s="131"/>
+      <c r="DN3" s="131"/>
+      <c r="DO3" s="131"/>
+      <c r="DP3" s="131"/>
+      <c r="DQ3" s="131"/>
+      <c r="DR3" s="131"/>
+      <c r="DS3" s="132"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="123"/>
-      <c r="BU4" s="121"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="122"/>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="122"/>
-      <c r="CK4" s="122"/>
-      <c r="CL4" s="122"/>
-      <c r="CM4" s="122"/>
-      <c r="CN4" s="122"/>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="122"/>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="122"/>
-      <c r="CS4" s="122"/>
-      <c r="CT4" s="123"/>
-      <c r="CU4" s="121"/>
-      <c r="CV4" s="122"/>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="122"/>
-      <c r="DA4" s="122"/>
-      <c r="DB4" s="122"/>
-      <c r="DC4" s="122"/>
-      <c r="DD4" s="122"/>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="122"/>
-      <c r="DI4" s="122"/>
-      <c r="DJ4" s="122"/>
-      <c r="DK4" s="122"/>
-      <c r="DL4" s="122"/>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="122"/>
-      <c r="DQ4" s="122"/>
-      <c r="DR4" s="122"/>
-      <c r="DS4" s="123"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="134"/>
+      <c r="AT4" s="135"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="134"/>
+      <c r="BQ4" s="134"/>
+      <c r="BR4" s="134"/>
+      <c r="BS4" s="134"/>
+      <c r="BT4" s="135"/>
+      <c r="BU4" s="133"/>
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="134"/>
+      <c r="BY4" s="134"/>
+      <c r="BZ4" s="134"/>
+      <c r="CA4" s="134"/>
+      <c r="CB4" s="134"/>
+      <c r="CC4" s="134"/>
+      <c r="CD4" s="134"/>
+      <c r="CE4" s="134"/>
+      <c r="CF4" s="134"/>
+      <c r="CG4" s="134"/>
+      <c r="CH4" s="134"/>
+      <c r="CI4" s="134"/>
+      <c r="CJ4" s="134"/>
+      <c r="CK4" s="134"/>
+      <c r="CL4" s="134"/>
+      <c r="CM4" s="134"/>
+      <c r="CN4" s="134"/>
+      <c r="CO4" s="134"/>
+      <c r="CP4" s="134"/>
+      <c r="CQ4" s="134"/>
+      <c r="CR4" s="134"/>
+      <c r="CS4" s="134"/>
+      <c r="CT4" s="135"/>
+      <c r="CU4" s="133"/>
+      <c r="CV4" s="134"/>
+      <c r="CW4" s="134"/>
+      <c r="CX4" s="134"/>
+      <c r="CY4" s="134"/>
+      <c r="CZ4" s="134"/>
+      <c r="DA4" s="134"/>
+      <c r="DB4" s="134"/>
+      <c r="DC4" s="134"/>
+      <c r="DD4" s="134"/>
+      <c r="DE4" s="134"/>
+      <c r="DF4" s="134"/>
+      <c r="DG4" s="134"/>
+      <c r="DH4" s="134"/>
+      <c r="DI4" s="134"/>
+      <c r="DJ4" s="134"/>
+      <c r="DK4" s="134"/>
+      <c r="DL4" s="134"/>
+      <c r="DM4" s="134"/>
+      <c r="DN4" s="134"/>
+      <c r="DO4" s="134"/>
+      <c r="DP4" s="134"/>
+      <c r="DQ4" s="134"/>
+      <c r="DR4" s="134"/>
+      <c r="DS4" s="135"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2343,18 +2344,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="161" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="162"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="137"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2363,7 +2364,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="126" t="s">
+      <c r="T5" s="161" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -2486,10 +2487,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2498,7 +2499,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="127"/>
+      <c r="T6" s="162"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2629,10 +2630,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="144" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -2646,157 +2647,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="128" t="s">
+      <c r="L7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="128" t="s">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="130"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="128" t="s">
+      <c r="U7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="129" t="s">
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="153" t="s">
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="154"/>
-      <c r="AO7" s="154"/>
-      <c r="AP7" s="154"/>
-      <c r="AQ7" s="128" t="s">
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="128" t="s">
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129"/>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="130"/>
-      <c r="BD7" s="128" t="s">
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="120"/>
+      <c r="AY7" s="120"/>
+      <c r="AZ7" s="120"/>
+      <c r="BA7" s="120"/>
+      <c r="BB7" s="120"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129"/>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="130"/>
-      <c r="BM7" s="128" t="s">
+      <c r="BE7" s="120"/>
+      <c r="BF7" s="120"/>
+      <c r="BG7" s="120"/>
+      <c r="BH7" s="120"/>
+      <c r="BI7" s="120"/>
+      <c r="BJ7" s="120"/>
+      <c r="BK7" s="120"/>
+      <c r="BL7" s="121"/>
+      <c r="BM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="129"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="129"/>
-      <c r="BQ7" s="128" t="s">
+      <c r="BN7" s="120"/>
+      <c r="BO7" s="120"/>
+      <c r="BP7" s="120"/>
+      <c r="BQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="129"/>
-      <c r="BS7" s="129"/>
-      <c r="BT7" s="130"/>
-      <c r="BU7" s="128" t="s">
+      <c r="BR7" s="120"/>
+      <c r="BS7" s="120"/>
+      <c r="BT7" s="121"/>
+      <c r="BU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="129"/>
-      <c r="BW7" s="129"/>
-      <c r="BX7" s="129"/>
-      <c r="BY7" s="129"/>
-      <c r="BZ7" s="129"/>
-      <c r="CA7" s="129"/>
-      <c r="CB7" s="129"/>
-      <c r="CC7" s="130"/>
-      <c r="CD7" s="128" t="s">
+      <c r="BV7" s="120"/>
+      <c r="BW7" s="120"/>
+      <c r="BX7" s="120"/>
+      <c r="BY7" s="120"/>
+      <c r="BZ7" s="120"/>
+      <c r="CA7" s="120"/>
+      <c r="CB7" s="120"/>
+      <c r="CC7" s="121"/>
+      <c r="CD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="129"/>
-      <c r="CF7" s="129"/>
-      <c r="CG7" s="129"/>
-      <c r="CH7" s="129"/>
-      <c r="CI7" s="129"/>
-      <c r="CJ7" s="129"/>
-      <c r="CK7" s="129"/>
-      <c r="CL7" s="130"/>
-      <c r="CM7" s="128" t="s">
+      <c r="CE7" s="120"/>
+      <c r="CF7" s="120"/>
+      <c r="CG7" s="120"/>
+      <c r="CH7" s="120"/>
+      <c r="CI7" s="120"/>
+      <c r="CJ7" s="120"/>
+      <c r="CK7" s="120"/>
+      <c r="CL7" s="121"/>
+      <c r="CM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="129"/>
-      <c r="CO7" s="129"/>
-      <c r="CP7" s="129"/>
-      <c r="CQ7" s="128" t="s">
+      <c r="CN7" s="120"/>
+      <c r="CO7" s="120"/>
+      <c r="CP7" s="120"/>
+      <c r="CQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="129"/>
-      <c r="CS7" s="129"/>
-      <c r="CT7" s="130"/>
-      <c r="CU7" s="128" t="s">
+      <c r="CR7" s="120"/>
+      <c r="CS7" s="120"/>
+      <c r="CT7" s="121"/>
+      <c r="CU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="129"/>
-      <c r="CW7" s="129"/>
-      <c r="CX7" s="129"/>
-      <c r="CY7" s="129"/>
-      <c r="CZ7" s="129"/>
-      <c r="DA7" s="129"/>
-      <c r="DB7" s="129"/>
-      <c r="DC7" s="130"/>
-      <c r="DD7" s="128" t="s">
+      <c r="CV7" s="120"/>
+      <c r="CW7" s="120"/>
+      <c r="CX7" s="120"/>
+      <c r="CY7" s="120"/>
+      <c r="CZ7" s="120"/>
+      <c r="DA7" s="120"/>
+      <c r="DB7" s="120"/>
+      <c r="DC7" s="121"/>
+      <c r="DD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="129"/>
-      <c r="DF7" s="129"/>
-      <c r="DG7" s="129"/>
-      <c r="DH7" s="129"/>
-      <c r="DI7" s="129"/>
-      <c r="DJ7" s="129"/>
-      <c r="DK7" s="129"/>
-      <c r="DL7" s="130"/>
-      <c r="DM7" s="128" t="s">
+      <c r="DE7" s="120"/>
+      <c r="DF7" s="120"/>
+      <c r="DG7" s="120"/>
+      <c r="DH7" s="120"/>
+      <c r="DI7" s="120"/>
+      <c r="DJ7" s="120"/>
+      <c r="DK7" s="120"/>
+      <c r="DL7" s="121"/>
+      <c r="DM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="129"/>
-      <c r="DO7" s="129"/>
-      <c r="DP7" s="129"/>
-      <c r="DQ7" s="128" t="s">
+      <c r="DN7" s="120"/>
+      <c r="DO7" s="120"/>
+      <c r="DP7" s="120"/>
+      <c r="DQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="130"/>
+      <c r="DR7" s="121"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="139"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -2919,8 +2920,8 @@
       <c r="DR8" s="43"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139"/>
-      <c r="B9" s="142"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="86">
         <v>172</v>
       </c>
@@ -2948,10 +2949,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="131">
+      <c r="L9" s="156">
         <v>5</v>
       </c>
-      <c r="M9" s="131"/>
+      <c r="M9" s="156"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="131"/>
+      <c r="T9" s="156"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -3025,10 +3026,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -3297,30 +3298,30 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="141" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="145"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
       <c r="H10" s="102"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="132"/>
+      <c r="T10" s="157"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -3339,10 +3340,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="157"/>
+      <c r="AO10" s="157"/>
+      <c r="AP10" s="157"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -3451,28 +3452,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="101"/>
       <c r="I11" s="92"/>
       <c r="J11" s="92"/>
       <c r="K11" s="92"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
       <c r="N11" s="92"/>
       <c r="O11" s="92"/>
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
       <c r="S11" s="92"/>
-      <c r="T11" s="132"/>
+      <c r="T11" s="157"/>
       <c r="U11" s="92"/>
       <c r="V11" s="92"/>
       <c r="W11" s="92"/>
@@ -3491,10 +3492,10 @@
       <c r="AJ11" s="92"/>
       <c r="AK11" s="92"/>
       <c r="AL11" s="93"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="157"/>
+      <c r="AO11" s="157"/>
+      <c r="AP11" s="157"/>
       <c r="AQ11" s="94"/>
       <c r="AR11" s="92"/>
       <c r="AS11" s="92"/>
@@ -3603,28 +3604,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="102"/>
       <c r="I12" s="47"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="132"/>
+      <c r="T12" s="157"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -3643,10 +3644,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="132"/>
-      <c r="AO12" s="132"/>
-      <c r="AP12" s="132"/>
+      <c r="AM12" s="157"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="157"/>
+      <c r="AP12" s="157"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -3729,28 +3730,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="103"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="132"/>
+      <c r="T13" s="157"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -3769,10 +3770,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="132"/>
-      <c r="AN13" s="132"/>
-      <c r="AO13" s="132"/>
-      <c r="AP13" s="132"/>
+      <c r="AM13" s="157"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="157"/>
+      <c r="AP13" s="157"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -3881,28 +3882,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="103"/>
       <c r="I14" s="35"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="132"/>
+      <c r="T14" s="157"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -3921,10 +3922,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="132"/>
-      <c r="AN14" s="132"/>
-      <c r="AO14" s="132"/>
-      <c r="AP14" s="132"/>
+      <c r="AM14" s="157"/>
+      <c r="AN14" s="157"/>
+      <c r="AO14" s="157"/>
+      <c r="AP14" s="157"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -4033,28 +4034,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="137"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="152"/>
       <c r="H15" s="103"/>
       <c r="I15" s="20"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
       <c r="N15" s="35"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="132"/>
+      <c r="T15" s="157"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -4073,10 +4074,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="132"/>
-      <c r="AN15" s="132"/>
-      <c r="AO15" s="132"/>
-      <c r="AP15" s="132"/>
+      <c r="AM15" s="157"/>
+      <c r="AN15" s="157"/>
+      <c r="AO15" s="157"/>
+      <c r="AP15" s="157"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -4185,28 +4186,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="137"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="103"/>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
       <c r="N16" s="20"/>
       <c r="O16" s="35"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20"/>
-      <c r="T16" s="132"/>
+      <c r="T16" s="157"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -4225,10 +4226,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="132"/>
-      <c r="AO16" s="132"/>
-      <c r="AP16" s="132"/>
+      <c r="AM16" s="157"/>
+      <c r="AN16" s="157"/>
+      <c r="AO16" s="157"/>
+      <c r="AP16" s="157"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -4337,28 +4338,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="137"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="103"/>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
       <c r="N17" s="20"/>
       <c r="O17" s="35"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20"/>
-      <c r="T17" s="132"/>
+      <c r="T17" s="157"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -4377,10 +4378,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="132"/>
-      <c r="AN17" s="132"/>
-      <c r="AO17" s="132"/>
-      <c r="AP17" s="132"/>
+      <c r="AM17" s="157"/>
+      <c r="AN17" s="157"/>
+      <c r="AO17" s="157"/>
+      <c r="AP17" s="157"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -4463,28 +4464,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="137"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="103"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
       <c r="N18" s="20"/>
       <c r="O18" s="47"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
-      <c r="T18" s="132"/>
+      <c r="T18" s="157"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -4503,10 +4504,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="132"/>
-      <c r="AN18" s="132"/>
-      <c r="AO18" s="132"/>
-      <c r="AP18" s="132"/>
+      <c r="AM18" s="157"/>
+      <c r="AN18" s="157"/>
+      <c r="AO18" s="157"/>
+      <c r="AP18" s="157"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -4591,24 +4592,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
       <c r="H19" s="52"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="132"/>
+      <c r="T19" s="157"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -4627,10 +4628,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="132"/>
-      <c r="AN19" s="132"/>
-      <c r="AO19" s="132"/>
-      <c r="AP19" s="132"/>
+      <c r="AM19" s="157"/>
+      <c r="AN19" s="157"/>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="157"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -4713,30 +4714,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="141" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="152"/>
       <c r="H20" s="34"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="48"/>
       <c r="Q20" s="48"/>
       <c r="R20" s="65"/>
       <c r="S20" s="65"/>
-      <c r="T20" s="132"/>
+      <c r="T20" s="157"/>
       <c r="U20" s="65"/>
       <c r="V20" s="65"/>
       <c r="W20" s="65"/>
@@ -4755,10 +4756,10 @@
       <c r="AJ20" s="55"/>
       <c r="AK20" s="55"/>
       <c r="AL20" s="66"/>
-      <c r="AM20" s="132"/>
-      <c r="AN20" s="132"/>
-      <c r="AO20" s="132"/>
-      <c r="AP20" s="132"/>
+      <c r="AM20" s="157"/>
+      <c r="AN20" s="157"/>
+      <c r="AO20" s="157"/>
+      <c r="AP20" s="157"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -4841,28 +4842,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="137"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="34"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
-      <c r="T21" s="132"/>
+      <c r="T21" s="157"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
@@ -4881,10 +4882,10 @@
       <c r="AJ21" s="48"/>
       <c r="AK21" s="48"/>
       <c r="AL21" s="63"/>
-      <c r="AM21" s="132"/>
-      <c r="AN21" s="132"/>
-      <c r="AO21" s="132"/>
-      <c r="AP21" s="132"/>
+      <c r="AM21" s="157"/>
+      <c r="AN21" s="157"/>
+      <c r="AO21" s="157"/>
+      <c r="AP21" s="157"/>
       <c r="AQ21" s="64"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
@@ -4967,28 +4968,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="137"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
       <c r="H22" s="34"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="132"/>
+      <c r="T22" s="157"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="48"/>
@@ -5007,10 +5008,10 @@
       <c r="AJ22" s="55"/>
       <c r="AK22" s="55"/>
       <c r="AL22" s="66"/>
-      <c r="AM22" s="132"/>
-      <c r="AN22" s="132"/>
-      <c r="AO22" s="132"/>
-      <c r="AP22" s="132"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="157"/>
+      <c r="AP22" s="157"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -5093,28 +5094,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="137"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="34"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
-      <c r="T23" s="132"/>
+      <c r="T23" s="157"/>
       <c r="U23" s="55"/>
       <c r="V23" s="55"/>
       <c r="W23" s="55"/>
@@ -5133,10 +5134,10 @@
       <c r="AJ23" s="65"/>
       <c r="AK23" s="65"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="132"/>
-      <c r="AN23" s="132"/>
-      <c r="AO23" s="132"/>
-      <c r="AP23" s="132"/>
+      <c r="AM23" s="157"/>
+      <c r="AN23" s="157"/>
+      <c r="AO23" s="157"/>
+      <c r="AP23" s="157"/>
       <c r="AQ23" s="68"/>
       <c r="AR23" s="65"/>
       <c r="AS23" s="65"/>
@@ -5245,28 +5246,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="137"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="148"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="34"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
-      <c r="T24" s="132"/>
+      <c r="T24" s="157"/>
       <c r="U24" s="55"/>
       <c r="V24" s="55"/>
       <c r="W24" s="55"/>
@@ -5285,10 +5286,10 @@
       <c r="AJ24" s="55"/>
       <c r="AK24" s="55"/>
       <c r="AL24" s="66"/>
-      <c r="AM24" s="132"/>
-      <c r="AN24" s="132"/>
-      <c r="AO24" s="132"/>
-      <c r="AP24" s="132"/>
+      <c r="AM24" s="157"/>
+      <c r="AN24" s="157"/>
+      <c r="AO24" s="157"/>
+      <c r="AP24" s="157"/>
       <c r="AQ24" s="33"/>
       <c r="AR24" s="55"/>
       <c r="AS24" s="55"/>
@@ -5397,28 +5398,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="137"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="132"/>
+      <c r="T25" s="157"/>
       <c r="U25" s="55"/>
       <c r="V25" s="55"/>
       <c r="W25" s="55"/>
@@ -5437,10 +5438,10 @@
       <c r="AJ25" s="48"/>
       <c r="AK25" s="48"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="132"/>
-      <c r="AO25" s="132"/>
-      <c r="AP25" s="132"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="157"/>
       <c r="AQ25" s="64"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
@@ -5549,28 +5550,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="137"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="132"/>
+      <c r="T26" s="157"/>
       <c r="U26" s="55"/>
       <c r="V26" s="55"/>
       <c r="W26" s="55"/>
@@ -5589,10 +5590,10 @@
       <c r="AJ26" s="55"/>
       <c r="AK26" s="55"/>
       <c r="AL26" s="66"/>
-      <c r="AM26" s="132"/>
-      <c r="AN26" s="132"/>
-      <c r="AO26" s="132"/>
-      <c r="AP26" s="132"/>
+      <c r="AM26" s="157"/>
+      <c r="AN26" s="157"/>
+      <c r="AO26" s="157"/>
+      <c r="AP26" s="157"/>
       <c r="AQ26" s="33"/>
       <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
@@ -5701,28 +5702,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="137"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="132"/>
+      <c r="T27" s="157"/>
       <c r="U27" s="55"/>
       <c r="V27" s="55"/>
       <c r="W27" s="55"/>
@@ -5741,10 +5742,10 @@
       <c r="AJ27" s="55"/>
       <c r="AK27" s="55"/>
       <c r="AL27" s="66"/>
-      <c r="AM27" s="132"/>
-      <c r="AN27" s="132"/>
-      <c r="AO27" s="132"/>
-      <c r="AP27" s="132"/>
+      <c r="AM27" s="157"/>
+      <c r="AN27" s="157"/>
+      <c r="AO27" s="157"/>
+      <c r="AP27" s="157"/>
       <c r="AQ27" s="34"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -5827,28 +5828,28 @@
       <c r="DR27" s="24"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="137"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="132"/>
+      <c r="T28" s="157"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -5867,10 +5868,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="30"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
+      <c r="AM28" s="157"/>
+      <c r="AN28" s="157"/>
+      <c r="AO28" s="157"/>
+      <c r="AP28" s="157"/>
       <c r="AQ28" s="34"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -5953,28 +5954,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="137"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="132"/>
+      <c r="T29" s="157"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -5993,10 +5994,10 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AL29" s="30"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="132"/>
-      <c r="AO29" s="132"/>
-      <c r="AP29" s="132"/>
+      <c r="AM29" s="157"/>
+      <c r="AN29" s="157"/>
+      <c r="AO29" s="157"/>
+      <c r="AP29" s="157"/>
       <c r="AQ29" s="34"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -6079,28 +6080,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="137"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
       <c r="H30" s="34"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="132"/>
+      <c r="T30" s="157"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -6119,10 +6120,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="30"/>
-      <c r="AM30" s="132"/>
-      <c r="AN30" s="132"/>
-      <c r="AO30" s="132"/>
-      <c r="AP30" s="132"/>
+      <c r="AM30" s="157"/>
+      <c r="AN30" s="157"/>
+      <c r="AO30" s="157"/>
+      <c r="AP30" s="157"/>
       <c r="AQ30" s="34"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -6231,28 +6232,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="137"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="34"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="132"/>
+      <c r="T31" s="157"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -6271,10 +6272,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="30"/>
-      <c r="AM31" s="132"/>
-      <c r="AN31" s="132"/>
-      <c r="AO31" s="132"/>
-      <c r="AP31" s="132"/>
+      <c r="AM31" s="157"/>
+      <c r="AN31" s="157"/>
+      <c r="AO31" s="157"/>
+      <c r="AP31" s="157"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="21"/>
       <c r="AS31" s="21"/>
@@ -6357,28 +6358,28 @@
       <c r="DR31" s="24"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="137"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="152"/>
       <c r="H32" s="34"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="132"/>
+      <c r="T32" s="157"/>
       <c r="U32" s="21"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -6397,10 +6398,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="30"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="132"/>
-      <c r="AO32" s="132"/>
-      <c r="AP32" s="132"/>
+      <c r="AM32" s="157"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="157"/>
+      <c r="AP32" s="157"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="21"/>
       <c r="AS32" s="21"/>
@@ -6509,28 +6510,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="137"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="148"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="34"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="132"/>
+      <c r="T33" s="157"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -6549,10 +6550,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="30"/>
-      <c r="AM33" s="132"/>
-      <c r="AN33" s="132"/>
-      <c r="AO33" s="132"/>
-      <c r="AP33" s="132"/>
+      <c r="AM33" s="157"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="157"/>
+      <c r="AP33" s="157"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -6635,28 +6636,28 @@
       <c r="DR33" s="24"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="137"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="34"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="132"/>
+      <c r="T34" s="157"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -6675,10 +6676,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="132"/>
-      <c r="AO34" s="132"/>
-      <c r="AP34" s="132"/>
+      <c r="AM34" s="157"/>
+      <c r="AN34" s="157"/>
+      <c r="AO34" s="157"/>
+      <c r="AP34" s="157"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -6787,28 +6788,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="137"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="34"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="132"/>
+      <c r="T35" s="157"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -6827,10 +6828,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="30"/>
-      <c r="AM35" s="132"/>
-      <c r="AN35" s="132"/>
-      <c r="AO35" s="132"/>
-      <c r="AP35" s="132"/>
+      <c r="AM35" s="157"/>
+      <c r="AN35" s="157"/>
+      <c r="AO35" s="157"/>
+      <c r="AP35" s="157"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -6913,28 +6914,28 @@
       <c r="DR35" s="24"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="137"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="148"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="34"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="132"/>
+      <c r="T36" s="157"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -6953,10 +6954,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="132"/>
-      <c r="AN36" s="132"/>
-      <c r="AO36" s="132"/>
-      <c r="AP36" s="132"/>
+      <c r="AM36" s="157"/>
+      <c r="AN36" s="157"/>
+      <c r="AO36" s="157"/>
+      <c r="AP36" s="157"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -7041,24 +7042,24 @@
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
       <c r="H37" s="104"/>
       <c r="I37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
       <c r="N37" s="54"/>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
       <c r="R37" s="54"/>
       <c r="S37" s="54"/>
-      <c r="T37" s="132"/>
+      <c r="T37" s="157"/>
       <c r="U37" s="54"/>
       <c r="V37" s="54"/>
       <c r="W37" s="54"/>
@@ -7077,10 +7078,10 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="54"/>
       <c r="AL37" s="54"/>
-      <c r="AM37" s="132"/>
-      <c r="AN37" s="132"/>
-      <c r="AO37" s="132"/>
-      <c r="AP37" s="132"/>
+      <c r="AM37" s="157"/>
+      <c r="AN37" s="157"/>
+      <c r="AO37" s="157"/>
+      <c r="AP37" s="157"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="54"/>
       <c r="AS37" s="54"/>
@@ -7163,30 +7164,30 @@
       <c r="DR37" s="54"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="137" t="s">
+      <c r="A38" s="141" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="148"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="152"/>
       <c r="H38" s="64"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
       <c r="K38" s="48"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
       <c r="N38" s="48"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
       <c r="R38" s="48"/>
       <c r="S38" s="48"/>
-      <c r="T38" s="132"/>
+      <c r="T38" s="157"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -7205,10 +7206,10 @@
       <c r="AJ38" s="48"/>
       <c r="AK38" s="48"/>
       <c r="AL38" s="63"/>
-      <c r="AM38" s="132"/>
-      <c r="AN38" s="132"/>
-      <c r="AO38" s="132"/>
-      <c r="AP38" s="132"/>
+      <c r="AM38" s="157"/>
+      <c r="AN38" s="157"/>
+      <c r="AO38" s="157"/>
+      <c r="AP38" s="157"/>
       <c r="AQ38" s="64"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
@@ -7317,28 +7318,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="137"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="148"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
       <c r="H39" s="64"/>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
       <c r="K39" s="48"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
       <c r="N39" s="48"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="48"/>
-      <c r="T39" s="132"/>
+      <c r="T39" s="157"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -7357,10 +7358,10 @@
       <c r="AJ39" s="48"/>
       <c r="AK39" s="48"/>
       <c r="AL39" s="63"/>
-      <c r="AM39" s="132"/>
-      <c r="AN39" s="132"/>
-      <c r="AO39" s="132"/>
-      <c r="AP39" s="132"/>
+      <c r="AM39" s="157"/>
+      <c r="AN39" s="157"/>
+      <c r="AO39" s="157"/>
+      <c r="AP39" s="157"/>
       <c r="AQ39" s="64"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
@@ -7443,28 +7444,28 @@
       <c r="DR39" s="24"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="137"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="148"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
       <c r="H40" s="64"/>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
       <c r="K40" s="48"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
       <c r="N40" s="48"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="132"/>
+      <c r="T40" s="157"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
       <c r="W40" s="48"/>
@@ -7483,10 +7484,10 @@
       <c r="AJ40" s="48"/>
       <c r="AK40" s="48"/>
       <c r="AL40" s="63"/>
-      <c r="AM40" s="132"/>
-      <c r="AN40" s="132"/>
-      <c r="AO40" s="132"/>
-      <c r="AP40" s="132"/>
+      <c r="AM40" s="157"/>
+      <c r="AN40" s="157"/>
+      <c r="AO40" s="157"/>
+      <c r="AP40" s="157"/>
       <c r="AQ40" s="64"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
@@ -7595,28 +7596,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="137"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="148"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="152"/>
       <c r="H41" s="34"/>
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="132"/>
+      <c r="T41" s="157"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -7635,10 +7636,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="30"/>
-      <c r="AM41" s="132"/>
-      <c r="AN41" s="132"/>
-      <c r="AO41" s="132"/>
-      <c r="AP41" s="132"/>
+      <c r="AM41" s="157"/>
+      <c r="AN41" s="157"/>
+      <c r="AO41" s="157"/>
+      <c r="AP41" s="157"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -7721,28 +7722,28 @@
       <c r="DR41" s="24"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="137"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="148"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="152"/>
       <c r="H42" s="105"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
-      <c r="T42" s="132"/>
+      <c r="T42" s="157"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
@@ -7761,10 +7762,10 @@
       <c r="AJ42" s="25"/>
       <c r="AK42" s="25"/>
       <c r="AL42" s="31"/>
-      <c r="AM42" s="132"/>
-      <c r="AN42" s="132"/>
-      <c r="AO42" s="132"/>
-      <c r="AP42" s="132"/>
+      <c r="AM42" s="157"/>
+      <c r="AN42" s="157"/>
+      <c r="AO42" s="157"/>
+      <c r="AP42" s="157"/>
       <c r="AQ42" s="73"/>
       <c r="AR42" s="74"/>
       <c r="AS42" s="74"/>
@@ -7875,24 +7876,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="11"/>
       <c r="B43" s="98"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="148"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="152"/>
       <c r="H43" s="104"/>
       <c r="I43" s="54"/>
       <c r="J43" s="54"/>
       <c r="K43" s="54"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
       <c r="N43" s="54"/>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
       <c r="R43" s="54"/>
       <c r="S43" s="54"/>
-      <c r="T43" s="132"/>
+      <c r="T43" s="157"/>
       <c r="U43" s="54"/>
       <c r="V43" s="54"/>
       <c r="W43" s="54"/>
@@ -7911,10 +7912,10 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="54"/>
       <c r="AL43" s="54"/>
-      <c r="AM43" s="132"/>
-      <c r="AN43" s="132"/>
-      <c r="AO43" s="132"/>
-      <c r="AP43" s="132"/>
+      <c r="AM43" s="157"/>
+      <c r="AN43" s="157"/>
+      <c r="AO43" s="157"/>
+      <c r="AP43" s="157"/>
       <c r="AQ43" s="54"/>
       <c r="AR43" s="54"/>
       <c r="AS43" s="54"/>
@@ -8023,30 +8024,30 @@
       <c r="ER43"/>
     </row>
     <row r="44" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="138" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="148"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="152"/>
       <c r="H44" s="34"/>
       <c r="I44" s="21"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
-      <c r="T44" s="132"/>
+      <c r="T44" s="157"/>
       <c r="U44" s="21"/>
       <c r="V44" s="21"/>
       <c r="W44" s="21"/>
@@ -8065,10 +8066,10 @@
       <c r="AJ44" s="21"/>
       <c r="AK44" s="21"/>
       <c r="AL44" s="21"/>
-      <c r="AM44" s="132"/>
-      <c r="AN44" s="132"/>
-      <c r="AO44" s="132"/>
-      <c r="AP44" s="132"/>
+      <c r="AM44" s="157"/>
+      <c r="AN44" s="157"/>
+      <c r="AO44" s="157"/>
+      <c r="AP44" s="157"/>
       <c r="AQ44" s="21"/>
       <c r="AR44" s="21"/>
       <c r="AS44" s="21"/>
@@ -8151,28 +8152,28 @@
       <c r="DR44" s="21"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="135"/>
+      <c r="A45" s="139"/>
       <c r="B45" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="148"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="152"/>
       <c r="H45" s="34"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="132"/>
+      <c r="T45" s="157"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -8191,10 +8192,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="132"/>
-      <c r="AN45" s="132"/>
-      <c r="AO45" s="132"/>
-      <c r="AP45" s="132"/>
+      <c r="AM45" s="157"/>
+      <c r="AN45" s="157"/>
+      <c r="AO45" s="157"/>
+      <c r="AP45" s="157"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -8277,28 +8278,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="135"/>
+      <c r="A46" s="139"/>
       <c r="B46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="148"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="152"/>
       <c r="H46" s="34"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="132"/>
+      <c r="T46" s="157"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -8317,10 +8318,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="132"/>
-      <c r="AN46" s="132"/>
-      <c r="AO46" s="132"/>
-      <c r="AP46" s="132"/>
+      <c r="AM46" s="157"/>
+      <c r="AN46" s="157"/>
+      <c r="AO46" s="157"/>
+      <c r="AP46" s="157"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -8403,28 +8404,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="135"/>
+      <c r="A47" s="139"/>
       <c r="B47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="148"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="152"/>
       <c r="H47" s="34"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="132"/>
+      <c r="T47" s="157"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -8443,10 +8444,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="132"/>
-      <c r="AN47" s="132"/>
-      <c r="AO47" s="132"/>
-      <c r="AP47" s="132"/>
+      <c r="AM47" s="157"/>
+      <c r="AN47" s="157"/>
+      <c r="AO47" s="157"/>
+      <c r="AP47" s="157"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -8529,28 +8530,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="135"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="148"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="152"/>
       <c r="H48" s="106"/>
       <c r="I48" s="76"/>
       <c r="J48" s="76"/>
       <c r="K48" s="76"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
       <c r="N48" s="76"/>
       <c r="O48" s="76"/>
       <c r="P48" s="76"/>
       <c r="Q48" s="76"/>
       <c r="R48" s="76"/>
       <c r="S48" s="76"/>
-      <c r="T48" s="132"/>
+      <c r="T48" s="157"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
       <c r="W48" s="76"/>
@@ -8569,10 +8570,10 @@
       <c r="AJ48" s="76"/>
       <c r="AK48" s="76"/>
       <c r="AL48" s="76"/>
-      <c r="AM48" s="132"/>
-      <c r="AN48" s="132"/>
-      <c r="AO48" s="132"/>
-      <c r="AP48" s="132"/>
+      <c r="AM48" s="157"/>
+      <c r="AN48" s="157"/>
+      <c r="AO48" s="157"/>
+      <c r="AP48" s="157"/>
       <c r="AQ48" s="76"/>
       <c r="AR48" s="76"/>
       <c r="AS48" s="76"/>
@@ -8654,28 +8655,28 @@
       <c r="DR48" s="76"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="136"/>
+      <c r="A49" s="140"/>
       <c r="B49" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="149"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="151"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="155"/>
       <c r="H49" s="105"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
+      <c r="L49" s="158"/>
+      <c r="M49" s="158"/>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="133"/>
+      <c r="T49" s="158"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -8694,10 +8695,10 @@
       <c r="AJ49" s="25"/>
       <c r="AK49" s="25"/>
       <c r="AL49" s="25"/>
-      <c r="AM49" s="133"/>
-      <c r="AN49" s="133"/>
-      <c r="AO49" s="133"/>
-      <c r="AP49" s="133"/>
+      <c r="AM49" s="158"/>
+      <c r="AN49" s="158"/>
+      <c r="AO49" s="158"/>
+      <c r="AP49" s="158"/>
       <c r="AQ49" s="25"/>
       <c r="AR49" s="25"/>
       <c r="AS49" s="25"/>
@@ -8802,26 +8803,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G49"/>
-    <mergeCell ref="L9:M49"/>
-    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
     <mergeCell ref="DD7:DL7"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
@@ -8837,12 +8824,26 @@
     <mergeCell ref="BU7:CC7"/>
     <mergeCell ref="CD7:CL7"/>
     <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G49"/>
+    <mergeCell ref="L9:M49"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="H5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8854,8 +8855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD4E70-A401-418C-840B-3BA1B1FB16B9}">
   <dimension ref="A1:ER57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BT10" sqref="BT10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8875,284 +8876,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="152"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="59"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
       <c r="C3" s="81"/>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="118" t="s">
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="124" t="s">
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="118" t="s">
+      <c r="U3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="120"/>
-      <c r="AU3" s="118" t="s">
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131"/>
+      <c r="AT3" s="132"/>
+      <c r="AU3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="120"/>
-      <c r="BU3" s="118" t="s">
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="131"/>
+      <c r="BG3" s="131"/>
+      <c r="BH3" s="131"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
+      <c r="BR3" s="131"/>
+      <c r="BS3" s="131"/>
+      <c r="BT3" s="132"/>
+      <c r="BU3" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-      <c r="CA3" s="119"/>
-      <c r="CB3" s="119"/>
-      <c r="CC3" s="119"/>
-      <c r="CD3" s="119"/>
-      <c r="CE3" s="119"/>
-      <c r="CF3" s="119"/>
-      <c r="CG3" s="119"/>
-      <c r="CH3" s="119"/>
-      <c r="CI3" s="119"/>
-      <c r="CJ3" s="119"/>
-      <c r="CK3" s="119"/>
-      <c r="CL3" s="119"/>
-      <c r="CM3" s="119"/>
-      <c r="CN3" s="119"/>
-      <c r="CO3" s="119"/>
-      <c r="CP3" s="119"/>
-      <c r="CQ3" s="119"/>
-      <c r="CR3" s="119"/>
-      <c r="CS3" s="119"/>
-      <c r="CT3" s="120"/>
-      <c r="CU3" s="118" t="s">
+      <c r="BV3" s="131"/>
+      <c r="BW3" s="131"/>
+      <c r="BX3" s="131"/>
+      <c r="BY3" s="131"/>
+      <c r="BZ3" s="131"/>
+      <c r="CA3" s="131"/>
+      <c r="CB3" s="131"/>
+      <c r="CC3" s="131"/>
+      <c r="CD3" s="131"/>
+      <c r="CE3" s="131"/>
+      <c r="CF3" s="131"/>
+      <c r="CG3" s="131"/>
+      <c r="CH3" s="131"/>
+      <c r="CI3" s="131"/>
+      <c r="CJ3" s="131"/>
+      <c r="CK3" s="131"/>
+      <c r="CL3" s="131"/>
+      <c r="CM3" s="131"/>
+      <c r="CN3" s="131"/>
+      <c r="CO3" s="131"/>
+      <c r="CP3" s="131"/>
+      <c r="CQ3" s="131"/>
+      <c r="CR3" s="131"/>
+      <c r="CS3" s="131"/>
+      <c r="CT3" s="132"/>
+      <c r="CU3" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="CV3" s="119"/>
-      <c r="CW3" s="119"/>
-      <c r="CX3" s="119"/>
-      <c r="CY3" s="119"/>
-      <c r="CZ3" s="119"/>
-      <c r="DA3" s="119"/>
-      <c r="DB3" s="119"/>
-      <c r="DC3" s="119"/>
-      <c r="DD3" s="119"/>
-      <c r="DE3" s="119"/>
-      <c r="DF3" s="119"/>
-      <c r="DG3" s="119"/>
-      <c r="DH3" s="119"/>
-      <c r="DI3" s="119"/>
-      <c r="DJ3" s="119"/>
-      <c r="DK3" s="119"/>
-      <c r="DL3" s="119"/>
-      <c r="DM3" s="119"/>
-      <c r="DN3" s="119"/>
-      <c r="DO3" s="119"/>
-      <c r="DP3" s="119"/>
-      <c r="DQ3" s="119"/>
-      <c r="DR3" s="119"/>
-      <c r="DS3" s="120"/>
+      <c r="CV3" s="131"/>
+      <c r="CW3" s="131"/>
+      <c r="CX3" s="131"/>
+      <c r="CY3" s="131"/>
+      <c r="CZ3" s="131"/>
+      <c r="DA3" s="131"/>
+      <c r="DB3" s="131"/>
+      <c r="DC3" s="131"/>
+      <c r="DD3" s="131"/>
+      <c r="DE3" s="131"/>
+      <c r="DF3" s="131"/>
+      <c r="DG3" s="131"/>
+      <c r="DH3" s="131"/>
+      <c r="DI3" s="131"/>
+      <c r="DJ3" s="131"/>
+      <c r="DK3" s="131"/>
+      <c r="DL3" s="131"/>
+      <c r="DM3" s="131"/>
+      <c r="DN3" s="131"/>
+      <c r="DO3" s="131"/>
+      <c r="DP3" s="131"/>
+      <c r="DQ3" s="131"/>
+      <c r="DR3" s="131"/>
+      <c r="DS3" s="132"/>
       <c r="DT3" s="28"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
       <c r="C4" s="61"/>
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
-      <c r="AG4" s="122"/>
-      <c r="AH4" s="122"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="122"/>
-      <c r="AK4" s="122"/>
-      <c r="AL4" s="122"/>
-      <c r="AM4" s="122"/>
-      <c r="AN4" s="122"/>
-      <c r="AO4" s="122"/>
-      <c r="AP4" s="122"/>
-      <c r="AQ4" s="122"/>
-      <c r="AR4" s="122"/>
-      <c r="AS4" s="122"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="123"/>
-      <c r="BU4" s="121"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="122"/>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
-      <c r="CJ4" s="122"/>
-      <c r="CK4" s="122"/>
-      <c r="CL4" s="122"/>
-      <c r="CM4" s="122"/>
-      <c r="CN4" s="122"/>
-      <c r="CO4" s="122"/>
-      <c r="CP4" s="122"/>
-      <c r="CQ4" s="122"/>
-      <c r="CR4" s="122"/>
-      <c r="CS4" s="122"/>
-      <c r="CT4" s="123"/>
-      <c r="CU4" s="121"/>
-      <c r="CV4" s="122"/>
-      <c r="CW4" s="122"/>
-      <c r="CX4" s="122"/>
-      <c r="CY4" s="122"/>
-      <c r="CZ4" s="122"/>
-      <c r="DA4" s="122"/>
-      <c r="DB4" s="122"/>
-      <c r="DC4" s="122"/>
-      <c r="DD4" s="122"/>
-      <c r="DE4" s="122"/>
-      <c r="DF4" s="122"/>
-      <c r="DG4" s="122"/>
-      <c r="DH4" s="122"/>
-      <c r="DI4" s="122"/>
-      <c r="DJ4" s="122"/>
-      <c r="DK4" s="122"/>
-      <c r="DL4" s="122"/>
-      <c r="DM4" s="122"/>
-      <c r="DN4" s="122"/>
-      <c r="DO4" s="122"/>
-      <c r="DP4" s="122"/>
-      <c r="DQ4" s="122"/>
-      <c r="DR4" s="122"/>
-      <c r="DS4" s="123"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="134"/>
+      <c r="AK4" s="134"/>
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="134"/>
+      <c r="AO4" s="134"/>
+      <c r="AP4" s="134"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="134"/>
+      <c r="AS4" s="134"/>
+      <c r="AT4" s="135"/>
+      <c r="AU4" s="133"/>
+      <c r="AV4" s="134"/>
+      <c r="AW4" s="134"/>
+      <c r="AX4" s="134"/>
+      <c r="AY4" s="134"/>
+      <c r="AZ4" s="134"/>
+      <c r="BA4" s="134"/>
+      <c r="BB4" s="134"/>
+      <c r="BC4" s="134"/>
+      <c r="BD4" s="134"/>
+      <c r="BE4" s="134"/>
+      <c r="BF4" s="134"/>
+      <c r="BG4" s="134"/>
+      <c r="BH4" s="134"/>
+      <c r="BI4" s="134"/>
+      <c r="BJ4" s="134"/>
+      <c r="BK4" s="134"/>
+      <c r="BL4" s="134"/>
+      <c r="BM4" s="134"/>
+      <c r="BN4" s="134"/>
+      <c r="BO4" s="134"/>
+      <c r="BP4" s="134"/>
+      <c r="BQ4" s="134"/>
+      <c r="BR4" s="134"/>
+      <c r="BS4" s="134"/>
+      <c r="BT4" s="135"/>
+      <c r="BU4" s="133"/>
+      <c r="BV4" s="134"/>
+      <c r="BW4" s="134"/>
+      <c r="BX4" s="134"/>
+      <c r="BY4" s="134"/>
+      <c r="BZ4" s="134"/>
+      <c r="CA4" s="134"/>
+      <c r="CB4" s="134"/>
+      <c r="CC4" s="134"/>
+      <c r="CD4" s="134"/>
+      <c r="CE4" s="134"/>
+      <c r="CF4" s="134"/>
+      <c r="CG4" s="134"/>
+      <c r="CH4" s="134"/>
+      <c r="CI4" s="134"/>
+      <c r="CJ4" s="134"/>
+      <c r="CK4" s="134"/>
+      <c r="CL4" s="134"/>
+      <c r="CM4" s="134"/>
+      <c r="CN4" s="134"/>
+      <c r="CO4" s="134"/>
+      <c r="CP4" s="134"/>
+      <c r="CQ4" s="134"/>
+      <c r="CR4" s="134"/>
+      <c r="CS4" s="134"/>
+      <c r="CT4" s="135"/>
+      <c r="CU4" s="133"/>
+      <c r="CV4" s="134"/>
+      <c r="CW4" s="134"/>
+      <c r="CX4" s="134"/>
+      <c r="CY4" s="134"/>
+      <c r="CZ4" s="134"/>
+      <c r="DA4" s="134"/>
+      <c r="DB4" s="134"/>
+      <c r="DC4" s="134"/>
+      <c r="DD4" s="134"/>
+      <c r="DE4" s="134"/>
+      <c r="DF4" s="134"/>
+      <c r="DG4" s="134"/>
+      <c r="DH4" s="134"/>
+      <c r="DI4" s="134"/>
+      <c r="DJ4" s="134"/>
+      <c r="DK4" s="134"/>
+      <c r="DL4" s="134"/>
+      <c r="DM4" s="134"/>
+      <c r="DN4" s="134"/>
+      <c r="DO4" s="134"/>
+      <c r="DP4" s="134"/>
+      <c r="DQ4" s="134"/>
+      <c r="DR4" s="134"/>
+      <c r="DS4" s="135"/>
       <c r="DT4" s="28"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -9161,18 +9162,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="114"/>
-      <c r="D5" s="158" t="s">
+      <c r="D5" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="161" t="s">
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="162"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="137"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -9181,7 +9182,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="126" t="s">
+      <c r="T5" s="161" t="s">
         <v>44</v>
       </c>
       <c r="U5" s="3"/>
@@ -9304,10 +9305,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -9316,7 +9317,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="127"/>
+      <c r="T6" s="162"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -9447,10 +9448,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="144" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="44" t="s">
@@ -9464,157 +9465,157 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
       <c r="K7" s="46"/>
-      <c r="L7" s="128" t="s">
+      <c r="L7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="128" t="s">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="130"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="121"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="128" t="s">
+      <c r="U7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="129"/>
-      <c r="Y7" s="129"/>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="129"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="129" t="s">
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="129"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="129"/>
-      <c r="AK7" s="129"/>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="153" t="s">
+      <c r="AE7" s="120"/>
+      <c r="AF7" s="120"/>
+      <c r="AG7" s="120"/>
+      <c r="AH7" s="120"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="AN7" s="154"/>
-      <c r="AO7" s="154"/>
-      <c r="AP7" s="154"/>
-      <c r="AQ7" s="128" t="s">
+      <c r="AN7" s="123"/>
+      <c r="AO7" s="123"/>
+      <c r="AP7" s="123"/>
+      <c r="AQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="129"/>
-      <c r="AS7" s="129"/>
-      <c r="AT7" s="130"/>
-      <c r="AU7" s="128" t="s">
+      <c r="AR7" s="120"/>
+      <c r="AS7" s="120"/>
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="AV7" s="129"/>
-      <c r="AW7" s="129"/>
-      <c r="AX7" s="129"/>
-      <c r="AY7" s="129"/>
-      <c r="AZ7" s="129"/>
-      <c r="BA7" s="129"/>
-      <c r="BB7" s="129"/>
-      <c r="BC7" s="130"/>
-      <c r="BD7" s="128" t="s">
+      <c r="AV7" s="120"/>
+      <c r="AW7" s="120"/>
+      <c r="AX7" s="120"/>
+      <c r="AY7" s="120"/>
+      <c r="AZ7" s="120"/>
+      <c r="BA7" s="120"/>
+      <c r="BB7" s="120"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="BE7" s="129"/>
-      <c r="BF7" s="129"/>
-      <c r="BG7" s="129"/>
-      <c r="BH7" s="129"/>
-      <c r="BI7" s="129"/>
-      <c r="BJ7" s="129"/>
-      <c r="BK7" s="129"/>
-      <c r="BL7" s="130"/>
-      <c r="BM7" s="128" t="s">
+      <c r="BE7" s="120"/>
+      <c r="BF7" s="120"/>
+      <c r="BG7" s="120"/>
+      <c r="BH7" s="120"/>
+      <c r="BI7" s="120"/>
+      <c r="BJ7" s="120"/>
+      <c r="BK7" s="120"/>
+      <c r="BL7" s="121"/>
+      <c r="BM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="BN7" s="129"/>
-      <c r="BO7" s="129"/>
-      <c r="BP7" s="129"/>
-      <c r="BQ7" s="128" t="s">
+      <c r="BN7" s="120"/>
+      <c r="BO7" s="120"/>
+      <c r="BP7" s="120"/>
+      <c r="BQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="BR7" s="129"/>
-      <c r="BS7" s="129"/>
-      <c r="BT7" s="130"/>
-      <c r="BU7" s="128" t="s">
+      <c r="BR7" s="120"/>
+      <c r="BS7" s="120"/>
+      <c r="BT7" s="121"/>
+      <c r="BU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="BV7" s="129"/>
-      <c r="BW7" s="129"/>
-      <c r="BX7" s="129"/>
-      <c r="BY7" s="129"/>
-      <c r="BZ7" s="129"/>
-      <c r="CA7" s="129"/>
-      <c r="CB7" s="129"/>
-      <c r="CC7" s="130"/>
-      <c r="CD7" s="128" t="s">
+      <c r="BV7" s="120"/>
+      <c r="BW7" s="120"/>
+      <c r="BX7" s="120"/>
+      <c r="BY7" s="120"/>
+      <c r="BZ7" s="120"/>
+      <c r="CA7" s="120"/>
+      <c r="CB7" s="120"/>
+      <c r="CC7" s="121"/>
+      <c r="CD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="CE7" s="129"/>
-      <c r="CF7" s="129"/>
-      <c r="CG7" s="129"/>
-      <c r="CH7" s="129"/>
-      <c r="CI7" s="129"/>
-      <c r="CJ7" s="129"/>
-      <c r="CK7" s="129"/>
-      <c r="CL7" s="130"/>
-      <c r="CM7" s="128" t="s">
+      <c r="CE7" s="120"/>
+      <c r="CF7" s="120"/>
+      <c r="CG7" s="120"/>
+      <c r="CH7" s="120"/>
+      <c r="CI7" s="120"/>
+      <c r="CJ7" s="120"/>
+      <c r="CK7" s="120"/>
+      <c r="CL7" s="121"/>
+      <c r="CM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="CN7" s="129"/>
-      <c r="CO7" s="129"/>
-      <c r="CP7" s="129"/>
-      <c r="CQ7" s="128" t="s">
+      <c r="CN7" s="120"/>
+      <c r="CO7" s="120"/>
+      <c r="CP7" s="120"/>
+      <c r="CQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="CR7" s="129"/>
-      <c r="CS7" s="129"/>
-      <c r="CT7" s="130"/>
-      <c r="CU7" s="128" t="s">
+      <c r="CR7" s="120"/>
+      <c r="CS7" s="120"/>
+      <c r="CT7" s="121"/>
+      <c r="CU7" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="CV7" s="129"/>
-      <c r="CW7" s="129"/>
-      <c r="CX7" s="129"/>
-      <c r="CY7" s="129"/>
-      <c r="CZ7" s="129"/>
-      <c r="DA7" s="129"/>
-      <c r="DB7" s="129"/>
-      <c r="DC7" s="130"/>
-      <c r="DD7" s="128" t="s">
+      <c r="CV7" s="120"/>
+      <c r="CW7" s="120"/>
+      <c r="CX7" s="120"/>
+      <c r="CY7" s="120"/>
+      <c r="CZ7" s="120"/>
+      <c r="DA7" s="120"/>
+      <c r="DB7" s="120"/>
+      <c r="DC7" s="121"/>
+      <c r="DD7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="DE7" s="129"/>
-      <c r="DF7" s="129"/>
-      <c r="DG7" s="129"/>
-      <c r="DH7" s="129"/>
-      <c r="DI7" s="129"/>
-      <c r="DJ7" s="129"/>
-      <c r="DK7" s="129"/>
-      <c r="DL7" s="130"/>
-      <c r="DM7" s="128" t="s">
+      <c r="DE7" s="120"/>
+      <c r="DF7" s="120"/>
+      <c r="DG7" s="120"/>
+      <c r="DH7" s="120"/>
+      <c r="DI7" s="120"/>
+      <c r="DJ7" s="120"/>
+      <c r="DK7" s="120"/>
+      <c r="DL7" s="121"/>
+      <c r="DM7" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="DN7" s="129"/>
-      <c r="DO7" s="129"/>
-      <c r="DP7" s="129"/>
-      <c r="DQ7" s="128" t="s">
+      <c r="DN7" s="120"/>
+      <c r="DO7" s="120"/>
+      <c r="DP7" s="120"/>
+      <c r="DQ7" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="DR7" s="130"/>
+      <c r="DR7" s="121"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="36"/>
       <c r="D8" s="36"/>
       <c r="E8" s="36"/>
@@ -9766,10 +9767,10 @@
       <c r="K9" s="89">
         <v>4</v>
       </c>
-      <c r="L9" s="131">
+      <c r="L9" s="156">
         <v>5</v>
       </c>
-      <c r="M9" s="131"/>
+      <c r="M9" s="156"/>
       <c r="N9" s="87">
         <v>7</v>
       </c>
@@ -9788,7 +9789,7 @@
       <c r="S9" s="89">
         <v>12</v>
       </c>
-      <c r="T9" s="131"/>
+      <c r="T9" s="156"/>
       <c r="U9" s="86">
         <v>13</v>
       </c>
@@ -9843,10 +9844,10 @@
       <c r="AL9" s="89">
         <v>30</v>
       </c>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
       <c r="AQ9" s="86">
         <v>31</v>
       </c>
@@ -10121,24 +10122,24 @@
       <c r="B10" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
       <c r="H10" s="83"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
       <c r="K10" s="80"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
       <c r="N10" s="80"/>
       <c r="O10" s="80"/>
       <c r="P10" s="80"/>
       <c r="Q10" s="80"/>
       <c r="R10" s="80"/>
       <c r="S10" s="80"/>
-      <c r="T10" s="132"/>
+      <c r="T10" s="157"/>
       <c r="U10" s="80"/>
       <c r="V10" s="80"/>
       <c r="W10" s="80"/>
@@ -10157,10 +10158,10 @@
       <c r="AJ10" s="80"/>
       <c r="AK10" s="80"/>
       <c r="AL10" s="80"/>
-      <c r="AM10" s="132"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="132"/>
-      <c r="AP10" s="132"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="157"/>
+      <c r="AO10" s="157"/>
+      <c r="AP10" s="157"/>
       <c r="AQ10" s="80"/>
       <c r="AR10" s="80"/>
       <c r="AS10" s="80"/>
@@ -10269,28 +10270,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
       <c r="H11" s="90"/>
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
       <c r="N11" s="92"/>
       <c r="O11" s="92"/>
       <c r="P11" s="92"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="92"/>
       <c r="S11" s="92"/>
-      <c r="T11" s="132"/>
+      <c r="T11" s="157"/>
       <c r="U11" s="92"/>
       <c r="V11" s="92"/>
       <c r="W11" s="92"/>
@@ -10309,10 +10310,10 @@
       <c r="AJ11" s="92"/>
       <c r="AK11" s="92"/>
       <c r="AL11" s="93"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
+      <c r="AM11" s="157"/>
+      <c r="AN11" s="157"/>
+      <c r="AO11" s="157"/>
+      <c r="AP11" s="157"/>
       <c r="AQ11" s="94"/>
       <c r="AR11" s="92"/>
       <c r="AS11" s="92"/>
@@ -10421,28 +10422,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="82"/>
       <c r="I12" s="47"/>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="132"/>
+      <c r="T12" s="157"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
       <c r="W12" s="20"/>
@@ -10461,10 +10462,10 @@
       <c r="AJ12" s="20"/>
       <c r="AK12" s="20"/>
       <c r="AL12" s="29"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="132"/>
-      <c r="AO12" s="132"/>
-      <c r="AP12" s="132"/>
+      <c r="AM12" s="157"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="157"/>
+      <c r="AP12" s="157"/>
       <c r="AQ12" s="32"/>
       <c r="AR12" s="20"/>
       <c r="AS12" s="20"/>
@@ -10547,28 +10548,28 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="80"/>
       <c r="I13" s="82"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="132"/>
+      <c r="T13" s="157"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
       <c r="W13" s="20"/>
@@ -10587,10 +10588,10 @@
       <c r="AJ13" s="20"/>
       <c r="AK13" s="20"/>
       <c r="AL13" s="29"/>
-      <c r="AM13" s="132"/>
-      <c r="AN13" s="132"/>
-      <c r="AO13" s="132"/>
-      <c r="AP13" s="132"/>
+      <c r="AM13" s="157"/>
+      <c r="AN13" s="157"/>
+      <c r="AO13" s="157"/>
+      <c r="AP13" s="157"/>
       <c r="AQ13" s="32"/>
       <c r="AR13" s="20"/>
       <c r="AS13" s="20"/>
@@ -10699,28 +10700,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="137"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
       <c r="H14" s="80"/>
       <c r="I14" s="82"/>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="132"/>
+      <c r="T14" s="157"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="20"/>
@@ -10739,10 +10740,10 @@
       <c r="AJ14" s="20"/>
       <c r="AK14" s="20"/>
       <c r="AL14" s="29"/>
-      <c r="AM14" s="132"/>
-      <c r="AN14" s="132"/>
-      <c r="AO14" s="132"/>
-      <c r="AP14" s="132"/>
+      <c r="AM14" s="157"/>
+      <c r="AN14" s="157"/>
+      <c r="AO14" s="157"/>
+      <c r="AP14" s="157"/>
       <c r="AQ14" s="32"/>
       <c r="AR14" s="20"/>
       <c r="AS14" s="20"/>
@@ -10851,28 +10852,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="137"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="146"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
       <c r="H15" s="80"/>
       <c r="I15" s="83"/>
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
       <c r="N15" s="84"/>
       <c r="O15" s="84"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="132"/>
+      <c r="T15" s="157"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
       <c r="W15" s="20"/>
@@ -10891,10 +10892,10 @@
       <c r="AJ15" s="20"/>
       <c r="AK15" s="20"/>
       <c r="AL15" s="29"/>
-      <c r="AM15" s="132"/>
-      <c r="AN15" s="132"/>
-      <c r="AO15" s="132"/>
-      <c r="AP15" s="132"/>
+      <c r="AM15" s="157"/>
+      <c r="AN15" s="157"/>
+      <c r="AO15" s="157"/>
+      <c r="AP15" s="157"/>
       <c r="AQ15" s="32"/>
       <c r="AR15" s="20"/>
       <c r="AS15" s="20"/>
@@ -11003,28 +11004,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="137"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="146"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
       <c r="H16" s="80"/>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
       <c r="K16" s="83"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
       <c r="N16" s="84"/>
       <c r="O16" s="84"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="132"/>
+      <c r="T16" s="157"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
       <c r="W16" s="20"/>
@@ -11043,10 +11044,10 @@
       <c r="AJ16" s="20"/>
       <c r="AK16" s="20"/>
       <c r="AL16" s="29"/>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="132"/>
-      <c r="AO16" s="132"/>
-      <c r="AP16" s="132"/>
+      <c r="AM16" s="157"/>
+      <c r="AN16" s="157"/>
+      <c r="AO16" s="157"/>
+      <c r="AP16" s="157"/>
       <c r="AQ16" s="32"/>
       <c r="AR16" s="20"/>
       <c r="AS16" s="20"/>
@@ -11155,28 +11156,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="137"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
       <c r="K17" s="80"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
       <c r="N17" s="21"/>
       <c r="O17" s="84"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="132"/>
+      <c r="T17" s="157"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
       <c r="W17" s="20"/>
@@ -11195,10 +11196,10 @@
       <c r="AJ17" s="20"/>
       <c r="AK17" s="20"/>
       <c r="AL17" s="29"/>
-      <c r="AM17" s="132"/>
-      <c r="AN17" s="132"/>
-      <c r="AO17" s="132"/>
-      <c r="AP17" s="132"/>
+      <c r="AM17" s="157"/>
+      <c r="AN17" s="157"/>
+      <c r="AO17" s="157"/>
+      <c r="AP17" s="157"/>
       <c r="AQ17" s="32"/>
       <c r="AR17" s="20"/>
       <c r="AS17" s="20"/>
@@ -11281,28 +11282,28 @@
       <c r="DR17" s="23"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="137"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
       <c r="N18" s="21"/>
       <c r="O18" s="84"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="132"/>
+      <c r="T18" s="157"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20"/>
@@ -11321,10 +11322,10 @@
       <c r="AJ18" s="20"/>
       <c r="AK18" s="20"/>
       <c r="AL18" s="29"/>
-      <c r="AM18" s="132"/>
-      <c r="AN18" s="132"/>
-      <c r="AO18" s="132"/>
-      <c r="AP18" s="132"/>
+      <c r="AM18" s="157"/>
+      <c r="AN18" s="157"/>
+      <c r="AO18" s="157"/>
+      <c r="AP18" s="157"/>
       <c r="AQ18" s="32"/>
       <c r="AR18" s="20"/>
       <c r="AS18" s="20"/>
@@ -11409,24 +11410,24 @@
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="18"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="49"/>
       <c r="K19" s="49"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="49"/>
-      <c r="T19" s="132"/>
+      <c r="T19" s="157"/>
       <c r="U19" s="49"/>
       <c r="V19" s="49"/>
       <c r="W19" s="49"/>
@@ -11445,10 +11446,10 @@
       <c r="AJ19" s="49"/>
       <c r="AK19" s="49"/>
       <c r="AL19" s="51"/>
-      <c r="AM19" s="132"/>
-      <c r="AN19" s="132"/>
-      <c r="AO19" s="132"/>
-      <c r="AP19" s="132"/>
+      <c r="AM19" s="157"/>
+      <c r="AN19" s="157"/>
+      <c r="AO19" s="157"/>
+      <c r="AP19" s="157"/>
       <c r="AQ19" s="52"/>
       <c r="AR19" s="49"/>
       <c r="AS19" s="49"/>
@@ -11531,30 +11532,30 @@
       <c r="DR19" s="53"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="141" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="146"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
       <c r="N20" s="21"/>
       <c r="O20" s="84"/>
       <c r="P20" s="84"/>
       <c r="Q20" s="84"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="132"/>
+      <c r="T20" s="157"/>
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21"/>
@@ -11573,10 +11574,10 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
       <c r="AL20" s="21"/>
-      <c r="AM20" s="132"/>
-      <c r="AN20" s="132"/>
-      <c r="AO20" s="132"/>
-      <c r="AP20" s="132"/>
+      <c r="AM20" s="157"/>
+      <c r="AN20" s="157"/>
+      <c r="AO20" s="157"/>
+      <c r="AP20" s="157"/>
       <c r="AQ20" s="33"/>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21"/>
@@ -11659,28 +11660,28 @@
       <c r="DR20" s="24"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="137"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="84"/>
       <c r="R21" s="84"/>
       <c r="S21" s="84"/>
-      <c r="T21" s="132"/>
+      <c r="T21" s="157"/>
       <c r="U21" s="84"/>
       <c r="V21" s="84"/>
       <c r="W21" s="84"/>
@@ -11699,10 +11700,10 @@
       <c r="AJ21" s="84"/>
       <c r="AK21" s="84"/>
       <c r="AL21" s="84"/>
-      <c r="AM21" s="132"/>
-      <c r="AN21" s="132"/>
-      <c r="AO21" s="132"/>
-      <c r="AP21" s="132"/>
+      <c r="AM21" s="157"/>
+      <c r="AN21" s="157"/>
+      <c r="AO21" s="157"/>
+      <c r="AP21" s="157"/>
       <c r="AQ21" s="117"/>
       <c r="AR21" s="84"/>
       <c r="AS21" s="84"/>
@@ -11785,28 +11786,28 @@
       <c r="DR21" s="24"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="137"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
       <c r="N22" s="21"/>
       <c r="O22" s="84"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="84"/>
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
-      <c r="T22" s="132"/>
+      <c r="T22" s="157"/>
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21"/>
@@ -11825,10 +11826,10 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
       <c r="AL22" s="21"/>
-      <c r="AM22" s="132"/>
-      <c r="AN22" s="132"/>
-      <c r="AO22" s="132"/>
-      <c r="AP22" s="132"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="157"/>
+      <c r="AO22" s="157"/>
+      <c r="AP22" s="157"/>
       <c r="AQ22" s="33"/>
       <c r="AR22" s="55"/>
       <c r="AS22" s="55"/>
@@ -11911,28 +11912,28 @@
       <c r="DR22" s="24"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="137"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
       <c r="N23" s="21"/>
       <c r="O23" s="55"/>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="84"/>
       <c r="S23" s="84"/>
-      <c r="T23" s="132"/>
+      <c r="T23" s="157"/>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
@@ -11951,10 +11952,10 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
       <c r="AL23" s="21"/>
-      <c r="AM23" s="132"/>
-      <c r="AN23" s="132"/>
-      <c r="AO23" s="132"/>
-      <c r="AP23" s="132"/>
+      <c r="AM23" s="157"/>
+      <c r="AN23" s="157"/>
+      <c r="AO23" s="157"/>
+      <c r="AP23" s="157"/>
       <c r="AQ23" s="33"/>
       <c r="AR23" s="55"/>
       <c r="AS23" s="55"/>
@@ -12037,28 +12038,28 @@
       <c r="DR23" s="24"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="137"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
-      <c r="T24" s="132"/>
+      <c r="T24" s="157"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
       <c r="W24" s="84"/>
@@ -12077,10 +12078,10 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
       <c r="AL24" s="21"/>
-      <c r="AM24" s="132"/>
-      <c r="AN24" s="132"/>
-      <c r="AO24" s="132"/>
-      <c r="AP24" s="132"/>
+      <c r="AM24" s="157"/>
+      <c r="AN24" s="157"/>
+      <c r="AO24" s="157"/>
+      <c r="AP24" s="157"/>
       <c r="AQ24" s="21"/>
       <c r="AR24" s="21"/>
       <c r="AS24" s="21"/>
@@ -12189,28 +12190,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="137"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
-      <c r="T25" s="132"/>
+      <c r="T25" s="157"/>
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
@@ -12229,10 +12230,10 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
       <c r="AL25" s="21"/>
-      <c r="AM25" s="132"/>
-      <c r="AN25" s="132"/>
-      <c r="AO25" s="132"/>
-      <c r="AP25" s="132"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="157"/>
+      <c r="AO25" s="157"/>
+      <c r="AP25" s="157"/>
       <c r="AQ25" s="21"/>
       <c r="AR25" s="21"/>
       <c r="AS25" s="21"/>
@@ -12341,28 +12342,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="137"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="132"/>
+      <c r="T26" s="157"/>
       <c r="U26" s="21"/>
       <c r="V26" s="21"/>
       <c r="W26" s="21"/>
@@ -12381,10 +12382,10 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AL26" s="21"/>
-      <c r="AM26" s="132"/>
-      <c r="AN26" s="132"/>
-      <c r="AO26" s="132"/>
-      <c r="AP26" s="132"/>
+      <c r="AM26" s="157"/>
+      <c r="AN26" s="157"/>
+      <c r="AO26" s="157"/>
+      <c r="AP26" s="157"/>
       <c r="AQ26" s="21"/>
       <c r="AR26" s="21"/>
       <c r="AS26" s="21"/>
@@ -12493,28 +12494,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="137"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="132"/>
+      <c r="T27" s="157"/>
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
@@ -12533,10 +12534,10 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AL27" s="21"/>
-      <c r="AM27" s="132"/>
-      <c r="AN27" s="132"/>
-      <c r="AO27" s="132"/>
-      <c r="AP27" s="132"/>
+      <c r="AM27" s="157"/>
+      <c r="AN27" s="157"/>
+      <c r="AO27" s="157"/>
+      <c r="AP27" s="157"/>
       <c r="AQ27" s="21"/>
       <c r="AR27" s="21"/>
       <c r="AS27" s="21"/>
@@ -12645,28 +12646,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="137"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
-      <c r="T28" s="132"/>
+      <c r="T28" s="157"/>
       <c r="U28" s="21"/>
       <c r="V28" s="21"/>
       <c r="W28" s="21"/>
@@ -12685,10 +12686,10 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AL28" s="21"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
+      <c r="AM28" s="157"/>
+      <c r="AN28" s="157"/>
+      <c r="AO28" s="157"/>
+      <c r="AP28" s="157"/>
       <c r="AQ28" s="21"/>
       <c r="AR28" s="21"/>
       <c r="AS28" s="21"/>
@@ -12771,28 +12772,28 @@
       <c r="DR28" s="24"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="137"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
-      <c r="T29" s="132"/>
+      <c r="T29" s="157"/>
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
@@ -12811,10 +12812,10 @@
       <c r="AJ29" s="84"/>
       <c r="AK29" s="84"/>
       <c r="AL29" s="84"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="132"/>
-      <c r="AO29" s="132"/>
-      <c r="AP29" s="132"/>
+      <c r="AM29" s="157"/>
+      <c r="AN29" s="157"/>
+      <c r="AO29" s="157"/>
+      <c r="AP29" s="157"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="21"/>
       <c r="AS29" s="21"/>
@@ -12897,28 +12898,28 @@
       <c r="DR29" s="24"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="137"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
-      <c r="T30" s="132"/>
+      <c r="T30" s="157"/>
       <c r="U30" s="21"/>
       <c r="V30" s="21"/>
       <c r="W30" s="21"/>
@@ -12937,10 +12938,10 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="132"/>
-      <c r="AN30" s="132"/>
-      <c r="AO30" s="132"/>
-      <c r="AP30" s="132"/>
+      <c r="AM30" s="157"/>
+      <c r="AN30" s="157"/>
+      <c r="AO30" s="157"/>
+      <c r="AP30" s="157"/>
       <c r="AQ30" s="21"/>
       <c r="AR30" s="21"/>
       <c r="AS30" s="21"/>
@@ -13023,28 +13024,28 @@
       <c r="DR30" s="24"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="137"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
-      <c r="T31" s="132"/>
+      <c r="T31" s="157"/>
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
@@ -13063,10 +13064,10 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="132"/>
-      <c r="AN31" s="132"/>
-      <c r="AO31" s="132"/>
-      <c r="AP31" s="132"/>
+      <c r="AM31" s="157"/>
+      <c r="AN31" s="157"/>
+      <c r="AO31" s="157"/>
+      <c r="AP31" s="157"/>
       <c r="AQ31" s="84"/>
       <c r="AR31" s="84"/>
       <c r="AS31" s="84"/>
@@ -13175,28 +13176,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="137"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="146"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
+      <c r="L32" s="157"/>
+      <c r="M32" s="157"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
-      <c r="T32" s="132"/>
+      <c r="T32" s="157"/>
       <c r="U32" s="55"/>
       <c r="V32" s="21"/>
       <c r="W32" s="21"/>
@@ -13215,10 +13216,10 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AL32" s="21"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="132"/>
-      <c r="AO32" s="132"/>
-      <c r="AP32" s="132"/>
+      <c r="AM32" s="157"/>
+      <c r="AN32" s="157"/>
+      <c r="AO32" s="157"/>
+      <c r="AP32" s="157"/>
       <c r="AQ32" s="113"/>
       <c r="AR32" s="113"/>
       <c r="AS32" s="113"/>
@@ -13301,28 +13302,28 @@
       <c r="DR32" s="24"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="137"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
-      <c r="T33" s="132"/>
+      <c r="T33" s="157"/>
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
@@ -13341,10 +13342,10 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AL33" s="21"/>
-      <c r="AM33" s="132"/>
-      <c r="AN33" s="132"/>
-      <c r="AO33" s="132"/>
-      <c r="AP33" s="132"/>
+      <c r="AM33" s="157"/>
+      <c r="AN33" s="157"/>
+      <c r="AO33" s="157"/>
+      <c r="AP33" s="157"/>
       <c r="AQ33" s="21"/>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21"/>
@@ -13453,28 +13454,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="137"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="146"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
+      <c r="L34" s="157"/>
+      <c r="M34" s="157"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
-      <c r="T34" s="132"/>
+      <c r="T34" s="157"/>
       <c r="U34" s="21"/>
       <c r="V34" s="21"/>
       <c r="W34" s="21"/>
@@ -13493,10 +13494,10 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
       <c r="AL34" s="21"/>
-      <c r="AM34" s="132"/>
-      <c r="AN34" s="132"/>
-      <c r="AO34" s="132"/>
-      <c r="AP34" s="132"/>
+      <c r="AM34" s="157"/>
+      <c r="AN34" s="157"/>
+      <c r="AO34" s="157"/>
+      <c r="AP34" s="157"/>
       <c r="AQ34" s="21"/>
       <c r="AR34" s="21"/>
       <c r="AS34" s="21"/>
@@ -13579,28 +13580,28 @@
       <c r="DR34" s="24"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="137"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
+      <c r="L35" s="157"/>
+      <c r="M35" s="157"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
-      <c r="T35" s="132"/>
+      <c r="T35" s="157"/>
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
@@ -13619,10 +13620,10 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
       <c r="AL35" s="21"/>
-      <c r="AM35" s="132"/>
-      <c r="AN35" s="132"/>
-      <c r="AO35" s="132"/>
-      <c r="AP35" s="132"/>
+      <c r="AM35" s="157"/>
+      <c r="AN35" s="157"/>
+      <c r="AO35" s="157"/>
+      <c r="AP35" s="157"/>
       <c r="AQ35" s="21"/>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21"/>
@@ -13731,28 +13732,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="137"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="L36" s="132"/>
-      <c r="M36" s="132"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
-      <c r="T36" s="132"/>
+      <c r="T36" s="157"/>
       <c r="U36" s="21"/>
       <c r="V36" s="21"/>
       <c r="W36" s="21"/>
@@ -13771,10 +13772,10 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
       <c r="AL36" s="30"/>
-      <c r="AM36" s="132"/>
-      <c r="AN36" s="132"/>
-      <c r="AO36" s="132"/>
-      <c r="AP36" s="132"/>
+      <c r="AM36" s="157"/>
+      <c r="AN36" s="157"/>
+      <c r="AO36" s="157"/>
+      <c r="AP36" s="157"/>
       <c r="AQ36" s="21"/>
       <c r="AR36" s="21"/>
       <c r="AS36" s="21"/>
@@ -13857,28 +13858,28 @@
       <c r="DR36" s="24"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="137"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="146"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="L37" s="132"/>
-      <c r="M37" s="132"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
       <c r="N37" s="21"/>
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
-      <c r="T37" s="132"/>
+      <c r="T37" s="157"/>
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
@@ -13897,10 +13898,10 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
       <c r="AL37" s="30"/>
-      <c r="AM37" s="132"/>
-      <c r="AN37" s="132"/>
-      <c r="AO37" s="132"/>
-      <c r="AP37" s="132"/>
+      <c r="AM37" s="157"/>
+      <c r="AN37" s="157"/>
+      <c r="AO37" s="157"/>
+      <c r="AP37" s="157"/>
       <c r="AQ37" s="21"/>
       <c r="AR37" s="21"/>
       <c r="AS37" s="21"/>
@@ -13985,24 +13986,24 @@
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="18"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="54"/>
       <c r="I38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
+      <c r="L38" s="157"/>
+      <c r="M38" s="157"/>
       <c r="N38" s="54"/>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
       <c r="R38" s="54"/>
       <c r="S38" s="54"/>
-      <c r="T38" s="132"/>
+      <c r="T38" s="157"/>
       <c r="U38" s="54"/>
       <c r="V38" s="54"/>
       <c r="W38" s="54"/>
@@ -14021,10 +14022,10 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
       <c r="AL38" s="54"/>
-      <c r="AM38" s="132"/>
-      <c r="AN38" s="132"/>
-      <c r="AO38" s="132"/>
-      <c r="AP38" s="132"/>
+      <c r="AM38" s="157"/>
+      <c r="AN38" s="157"/>
+      <c r="AO38" s="157"/>
+      <c r="AP38" s="157"/>
       <c r="AQ38" s="54"/>
       <c r="AR38" s="54"/>
       <c r="AS38" s="54"/>
@@ -14107,30 +14108,30 @@
       <c r="DR38" s="54"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="141" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="L39" s="132"/>
-      <c r="M39" s="132"/>
+      <c r="L39" s="157"/>
+      <c r="M39" s="157"/>
       <c r="N39" s="21"/>
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
-      <c r="T39" s="132"/>
+      <c r="T39" s="157"/>
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
@@ -14149,10 +14150,10 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
       <c r="AL39" s="21"/>
-      <c r="AM39" s="132"/>
-      <c r="AN39" s="132"/>
-      <c r="AO39" s="132"/>
-      <c r="AP39" s="132"/>
+      <c r="AM39" s="157"/>
+      <c r="AN39" s="157"/>
+      <c r="AO39" s="157"/>
+      <c r="AP39" s="157"/>
       <c r="AQ39" s="84"/>
       <c r="AR39" s="84"/>
       <c r="AS39" s="84"/>
@@ -14261,28 +14262,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="137"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
       <c r="H40" s="84"/>
       <c r="I40" s="84"/>
       <c r="J40" s="84"/>
       <c r="K40" s="84"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
+      <c r="L40" s="157"/>
+      <c r="M40" s="157"/>
       <c r="N40" s="84"/>
       <c r="O40" s="84"/>
       <c r="P40" s="84"/>
       <c r="Q40" s="84"/>
       <c r="R40" s="84"/>
       <c r="S40" s="84"/>
-      <c r="T40" s="132"/>
+      <c r="T40" s="157"/>
       <c r="U40" s="84"/>
       <c r="V40" s="84"/>
       <c r="W40" s="84"/>
@@ -14301,10 +14302,10 @@
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
       <c r="AL40" s="84"/>
-      <c r="AM40" s="132"/>
-      <c r="AN40" s="132"/>
-      <c r="AO40" s="132"/>
-      <c r="AP40" s="132"/>
+      <c r="AM40" s="157"/>
+      <c r="AN40" s="157"/>
+      <c r="AO40" s="157"/>
+      <c r="AP40" s="157"/>
       <c r="AQ40" s="84"/>
       <c r="AR40" s="84"/>
       <c r="AS40" s="84"/>
@@ -14387,28 +14388,28 @@
       <c r="DR40" s="24"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="137"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="146"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="84"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
+      <c r="L41" s="157"/>
+      <c r="M41" s="157"/>
       <c r="N41" s="21"/>
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
       <c r="S41" s="84"/>
-      <c r="T41" s="132"/>
+      <c r="T41" s="157"/>
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
@@ -14427,10 +14428,10 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
       <c r="AL41" s="84"/>
-      <c r="AM41" s="132"/>
-      <c r="AN41" s="132"/>
-      <c r="AO41" s="132"/>
-      <c r="AP41" s="132"/>
+      <c r="AM41" s="157"/>
+      <c r="AN41" s="157"/>
+      <c r="AO41" s="157"/>
+      <c r="AP41" s="157"/>
       <c r="AQ41" s="21"/>
       <c r="AR41" s="21"/>
       <c r="AS41" s="21"/>
@@ -14462,14 +14463,14 @@
       <c r="BS41" s="21"/>
       <c r="BT41" s="84"/>
       <c r="BU41" s="21"/>
-      <c r="BV41" s="84"/>
+      <c r="BV41" s="165"/>
       <c r="BW41" s="21"/>
       <c r="BX41" s="21"/>
       <c r="BY41" s="21"/>
       <c r="BZ41" s="21"/>
       <c r="CA41" s="21"/>
       <c r="CB41" s="21"/>
-      <c r="CC41" s="21"/>
+      <c r="CC41" s="84"/>
       <c r="CD41" s="21"/>
       <c r="CE41" s="21"/>
       <c r="CF41" s="21"/>
@@ -14539,28 +14540,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="137"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="146"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
+      <c r="L42" s="157"/>
+      <c r="M42" s="157"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
-      <c r="T42" s="132"/>
+      <c r="T42" s="157"/>
       <c r="U42" s="21"/>
       <c r="V42" s="21"/>
       <c r="W42" s="21"/>
@@ -14579,10 +14580,10 @@
       <c r="AJ42" s="21"/>
       <c r="AK42" s="21"/>
       <c r="AL42" s="30"/>
-      <c r="AM42" s="132"/>
-      <c r="AN42" s="132"/>
-      <c r="AO42" s="132"/>
-      <c r="AP42" s="132"/>
+      <c r="AM42" s="157"/>
+      <c r="AN42" s="157"/>
+      <c r="AO42" s="157"/>
+      <c r="AP42" s="157"/>
       <c r="AQ42" s="21"/>
       <c r="AR42" s="21"/>
       <c r="AS42" s="21"/>
@@ -14626,8 +14627,8 @@
       <c r="CE42" s="21"/>
       <c r="CF42" s="21"/>
       <c r="CG42" s="21"/>
-      <c r="CH42" s="21"/>
-      <c r="CI42" s="21"/>
+      <c r="CH42" s="84"/>
+      <c r="CI42" s="84"/>
       <c r="CJ42" s="21"/>
       <c r="CK42" s="21"/>
       <c r="CL42" s="21"/>
@@ -14665,28 +14666,28 @@
       <c r="DR42" s="24"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="137"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="146"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="147"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
+      <c r="L43" s="157"/>
+      <c r="M43" s="157"/>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
-      <c r="T43" s="132"/>
+      <c r="T43" s="157"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
@@ -14705,10 +14706,10 @@
       <c r="AJ43" s="25"/>
       <c r="AK43" s="25"/>
       <c r="AL43" s="31"/>
-      <c r="AM43" s="132"/>
-      <c r="AN43" s="132"/>
-      <c r="AO43" s="132"/>
-      <c r="AP43" s="132"/>
+      <c r="AM43" s="157"/>
+      <c r="AN43" s="157"/>
+      <c r="AO43" s="157"/>
+      <c r="AP43" s="157"/>
       <c r="AQ43" s="21"/>
       <c r="AR43" s="21"/>
       <c r="AS43" s="21"/>
@@ -14819,24 +14820,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="147"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="54"/>
       <c r="I44" s="54"/>
       <c r="J44" s="54"/>
       <c r="K44" s="54"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
       <c r="N44" s="54"/>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
       <c r="R44" s="54"/>
       <c r="S44" s="54"/>
-      <c r="T44" s="132"/>
+      <c r="T44" s="157"/>
       <c r="U44" s="54"/>
       <c r="V44" s="54"/>
       <c r="W44" s="54"/>
@@ -14855,10 +14856,10 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="54"/>
       <c r="AL44" s="54"/>
-      <c r="AM44" s="132"/>
-      <c r="AN44" s="132"/>
-      <c r="AO44" s="132"/>
-      <c r="AP44" s="132"/>
+      <c r="AM44" s="157"/>
+      <c r="AN44" s="157"/>
+      <c r="AO44" s="157"/>
+      <c r="AP44" s="157"/>
       <c r="AQ44" s="54"/>
       <c r="AR44" s="54"/>
       <c r="AS44" s="54"/>
@@ -14967,30 +14968,30 @@
       <c r="ER44"/>
     </row>
     <row r="45" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="138" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="146"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="147"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="132"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
-      <c r="T45" s="132"/>
+      <c r="T45" s="157"/>
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
@@ -15009,10 +15010,10 @@
       <c r="AJ45" s="21"/>
       <c r="AK45" s="21"/>
       <c r="AL45" s="21"/>
-      <c r="AM45" s="132"/>
-      <c r="AN45" s="132"/>
-      <c r="AO45" s="132"/>
-      <c r="AP45" s="132"/>
+      <c r="AM45" s="157"/>
+      <c r="AN45" s="157"/>
+      <c r="AO45" s="157"/>
+      <c r="AP45" s="157"/>
       <c r="AQ45" s="21"/>
       <c r="AR45" s="21"/>
       <c r="AS45" s="21"/>
@@ -15095,28 +15096,28 @@
       <c r="DR45" s="21"/>
     </row>
     <row r="46" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="135"/>
+      <c r="A46" s="139"/>
       <c r="B46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="147"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
-      <c r="T46" s="132"/>
+      <c r="T46" s="157"/>
       <c r="U46" s="21"/>
       <c r="V46" s="21"/>
       <c r="W46" s="21"/>
@@ -15135,10 +15136,10 @@
       <c r="AJ46" s="21"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
-      <c r="AM46" s="132"/>
-      <c r="AN46" s="132"/>
-      <c r="AO46" s="132"/>
-      <c r="AP46" s="132"/>
+      <c r="AM46" s="157"/>
+      <c r="AN46" s="157"/>
+      <c r="AO46" s="157"/>
+      <c r="AP46" s="157"/>
       <c r="AQ46" s="21"/>
       <c r="AR46" s="21"/>
       <c r="AS46" s="21"/>
@@ -15221,28 +15222,28 @@
       <c r="DR46" s="21"/>
     </row>
     <row r="47" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="135"/>
+      <c r="A47" s="139"/>
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="146"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
-      <c r="T47" s="132"/>
+      <c r="T47" s="157"/>
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
@@ -15261,10 +15262,10 @@
       <c r="AJ47" s="21"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
-      <c r="AM47" s="132"/>
-      <c r="AN47" s="132"/>
-      <c r="AO47" s="132"/>
-      <c r="AP47" s="132"/>
+      <c r="AM47" s="157"/>
+      <c r="AN47" s="157"/>
+      <c r="AO47" s="157"/>
+      <c r="AP47" s="157"/>
       <c r="AQ47" s="21"/>
       <c r="AR47" s="21"/>
       <c r="AS47" s="21"/>
@@ -15347,28 +15348,28 @@
       <c r="DR47" s="21"/>
     </row>
     <row r="48" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="135"/>
+      <c r="A48" s="139"/>
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="146"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
-      <c r="T48" s="132"/>
+      <c r="T48" s="157"/>
       <c r="U48" s="21"/>
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
@@ -15387,10 +15388,10 @@
       <c r="AJ48" s="21"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
-      <c r="AM48" s="132"/>
-      <c r="AN48" s="132"/>
-      <c r="AO48" s="132"/>
-      <c r="AP48" s="132"/>
+      <c r="AM48" s="157"/>
+      <c r="AN48" s="157"/>
+      <c r="AO48" s="157"/>
+      <c r="AP48" s="157"/>
       <c r="AQ48" s="21"/>
       <c r="AR48" s="21"/>
       <c r="AS48" s="21"/>
@@ -15473,28 +15474,28 @@
       <c r="DR48" s="21"/>
     </row>
     <row r="49" spans="1:122" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="135"/>
+      <c r="A49" s="139"/>
       <c r="B49" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="147"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
       <c r="H49" s="76"/>
       <c r="I49" s="76"/>
       <c r="J49" s="76"/>
       <c r="K49" s="76"/>
-      <c r="L49" s="132"/>
-      <c r="M49" s="132"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
       <c r="N49" s="76"/>
       <c r="O49" s="76"/>
       <c r="P49" s="76"/>
       <c r="Q49" s="76"/>
       <c r="R49" s="76"/>
       <c r="S49" s="76"/>
-      <c r="T49" s="132"/>
+      <c r="T49" s="157"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
       <c r="W49" s="76"/>
@@ -15513,10 +15514,10 @@
       <c r="AJ49" s="76"/>
       <c r="AK49" s="76"/>
       <c r="AL49" s="76"/>
-      <c r="AM49" s="132"/>
-      <c r="AN49" s="132"/>
-      <c r="AO49" s="132"/>
-      <c r="AP49" s="132"/>
+      <c r="AM49" s="157"/>
+      <c r="AN49" s="157"/>
+      <c r="AO49" s="157"/>
+      <c r="AP49" s="157"/>
       <c r="AQ49" s="76"/>
       <c r="AR49" s="76"/>
       <c r="AS49" s="76"/>
@@ -15599,28 +15600,28 @@
       <c r="DR49" s="21"/>
     </row>
     <row r="50" spans="1:122" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="136"/>
+      <c r="A50" s="140"/>
       <c r="B50" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
+      <c r="L50" s="158"/>
+      <c r="M50" s="158"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25"/>
-      <c r="T50" s="133"/>
+      <c r="T50" s="158"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
@@ -15639,10 +15640,10 @@
       <c r="AJ50" s="25"/>
       <c r="AK50" s="25"/>
       <c r="AL50" s="25"/>
-      <c r="AM50" s="133"/>
-      <c r="AN50" s="133"/>
-      <c r="AO50" s="133"/>
-      <c r="AP50" s="133"/>
+      <c r="AM50" s="158"/>
+      <c r="AN50" s="158"/>
+      <c r="AO50" s="158"/>
+      <c r="AP50" s="158"/>
       <c r="AQ50" s="25"/>
       <c r="AR50" s="25"/>
       <c r="AS50" s="25"/>
@@ -15747,24 +15748,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="C10:G50"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T50"/>
+    <mergeCell ref="AM9:AP50"/>
+    <mergeCell ref="L9:M50"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="DM7:DP7"/>
     <mergeCell ref="DQ7:DR7"/>
     <mergeCell ref="A20:A37"/>
@@ -15781,13 +15771,24 @@
     <mergeCell ref="AU7:BC7"/>
     <mergeCell ref="BD7:BL7"/>
     <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="C10:G50"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T50"/>
-    <mergeCell ref="AM9:AP50"/>
-    <mergeCell ref="L9:M50"/>
-    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Documentation/Planification/GANTT.xlsx
+++ b/Documentation/Planification/GANTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inconnu\Desktop\GuessWho\Documentation\Planification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leones1\Desktop\GuessWho\Documentation\Planification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED130BA5-C694-4B02-86A8-3934DC7F6E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB3E98F-108E-44F9-A14D-74D575337752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{82196E9E-969C-41C4-8C76-6F835B01D2A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="5" r:id="rId1"/>
@@ -828,7 +828,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1062,6 +1062,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,31 +1146,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1143,74 +1188,35 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1218,12 +1224,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
@@ -1646,9 +1647,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1686,7 +1687,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1792,7 +1793,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1934,7 +1935,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1944,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91B9F9-D074-428F-98DE-3CB6D1C2B3BA}">
   <dimension ref="A1:ER49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="C1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,284 +1966,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="52"/>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="111" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="117" t="s">
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="111" t="s">
+      <c r="U3" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="111" t="s">
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="112"/>
-      <c r="AW3" s="112"/>
-      <c r="AX3" s="112"/>
-      <c r="AY3" s="112"/>
-      <c r="AZ3" s="112"/>
-      <c r="BA3" s="112"/>
-      <c r="BB3" s="112"/>
-      <c r="BC3" s="112"/>
-      <c r="BD3" s="112"/>
-      <c r="BE3" s="112"/>
-      <c r="BF3" s="112"/>
-      <c r="BG3" s="112"/>
-      <c r="BH3" s="112"/>
-      <c r="BI3" s="112"/>
-      <c r="BJ3" s="112"/>
-      <c r="BK3" s="112"/>
-      <c r="BL3" s="112"/>
-      <c r="BM3" s="112"/>
-      <c r="BN3" s="112"/>
-      <c r="BO3" s="112"/>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="112"/>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="112"/>
-      <c r="BT3" s="113"/>
-      <c r="BU3" s="111" t="s">
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="112"/>
-      <c r="BW3" s="112"/>
-      <c r="BX3" s="112"/>
-      <c r="BY3" s="112"/>
-      <c r="BZ3" s="112"/>
-      <c r="CA3" s="112"/>
-      <c r="CB3" s="112"/>
-      <c r="CC3" s="112"/>
-      <c r="CD3" s="112"/>
-      <c r="CE3" s="112"/>
-      <c r="CF3" s="112"/>
-      <c r="CG3" s="112"/>
-      <c r="CH3" s="112"/>
-      <c r="CI3" s="112"/>
-      <c r="CJ3" s="112"/>
-      <c r="CK3" s="112"/>
-      <c r="CL3" s="112"/>
-      <c r="CM3" s="112"/>
-      <c r="CN3" s="112"/>
-      <c r="CO3" s="112"/>
-      <c r="CP3" s="112"/>
-      <c r="CQ3" s="112"/>
-      <c r="CR3" s="112"/>
-      <c r="CS3" s="112"/>
-      <c r="CT3" s="113"/>
-      <c r="CU3" s="111" t="s">
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="134"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="134"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
+      <c r="CF3" s="134"/>
+      <c r="CG3" s="134"/>
+      <c r="CH3" s="134"/>
+      <c r="CI3" s="134"/>
+      <c r="CJ3" s="134"/>
+      <c r="CK3" s="134"/>
+      <c r="CL3" s="134"/>
+      <c r="CM3" s="134"/>
+      <c r="CN3" s="134"/>
+      <c r="CO3" s="134"/>
+      <c r="CP3" s="134"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
+      <c r="CS3" s="134"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="CV3" s="112"/>
-      <c r="CW3" s="112"/>
-      <c r="CX3" s="112"/>
-      <c r="CY3" s="112"/>
-      <c r="CZ3" s="112"/>
-      <c r="DA3" s="112"/>
-      <c r="DB3" s="112"/>
-      <c r="DC3" s="112"/>
-      <c r="DD3" s="112"/>
-      <c r="DE3" s="112"/>
-      <c r="DF3" s="112"/>
-      <c r="DG3" s="112"/>
-      <c r="DH3" s="112"/>
-      <c r="DI3" s="112"/>
-      <c r="DJ3" s="112"/>
-      <c r="DK3" s="112"/>
-      <c r="DL3" s="112"/>
-      <c r="DM3" s="112"/>
-      <c r="DN3" s="112"/>
-      <c r="DO3" s="112"/>
-      <c r="DP3" s="112"/>
-      <c r="DQ3" s="112"/>
-      <c r="DR3" s="112"/>
-      <c r="DS3" s="113"/>
+      <c r="CV3" s="134"/>
+      <c r="CW3" s="134"/>
+      <c r="CX3" s="134"/>
+      <c r="CY3" s="134"/>
+      <c r="CZ3" s="134"/>
+      <c r="DA3" s="134"/>
+      <c r="DB3" s="134"/>
+      <c r="DC3" s="134"/>
+      <c r="DD3" s="134"/>
+      <c r="DE3" s="134"/>
+      <c r="DF3" s="134"/>
+      <c r="DG3" s="134"/>
+      <c r="DH3" s="134"/>
+      <c r="DI3" s="134"/>
+      <c r="DJ3" s="134"/>
+      <c r="DK3" s="134"/>
+      <c r="DL3" s="134"/>
+      <c r="DM3" s="134"/>
+      <c r="DN3" s="134"/>
+      <c r="DO3" s="134"/>
+      <c r="DP3" s="134"/>
+      <c r="DQ3" s="134"/>
+      <c r="DR3" s="134"/>
+      <c r="DS3" s="135"/>
       <c r="DT3" s="21"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="53"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="115"/>
-      <c r="BA4" s="115"/>
-      <c r="BB4" s="115"/>
-      <c r="BC4" s="115"/>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="115"/>
-      <c r="BG4" s="115"/>
-      <c r="BH4" s="115"/>
-      <c r="BI4" s="115"/>
-      <c r="BJ4" s="115"/>
-      <c r="BK4" s="115"/>
-      <c r="BL4" s="115"/>
-      <c r="BM4" s="115"/>
-      <c r="BN4" s="115"/>
-      <c r="BO4" s="115"/>
-      <c r="BP4" s="115"/>
-      <c r="BQ4" s="115"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="115"/>
-      <c r="BT4" s="116"/>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="115"/>
-      <c r="BW4" s="115"/>
-      <c r="BX4" s="115"/>
-      <c r="BY4" s="115"/>
-      <c r="BZ4" s="115"/>
-      <c r="CA4" s="115"/>
-      <c r="CB4" s="115"/>
-      <c r="CC4" s="115"/>
-      <c r="CD4" s="115"/>
-      <c r="CE4" s="115"/>
-      <c r="CF4" s="115"/>
-      <c r="CG4" s="115"/>
-      <c r="CH4" s="115"/>
-      <c r="CI4" s="115"/>
-      <c r="CJ4" s="115"/>
-      <c r="CK4" s="115"/>
-      <c r="CL4" s="115"/>
-      <c r="CM4" s="115"/>
-      <c r="CN4" s="115"/>
-      <c r="CO4" s="115"/>
-      <c r="CP4" s="115"/>
-      <c r="CQ4" s="115"/>
-      <c r="CR4" s="115"/>
-      <c r="CS4" s="115"/>
-      <c r="CT4" s="116"/>
-      <c r="CU4" s="114"/>
-      <c r="CV4" s="115"/>
-      <c r="CW4" s="115"/>
-      <c r="CX4" s="115"/>
-      <c r="CY4" s="115"/>
-      <c r="CZ4" s="115"/>
-      <c r="DA4" s="115"/>
-      <c r="DB4" s="115"/>
-      <c r="DC4" s="115"/>
-      <c r="DD4" s="115"/>
-      <c r="DE4" s="115"/>
-      <c r="DF4" s="115"/>
-      <c r="DG4" s="115"/>
-      <c r="DH4" s="115"/>
-      <c r="DI4" s="115"/>
-      <c r="DJ4" s="115"/>
-      <c r="DK4" s="115"/>
-      <c r="DL4" s="115"/>
-      <c r="DM4" s="115"/>
-      <c r="DN4" s="115"/>
-      <c r="DO4" s="115"/>
-      <c r="DP4" s="115"/>
-      <c r="DQ4" s="115"/>
-      <c r="DR4" s="115"/>
-      <c r="DS4" s="116"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="137"/>
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="137"/>
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="138"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="137"/>
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="137"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="137"/>
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="137"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="138"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="137"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="137"/>
+      <c r="DG4" s="137"/>
+      <c r="DH4" s="137"/>
+      <c r="DI4" s="137"/>
+      <c r="DJ4" s="137"/>
+      <c r="DK4" s="137"/>
+      <c r="DL4" s="137"/>
+      <c r="DM4" s="137"/>
+      <c r="DN4" s="137"/>
+      <c r="DO4" s="137"/>
+      <c r="DP4" s="137"/>
+      <c r="DQ4" s="137"/>
+      <c r="DR4" s="137"/>
+      <c r="DS4" s="138"/>
       <c r="DT4" s="21"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2251,18 +2252,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="159" t="s">
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="160"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="140"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2271,7 +2272,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="159" t="s">
         <v>38</v>
       </c>
       <c r="U5" s="3"/>
@@ -2394,10 +2395,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -2406,7 +2407,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="120"/>
+      <c r="T6" s="160"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -2537,10 +2538,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="144" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -2554,157 +2555,157 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="124"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="121" t="s">
+      <c r="U7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="122" t="s">
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="151" t="s">
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="121" t="s">
+      <c r="AN7" s="126"/>
+      <c r="AO7" s="126"/>
+      <c r="AP7" s="126"/>
+      <c r="AQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="AR7" s="122"/>
-      <c r="AS7" s="122"/>
-      <c r="AT7" s="123"/>
-      <c r="AU7" s="121" t="s">
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="AV7" s="122"/>
-      <c r="AW7" s="122"/>
-      <c r="AX7" s="122"/>
-      <c r="AY7" s="122"/>
-      <c r="AZ7" s="122"/>
-      <c r="BA7" s="122"/>
-      <c r="BB7" s="122"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="121" t="s">
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="BE7" s="122"/>
-      <c r="BF7" s="122"/>
-      <c r="BG7" s="122"/>
-      <c r="BH7" s="122"/>
-      <c r="BI7" s="122"/>
-      <c r="BJ7" s="122"/>
-      <c r="BK7" s="122"/>
-      <c r="BL7" s="123"/>
-      <c r="BM7" s="121" t="s">
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="124"/>
+      <c r="BM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="BN7" s="122"/>
-      <c r="BO7" s="122"/>
-      <c r="BP7" s="122"/>
-      <c r="BQ7" s="121" t="s">
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="BR7" s="122"/>
-      <c r="BS7" s="122"/>
-      <c r="BT7" s="123"/>
-      <c r="BU7" s="121" t="s">
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="BV7" s="122"/>
-      <c r="BW7" s="122"/>
-      <c r="BX7" s="122"/>
-      <c r="BY7" s="122"/>
-      <c r="BZ7" s="122"/>
-      <c r="CA7" s="122"/>
-      <c r="CB7" s="122"/>
-      <c r="CC7" s="123"/>
-      <c r="CD7" s="121" t="s">
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="123"/>
+      <c r="BY7" s="123"/>
+      <c r="BZ7" s="123"/>
+      <c r="CA7" s="123"/>
+      <c r="CB7" s="123"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="CE7" s="122"/>
-      <c r="CF7" s="122"/>
-      <c r="CG7" s="122"/>
-      <c r="CH7" s="122"/>
-      <c r="CI7" s="122"/>
-      <c r="CJ7" s="122"/>
-      <c r="CK7" s="122"/>
-      <c r="CL7" s="123"/>
-      <c r="CM7" s="121" t="s">
+      <c r="CE7" s="123"/>
+      <c r="CF7" s="123"/>
+      <c r="CG7" s="123"/>
+      <c r="CH7" s="123"/>
+      <c r="CI7" s="123"/>
+      <c r="CJ7" s="123"/>
+      <c r="CK7" s="123"/>
+      <c r="CL7" s="124"/>
+      <c r="CM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="CN7" s="122"/>
-      <c r="CO7" s="122"/>
-      <c r="CP7" s="122"/>
-      <c r="CQ7" s="121" t="s">
+      <c r="CN7" s="123"/>
+      <c r="CO7" s="123"/>
+      <c r="CP7" s="123"/>
+      <c r="CQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="CR7" s="122"/>
-      <c r="CS7" s="122"/>
-      <c r="CT7" s="123"/>
-      <c r="CU7" s="121" t="s">
+      <c r="CR7" s="123"/>
+      <c r="CS7" s="123"/>
+      <c r="CT7" s="124"/>
+      <c r="CU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="CV7" s="122"/>
-      <c r="CW7" s="122"/>
-      <c r="CX7" s="122"/>
-      <c r="CY7" s="122"/>
-      <c r="CZ7" s="122"/>
-      <c r="DA7" s="122"/>
-      <c r="DB7" s="122"/>
-      <c r="DC7" s="123"/>
-      <c r="DD7" s="121" t="s">
+      <c r="CV7" s="123"/>
+      <c r="CW7" s="123"/>
+      <c r="CX7" s="123"/>
+      <c r="CY7" s="123"/>
+      <c r="CZ7" s="123"/>
+      <c r="DA7" s="123"/>
+      <c r="DB7" s="123"/>
+      <c r="DC7" s="124"/>
+      <c r="DD7" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="DE7" s="122"/>
-      <c r="DF7" s="122"/>
-      <c r="DG7" s="122"/>
-      <c r="DH7" s="122"/>
-      <c r="DI7" s="122"/>
-      <c r="DJ7" s="122"/>
-      <c r="DK7" s="122"/>
-      <c r="DL7" s="123"/>
-      <c r="DM7" s="121" t="s">
+      <c r="DE7" s="123"/>
+      <c r="DF7" s="123"/>
+      <c r="DG7" s="123"/>
+      <c r="DH7" s="123"/>
+      <c r="DI7" s="123"/>
+      <c r="DJ7" s="123"/>
+      <c r="DK7" s="123"/>
+      <c r="DL7" s="124"/>
+      <c r="DM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="DN7" s="122"/>
-      <c r="DO7" s="122"/>
-      <c r="DP7" s="122"/>
-      <c r="DQ7" s="121" t="s">
+      <c r="DN7" s="123"/>
+      <c r="DO7" s="123"/>
+      <c r="DP7" s="123"/>
+      <c r="DQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="DR7" s="123"/>
+      <c r="DR7" s="124"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="128"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="32"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -2827,8 +2828,8 @@
       <c r="DR8" s="36"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="128"/>
-      <c r="B9" s="131"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="71">
         <v>172</v>
       </c>
@@ -2856,10 +2857,10 @@
       <c r="K9" s="74">
         <v>4</v>
       </c>
-      <c r="L9" s="124">
+      <c r="L9" s="153">
         <v>5</v>
       </c>
-      <c r="M9" s="124"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="72">
         <v>7</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="S9" s="74">
         <v>12</v>
       </c>
-      <c r="T9" s="124"/>
+      <c r="T9" s="153"/>
       <c r="U9" s="71">
         <v>13</v>
       </c>
@@ -2933,10 +2934,10 @@
       <c r="AL9" s="74">
         <v>30</v>
       </c>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
       <c r="AQ9" s="71">
         <v>31</v>
       </c>
@@ -3205,30 +3206,30 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="141" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
       <c r="H10" s="84"/>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
       <c r="R10" s="65"/>
       <c r="S10" s="65"/>
-      <c r="T10" s="125"/>
+      <c r="T10" s="154"/>
       <c r="U10" s="65"/>
       <c r="V10" s="65"/>
       <c r="W10" s="65"/>
@@ -3247,10 +3248,10 @@
       <c r="AJ10" s="65"/>
       <c r="AK10" s="65"/>
       <c r="AL10" s="65"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="154"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
       <c r="AQ10" s="65"/>
       <c r="AR10" s="65"/>
       <c r="AS10" s="65"/>
@@ -3306,7 +3307,7 @@
       <c r="CQ10" s="65"/>
       <c r="CR10" s="65"/>
       <c r="CS10" s="103"/>
-      <c r="CT10" s="138" t="s">
+      <c r="CT10" s="155" t="s">
         <v>63</v>
       </c>
       <c r="CU10" s="25"/>
@@ -3318,25 +3319,25 @@
       <c r="DA10" s="65"/>
       <c r="DB10" s="65"/>
       <c r="DC10" s="103"/>
-      <c r="DD10" s="140" t="s">
+      <c r="DD10" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="DE10" s="141"/>
-      <c r="DF10" s="141"/>
-      <c r="DG10" s="141"/>
-      <c r="DH10" s="141"/>
-      <c r="DI10" s="141"/>
-      <c r="DJ10" s="141"/>
-      <c r="DK10" s="141"/>
-      <c r="DL10" s="142"/>
-      <c r="DM10" s="146" t="s">
+      <c r="DE10" s="112"/>
+      <c r="DF10" s="112"/>
+      <c r="DG10" s="112"/>
+      <c r="DH10" s="112"/>
+      <c r="DI10" s="112"/>
+      <c r="DJ10" s="112"/>
+      <c r="DK10" s="112"/>
+      <c r="DL10" s="113"/>
+      <c r="DM10" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="DN10" s="146"/>
-      <c r="DO10" s="146"/>
-      <c r="DP10" s="146"/>
-      <c r="DQ10" s="146"/>
-      <c r="DR10" s="147"/>
+      <c r="DN10" s="117"/>
+      <c r="DO10" s="117"/>
+      <c r="DP10" s="117"/>
+      <c r="DQ10" s="117"/>
+      <c r="DR10" s="118"/>
       <c r="DS10"/>
       <c r="DT10"/>
       <c r="DU10"/>
@@ -3365,28 +3366,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="137"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="152"/>
       <c r="H11" s="83"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
       <c r="K11" s="77"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
       <c r="N11" s="77"/>
       <c r="O11" s="77"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
-      <c r="T11" s="125"/>
+      <c r="T11" s="154"/>
       <c r="U11" s="77"/>
       <c r="V11" s="77"/>
       <c r="W11" s="77"/>
@@ -3405,10 +3406,10 @@
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
       <c r="AL11" s="78"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
       <c r="AQ11" s="79"/>
       <c r="AR11" s="77"/>
       <c r="AS11" s="77"/>
@@ -3464,7 +3465,7 @@
       <c r="CQ11" s="77"/>
       <c r="CR11" s="77"/>
       <c r="CS11" s="78"/>
-      <c r="CT11" s="139"/>
+      <c r="CT11" s="156"/>
       <c r="CU11" s="105"/>
       <c r="CV11" s="77"/>
       <c r="CW11" s="77"/>
@@ -3474,21 +3475,21 @@
       <c r="DA11" s="77"/>
       <c r="DB11" s="77"/>
       <c r="DC11" s="78"/>
-      <c r="DD11" s="143"/>
-      <c r="DE11" s="144"/>
-      <c r="DF11" s="144"/>
-      <c r="DG11" s="144"/>
-      <c r="DH11" s="144"/>
-      <c r="DI11" s="144"/>
-      <c r="DJ11" s="144"/>
-      <c r="DK11" s="144"/>
-      <c r="DL11" s="145"/>
-      <c r="DM11" s="148"/>
-      <c r="DN11" s="148"/>
-      <c r="DO11" s="148"/>
-      <c r="DP11" s="148"/>
-      <c r="DQ11" s="148"/>
-      <c r="DR11" s="149"/>
+      <c r="DD11" s="114"/>
+      <c r="DE11" s="115"/>
+      <c r="DF11" s="115"/>
+      <c r="DG11" s="115"/>
+      <c r="DH11" s="115"/>
+      <c r="DI11" s="115"/>
+      <c r="DJ11" s="115"/>
+      <c r="DK11" s="115"/>
+      <c r="DL11" s="116"/>
+      <c r="DM11" s="119"/>
+      <c r="DN11" s="119"/>
+      <c r="DO11" s="119"/>
+      <c r="DP11" s="119"/>
+      <c r="DQ11" s="119"/>
+      <c r="DR11" s="120"/>
       <c r="DS11"/>
       <c r="DT11"/>
       <c r="DU11"/>
@@ -3517,28 +3518,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="137"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="152"/>
       <c r="H12" s="84"/>
       <c r="I12" s="40"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="125"/>
+      <c r="T12" s="154"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -3557,10 +3558,10 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="22"/>
-      <c r="AM12" s="125"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="125"/>
-      <c r="AP12" s="125"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
       <c r="AQ12" s="25"/>
       <c r="AR12" s="18"/>
       <c r="AS12" s="18"/>
@@ -3616,7 +3617,7 @@
       <c r="CQ12" s="18"/>
       <c r="CR12" s="18"/>
       <c r="CS12" s="22"/>
-      <c r="CT12" s="139"/>
+      <c r="CT12" s="156"/>
       <c r="CU12" s="85"/>
       <c r="CV12" s="18"/>
       <c r="CW12" s="18"/>
@@ -3626,45 +3627,45 @@
       <c r="DA12" s="18"/>
       <c r="DB12" s="18"/>
       <c r="DC12" s="22"/>
-      <c r="DD12" s="143"/>
-      <c r="DE12" s="144"/>
-      <c r="DF12" s="144"/>
-      <c r="DG12" s="144"/>
-      <c r="DH12" s="144"/>
-      <c r="DI12" s="144"/>
-      <c r="DJ12" s="144"/>
-      <c r="DK12" s="144"/>
-      <c r="DL12" s="145"/>
-      <c r="DM12" s="148"/>
-      <c r="DN12" s="148"/>
-      <c r="DO12" s="148"/>
-      <c r="DP12" s="148"/>
-      <c r="DQ12" s="148"/>
-      <c r="DR12" s="149"/>
+      <c r="DD12" s="114"/>
+      <c r="DE12" s="115"/>
+      <c r="DF12" s="115"/>
+      <c r="DG12" s="115"/>
+      <c r="DH12" s="115"/>
+      <c r="DI12" s="115"/>
+      <c r="DJ12" s="115"/>
+      <c r="DK12" s="115"/>
+      <c r="DL12" s="116"/>
+      <c r="DM12" s="119"/>
+      <c r="DN12" s="119"/>
+      <c r="DO12" s="119"/>
+      <c r="DP12" s="119"/>
+      <c r="DQ12" s="119"/>
+      <c r="DR12" s="120"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="152"/>
       <c r="H13" s="85"/>
       <c r="I13" s="28"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="125"/>
+      <c r="T13" s="154"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
@@ -3683,10 +3684,10 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="22"/>
-      <c r="AM13" s="125"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="125"/>
+      <c r="AM13" s="154"/>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
       <c r="AQ13" s="25"/>
       <c r="AR13" s="18"/>
       <c r="AS13" s="18"/>
@@ -3742,7 +3743,7 @@
       <c r="CQ13" s="18"/>
       <c r="CR13" s="18"/>
       <c r="CS13" s="22"/>
-      <c r="CT13" s="139"/>
+      <c r="CT13" s="156"/>
       <c r="CU13" s="85"/>
       <c r="CV13" s="18"/>
       <c r="CW13" s="18"/>
@@ -3752,21 +3753,21 @@
       <c r="DA13" s="18"/>
       <c r="DB13" s="18"/>
       <c r="DC13" s="22"/>
-      <c r="DD13" s="143"/>
-      <c r="DE13" s="144"/>
-      <c r="DF13" s="144"/>
-      <c r="DG13" s="144"/>
-      <c r="DH13" s="144"/>
-      <c r="DI13" s="144"/>
-      <c r="DJ13" s="144"/>
-      <c r="DK13" s="144"/>
-      <c r="DL13" s="145"/>
-      <c r="DM13" s="148"/>
-      <c r="DN13" s="148"/>
-      <c r="DO13" s="148"/>
-      <c r="DP13" s="148"/>
-      <c r="DQ13" s="148"/>
-      <c r="DR13" s="149"/>
+      <c r="DD13" s="114"/>
+      <c r="DE13" s="115"/>
+      <c r="DF13" s="115"/>
+      <c r="DG13" s="115"/>
+      <c r="DH13" s="115"/>
+      <c r="DI13" s="115"/>
+      <c r="DJ13" s="115"/>
+      <c r="DK13" s="115"/>
+      <c r="DL13" s="116"/>
+      <c r="DM13" s="119"/>
+      <c r="DN13" s="119"/>
+      <c r="DO13" s="119"/>
+      <c r="DP13" s="119"/>
+      <c r="DQ13" s="119"/>
+      <c r="DR13" s="120"/>
       <c r="DS13"/>
       <c r="DT13"/>
       <c r="DU13"/>
@@ -3795,28 +3796,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="152"/>
       <c r="H14" s="85"/>
       <c r="I14" s="28"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="125"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -3835,10 +3836,10 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="22"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="154"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="154"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="18"/>
       <c r="AS14" s="18"/>
@@ -3894,7 +3895,7 @@
       <c r="CQ14" s="18"/>
       <c r="CR14" s="18"/>
       <c r="CS14" s="22"/>
-      <c r="CT14" s="139"/>
+      <c r="CT14" s="156"/>
       <c r="CU14" s="85"/>
       <c r="CV14" s="18"/>
       <c r="CW14" s="18"/>
@@ -3904,21 +3905,21 @@
       <c r="DA14" s="18"/>
       <c r="DB14" s="18"/>
       <c r="DC14" s="22"/>
-      <c r="DD14" s="143"/>
-      <c r="DE14" s="144"/>
-      <c r="DF14" s="144"/>
-      <c r="DG14" s="144"/>
-      <c r="DH14" s="144"/>
-      <c r="DI14" s="144"/>
-      <c r="DJ14" s="144"/>
-      <c r="DK14" s="144"/>
-      <c r="DL14" s="145"/>
-      <c r="DM14" s="148"/>
-      <c r="DN14" s="148"/>
-      <c r="DO14" s="148"/>
-      <c r="DP14" s="148"/>
-      <c r="DQ14" s="148"/>
-      <c r="DR14" s="149"/>
+      <c r="DD14" s="114"/>
+      <c r="DE14" s="115"/>
+      <c r="DF14" s="115"/>
+      <c r="DG14" s="115"/>
+      <c r="DH14" s="115"/>
+      <c r="DI14" s="115"/>
+      <c r="DJ14" s="115"/>
+      <c r="DK14" s="115"/>
+      <c r="DL14" s="116"/>
+      <c r="DM14" s="119"/>
+      <c r="DN14" s="119"/>
+      <c r="DO14" s="119"/>
+      <c r="DP14" s="119"/>
+      <c r="DQ14" s="119"/>
+      <c r="DR14" s="120"/>
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
@@ -3947,28 +3948,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="152"/>
       <c r="H15" s="85"/>
       <c r="I15" s="18"/>
       <c r="J15" s="28"/>
       <c r="K15" s="28"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="N15" s="28"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="125"/>
+      <c r="T15" s="154"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
@@ -3987,10 +3988,10 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="22"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
+      <c r="AM15" s="154"/>
+      <c r="AN15" s="154"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
@@ -4046,7 +4047,7 @@
       <c r="CQ15" s="18"/>
       <c r="CR15" s="18"/>
       <c r="CS15" s="22"/>
-      <c r="CT15" s="139"/>
+      <c r="CT15" s="156"/>
       <c r="CU15" s="85"/>
       <c r="CV15" s="18"/>
       <c r="CW15" s="18"/>
@@ -4056,21 +4057,21 @@
       <c r="DA15" s="18"/>
       <c r="DB15" s="18"/>
       <c r="DC15" s="22"/>
-      <c r="DD15" s="143"/>
-      <c r="DE15" s="144"/>
-      <c r="DF15" s="144"/>
-      <c r="DG15" s="144"/>
-      <c r="DH15" s="144"/>
-      <c r="DI15" s="144"/>
-      <c r="DJ15" s="144"/>
-      <c r="DK15" s="144"/>
-      <c r="DL15" s="145"/>
-      <c r="DM15" s="148"/>
-      <c r="DN15" s="148"/>
-      <c r="DO15" s="148"/>
-      <c r="DP15" s="148"/>
-      <c r="DQ15" s="148"/>
-      <c r="DR15" s="149"/>
+      <c r="DD15" s="114"/>
+      <c r="DE15" s="115"/>
+      <c r="DF15" s="115"/>
+      <c r="DG15" s="115"/>
+      <c r="DH15" s="115"/>
+      <c r="DI15" s="115"/>
+      <c r="DJ15" s="115"/>
+      <c r="DK15" s="115"/>
+      <c r="DL15" s="116"/>
+      <c r="DM15" s="119"/>
+      <c r="DN15" s="119"/>
+      <c r="DO15" s="119"/>
+      <c r="DP15" s="119"/>
+      <c r="DQ15" s="119"/>
+      <c r="DR15" s="120"/>
       <c r="DS15"/>
       <c r="DT15"/>
       <c r="DU15"/>
@@ -4099,28 +4100,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
       <c r="H16" s="85"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="N16" s="18"/>
       <c r="O16" s="28"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
-      <c r="T16" s="125"/>
+      <c r="T16" s="154"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
@@ -4139,10 +4140,10 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="22"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
       <c r="AQ16" s="25"/>
       <c r="AR16" s="18"/>
       <c r="AS16" s="18"/>
@@ -4198,7 +4199,7 @@
       <c r="CQ16" s="18"/>
       <c r="CR16" s="18"/>
       <c r="CS16" s="22"/>
-      <c r="CT16" s="139"/>
+      <c r="CT16" s="156"/>
       <c r="CU16" s="85"/>
       <c r="CV16" s="18"/>
       <c r="CW16" s="18"/>
@@ -4208,21 +4209,21 @@
       <c r="DA16" s="18"/>
       <c r="DB16" s="18"/>
       <c r="DC16" s="22"/>
-      <c r="DD16" s="143"/>
-      <c r="DE16" s="144"/>
-      <c r="DF16" s="144"/>
-      <c r="DG16" s="144"/>
-      <c r="DH16" s="144"/>
-      <c r="DI16" s="144"/>
-      <c r="DJ16" s="144"/>
-      <c r="DK16" s="144"/>
-      <c r="DL16" s="145"/>
-      <c r="DM16" s="148"/>
-      <c r="DN16" s="148"/>
-      <c r="DO16" s="148"/>
-      <c r="DP16" s="148"/>
-      <c r="DQ16" s="148"/>
-      <c r="DR16" s="149"/>
+      <c r="DD16" s="114"/>
+      <c r="DE16" s="115"/>
+      <c r="DF16" s="115"/>
+      <c r="DG16" s="115"/>
+      <c r="DH16" s="115"/>
+      <c r="DI16" s="115"/>
+      <c r="DJ16" s="115"/>
+      <c r="DK16" s="115"/>
+      <c r="DL16" s="116"/>
+      <c r="DM16" s="119"/>
+      <c r="DN16" s="119"/>
+      <c r="DO16" s="119"/>
+      <c r="DP16" s="119"/>
+      <c r="DQ16" s="119"/>
+      <c r="DR16" s="120"/>
       <c r="DS16"/>
       <c r="DT16"/>
       <c r="DU16"/>
@@ -4251,28 +4252,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="137"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="152"/>
       <c r="H17" s="85"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="N17" s="18"/>
       <c r="O17" s="28"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
-      <c r="T17" s="125"/>
+      <c r="T17" s="154"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
@@ -4291,10 +4292,10 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="22"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
       <c r="AQ17" s="25"/>
       <c r="AR17" s="18"/>
       <c r="AS17" s="18"/>
@@ -4350,7 +4351,7 @@
       <c r="CQ17" s="18"/>
       <c r="CR17" s="18"/>
       <c r="CS17" s="22"/>
-      <c r="CT17" s="139"/>
+      <c r="CT17" s="156"/>
       <c r="CU17" s="85"/>
       <c r="CV17" s="18"/>
       <c r="CW17" s="18"/>
@@ -4360,45 +4361,45 @@
       <c r="DA17" s="18"/>
       <c r="DB17" s="18"/>
       <c r="DC17" s="22"/>
-      <c r="DD17" s="143"/>
-      <c r="DE17" s="144"/>
-      <c r="DF17" s="144"/>
-      <c r="DG17" s="144"/>
-      <c r="DH17" s="144"/>
-      <c r="DI17" s="144"/>
-      <c r="DJ17" s="144"/>
-      <c r="DK17" s="144"/>
-      <c r="DL17" s="145"/>
-      <c r="DM17" s="148"/>
-      <c r="DN17" s="148"/>
-      <c r="DO17" s="148"/>
-      <c r="DP17" s="148"/>
-      <c r="DQ17" s="148"/>
-      <c r="DR17" s="149"/>
+      <c r="DD17" s="114"/>
+      <c r="DE17" s="115"/>
+      <c r="DF17" s="115"/>
+      <c r="DG17" s="115"/>
+      <c r="DH17" s="115"/>
+      <c r="DI17" s="115"/>
+      <c r="DJ17" s="115"/>
+      <c r="DK17" s="115"/>
+      <c r="DL17" s="116"/>
+      <c r="DM17" s="119"/>
+      <c r="DN17" s="119"/>
+      <c r="DO17" s="119"/>
+      <c r="DP17" s="119"/>
+      <c r="DQ17" s="119"/>
+      <c r="DR17" s="120"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="137"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
       <c r="H18" s="85"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="18"/>
       <c r="O18" s="40"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
-      <c r="T18" s="125"/>
+      <c r="T18" s="154"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
@@ -4417,10 +4418,10 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="22"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
       <c r="AQ18" s="25"/>
       <c r="AR18" s="18"/>
       <c r="AS18" s="18"/>
@@ -4476,7 +4477,7 @@
       <c r="CQ18" s="18"/>
       <c r="CR18" s="18"/>
       <c r="CS18" s="22"/>
-      <c r="CT18" s="139"/>
+      <c r="CT18" s="156"/>
       <c r="CU18" s="85"/>
       <c r="CV18" s="18"/>
       <c r="CW18" s="18"/>
@@ -4486,43 +4487,43 @@
       <c r="DA18" s="18"/>
       <c r="DB18" s="18"/>
       <c r="DC18" s="22"/>
-      <c r="DD18" s="143"/>
-      <c r="DE18" s="144"/>
-      <c r="DF18" s="144"/>
-      <c r="DG18" s="144"/>
-      <c r="DH18" s="144"/>
-      <c r="DI18" s="144"/>
-      <c r="DJ18" s="144"/>
-      <c r="DK18" s="144"/>
-      <c r="DL18" s="145"/>
-      <c r="DM18" s="148"/>
-      <c r="DN18" s="148"/>
-      <c r="DO18" s="148"/>
-      <c r="DP18" s="148"/>
-      <c r="DQ18" s="148"/>
-      <c r="DR18" s="149"/>
+      <c r="DD18" s="114"/>
+      <c r="DE18" s="115"/>
+      <c r="DF18" s="115"/>
+      <c r="DG18" s="115"/>
+      <c r="DH18" s="115"/>
+      <c r="DI18" s="115"/>
+      <c r="DJ18" s="115"/>
+      <c r="DK18" s="115"/>
+      <c r="DL18" s="116"/>
+      <c r="DM18" s="119"/>
+      <c r="DN18" s="119"/>
+      <c r="DO18" s="119"/>
+      <c r="DP18" s="119"/>
+      <c r="DQ18" s="119"/>
+      <c r="DR18" s="120"/>
     </row>
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="137"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="152"/>
       <c r="H19" s="45"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="42"/>
-      <c r="T19" s="125"/>
+      <c r="T19" s="154"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
@@ -4541,10 +4542,10 @@
       <c r="AJ19" s="42"/>
       <c r="AK19" s="42"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="42"/>
       <c r="AS19" s="42"/>
@@ -4600,7 +4601,7 @@
       <c r="CQ19" s="42"/>
       <c r="CR19" s="42"/>
       <c r="CS19" s="44"/>
-      <c r="CT19" s="139"/>
+      <c r="CT19" s="156"/>
       <c r="CU19" s="45"/>
       <c r="CV19" s="42"/>
       <c r="CW19" s="42"/>
@@ -4610,47 +4611,47 @@
       <c r="DA19" s="42"/>
       <c r="DB19" s="42"/>
       <c r="DC19" s="44"/>
-      <c r="DD19" s="143"/>
-      <c r="DE19" s="144"/>
-      <c r="DF19" s="144"/>
-      <c r="DG19" s="144"/>
-      <c r="DH19" s="144"/>
-      <c r="DI19" s="144"/>
-      <c r="DJ19" s="144"/>
-      <c r="DK19" s="144"/>
-      <c r="DL19" s="145"/>
-      <c r="DM19" s="148"/>
-      <c r="DN19" s="148"/>
-      <c r="DO19" s="148"/>
-      <c r="DP19" s="148"/>
-      <c r="DQ19" s="148"/>
-      <c r="DR19" s="149"/>
+      <c r="DD19" s="114"/>
+      <c r="DE19" s="115"/>
+      <c r="DF19" s="115"/>
+      <c r="DG19" s="115"/>
+      <c r="DH19" s="115"/>
+      <c r="DI19" s="115"/>
+      <c r="DJ19" s="115"/>
+      <c r="DK19" s="115"/>
+      <c r="DL19" s="116"/>
+      <c r="DM19" s="119"/>
+      <c r="DN19" s="119"/>
+      <c r="DO19" s="119"/>
+      <c r="DP19" s="119"/>
+      <c r="DQ19" s="119"/>
+      <c r="DR19" s="120"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="141" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="152"/>
       <c r="H20" s="27"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
       <c r="R20" s="57"/>
       <c r="S20" s="57"/>
-      <c r="T20" s="125"/>
+      <c r="T20" s="154"/>
       <c r="U20" s="57"/>
       <c r="V20" s="57"/>
       <c r="W20" s="57"/>
@@ -4669,10 +4670,10 @@
       <c r="AJ20" s="47"/>
       <c r="AK20" s="47"/>
       <c r="AL20" s="58"/>
-      <c r="AM20" s="125"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
+      <c r="AM20" s="154"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
       <c r="AQ20" s="26"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
@@ -4728,7 +4729,7 @@
       <c r="CQ20" s="19"/>
       <c r="CR20" s="19"/>
       <c r="CS20" s="23"/>
-      <c r="CT20" s="139"/>
+      <c r="CT20" s="156"/>
       <c r="CU20" s="27"/>
       <c r="CV20" s="19"/>
       <c r="CW20" s="19"/>
@@ -4738,45 +4739,45 @@
       <c r="DA20" s="19"/>
       <c r="DB20" s="19"/>
       <c r="DC20" s="23"/>
-      <c r="DD20" s="143"/>
-      <c r="DE20" s="144"/>
-      <c r="DF20" s="144"/>
-      <c r="DG20" s="144"/>
-      <c r="DH20" s="144"/>
-      <c r="DI20" s="144"/>
-      <c r="DJ20" s="144"/>
-      <c r="DK20" s="144"/>
-      <c r="DL20" s="145"/>
-      <c r="DM20" s="148"/>
-      <c r="DN20" s="148"/>
-      <c r="DO20" s="148"/>
-      <c r="DP20" s="148"/>
-      <c r="DQ20" s="148"/>
-      <c r="DR20" s="149"/>
+      <c r="DD20" s="114"/>
+      <c r="DE20" s="115"/>
+      <c r="DF20" s="115"/>
+      <c r="DG20" s="115"/>
+      <c r="DH20" s="115"/>
+      <c r="DI20" s="115"/>
+      <c r="DJ20" s="115"/>
+      <c r="DK20" s="115"/>
+      <c r="DL20" s="116"/>
+      <c r="DM20" s="119"/>
+      <c r="DN20" s="119"/>
+      <c r="DO20" s="119"/>
+      <c r="DP20" s="119"/>
+      <c r="DQ20" s="119"/>
+      <c r="DR20" s="120"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="126"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="137"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="27"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
-      <c r="T21" s="125"/>
+      <c r="T21" s="154"/>
       <c r="U21" s="41"/>
       <c r="V21" s="41"/>
       <c r="W21" s="41"/>
@@ -4795,10 +4796,10 @@
       <c r="AJ21" s="41"/>
       <c r="AK21" s="41"/>
       <c r="AL21" s="55"/>
-      <c r="AM21" s="125"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="56"/>
       <c r="AR21" s="41"/>
       <c r="AS21" s="41"/>
@@ -4854,7 +4855,7 @@
       <c r="CQ21" s="19"/>
       <c r="CR21" s="19"/>
       <c r="CS21" s="23"/>
-      <c r="CT21" s="139"/>
+      <c r="CT21" s="156"/>
       <c r="CU21" s="27"/>
       <c r="CV21" s="19"/>
       <c r="CW21" s="19"/>
@@ -4864,45 +4865,45 @@
       <c r="DA21" s="19"/>
       <c r="DB21" s="19"/>
       <c r="DC21" s="23"/>
-      <c r="DD21" s="143"/>
-      <c r="DE21" s="144"/>
-      <c r="DF21" s="144"/>
-      <c r="DG21" s="144"/>
-      <c r="DH21" s="144"/>
-      <c r="DI21" s="144"/>
-      <c r="DJ21" s="144"/>
-      <c r="DK21" s="144"/>
-      <c r="DL21" s="145"/>
-      <c r="DM21" s="148"/>
-      <c r="DN21" s="148"/>
-      <c r="DO21" s="148"/>
-      <c r="DP21" s="148"/>
-      <c r="DQ21" s="148"/>
-      <c r="DR21" s="149"/>
+      <c r="DD21" s="114"/>
+      <c r="DE21" s="115"/>
+      <c r="DF21" s="115"/>
+      <c r="DG21" s="115"/>
+      <c r="DH21" s="115"/>
+      <c r="DI21" s="115"/>
+      <c r="DJ21" s="115"/>
+      <c r="DK21" s="115"/>
+      <c r="DL21" s="116"/>
+      <c r="DM21" s="119"/>
+      <c r="DN21" s="119"/>
+      <c r="DO21" s="119"/>
+      <c r="DP21" s="119"/>
+      <c r="DQ21" s="119"/>
+      <c r="DR21" s="120"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="126"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="137"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
       <c r="H22" s="27"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="125"/>
+      <c r="T22" s="154"/>
       <c r="U22" s="47"/>
       <c r="V22" s="47"/>
       <c r="W22" s="41"/>
@@ -4921,10 +4922,10 @@
       <c r="AJ22" s="47"/>
       <c r="AK22" s="47"/>
       <c r="AL22" s="58"/>
-      <c r="AM22" s="125"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
       <c r="AQ22" s="26"/>
       <c r="AR22" s="47"/>
       <c r="AS22" s="47"/>
@@ -4980,7 +4981,7 @@
       <c r="CQ22" s="19"/>
       <c r="CR22" s="19"/>
       <c r="CS22" s="23"/>
-      <c r="CT22" s="139"/>
+      <c r="CT22" s="156"/>
       <c r="CU22" s="27"/>
       <c r="CV22" s="19"/>
       <c r="CW22" s="19"/>
@@ -4990,45 +4991,45 @@
       <c r="DA22" s="19"/>
       <c r="DB22" s="19"/>
       <c r="DC22" s="23"/>
-      <c r="DD22" s="143"/>
-      <c r="DE22" s="144"/>
-      <c r="DF22" s="144"/>
-      <c r="DG22" s="144"/>
-      <c r="DH22" s="144"/>
-      <c r="DI22" s="144"/>
-      <c r="DJ22" s="144"/>
-      <c r="DK22" s="144"/>
-      <c r="DL22" s="145"/>
-      <c r="DM22" s="148"/>
-      <c r="DN22" s="148"/>
-      <c r="DO22" s="148"/>
-      <c r="DP22" s="148"/>
-      <c r="DQ22" s="148"/>
-      <c r="DR22" s="149"/>
+      <c r="DD22" s="114"/>
+      <c r="DE22" s="115"/>
+      <c r="DF22" s="115"/>
+      <c r="DG22" s="115"/>
+      <c r="DH22" s="115"/>
+      <c r="DI22" s="115"/>
+      <c r="DJ22" s="115"/>
+      <c r="DK22" s="115"/>
+      <c r="DL22" s="116"/>
+      <c r="DM22" s="119"/>
+      <c r="DN22" s="119"/>
+      <c r="DO22" s="119"/>
+      <c r="DP22" s="119"/>
+      <c r="DQ22" s="119"/>
+      <c r="DR22" s="120"/>
     </row>
     <row r="23" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="126"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="137"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="27"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
       <c r="S23" s="19"/>
-      <c r="T23" s="125"/>
+      <c r="T23" s="154"/>
       <c r="U23" s="47"/>
       <c r="V23" s="47"/>
       <c r="W23" s="47"/>
@@ -5047,10 +5048,10 @@
       <c r="AJ23" s="57"/>
       <c r="AK23" s="57"/>
       <c r="AL23" s="59"/>
-      <c r="AM23" s="125"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="57"/>
       <c r="AS23" s="57"/>
@@ -5106,7 +5107,7 @@
       <c r="CQ23" s="19"/>
       <c r="CR23" s="19"/>
       <c r="CS23" s="23"/>
-      <c r="CT23" s="139"/>
+      <c r="CT23" s="156"/>
       <c r="CU23" s="27"/>
       <c r="CV23" s="19"/>
       <c r="CW23" s="19"/>
@@ -5116,21 +5117,21 @@
       <c r="DA23" s="19"/>
       <c r="DB23" s="19"/>
       <c r="DC23" s="23"/>
-      <c r="DD23" s="143"/>
-      <c r="DE23" s="144"/>
-      <c r="DF23" s="144"/>
-      <c r="DG23" s="144"/>
-      <c r="DH23" s="144"/>
-      <c r="DI23" s="144"/>
-      <c r="DJ23" s="144"/>
-      <c r="DK23" s="144"/>
-      <c r="DL23" s="145"/>
-      <c r="DM23" s="148"/>
-      <c r="DN23" s="148"/>
-      <c r="DO23" s="148"/>
-      <c r="DP23" s="148"/>
-      <c r="DQ23" s="148"/>
-      <c r="DR23" s="149"/>
+      <c r="DD23" s="114"/>
+      <c r="DE23" s="115"/>
+      <c r="DF23" s="115"/>
+      <c r="DG23" s="115"/>
+      <c r="DH23" s="115"/>
+      <c r="DI23" s="115"/>
+      <c r="DJ23" s="115"/>
+      <c r="DK23" s="115"/>
+      <c r="DL23" s="116"/>
+      <c r="DM23" s="119"/>
+      <c r="DN23" s="119"/>
+      <c r="DO23" s="119"/>
+      <c r="DP23" s="119"/>
+      <c r="DQ23" s="119"/>
+      <c r="DR23" s="120"/>
       <c r="DS23"/>
       <c r="DT23"/>
       <c r="DU23"/>
@@ -5159,28 +5160,28 @@
       <c r="ER23"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="126"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="137"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
       <c r="H24" s="27"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="19"/>
       <c r="S24" s="19"/>
-      <c r="T24" s="125"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="47"/>
       <c r="V24" s="47"/>
       <c r="W24" s="47"/>
@@ -5199,10 +5200,10 @@
       <c r="AJ24" s="47"/>
       <c r="AK24" s="47"/>
       <c r="AL24" s="58"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
+      <c r="AM24" s="154"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="47"/>
       <c r="AS24" s="47"/>
@@ -5258,7 +5259,7 @@
       <c r="CQ24" s="19"/>
       <c r="CR24" s="19"/>
       <c r="CS24" s="23"/>
-      <c r="CT24" s="139"/>
+      <c r="CT24" s="156"/>
       <c r="CU24" s="27"/>
       <c r="CV24" s="19"/>
       <c r="CW24" s="19"/>
@@ -5268,21 +5269,21 @@
       <c r="DA24" s="19"/>
       <c r="DB24" s="19"/>
       <c r="DC24" s="23"/>
-      <c r="DD24" s="143"/>
-      <c r="DE24" s="144"/>
-      <c r="DF24" s="144"/>
-      <c r="DG24" s="144"/>
-      <c r="DH24" s="144"/>
-      <c r="DI24" s="144"/>
-      <c r="DJ24" s="144"/>
-      <c r="DK24" s="144"/>
-      <c r="DL24" s="145"/>
-      <c r="DM24" s="148"/>
-      <c r="DN24" s="148"/>
-      <c r="DO24" s="148"/>
-      <c r="DP24" s="148"/>
-      <c r="DQ24" s="148"/>
-      <c r="DR24" s="149"/>
+      <c r="DD24" s="114"/>
+      <c r="DE24" s="115"/>
+      <c r="DF24" s="115"/>
+      <c r="DG24" s="115"/>
+      <c r="DH24" s="115"/>
+      <c r="DI24" s="115"/>
+      <c r="DJ24" s="115"/>
+      <c r="DK24" s="115"/>
+      <c r="DL24" s="116"/>
+      <c r="DM24" s="119"/>
+      <c r="DN24" s="119"/>
+      <c r="DO24" s="119"/>
+      <c r="DP24" s="119"/>
+      <c r="DQ24" s="119"/>
+      <c r="DR24" s="120"/>
       <c r="DS24"/>
       <c r="DT24"/>
       <c r="DU24"/>
@@ -5311,28 +5312,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="126"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="137"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="27"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
-      <c r="T25" s="125"/>
+      <c r="T25" s="154"/>
       <c r="U25" s="47"/>
       <c r="V25" s="47"/>
       <c r="W25" s="47"/>
@@ -5351,10 +5352,10 @@
       <c r="AJ25" s="41"/>
       <c r="AK25" s="41"/>
       <c r="AL25" s="55"/>
-      <c r="AM25" s="125"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
+      <c r="AM25" s="154"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
       <c r="AQ25" s="56"/>
       <c r="AR25" s="41"/>
       <c r="AS25" s="41"/>
@@ -5410,7 +5411,7 @@
       <c r="CQ25" s="19"/>
       <c r="CR25" s="19"/>
       <c r="CS25" s="23"/>
-      <c r="CT25" s="139"/>
+      <c r="CT25" s="156"/>
       <c r="CU25" s="27"/>
       <c r="CV25" s="19"/>
       <c r="CW25" s="19"/>
@@ -5420,21 +5421,21 @@
       <c r="DA25" s="19"/>
       <c r="DB25" s="19"/>
       <c r="DC25" s="23"/>
-      <c r="DD25" s="143"/>
-      <c r="DE25" s="144"/>
-      <c r="DF25" s="144"/>
-      <c r="DG25" s="144"/>
-      <c r="DH25" s="144"/>
-      <c r="DI25" s="144"/>
-      <c r="DJ25" s="144"/>
-      <c r="DK25" s="144"/>
-      <c r="DL25" s="145"/>
-      <c r="DM25" s="148"/>
-      <c r="DN25" s="148"/>
-      <c r="DO25" s="148"/>
-      <c r="DP25" s="148"/>
-      <c r="DQ25" s="148"/>
-      <c r="DR25" s="149"/>
+      <c r="DD25" s="114"/>
+      <c r="DE25" s="115"/>
+      <c r="DF25" s="115"/>
+      <c r="DG25" s="115"/>
+      <c r="DH25" s="115"/>
+      <c r="DI25" s="115"/>
+      <c r="DJ25" s="115"/>
+      <c r="DK25" s="115"/>
+      <c r="DL25" s="116"/>
+      <c r="DM25" s="119"/>
+      <c r="DN25" s="119"/>
+      <c r="DO25" s="119"/>
+      <c r="DP25" s="119"/>
+      <c r="DQ25" s="119"/>
+      <c r="DR25" s="120"/>
       <c r="DS25"/>
       <c r="DT25"/>
       <c r="DU25"/>
@@ -5463,28 +5464,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="126"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="137"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="27"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="125"/>
+      <c r="T26" s="154"/>
       <c r="U26" s="47"/>
       <c r="V26" s="47"/>
       <c r="W26" s="47"/>
@@ -5503,10 +5504,10 @@
       <c r="AJ26" s="47"/>
       <c r="AK26" s="47"/>
       <c r="AL26" s="58"/>
-      <c r="AM26" s="125"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
+      <c r="AM26" s="154"/>
+      <c r="AN26" s="154"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
       <c r="AQ26" s="26"/>
       <c r="AR26" s="47"/>
       <c r="AS26" s="47"/>
@@ -5562,7 +5563,7 @@
       <c r="CQ26" s="19"/>
       <c r="CR26" s="19"/>
       <c r="CS26" s="23"/>
-      <c r="CT26" s="139"/>
+      <c r="CT26" s="156"/>
       <c r="CU26" s="27"/>
       <c r="CV26" s="19"/>
       <c r="CW26" s="19"/>
@@ -5572,21 +5573,21 @@
       <c r="DA26" s="19"/>
       <c r="DB26" s="19"/>
       <c r="DC26" s="23"/>
-      <c r="DD26" s="143"/>
-      <c r="DE26" s="144"/>
-      <c r="DF26" s="144"/>
-      <c r="DG26" s="144"/>
-      <c r="DH26" s="144"/>
-      <c r="DI26" s="144"/>
-      <c r="DJ26" s="144"/>
-      <c r="DK26" s="144"/>
-      <c r="DL26" s="145"/>
-      <c r="DM26" s="148"/>
-      <c r="DN26" s="148"/>
-      <c r="DO26" s="148"/>
-      <c r="DP26" s="148"/>
-      <c r="DQ26" s="148"/>
-      <c r="DR26" s="149"/>
+      <c r="DD26" s="114"/>
+      <c r="DE26" s="115"/>
+      <c r="DF26" s="115"/>
+      <c r="DG26" s="115"/>
+      <c r="DH26" s="115"/>
+      <c r="DI26" s="115"/>
+      <c r="DJ26" s="115"/>
+      <c r="DK26" s="115"/>
+      <c r="DL26" s="116"/>
+      <c r="DM26" s="119"/>
+      <c r="DN26" s="119"/>
+      <c r="DO26" s="119"/>
+      <c r="DP26" s="119"/>
+      <c r="DQ26" s="119"/>
+      <c r="DR26" s="120"/>
       <c r="DS26"/>
       <c r="DT26"/>
       <c r="DU26"/>
@@ -5615,28 +5616,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="126"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="27"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="125"/>
+      <c r="T27" s="154"/>
       <c r="U27" s="47"/>
       <c r="V27" s="47"/>
       <c r="W27" s="47"/>
@@ -5655,10 +5656,10 @@
       <c r="AJ27" s="47"/>
       <c r="AK27" s="47"/>
       <c r="AL27" s="58"/>
-      <c r="AM27" s="125"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="125"/>
-      <c r="AP27" s="125"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="154"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
@@ -5714,7 +5715,7 @@
       <c r="CQ27" s="19"/>
       <c r="CR27" s="19"/>
       <c r="CS27" s="23"/>
-      <c r="CT27" s="139"/>
+      <c r="CT27" s="156"/>
       <c r="CU27" s="27"/>
       <c r="CV27" s="19"/>
       <c r="CW27" s="19"/>
@@ -5724,45 +5725,45 @@
       <c r="DA27" s="19"/>
       <c r="DB27" s="19"/>
       <c r="DC27" s="23"/>
-      <c r="DD27" s="143"/>
-      <c r="DE27" s="144"/>
-      <c r="DF27" s="144"/>
-      <c r="DG27" s="144"/>
-      <c r="DH27" s="144"/>
-      <c r="DI27" s="144"/>
-      <c r="DJ27" s="144"/>
-      <c r="DK27" s="144"/>
-      <c r="DL27" s="145"/>
-      <c r="DM27" s="148"/>
-      <c r="DN27" s="148"/>
-      <c r="DO27" s="148"/>
-      <c r="DP27" s="148"/>
-      <c r="DQ27" s="148"/>
-      <c r="DR27" s="149"/>
+      <c r="DD27" s="114"/>
+      <c r="DE27" s="115"/>
+      <c r="DF27" s="115"/>
+      <c r="DG27" s="115"/>
+      <c r="DH27" s="115"/>
+      <c r="DI27" s="115"/>
+      <c r="DJ27" s="115"/>
+      <c r="DK27" s="115"/>
+      <c r="DL27" s="116"/>
+      <c r="DM27" s="119"/>
+      <c r="DN27" s="119"/>
+      <c r="DO27" s="119"/>
+      <c r="DP27" s="119"/>
+      <c r="DQ27" s="119"/>
+      <c r="DR27" s="120"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="126"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="137"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="27"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="125"/>
+      <c r="T28" s="154"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
@@ -5781,10 +5782,10 @@
       <c r="AJ28" s="19"/>
       <c r="AK28" s="19"/>
       <c r="AL28" s="23"/>
-      <c r="AM28" s="125"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="125"/>
-      <c r="AP28" s="125"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
       <c r="AQ28" s="27"/>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
@@ -5840,7 +5841,7 @@
       <c r="CQ28" s="19"/>
       <c r="CR28" s="19"/>
       <c r="CS28" s="23"/>
-      <c r="CT28" s="139"/>
+      <c r="CT28" s="156"/>
       <c r="CU28" s="27"/>
       <c r="CV28" s="19"/>
       <c r="CW28" s="19"/>
@@ -5850,45 +5851,45 @@
       <c r="DA28" s="19"/>
       <c r="DB28" s="19"/>
       <c r="DC28" s="23"/>
-      <c r="DD28" s="143"/>
-      <c r="DE28" s="144"/>
-      <c r="DF28" s="144"/>
-      <c r="DG28" s="144"/>
-      <c r="DH28" s="144"/>
-      <c r="DI28" s="144"/>
-      <c r="DJ28" s="144"/>
-      <c r="DK28" s="144"/>
-      <c r="DL28" s="145"/>
-      <c r="DM28" s="148"/>
-      <c r="DN28" s="148"/>
-      <c r="DO28" s="148"/>
-      <c r="DP28" s="148"/>
-      <c r="DQ28" s="148"/>
-      <c r="DR28" s="149"/>
+      <c r="DD28" s="114"/>
+      <c r="DE28" s="115"/>
+      <c r="DF28" s="115"/>
+      <c r="DG28" s="115"/>
+      <c r="DH28" s="115"/>
+      <c r="DI28" s="115"/>
+      <c r="DJ28" s="115"/>
+      <c r="DK28" s="115"/>
+      <c r="DL28" s="116"/>
+      <c r="DM28" s="119"/>
+      <c r="DN28" s="119"/>
+      <c r="DO28" s="119"/>
+      <c r="DP28" s="119"/>
+      <c r="DQ28" s="119"/>
+      <c r="DR28" s="120"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="126"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="27"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="125"/>
+      <c r="T29" s="154"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
@@ -5907,10 +5908,10 @@
       <c r="AJ29" s="19"/>
       <c r="AK29" s="19"/>
       <c r="AL29" s="23"/>
-      <c r="AM29" s="125"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="125"/>
-      <c r="AP29" s="125"/>
+      <c r="AM29" s="154"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
       <c r="AQ29" s="27"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
@@ -5966,7 +5967,7 @@
       <c r="CQ29" s="19"/>
       <c r="CR29" s="19"/>
       <c r="CS29" s="23"/>
-      <c r="CT29" s="139"/>
+      <c r="CT29" s="156"/>
       <c r="CU29" s="27"/>
       <c r="CV29" s="19"/>
       <c r="CW29" s="19"/>
@@ -5976,45 +5977,45 @@
       <c r="DA29" s="19"/>
       <c r="DB29" s="19"/>
       <c r="DC29" s="23"/>
-      <c r="DD29" s="143"/>
-      <c r="DE29" s="144"/>
-      <c r="DF29" s="144"/>
-      <c r="DG29" s="144"/>
-      <c r="DH29" s="144"/>
-      <c r="DI29" s="144"/>
-      <c r="DJ29" s="144"/>
-      <c r="DK29" s="144"/>
-      <c r="DL29" s="145"/>
-      <c r="DM29" s="148"/>
-      <c r="DN29" s="148"/>
-      <c r="DO29" s="148"/>
-      <c r="DP29" s="148"/>
-      <c r="DQ29" s="148"/>
-      <c r="DR29" s="149"/>
+      <c r="DD29" s="114"/>
+      <c r="DE29" s="115"/>
+      <c r="DF29" s="115"/>
+      <c r="DG29" s="115"/>
+      <c r="DH29" s="115"/>
+      <c r="DI29" s="115"/>
+      <c r="DJ29" s="115"/>
+      <c r="DK29" s="115"/>
+      <c r="DL29" s="116"/>
+      <c r="DM29" s="119"/>
+      <c r="DN29" s="119"/>
+      <c r="DO29" s="119"/>
+      <c r="DP29" s="119"/>
+      <c r="DQ29" s="119"/>
+      <c r="DR29" s="120"/>
     </row>
     <row r="30" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="126"/>
+      <c r="A30" s="141"/>
       <c r="B30" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="137"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
       <c r="H30" s="27"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="125"/>
+      <c r="T30" s="154"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
@@ -6033,10 +6034,10 @@
       <c r="AJ30" s="19"/>
       <c r="AK30" s="19"/>
       <c r="AL30" s="23"/>
-      <c r="AM30" s="125"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="125"/>
-      <c r="AP30" s="125"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
       <c r="AQ30" s="27"/>
       <c r="AR30" s="19"/>
       <c r="AS30" s="19"/>
@@ -6092,7 +6093,7 @@
       <c r="CQ30" s="19"/>
       <c r="CR30" s="19"/>
       <c r="CS30" s="23"/>
-      <c r="CT30" s="139"/>
+      <c r="CT30" s="156"/>
       <c r="CU30" s="27"/>
       <c r="CV30" s="19"/>
       <c r="CW30" s="19"/>
@@ -6102,21 +6103,21 @@
       <c r="DA30" s="19"/>
       <c r="DB30" s="19"/>
       <c r="DC30" s="23"/>
-      <c r="DD30" s="143"/>
-      <c r="DE30" s="144"/>
-      <c r="DF30" s="144"/>
-      <c r="DG30" s="144"/>
-      <c r="DH30" s="144"/>
-      <c r="DI30" s="144"/>
-      <c r="DJ30" s="144"/>
-      <c r="DK30" s="144"/>
-      <c r="DL30" s="145"/>
-      <c r="DM30" s="148"/>
-      <c r="DN30" s="148"/>
-      <c r="DO30" s="148"/>
-      <c r="DP30" s="148"/>
-      <c r="DQ30" s="148"/>
-      <c r="DR30" s="149"/>
+      <c r="DD30" s="114"/>
+      <c r="DE30" s="115"/>
+      <c r="DF30" s="115"/>
+      <c r="DG30" s="115"/>
+      <c r="DH30" s="115"/>
+      <c r="DI30" s="115"/>
+      <c r="DJ30" s="115"/>
+      <c r="DK30" s="115"/>
+      <c r="DL30" s="116"/>
+      <c r="DM30" s="119"/>
+      <c r="DN30" s="119"/>
+      <c r="DO30" s="119"/>
+      <c r="DP30" s="119"/>
+      <c r="DQ30" s="119"/>
+      <c r="DR30" s="120"/>
       <c r="DS30"/>
       <c r="DT30"/>
       <c r="DU30"/>
@@ -6145,28 +6146,28 @@
       <c r="ER30"/>
     </row>
     <row r="31" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="126"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="27"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
-      <c r="T31" s="125"/>
+      <c r="T31" s="154"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
@@ -6185,10 +6186,10 @@
       <c r="AJ31" s="19"/>
       <c r="AK31" s="19"/>
       <c r="AL31" s="23"/>
-      <c r="AM31" s="125"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="125"/>
-      <c r="AP31" s="125"/>
+      <c r="AM31" s="154"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
       <c r="AQ31" s="27"/>
       <c r="AR31" s="19"/>
       <c r="AS31" s="19"/>
@@ -6244,7 +6245,7 @@
       <c r="CQ31" s="19"/>
       <c r="CR31" s="19"/>
       <c r="CS31" s="23"/>
-      <c r="CT31" s="139"/>
+      <c r="CT31" s="156"/>
       <c r="CU31" s="27"/>
       <c r="CV31" s="19"/>
       <c r="CW31" s="19"/>
@@ -6254,45 +6255,45 @@
       <c r="DA31" s="19"/>
       <c r="DB31" s="19"/>
       <c r="DC31" s="23"/>
-      <c r="DD31" s="143"/>
-      <c r="DE31" s="144"/>
-      <c r="DF31" s="144"/>
-      <c r="DG31" s="144"/>
-      <c r="DH31" s="144"/>
-      <c r="DI31" s="144"/>
-      <c r="DJ31" s="144"/>
-      <c r="DK31" s="144"/>
-      <c r="DL31" s="145"/>
-      <c r="DM31" s="148"/>
-      <c r="DN31" s="148"/>
-      <c r="DO31" s="148"/>
-      <c r="DP31" s="148"/>
-      <c r="DQ31" s="148"/>
-      <c r="DR31" s="149"/>
+      <c r="DD31" s="114"/>
+      <c r="DE31" s="115"/>
+      <c r="DF31" s="115"/>
+      <c r="DG31" s="115"/>
+      <c r="DH31" s="115"/>
+      <c r="DI31" s="115"/>
+      <c r="DJ31" s="115"/>
+      <c r="DK31" s="115"/>
+      <c r="DL31" s="116"/>
+      <c r="DM31" s="119"/>
+      <c r="DN31" s="119"/>
+      <c r="DO31" s="119"/>
+      <c r="DP31" s="119"/>
+      <c r="DQ31" s="119"/>
+      <c r="DR31" s="120"/>
     </row>
     <row r="32" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="126"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="137"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="152"/>
       <c r="H32" s="27"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
-      <c r="T32" s="125"/>
+      <c r="T32" s="154"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
@@ -6311,10 +6312,10 @@
       <c r="AJ32" s="19"/>
       <c r="AK32" s="19"/>
       <c r="AL32" s="23"/>
-      <c r="AM32" s="125"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="125"/>
+      <c r="AM32" s="154"/>
+      <c r="AN32" s="154"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
       <c r="AQ32" s="27"/>
       <c r="AR32" s="19"/>
       <c r="AS32" s="19"/>
@@ -6370,7 +6371,7 @@
       <c r="CQ32" s="19"/>
       <c r="CR32" s="19"/>
       <c r="CS32" s="23"/>
-      <c r="CT32" s="139"/>
+      <c r="CT32" s="156"/>
       <c r="CU32" s="27"/>
       <c r="CV32" s="19"/>
       <c r="CW32" s="19"/>
@@ -6380,21 +6381,21 @@
       <c r="DA32" s="19"/>
       <c r="DB32" s="19"/>
       <c r="DC32" s="23"/>
-      <c r="DD32" s="143"/>
-      <c r="DE32" s="144"/>
-      <c r="DF32" s="144"/>
-      <c r="DG32" s="144"/>
-      <c r="DH32" s="144"/>
-      <c r="DI32" s="144"/>
-      <c r="DJ32" s="144"/>
-      <c r="DK32" s="144"/>
-      <c r="DL32" s="145"/>
-      <c r="DM32" s="148"/>
-      <c r="DN32" s="148"/>
-      <c r="DO32" s="148"/>
-      <c r="DP32" s="148"/>
-      <c r="DQ32" s="148"/>
-      <c r="DR32" s="149"/>
+      <c r="DD32" s="114"/>
+      <c r="DE32" s="115"/>
+      <c r="DF32" s="115"/>
+      <c r="DG32" s="115"/>
+      <c r="DH32" s="115"/>
+      <c r="DI32" s="115"/>
+      <c r="DJ32" s="115"/>
+      <c r="DK32" s="115"/>
+      <c r="DL32" s="116"/>
+      <c r="DM32" s="119"/>
+      <c r="DN32" s="119"/>
+      <c r="DO32" s="119"/>
+      <c r="DP32" s="119"/>
+      <c r="DQ32" s="119"/>
+      <c r="DR32" s="120"/>
       <c r="DS32"/>
       <c r="DT32"/>
       <c r="DU32"/>
@@ -6423,28 +6424,28 @@
       <c r="ER32"/>
     </row>
     <row r="33" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="126"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="137"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="27"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="125"/>
+      <c r="T33" s="154"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
@@ -6463,10 +6464,10 @@
       <c r="AJ33" s="19"/>
       <c r="AK33" s="19"/>
       <c r="AL33" s="23"/>
-      <c r="AM33" s="125"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
+      <c r="AM33" s="154"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
       <c r="AQ33" s="27"/>
       <c r="AR33" s="19"/>
       <c r="AS33" s="19"/>
@@ -6522,7 +6523,7 @@
       <c r="CQ33" s="19"/>
       <c r="CR33" s="19"/>
       <c r="CS33" s="23"/>
-      <c r="CT33" s="139"/>
+      <c r="CT33" s="156"/>
       <c r="CU33" s="27"/>
       <c r="CV33" s="19"/>
       <c r="CW33" s="19"/>
@@ -6532,45 +6533,45 @@
       <c r="DA33" s="19"/>
       <c r="DB33" s="19"/>
       <c r="DC33" s="23"/>
-      <c r="DD33" s="143"/>
-      <c r="DE33" s="144"/>
-      <c r="DF33" s="144"/>
-      <c r="DG33" s="144"/>
-      <c r="DH33" s="144"/>
-      <c r="DI33" s="144"/>
-      <c r="DJ33" s="144"/>
-      <c r="DK33" s="144"/>
-      <c r="DL33" s="145"/>
-      <c r="DM33" s="148"/>
-      <c r="DN33" s="148"/>
-      <c r="DO33" s="148"/>
-      <c r="DP33" s="148"/>
-      <c r="DQ33" s="148"/>
-      <c r="DR33" s="149"/>
+      <c r="DD33" s="114"/>
+      <c r="DE33" s="115"/>
+      <c r="DF33" s="115"/>
+      <c r="DG33" s="115"/>
+      <c r="DH33" s="115"/>
+      <c r="DI33" s="115"/>
+      <c r="DJ33" s="115"/>
+      <c r="DK33" s="115"/>
+      <c r="DL33" s="116"/>
+      <c r="DM33" s="119"/>
+      <c r="DN33" s="119"/>
+      <c r="DO33" s="119"/>
+      <c r="DP33" s="119"/>
+      <c r="DQ33" s="119"/>
+      <c r="DR33" s="120"/>
     </row>
     <row r="34" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="126"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="137"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="152"/>
       <c r="H34" s="27"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
-      <c r="T34" s="125"/>
+      <c r="T34" s="154"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
@@ -6589,10 +6590,10 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="19"/>
       <c r="AL34" s="23"/>
-      <c r="AM34" s="125"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
+      <c r="AM34" s="154"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
       <c r="AQ34" s="27"/>
       <c r="AR34" s="19"/>
       <c r="AS34" s="19"/>
@@ -6648,7 +6649,7 @@
       <c r="CQ34" s="19"/>
       <c r="CR34" s="19"/>
       <c r="CS34" s="23"/>
-      <c r="CT34" s="139"/>
+      <c r="CT34" s="156"/>
       <c r="CU34" s="27"/>
       <c r="CV34" s="19"/>
       <c r="CW34" s="19"/>
@@ -6658,21 +6659,21 @@
       <c r="DA34" s="19"/>
       <c r="DB34" s="19"/>
       <c r="DC34" s="23"/>
-      <c r="DD34" s="143"/>
-      <c r="DE34" s="144"/>
-      <c r="DF34" s="144"/>
-      <c r="DG34" s="144"/>
-      <c r="DH34" s="144"/>
-      <c r="DI34" s="144"/>
-      <c r="DJ34" s="144"/>
-      <c r="DK34" s="144"/>
-      <c r="DL34" s="145"/>
-      <c r="DM34" s="148"/>
-      <c r="DN34" s="148"/>
-      <c r="DO34" s="148"/>
-      <c r="DP34" s="148"/>
-      <c r="DQ34" s="148"/>
-      <c r="DR34" s="149"/>
+      <c r="DD34" s="114"/>
+      <c r="DE34" s="115"/>
+      <c r="DF34" s="115"/>
+      <c r="DG34" s="115"/>
+      <c r="DH34" s="115"/>
+      <c r="DI34" s="115"/>
+      <c r="DJ34" s="115"/>
+      <c r="DK34" s="115"/>
+      <c r="DL34" s="116"/>
+      <c r="DM34" s="119"/>
+      <c r="DN34" s="119"/>
+      <c r="DO34" s="119"/>
+      <c r="DP34" s="119"/>
+      <c r="DQ34" s="119"/>
+      <c r="DR34" s="120"/>
       <c r="DS34"/>
       <c r="DT34"/>
       <c r="DU34"/>
@@ -6701,28 +6702,28 @@
       <c r="ER34"/>
     </row>
     <row r="35" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="126"/>
+      <c r="A35" s="141"/>
       <c r="B35" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="137"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="27"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
-      <c r="T35" s="125"/>
+      <c r="T35" s="154"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
@@ -6741,10 +6742,10 @@
       <c r="AJ35" s="19"/>
       <c r="AK35" s="19"/>
       <c r="AL35" s="23"/>
-      <c r="AM35" s="125"/>
-      <c r="AN35" s="125"/>
-      <c r="AO35" s="125"/>
-      <c r="AP35" s="125"/>
+      <c r="AM35" s="154"/>
+      <c r="AN35" s="154"/>
+      <c r="AO35" s="154"/>
+      <c r="AP35" s="154"/>
       <c r="AQ35" s="27"/>
       <c r="AR35" s="19"/>
       <c r="AS35" s="19"/>
@@ -6800,7 +6801,7 @@
       <c r="CQ35" s="19"/>
       <c r="CR35" s="19"/>
       <c r="CS35" s="23"/>
-      <c r="CT35" s="139"/>
+      <c r="CT35" s="156"/>
       <c r="CU35" s="27"/>
       <c r="CV35" s="19"/>
       <c r="CW35" s="19"/>
@@ -6810,45 +6811,45 @@
       <c r="DA35" s="19"/>
       <c r="DB35" s="19"/>
       <c r="DC35" s="23"/>
-      <c r="DD35" s="143"/>
-      <c r="DE35" s="144"/>
-      <c r="DF35" s="144"/>
-      <c r="DG35" s="144"/>
-      <c r="DH35" s="144"/>
-      <c r="DI35" s="144"/>
-      <c r="DJ35" s="144"/>
-      <c r="DK35" s="144"/>
-      <c r="DL35" s="145"/>
-      <c r="DM35" s="148"/>
-      <c r="DN35" s="148"/>
-      <c r="DO35" s="148"/>
-      <c r="DP35" s="148"/>
-      <c r="DQ35" s="148"/>
-      <c r="DR35" s="149"/>
+      <c r="DD35" s="114"/>
+      <c r="DE35" s="115"/>
+      <c r="DF35" s="115"/>
+      <c r="DG35" s="115"/>
+      <c r="DH35" s="115"/>
+      <c r="DI35" s="115"/>
+      <c r="DJ35" s="115"/>
+      <c r="DK35" s="115"/>
+      <c r="DL35" s="116"/>
+      <c r="DM35" s="119"/>
+      <c r="DN35" s="119"/>
+      <c r="DO35" s="119"/>
+      <c r="DP35" s="119"/>
+      <c r="DQ35" s="119"/>
+      <c r="DR35" s="120"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="126"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="137"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="152"/>
       <c r="H36" s="27"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="125"/>
+      <c r="T36" s="154"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
@@ -6867,10 +6868,10 @@
       <c r="AJ36" s="19"/>
       <c r="AK36" s="19"/>
       <c r="AL36" s="23"/>
-      <c r="AM36" s="125"/>
-      <c r="AN36" s="125"/>
-      <c r="AO36" s="125"/>
-      <c r="AP36" s="125"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="154"/>
+      <c r="AP36" s="154"/>
       <c r="AQ36" s="27"/>
       <c r="AR36" s="19"/>
       <c r="AS36" s="19"/>
@@ -6926,7 +6927,7 @@
       <c r="CQ36" s="19"/>
       <c r="CR36" s="19"/>
       <c r="CS36" s="23"/>
-      <c r="CT36" s="139"/>
+      <c r="CT36" s="156"/>
       <c r="CU36" s="27"/>
       <c r="CV36" s="19"/>
       <c r="CW36" s="19"/>
@@ -6936,43 +6937,43 @@
       <c r="DA36" s="19"/>
       <c r="DB36" s="19"/>
       <c r="DC36" s="23"/>
-      <c r="DD36" s="143"/>
-      <c r="DE36" s="144"/>
-      <c r="DF36" s="144"/>
-      <c r="DG36" s="144"/>
-      <c r="DH36" s="144"/>
-      <c r="DI36" s="144"/>
-      <c r="DJ36" s="144"/>
-      <c r="DK36" s="144"/>
-      <c r="DL36" s="145"/>
-      <c r="DM36" s="148"/>
-      <c r="DN36" s="148"/>
-      <c r="DO36" s="148"/>
-      <c r="DP36" s="148"/>
-      <c r="DQ36" s="148"/>
-      <c r="DR36" s="149"/>
+      <c r="DD36" s="114"/>
+      <c r="DE36" s="115"/>
+      <c r="DF36" s="115"/>
+      <c r="DG36" s="115"/>
+      <c r="DH36" s="115"/>
+      <c r="DI36" s="115"/>
+      <c r="DJ36" s="115"/>
+      <c r="DK36" s="115"/>
+      <c r="DL36" s="116"/>
+      <c r="DM36" s="119"/>
+      <c r="DN36" s="119"/>
+      <c r="DO36" s="119"/>
+      <c r="DP36" s="119"/>
+      <c r="DQ36" s="119"/>
+      <c r="DR36" s="120"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="137"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="152"/>
       <c r="H37" s="86"/>
       <c r="I37" s="46"/>
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="N37" s="46"/>
       <c r="O37" s="46"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="46"/>
       <c r="R37" s="46"/>
       <c r="S37" s="46"/>
-      <c r="T37" s="125"/>
+      <c r="T37" s="154"/>
       <c r="U37" s="46"/>
       <c r="V37" s="46"/>
       <c r="W37" s="46"/>
@@ -6991,10 +6992,10 @@
       <c r="AJ37" s="46"/>
       <c r="AK37" s="46"/>
       <c r="AL37" s="46"/>
-      <c r="AM37" s="125"/>
-      <c r="AN37" s="125"/>
-      <c r="AO37" s="125"/>
-      <c r="AP37" s="125"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
       <c r="AQ37" s="46"/>
       <c r="AR37" s="46"/>
       <c r="AS37" s="46"/>
@@ -7050,7 +7051,7 @@
       <c r="CQ37" s="46"/>
       <c r="CR37" s="46"/>
       <c r="CS37" s="104"/>
-      <c r="CT37" s="139"/>
+      <c r="CT37" s="156"/>
       <c r="CU37" s="86"/>
       <c r="CV37" s="46"/>
       <c r="CW37" s="46"/>
@@ -7060,47 +7061,47 @@
       <c r="DA37" s="46"/>
       <c r="DB37" s="46"/>
       <c r="DC37" s="104"/>
-      <c r="DD37" s="143"/>
-      <c r="DE37" s="144"/>
-      <c r="DF37" s="144"/>
-      <c r="DG37" s="144"/>
-      <c r="DH37" s="144"/>
-      <c r="DI37" s="144"/>
-      <c r="DJ37" s="144"/>
-      <c r="DK37" s="144"/>
-      <c r="DL37" s="145"/>
-      <c r="DM37" s="148"/>
-      <c r="DN37" s="148"/>
-      <c r="DO37" s="148"/>
-      <c r="DP37" s="148"/>
-      <c r="DQ37" s="148"/>
-      <c r="DR37" s="149"/>
+      <c r="DD37" s="114"/>
+      <c r="DE37" s="115"/>
+      <c r="DF37" s="115"/>
+      <c r="DG37" s="115"/>
+      <c r="DH37" s="115"/>
+      <c r="DI37" s="115"/>
+      <c r="DJ37" s="115"/>
+      <c r="DK37" s="115"/>
+      <c r="DL37" s="116"/>
+      <c r="DM37" s="119"/>
+      <c r="DN37" s="119"/>
+      <c r="DO37" s="119"/>
+      <c r="DP37" s="119"/>
+      <c r="DQ37" s="119"/>
+      <c r="DR37" s="120"/>
     </row>
     <row r="38" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="141" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="137"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="152"/>
       <c r="H38" s="56"/>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="41"/>
       <c r="O38" s="41"/>
       <c r="P38" s="41"/>
       <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
       <c r="S38" s="41"/>
-      <c r="T38" s="125"/>
+      <c r="T38" s="154"/>
       <c r="U38" s="41"/>
       <c r="V38" s="41"/>
       <c r="W38" s="41"/>
@@ -7119,10 +7120,10 @@
       <c r="AJ38" s="41"/>
       <c r="AK38" s="41"/>
       <c r="AL38" s="55"/>
-      <c r="AM38" s="125"/>
-      <c r="AN38" s="125"/>
-      <c r="AO38" s="125"/>
-      <c r="AP38" s="125"/>
+      <c r="AM38" s="154"/>
+      <c r="AN38" s="154"/>
+      <c r="AO38" s="154"/>
+      <c r="AP38" s="154"/>
       <c r="AQ38" s="56"/>
       <c r="AR38" s="41"/>
       <c r="AS38" s="41"/>
@@ -7178,7 +7179,7 @@
       <c r="CQ38" s="57"/>
       <c r="CR38" s="57"/>
       <c r="CS38" s="59"/>
-      <c r="CT38" s="139"/>
+      <c r="CT38" s="156"/>
       <c r="CU38" s="106"/>
       <c r="CV38" s="94"/>
       <c r="CW38" s="94"/>
@@ -7188,21 +7189,21 @@
       <c r="DA38" s="94"/>
       <c r="DB38" s="94"/>
       <c r="DC38" s="107"/>
-      <c r="DD38" s="143"/>
-      <c r="DE38" s="144"/>
-      <c r="DF38" s="144"/>
-      <c r="DG38" s="144"/>
-      <c r="DH38" s="144"/>
-      <c r="DI38" s="144"/>
-      <c r="DJ38" s="144"/>
-      <c r="DK38" s="144"/>
-      <c r="DL38" s="145"/>
-      <c r="DM38" s="148"/>
-      <c r="DN38" s="148"/>
-      <c r="DO38" s="148"/>
-      <c r="DP38" s="148"/>
-      <c r="DQ38" s="148"/>
-      <c r="DR38" s="149"/>
+      <c r="DD38" s="114"/>
+      <c r="DE38" s="115"/>
+      <c r="DF38" s="115"/>
+      <c r="DG38" s="115"/>
+      <c r="DH38" s="115"/>
+      <c r="DI38" s="115"/>
+      <c r="DJ38" s="115"/>
+      <c r="DK38" s="115"/>
+      <c r="DL38" s="116"/>
+      <c r="DM38" s="119"/>
+      <c r="DN38" s="119"/>
+      <c r="DO38" s="119"/>
+      <c r="DP38" s="119"/>
+      <c r="DQ38" s="119"/>
+      <c r="DR38" s="120"/>
       <c r="DS38"/>
       <c r="DT38"/>
       <c r="DU38"/>
@@ -7231,28 +7232,28 @@
       <c r="ER38"/>
     </row>
     <row r="39" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="126"/>
+      <c r="A39" s="141"/>
       <c r="B39" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="137"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="152"/>
       <c r="H39" s="56"/>
       <c r="I39" s="41"/>
       <c r="J39" s="41"/>
       <c r="K39" s="41"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
       <c r="N39" s="41"/>
       <c r="O39" s="41"/>
       <c r="P39" s="41"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="41"/>
       <c r="S39" s="41"/>
-      <c r="T39" s="125"/>
+      <c r="T39" s="154"/>
       <c r="U39" s="41"/>
       <c r="V39" s="41"/>
       <c r="W39" s="41"/>
@@ -7271,10 +7272,10 @@
       <c r="AJ39" s="41"/>
       <c r="AK39" s="41"/>
       <c r="AL39" s="55"/>
-      <c r="AM39" s="125"/>
-      <c r="AN39" s="125"/>
-      <c r="AO39" s="125"/>
-      <c r="AP39" s="125"/>
+      <c r="AM39" s="154"/>
+      <c r="AN39" s="154"/>
+      <c r="AO39" s="154"/>
+      <c r="AP39" s="154"/>
       <c r="AQ39" s="56"/>
       <c r="AR39" s="41"/>
       <c r="AS39" s="41"/>
@@ -7330,7 +7331,7 @@
       <c r="CQ39" s="57"/>
       <c r="CR39" s="57"/>
       <c r="CS39" s="59"/>
-      <c r="CT39" s="139"/>
+      <c r="CT39" s="156"/>
       <c r="CU39" s="27"/>
       <c r="CV39" s="19"/>
       <c r="CW39" s="19"/>
@@ -7340,45 +7341,45 @@
       <c r="DA39" s="19"/>
       <c r="DB39" s="19"/>
       <c r="DC39" s="23"/>
-      <c r="DD39" s="143"/>
-      <c r="DE39" s="144"/>
-      <c r="DF39" s="144"/>
-      <c r="DG39" s="144"/>
-      <c r="DH39" s="144"/>
-      <c r="DI39" s="144"/>
-      <c r="DJ39" s="144"/>
-      <c r="DK39" s="144"/>
-      <c r="DL39" s="145"/>
-      <c r="DM39" s="148"/>
-      <c r="DN39" s="148"/>
-      <c r="DO39" s="148"/>
-      <c r="DP39" s="148"/>
-      <c r="DQ39" s="148"/>
-      <c r="DR39" s="149"/>
+      <c r="DD39" s="114"/>
+      <c r="DE39" s="115"/>
+      <c r="DF39" s="115"/>
+      <c r="DG39" s="115"/>
+      <c r="DH39" s="115"/>
+      <c r="DI39" s="115"/>
+      <c r="DJ39" s="115"/>
+      <c r="DK39" s="115"/>
+      <c r="DL39" s="116"/>
+      <c r="DM39" s="119"/>
+      <c r="DN39" s="119"/>
+      <c r="DO39" s="119"/>
+      <c r="DP39" s="119"/>
+      <c r="DQ39" s="119"/>
+      <c r="DR39" s="120"/>
     </row>
     <row r="40" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="126"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="137"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="152"/>
       <c r="H40" s="56"/>
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
       <c r="N40" s="57"/>
       <c r="O40" s="41"/>
       <c r="P40" s="57"/>
       <c r="Q40" s="57"/>
       <c r="R40" s="57"/>
       <c r="S40" s="41"/>
-      <c r="T40" s="125"/>
+      <c r="T40" s="154"/>
       <c r="U40" s="57"/>
       <c r="V40" s="57"/>
       <c r="W40" s="57"/>
@@ -7397,10 +7398,10 @@
       <c r="AJ40" s="57"/>
       <c r="AK40" s="57"/>
       <c r="AL40" s="55"/>
-      <c r="AM40" s="125"/>
-      <c r="AN40" s="125"/>
-      <c r="AO40" s="125"/>
-      <c r="AP40" s="125"/>
+      <c r="AM40" s="154"/>
+      <c r="AN40" s="154"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
       <c r="AQ40" s="60"/>
       <c r="AR40" s="57"/>
       <c r="AS40" s="57"/>
@@ -7456,7 +7457,7 @@
       <c r="CQ40" s="57"/>
       <c r="CR40" s="57"/>
       <c r="CS40" s="55"/>
-      <c r="CT40" s="139"/>
+      <c r="CT40" s="156"/>
       <c r="CU40" s="27"/>
       <c r="CV40" s="19"/>
       <c r="CW40" s="19"/>
@@ -7466,21 +7467,21 @@
       <c r="DA40" s="19"/>
       <c r="DB40" s="19"/>
       <c r="DC40" s="23"/>
-      <c r="DD40" s="143"/>
-      <c r="DE40" s="144"/>
-      <c r="DF40" s="144"/>
-      <c r="DG40" s="144"/>
-      <c r="DH40" s="144"/>
-      <c r="DI40" s="144"/>
-      <c r="DJ40" s="144"/>
-      <c r="DK40" s="144"/>
-      <c r="DL40" s="145"/>
-      <c r="DM40" s="148"/>
-      <c r="DN40" s="148"/>
-      <c r="DO40" s="148"/>
-      <c r="DP40" s="148"/>
-      <c r="DQ40" s="148"/>
-      <c r="DR40" s="149"/>
+      <c r="DD40" s="114"/>
+      <c r="DE40" s="115"/>
+      <c r="DF40" s="115"/>
+      <c r="DG40" s="115"/>
+      <c r="DH40" s="115"/>
+      <c r="DI40" s="115"/>
+      <c r="DJ40" s="115"/>
+      <c r="DK40" s="115"/>
+      <c r="DL40" s="116"/>
+      <c r="DM40" s="119"/>
+      <c r="DN40" s="119"/>
+      <c r="DO40" s="119"/>
+      <c r="DP40" s="119"/>
+      <c r="DQ40" s="119"/>
+      <c r="DR40" s="120"/>
       <c r="DS40"/>
       <c r="DT40"/>
       <c r="DU40"/>
@@ -7509,28 +7510,28 @@
       <c r="ER40"/>
     </row>
     <row r="41" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="126"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="137"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="152"/>
       <c r="H41" s="27"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="19"/>
-      <c r="T41" s="125"/>
+      <c r="T41" s="154"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -7549,10 +7550,10 @@
       <c r="AJ41" s="19"/>
       <c r="AK41" s="19"/>
       <c r="AL41" s="23"/>
-      <c r="AM41" s="125"/>
-      <c r="AN41" s="125"/>
-      <c r="AO41" s="125"/>
-      <c r="AP41" s="125"/>
+      <c r="AM41" s="154"/>
+      <c r="AN41" s="154"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
       <c r="AQ41" s="27"/>
       <c r="AR41" s="19"/>
       <c r="AS41" s="19"/>
@@ -7608,7 +7609,7 @@
       <c r="CQ41" s="57"/>
       <c r="CR41" s="57"/>
       <c r="CS41" s="59"/>
-      <c r="CT41" s="139"/>
+      <c r="CT41" s="156"/>
       <c r="CU41" s="27"/>
       <c r="CV41" s="19"/>
       <c r="CW41" s="19"/>
@@ -7618,45 +7619,45 @@
       <c r="DA41" s="19"/>
       <c r="DB41" s="19"/>
       <c r="DC41" s="23"/>
-      <c r="DD41" s="143"/>
-      <c r="DE41" s="144"/>
-      <c r="DF41" s="144"/>
-      <c r="DG41" s="144"/>
-      <c r="DH41" s="144"/>
-      <c r="DI41" s="144"/>
-      <c r="DJ41" s="144"/>
-      <c r="DK41" s="144"/>
-      <c r="DL41" s="145"/>
-      <c r="DM41" s="148"/>
-      <c r="DN41" s="148"/>
-      <c r="DO41" s="148"/>
-      <c r="DP41" s="148"/>
-      <c r="DQ41" s="148"/>
-      <c r="DR41" s="149"/>
+      <c r="DD41" s="114"/>
+      <c r="DE41" s="115"/>
+      <c r="DF41" s="115"/>
+      <c r="DG41" s="115"/>
+      <c r="DH41" s="115"/>
+      <c r="DI41" s="115"/>
+      <c r="DJ41" s="115"/>
+      <c r="DK41" s="115"/>
+      <c r="DL41" s="116"/>
+      <c r="DM41" s="119"/>
+      <c r="DN41" s="119"/>
+      <c r="DO41" s="119"/>
+      <c r="DP41" s="119"/>
+      <c r="DQ41" s="119"/>
+      <c r="DR41" s="120"/>
     </row>
     <row r="42" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="126"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="135"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="137"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="152"/>
       <c r="H42" s="87"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
       <c r="N42" s="20"/>
       <c r="O42" s="20"/>
       <c r="P42" s="20"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
-      <c r="T42" s="125"/>
+      <c r="T42" s="154"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
       <c r="W42" s="20"/>
@@ -7675,10 +7676,10 @@
       <c r="AJ42" s="20"/>
       <c r="AK42" s="20"/>
       <c r="AL42" s="24"/>
-      <c r="AM42" s="125"/>
-      <c r="AN42" s="125"/>
-      <c r="AO42" s="125"/>
-      <c r="AP42" s="125"/>
+      <c r="AM42" s="154"/>
+      <c r="AN42" s="154"/>
+      <c r="AO42" s="154"/>
+      <c r="AP42" s="154"/>
       <c r="AQ42" s="63"/>
       <c r="AR42" s="64"/>
       <c r="AS42" s="64"/>
@@ -7734,7 +7735,7 @@
       <c r="CQ42" s="64"/>
       <c r="CR42" s="64"/>
       <c r="CS42" s="108"/>
-      <c r="CT42" s="139"/>
+      <c r="CT42" s="156"/>
       <c r="CU42" s="27"/>
       <c r="CV42" s="19"/>
       <c r="CW42" s="19"/>
@@ -7744,21 +7745,21 @@
       <c r="DA42" s="19"/>
       <c r="DB42" s="19"/>
       <c r="DC42" s="23"/>
-      <c r="DD42" s="143"/>
-      <c r="DE42" s="144"/>
-      <c r="DF42" s="144"/>
-      <c r="DG42" s="144"/>
-      <c r="DH42" s="144"/>
-      <c r="DI42" s="144"/>
-      <c r="DJ42" s="144"/>
-      <c r="DK42" s="144"/>
-      <c r="DL42" s="145"/>
-      <c r="DM42" s="148"/>
-      <c r="DN42" s="148"/>
-      <c r="DO42" s="148"/>
-      <c r="DP42" s="148"/>
-      <c r="DQ42" s="148"/>
-      <c r="DR42" s="149"/>
+      <c r="DD42" s="114"/>
+      <c r="DE42" s="115"/>
+      <c r="DF42" s="115"/>
+      <c r="DG42" s="115"/>
+      <c r="DH42" s="115"/>
+      <c r="DI42" s="115"/>
+      <c r="DJ42" s="115"/>
+      <c r="DK42" s="115"/>
+      <c r="DL42" s="116"/>
+      <c r="DM42" s="119"/>
+      <c r="DN42" s="119"/>
+      <c r="DO42" s="119"/>
+      <c r="DP42" s="119"/>
+      <c r="DQ42" s="119"/>
+      <c r="DR42" s="120"/>
       <c r="DS42"/>
       <c r="DT42"/>
       <c r="DU42"/>
@@ -7789,24 +7790,24 @@
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
       <c r="B43" s="82"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="152"/>
       <c r="H43" s="86"/>
       <c r="I43" s="46"/>
       <c r="J43" s="46"/>
       <c r="K43" s="46"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
       <c r="N43" s="46"/>
       <c r="O43" s="46"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="46"/>
       <c r="R43" s="46"/>
       <c r="S43" s="46"/>
-      <c r="T43" s="125"/>
+      <c r="T43" s="154"/>
       <c r="U43" s="46"/>
       <c r="V43" s="46"/>
       <c r="W43" s="46"/>
@@ -7825,10 +7826,10 @@
       <c r="AJ43" s="46"/>
       <c r="AK43" s="46"/>
       <c r="AL43" s="46"/>
-      <c r="AM43" s="125"/>
-      <c r="AN43" s="125"/>
-      <c r="AO43" s="125"/>
-      <c r="AP43" s="125"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
       <c r="AQ43" s="46"/>
       <c r="AR43" s="46"/>
       <c r="AS43" s="46"/>
@@ -7884,7 +7885,7 @@
       <c r="CQ43" s="46"/>
       <c r="CR43" s="46"/>
       <c r="CS43" s="104"/>
-      <c r="CT43" s="139"/>
+      <c r="CT43" s="156"/>
       <c r="CU43" s="86"/>
       <c r="CV43" s="46"/>
       <c r="CW43" s="46"/>
@@ -7894,21 +7895,21 @@
       <c r="DA43" s="46"/>
       <c r="DB43" s="46"/>
       <c r="DC43" s="104"/>
-      <c r="DD43" s="143"/>
-      <c r="DE43" s="144"/>
-      <c r="DF43" s="144"/>
-      <c r="DG43" s="144"/>
-      <c r="DH43" s="144"/>
-      <c r="DI43" s="144"/>
-      <c r="DJ43" s="144"/>
-      <c r="DK43" s="144"/>
-      <c r="DL43" s="145"/>
-      <c r="DM43" s="148"/>
-      <c r="DN43" s="148"/>
-      <c r="DO43" s="148"/>
-      <c r="DP43" s="148"/>
-      <c r="DQ43" s="148"/>
-      <c r="DR43" s="149"/>
+      <c r="DD43" s="114"/>
+      <c r="DE43" s="115"/>
+      <c r="DF43" s="115"/>
+      <c r="DG43" s="115"/>
+      <c r="DH43" s="115"/>
+      <c r="DI43" s="115"/>
+      <c r="DJ43" s="115"/>
+      <c r="DK43" s="115"/>
+      <c r="DL43" s="116"/>
+      <c r="DM43" s="119"/>
+      <c r="DN43" s="119"/>
+      <c r="DO43" s="119"/>
+      <c r="DP43" s="119"/>
+      <c r="DQ43" s="119"/>
+      <c r="DR43" s="120"/>
       <c r="DS43" s="100"/>
       <c r="DT43"/>
       <c r="DU43"/>
@@ -7966,6 +7967,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="CU3:DS4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U3:AT4"/>
+    <mergeCell ref="AU3:BT4"/>
+    <mergeCell ref="BU3:CT4"/>
+    <mergeCell ref="DD7:DL7"/>
+    <mergeCell ref="DM7:DP7"/>
+    <mergeCell ref="DQ7:DR7"/>
+    <mergeCell ref="T9:T43"/>
+    <mergeCell ref="AM9:AP43"/>
+    <mergeCell ref="CQ7:CT7"/>
+    <mergeCell ref="CU7:DC7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AU7:BC7"/>
+    <mergeCell ref="BD7:BL7"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="BU7:CC7"/>
+    <mergeCell ref="CD7:CL7"/>
+    <mergeCell ref="CM7:CP7"/>
+    <mergeCell ref="CT10:CT43"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C10:G43"/>
+    <mergeCell ref="L9:M43"/>
+    <mergeCell ref="A10:A18"/>
     <mergeCell ref="DD10:DL43"/>
     <mergeCell ref="DM10:DR43"/>
     <mergeCell ref="A2:B4"/>
@@ -7982,33 +8010,6 @@
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="A20:A36"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C10:G43"/>
-    <mergeCell ref="L9:M43"/>
-    <mergeCell ref="A10:A18"/>
-    <mergeCell ref="DD7:DL7"/>
-    <mergeCell ref="DM7:DP7"/>
-    <mergeCell ref="DQ7:DR7"/>
-    <mergeCell ref="T9:T43"/>
-    <mergeCell ref="AM9:AP43"/>
-    <mergeCell ref="CQ7:CT7"/>
-    <mergeCell ref="CU7:DC7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AU7:BC7"/>
-    <mergeCell ref="BD7:BL7"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="BU7:CC7"/>
-    <mergeCell ref="CD7:CL7"/>
-    <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CT10:CT43"/>
-    <mergeCell ref="CU3:DS4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="AU3:BT4"/>
-    <mergeCell ref="BU3:CT4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -8020,8 +8021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD4E70-A401-418C-840B-3BA1B1FB16B9}">
   <dimension ref="A1:ER51"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8041,284 +8042,284 @@
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="51"/>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="66"/>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="111" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="117" t="s">
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="111" t="s">
+      <c r="U3" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="112"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="112"/>
-      <c r="AJ3" s="112"/>
-      <c r="AK3" s="112"/>
-      <c r="AL3" s="112"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="112"/>
-      <c r="AO3" s="112"/>
-      <c r="AP3" s="112"/>
-      <c r="AQ3" s="112"/>
-      <c r="AR3" s="112"/>
-      <c r="AS3" s="112"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="111" t="s">
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AV3" s="112"/>
-      <c r="AW3" s="112"/>
-      <c r="AX3" s="112"/>
-      <c r="AY3" s="112"/>
-      <c r="AZ3" s="112"/>
-      <c r="BA3" s="112"/>
-      <c r="BB3" s="112"/>
-      <c r="BC3" s="112"/>
-      <c r="BD3" s="112"/>
-      <c r="BE3" s="112"/>
-      <c r="BF3" s="112"/>
-      <c r="BG3" s="112"/>
-      <c r="BH3" s="112"/>
-      <c r="BI3" s="112"/>
-      <c r="BJ3" s="112"/>
-      <c r="BK3" s="112"/>
-      <c r="BL3" s="112"/>
-      <c r="BM3" s="112"/>
-      <c r="BN3" s="112"/>
-      <c r="BO3" s="112"/>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="112"/>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="112"/>
-      <c r="BT3" s="113"/>
-      <c r="BU3" s="111" t="s">
+      <c r="AV3" s="134"/>
+      <c r="AW3" s="134"/>
+      <c r="AX3" s="134"/>
+      <c r="AY3" s="134"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="134"/>
+      <c r="BB3" s="134"/>
+      <c r="BC3" s="134"/>
+      <c r="BD3" s="134"/>
+      <c r="BE3" s="134"/>
+      <c r="BF3" s="134"/>
+      <c r="BG3" s="134"/>
+      <c r="BH3" s="134"/>
+      <c r="BI3" s="134"/>
+      <c r="BJ3" s="134"/>
+      <c r="BK3" s="134"/>
+      <c r="BL3" s="134"/>
+      <c r="BM3" s="134"/>
+      <c r="BN3" s="134"/>
+      <c r="BO3" s="134"/>
+      <c r="BP3" s="134"/>
+      <c r="BQ3" s="134"/>
+      <c r="BR3" s="134"/>
+      <c r="BS3" s="134"/>
+      <c r="BT3" s="135"/>
+      <c r="BU3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="BV3" s="112"/>
-      <c r="BW3" s="112"/>
-      <c r="BX3" s="112"/>
-      <c r="BY3" s="112"/>
-      <c r="BZ3" s="112"/>
-      <c r="CA3" s="112"/>
-      <c r="CB3" s="112"/>
-      <c r="CC3" s="112"/>
-      <c r="CD3" s="112"/>
-      <c r="CE3" s="112"/>
-      <c r="CF3" s="112"/>
-      <c r="CG3" s="112"/>
-      <c r="CH3" s="112"/>
-      <c r="CI3" s="112"/>
-      <c r="CJ3" s="112"/>
-      <c r="CK3" s="112"/>
-      <c r="CL3" s="112"/>
-      <c r="CM3" s="112"/>
-      <c r="CN3" s="112"/>
-      <c r="CO3" s="112"/>
-      <c r="CP3" s="112"/>
-      <c r="CQ3" s="112"/>
-      <c r="CR3" s="112"/>
-      <c r="CS3" s="112"/>
-      <c r="CT3" s="113"/>
-      <c r="CU3" s="111" t="s">
+      <c r="BV3" s="134"/>
+      <c r="BW3" s="134"/>
+      <c r="BX3" s="134"/>
+      <c r="BY3" s="134"/>
+      <c r="BZ3" s="134"/>
+      <c r="CA3" s="134"/>
+      <c r="CB3" s="134"/>
+      <c r="CC3" s="134"/>
+      <c r="CD3" s="134"/>
+      <c r="CE3" s="134"/>
+      <c r="CF3" s="134"/>
+      <c r="CG3" s="134"/>
+      <c r="CH3" s="134"/>
+      <c r="CI3" s="134"/>
+      <c r="CJ3" s="134"/>
+      <c r="CK3" s="134"/>
+      <c r="CL3" s="134"/>
+      <c r="CM3" s="134"/>
+      <c r="CN3" s="134"/>
+      <c r="CO3" s="134"/>
+      <c r="CP3" s="134"/>
+      <c r="CQ3" s="134"/>
+      <c r="CR3" s="134"/>
+      <c r="CS3" s="134"/>
+      <c r="CT3" s="135"/>
+      <c r="CU3" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="CV3" s="112"/>
-      <c r="CW3" s="112"/>
-      <c r="CX3" s="112"/>
-      <c r="CY3" s="112"/>
-      <c r="CZ3" s="112"/>
-      <c r="DA3" s="112"/>
-      <c r="DB3" s="112"/>
-      <c r="DC3" s="112"/>
-      <c r="DD3" s="112"/>
-      <c r="DE3" s="112"/>
-      <c r="DF3" s="112"/>
-      <c r="DG3" s="112"/>
-      <c r="DH3" s="112"/>
-      <c r="DI3" s="112"/>
-      <c r="DJ3" s="112"/>
-      <c r="DK3" s="112"/>
-      <c r="DL3" s="112"/>
-      <c r="DM3" s="112"/>
-      <c r="DN3" s="112"/>
-      <c r="DO3" s="112"/>
-      <c r="DP3" s="112"/>
-      <c r="DQ3" s="112"/>
-      <c r="DR3" s="112"/>
-      <c r="DS3" s="113"/>
+      <c r="CV3" s="134"/>
+      <c r="CW3" s="134"/>
+      <c r="CX3" s="134"/>
+      <c r="CY3" s="134"/>
+      <c r="CZ3" s="134"/>
+      <c r="DA3" s="134"/>
+      <c r="DB3" s="134"/>
+      <c r="DC3" s="134"/>
+      <c r="DD3" s="134"/>
+      <c r="DE3" s="134"/>
+      <c r="DF3" s="134"/>
+      <c r="DG3" s="134"/>
+      <c r="DH3" s="134"/>
+      <c r="DI3" s="134"/>
+      <c r="DJ3" s="134"/>
+      <c r="DK3" s="134"/>
+      <c r="DL3" s="134"/>
+      <c r="DM3" s="134"/>
+      <c r="DN3" s="134"/>
+      <c r="DO3" s="134"/>
+      <c r="DP3" s="134"/>
+      <c r="DQ3" s="134"/>
+      <c r="DR3" s="134"/>
+      <c r="DS3" s="135"/>
       <c r="DT3" s="21"/>
     </row>
     <row r="4" spans="1:148" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
       <c r="C4" s="53"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="115"/>
-      <c r="AT4" s="116"/>
-      <c r="AU4" s="114"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="115"/>
-      <c r="BA4" s="115"/>
-      <c r="BB4" s="115"/>
-      <c r="BC4" s="115"/>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="115"/>
-      <c r="BG4" s="115"/>
-      <c r="BH4" s="115"/>
-      <c r="BI4" s="115"/>
-      <c r="BJ4" s="115"/>
-      <c r="BK4" s="115"/>
-      <c r="BL4" s="115"/>
-      <c r="BM4" s="115"/>
-      <c r="BN4" s="115"/>
-      <c r="BO4" s="115"/>
-      <c r="BP4" s="115"/>
-      <c r="BQ4" s="115"/>
-      <c r="BR4" s="115"/>
-      <c r="BS4" s="115"/>
-      <c r="BT4" s="116"/>
-      <c r="BU4" s="114"/>
-      <c r="BV4" s="115"/>
-      <c r="BW4" s="115"/>
-      <c r="BX4" s="115"/>
-      <c r="BY4" s="115"/>
-      <c r="BZ4" s="115"/>
-      <c r="CA4" s="115"/>
-      <c r="CB4" s="115"/>
-      <c r="CC4" s="115"/>
-      <c r="CD4" s="115"/>
-      <c r="CE4" s="115"/>
-      <c r="CF4" s="115"/>
-      <c r="CG4" s="115"/>
-      <c r="CH4" s="115"/>
-      <c r="CI4" s="115"/>
-      <c r="CJ4" s="115"/>
-      <c r="CK4" s="115"/>
-      <c r="CL4" s="115"/>
-      <c r="CM4" s="115"/>
-      <c r="CN4" s="115"/>
-      <c r="CO4" s="115"/>
-      <c r="CP4" s="115"/>
-      <c r="CQ4" s="115"/>
-      <c r="CR4" s="115"/>
-      <c r="CS4" s="115"/>
-      <c r="CT4" s="116"/>
-      <c r="CU4" s="114"/>
-      <c r="CV4" s="115"/>
-      <c r="CW4" s="115"/>
-      <c r="CX4" s="115"/>
-      <c r="CY4" s="115"/>
-      <c r="CZ4" s="115"/>
-      <c r="DA4" s="115"/>
-      <c r="DB4" s="115"/>
-      <c r="DC4" s="115"/>
-      <c r="DD4" s="115"/>
-      <c r="DE4" s="115"/>
-      <c r="DF4" s="115"/>
-      <c r="DG4" s="115"/>
-      <c r="DH4" s="115"/>
-      <c r="DI4" s="115"/>
-      <c r="DJ4" s="115"/>
-      <c r="DK4" s="115"/>
-      <c r="DL4" s="115"/>
-      <c r="DM4" s="115"/>
-      <c r="DN4" s="115"/>
-      <c r="DO4" s="115"/>
-      <c r="DP4" s="115"/>
-      <c r="DQ4" s="115"/>
-      <c r="DR4" s="115"/>
-      <c r="DS4" s="116"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="137"/>
+      <c r="R4" s="137"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="137"/>
+      <c r="W4" s="137"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="137"/>
+      <c r="Z4" s="137"/>
+      <c r="AA4" s="137"/>
+      <c r="AB4" s="137"/>
+      <c r="AC4" s="137"/>
+      <c r="AD4" s="137"/>
+      <c r="AE4" s="137"/>
+      <c r="AF4" s="137"/>
+      <c r="AG4" s="137"/>
+      <c r="AH4" s="137"/>
+      <c r="AI4" s="137"/>
+      <c r="AJ4" s="137"/>
+      <c r="AK4" s="137"/>
+      <c r="AL4" s="137"/>
+      <c r="AM4" s="137"/>
+      <c r="AN4" s="137"/>
+      <c r="AO4" s="137"/>
+      <c r="AP4" s="137"/>
+      <c r="AQ4" s="137"/>
+      <c r="AR4" s="137"/>
+      <c r="AS4" s="137"/>
+      <c r="AT4" s="138"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="137"/>
+      <c r="AW4" s="137"/>
+      <c r="AX4" s="137"/>
+      <c r="AY4" s="137"/>
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="137"/>
+      <c r="BB4" s="137"/>
+      <c r="BC4" s="137"/>
+      <c r="BD4" s="137"/>
+      <c r="BE4" s="137"/>
+      <c r="BF4" s="137"/>
+      <c r="BG4" s="137"/>
+      <c r="BH4" s="137"/>
+      <c r="BI4" s="137"/>
+      <c r="BJ4" s="137"/>
+      <c r="BK4" s="137"/>
+      <c r="BL4" s="137"/>
+      <c r="BM4" s="137"/>
+      <c r="BN4" s="137"/>
+      <c r="BO4" s="137"/>
+      <c r="BP4" s="137"/>
+      <c r="BQ4" s="137"/>
+      <c r="BR4" s="137"/>
+      <c r="BS4" s="137"/>
+      <c r="BT4" s="138"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="137"/>
+      <c r="BW4" s="137"/>
+      <c r="BX4" s="137"/>
+      <c r="BY4" s="137"/>
+      <c r="BZ4" s="137"/>
+      <c r="CA4" s="137"/>
+      <c r="CB4" s="137"/>
+      <c r="CC4" s="137"/>
+      <c r="CD4" s="137"/>
+      <c r="CE4" s="137"/>
+      <c r="CF4" s="137"/>
+      <c r="CG4" s="137"/>
+      <c r="CH4" s="137"/>
+      <c r="CI4" s="137"/>
+      <c r="CJ4" s="137"/>
+      <c r="CK4" s="137"/>
+      <c r="CL4" s="137"/>
+      <c r="CM4" s="137"/>
+      <c r="CN4" s="137"/>
+      <c r="CO4" s="137"/>
+      <c r="CP4" s="137"/>
+      <c r="CQ4" s="137"/>
+      <c r="CR4" s="137"/>
+      <c r="CS4" s="137"/>
+      <c r="CT4" s="138"/>
+      <c r="CU4" s="136"/>
+      <c r="CV4" s="137"/>
+      <c r="CW4" s="137"/>
+      <c r="CX4" s="137"/>
+      <c r="CY4" s="137"/>
+      <c r="CZ4" s="137"/>
+      <c r="DA4" s="137"/>
+      <c r="DB4" s="137"/>
+      <c r="DC4" s="137"/>
+      <c r="DD4" s="137"/>
+      <c r="DE4" s="137"/>
+      <c r="DF4" s="137"/>
+      <c r="DG4" s="137"/>
+      <c r="DH4" s="137"/>
+      <c r="DI4" s="137"/>
+      <c r="DJ4" s="137"/>
+      <c r="DK4" s="137"/>
+      <c r="DL4" s="137"/>
+      <c r="DM4" s="137"/>
+      <c r="DN4" s="137"/>
+      <c r="DO4" s="137"/>
+      <c r="DP4" s="137"/>
+      <c r="DQ4" s="137"/>
+      <c r="DR4" s="137"/>
+      <c r="DS4" s="138"/>
       <c r="DT4" s="21"/>
     </row>
     <row r="5" spans="1:148" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -8327,18 +8328,18 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="95"/>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="159" t="s">
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="160"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="140"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -8347,7 +8348,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="159" t="s">
         <v>38</v>
       </c>
       <c r="U5" s="3"/>
@@ -8470,10 +8471,10 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="116"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="138"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -8482,7 +8483,7 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" s="120"/>
+      <c r="T6" s="160"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -8613,10 +8614,10 @@
       <c r="ER6"/>
     </row>
     <row r="7" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="144" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="37" t="s">
@@ -8630,157 +8631,157 @@
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="39"/>
-      <c r="L7" s="121" t="s">
+      <c r="L7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121" t="s">
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
-      <c r="S7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
+      <c r="S7" s="124"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="121" t="s">
+      <c r="U7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="122" t="s">
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="124"/>
+      <c r="AD7" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="123"/>
-      <c r="AM7" s="151" t="s">
+      <c r="AE7" s="123"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="123"/>
+      <c r="AJ7" s="123"/>
+      <c r="AK7" s="123"/>
+      <c r="AL7" s="124"/>
+      <c r="AM7" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AN7" s="152"/>
-      <c r="AO7" s="152"/>
-      <c r="AP7" s="152"/>
-      <c r="AQ7" s="121" t="s">
+      <c r="AN7" s="126"/>
+      <c r="AO7" s="126"/>
+      <c r="AP7" s="126"/>
+      <c r="AQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="AR7" s="122"/>
-      <c r="AS7" s="122"/>
-      <c r="AT7" s="123"/>
-      <c r="AU7" s="121" t="s">
+      <c r="AR7" s="123"/>
+      <c r="AS7" s="123"/>
+      <c r="AT7" s="124"/>
+      <c r="AU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="AV7" s="122"/>
-      <c r="AW7" s="122"/>
-      <c r="AX7" s="122"/>
-      <c r="AY7" s="122"/>
-      <c r="AZ7" s="122"/>
-      <c r="BA7" s="122"/>
-      <c r="BB7" s="122"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="121" t="s">
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="124"/>
+      <c r="BD7" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="BE7" s="122"/>
-      <c r="BF7" s="122"/>
-      <c r="BG7" s="122"/>
-      <c r="BH7" s="122"/>
-      <c r="BI7" s="122"/>
-      <c r="BJ7" s="122"/>
-      <c r="BK7" s="122"/>
-      <c r="BL7" s="123"/>
-      <c r="BM7" s="121" t="s">
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="124"/>
+      <c r="BM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="BN7" s="122"/>
-      <c r="BO7" s="122"/>
-      <c r="BP7" s="122"/>
-      <c r="BQ7" s="121" t="s">
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="BR7" s="122"/>
-      <c r="BS7" s="122"/>
-      <c r="BT7" s="123"/>
-      <c r="BU7" s="121" t="s">
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="124"/>
+      <c r="BU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="BV7" s="122"/>
-      <c r="BW7" s="122"/>
-      <c r="BX7" s="122"/>
-      <c r="BY7" s="122"/>
-      <c r="BZ7" s="122"/>
-      <c r="CA7" s="122"/>
-      <c r="CB7" s="122"/>
-      <c r="CC7" s="123"/>
-      <c r="CD7" s="121" t="s">
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="123"/>
+      <c r="BY7" s="123"/>
+      <c r="BZ7" s="123"/>
+      <c r="CA7" s="123"/>
+      <c r="CB7" s="123"/>
+      <c r="CC7" s="124"/>
+      <c r="CD7" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="CE7" s="122"/>
-      <c r="CF7" s="122"/>
-      <c r="CG7" s="122"/>
-      <c r="CH7" s="122"/>
-      <c r="CI7" s="122"/>
-      <c r="CJ7" s="122"/>
-      <c r="CK7" s="122"/>
-      <c r="CL7" s="123"/>
-      <c r="CM7" s="121" t="s">
+      <c r="CE7" s="123"/>
+      <c r="CF7" s="123"/>
+      <c r="CG7" s="123"/>
+      <c r="CH7" s="123"/>
+      <c r="CI7" s="123"/>
+      <c r="CJ7" s="123"/>
+      <c r="CK7" s="123"/>
+      <c r="CL7" s="124"/>
+      <c r="CM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="CN7" s="122"/>
-      <c r="CO7" s="122"/>
-      <c r="CP7" s="122"/>
-      <c r="CQ7" s="121" t="s">
+      <c r="CN7" s="123"/>
+      <c r="CO7" s="123"/>
+      <c r="CP7" s="123"/>
+      <c r="CQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="CR7" s="122"/>
-      <c r="CS7" s="122"/>
-      <c r="CT7" s="123"/>
-      <c r="CU7" s="121" t="s">
+      <c r="CR7" s="123"/>
+      <c r="CS7" s="123"/>
+      <c r="CT7" s="124"/>
+      <c r="CU7" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="CV7" s="122"/>
-      <c r="CW7" s="122"/>
-      <c r="CX7" s="122"/>
-      <c r="CY7" s="122"/>
-      <c r="CZ7" s="122"/>
-      <c r="DA7" s="122"/>
-      <c r="DB7" s="122"/>
-      <c r="DC7" s="123"/>
-      <c r="DD7" s="121" t="s">
+      <c r="CV7" s="123"/>
+      <c r="CW7" s="123"/>
+      <c r="CX7" s="123"/>
+      <c r="CY7" s="123"/>
+      <c r="CZ7" s="123"/>
+      <c r="DA7" s="123"/>
+      <c r="DB7" s="123"/>
+      <c r="DC7" s="124"/>
+      <c r="DD7" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="DE7" s="122"/>
-      <c r="DF7" s="122"/>
-      <c r="DG7" s="122"/>
-      <c r="DH7" s="122"/>
-      <c r="DI7" s="122"/>
-      <c r="DJ7" s="122"/>
-      <c r="DK7" s="122"/>
-      <c r="DL7" s="123"/>
-      <c r="DM7" s="121" t="s">
+      <c r="DE7" s="123"/>
+      <c r="DF7" s="123"/>
+      <c r="DG7" s="123"/>
+      <c r="DH7" s="123"/>
+      <c r="DI7" s="123"/>
+      <c r="DJ7" s="123"/>
+      <c r="DK7" s="123"/>
+      <c r="DL7" s="124"/>
+      <c r="DM7" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="DN7" s="122"/>
-      <c r="DO7" s="122"/>
-      <c r="DP7" s="122"/>
-      <c r="DQ7" s="121" t="s">
+      <c r="DN7" s="123"/>
+      <c r="DO7" s="123"/>
+      <c r="DP7" s="123"/>
+      <c r="DQ7" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="DR7" s="123"/>
+      <c r="DR7" s="124"/>
     </row>
     <row r="8" spans="1:148" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
+      <c r="A8" s="145"/>
+      <c r="B8" s="145"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -8903,8 +8904,8 @@
       <c r="DR8" s="36"/>
     </row>
     <row r="9" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="161"/>
-      <c r="B9" s="161"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="48">
         <v>172</v>
       </c>
@@ -8932,10 +8933,10 @@
       <c r="K9" s="74">
         <v>4</v>
       </c>
-      <c r="L9" s="124">
+      <c r="L9" s="153">
         <v>5</v>
       </c>
-      <c r="M9" s="124"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="72">
         <v>7</v>
       </c>
@@ -8954,7 +8955,7 @@
       <c r="S9" s="74">
         <v>12</v>
       </c>
-      <c r="T9" s="124"/>
+      <c r="T9" s="153"/>
       <c r="U9" s="71">
         <v>13</v>
       </c>
@@ -9009,10 +9010,10 @@
       <c r="AL9" s="74">
         <v>30</v>
       </c>
-      <c r="AM9" s="124"/>
-      <c r="AN9" s="124"/>
-      <c r="AO9" s="124"/>
-      <c r="AP9" s="124"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
       <c r="AQ9" s="71">
         <v>31</v>
       </c>
@@ -9281,30 +9282,30 @@
       <c r="ER9"/>
     </row>
     <row r="10" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="164" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
       <c r="H10" s="68"/>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
       <c r="N10" s="65"/>
       <c r="O10" s="65"/>
       <c r="P10" s="65"/>
       <c r="Q10" s="65"/>
       <c r="R10" s="65"/>
       <c r="S10" s="65"/>
-      <c r="T10" s="125"/>
+      <c r="T10" s="154"/>
       <c r="U10" s="65"/>
       <c r="V10" s="65"/>
       <c r="W10" s="65"/>
@@ -9323,10 +9324,10 @@
       <c r="AJ10" s="65"/>
       <c r="AK10" s="65"/>
       <c r="AL10" s="65"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="154"/>
+      <c r="AO10" s="154"/>
+      <c r="AP10" s="154"/>
       <c r="AQ10" s="65"/>
       <c r="AR10" s="65"/>
       <c r="AS10" s="65"/>
@@ -9382,7 +9383,7 @@
       <c r="CQ10" s="65"/>
       <c r="CR10" s="65"/>
       <c r="CS10" s="103"/>
-      <c r="CT10" s="138" t="s">
+      <c r="CT10" s="155" t="s">
         <v>63</v>
       </c>
       <c r="CU10" s="25"/>
@@ -9394,25 +9395,25 @@
       <c r="DA10" s="65"/>
       <c r="DB10" s="65"/>
       <c r="DC10" s="103"/>
-      <c r="DD10" s="140" t="s">
+      <c r="DD10" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="DE10" s="141"/>
-      <c r="DF10" s="141"/>
-      <c r="DG10" s="141"/>
-      <c r="DH10" s="141"/>
-      <c r="DI10" s="141"/>
-      <c r="DJ10" s="141"/>
-      <c r="DK10" s="141"/>
-      <c r="DL10" s="142"/>
-      <c r="DM10" s="163" t="s">
+      <c r="DE10" s="112"/>
+      <c r="DF10" s="112"/>
+      <c r="DG10" s="112"/>
+      <c r="DH10" s="112"/>
+      <c r="DI10" s="112"/>
+      <c r="DJ10" s="112"/>
+      <c r="DK10" s="112"/>
+      <c r="DL10" s="113"/>
+      <c r="DM10" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="DN10" s="163"/>
-      <c r="DO10" s="163"/>
-      <c r="DP10" s="163"/>
-      <c r="DQ10" s="163"/>
-      <c r="DR10" s="164"/>
+      <c r="DN10" s="161"/>
+      <c r="DO10" s="161"/>
+      <c r="DP10" s="161"/>
+      <c r="DQ10" s="161"/>
+      <c r="DR10" s="162"/>
       <c r="DS10"/>
       <c r="DT10"/>
       <c r="DU10"/>
@@ -9441,28 +9442,28 @@
       <c r="ER10"/>
     </row>
     <row r="11" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
+      <c r="A11" s="141"/>
       <c r="B11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
       <c r="H11" s="75"/>
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
       <c r="N11" s="77"/>
       <c r="O11" s="77"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="77"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
-      <c r="T11" s="125"/>
+      <c r="T11" s="154"/>
       <c r="U11" s="77"/>
       <c r="V11" s="77"/>
       <c r="W11" s="77"/>
@@ -9481,10 +9482,10 @@
       <c r="AJ11" s="77"/>
       <c r="AK11" s="77"/>
       <c r="AL11" s="78"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
+      <c r="AM11" s="154"/>
+      <c r="AN11" s="154"/>
+      <c r="AO11" s="154"/>
+      <c r="AP11" s="154"/>
       <c r="AQ11" s="79"/>
       <c r="AR11" s="77"/>
       <c r="AS11" s="77"/>
@@ -9540,7 +9541,7 @@
       <c r="CQ11" s="77"/>
       <c r="CR11" s="77"/>
       <c r="CS11" s="78"/>
-      <c r="CT11" s="139"/>
+      <c r="CT11" s="156"/>
       <c r="CU11" s="105"/>
       <c r="CV11" s="77"/>
       <c r="CW11" s="77"/>
@@ -9550,21 +9551,21 @@
       <c r="DA11" s="77"/>
       <c r="DB11" s="77"/>
       <c r="DC11" s="78"/>
-      <c r="DD11" s="143"/>
-      <c r="DE11" s="144"/>
-      <c r="DF11" s="144"/>
-      <c r="DG11" s="144"/>
-      <c r="DH11" s="144"/>
-      <c r="DI11" s="144"/>
-      <c r="DJ11" s="144"/>
-      <c r="DK11" s="144"/>
-      <c r="DL11" s="145"/>
-      <c r="DM11" s="148"/>
-      <c r="DN11" s="148"/>
-      <c r="DO11" s="148"/>
-      <c r="DP11" s="148"/>
-      <c r="DQ11" s="148"/>
-      <c r="DR11" s="149"/>
+      <c r="DD11" s="114"/>
+      <c r="DE11" s="115"/>
+      <c r="DF11" s="115"/>
+      <c r="DG11" s="115"/>
+      <c r="DH11" s="115"/>
+      <c r="DI11" s="115"/>
+      <c r="DJ11" s="115"/>
+      <c r="DK11" s="115"/>
+      <c r="DL11" s="116"/>
+      <c r="DM11" s="119"/>
+      <c r="DN11" s="119"/>
+      <c r="DO11" s="119"/>
+      <c r="DP11" s="119"/>
+      <c r="DQ11" s="119"/>
+      <c r="DR11" s="120"/>
       <c r="DS11"/>
       <c r="DT11"/>
       <c r="DU11"/>
@@ -9593,28 +9594,28 @@
       <c r="ER11"/>
     </row>
     <row r="12" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
+      <c r="A12" s="141"/>
       <c r="B12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
       <c r="H12" s="67"/>
       <c r="I12" s="40"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
-      <c r="T12" s="125"/>
+      <c r="T12" s="154"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
@@ -9633,10 +9634,10 @@
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="22"/>
-      <c r="AM12" s="125"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="125"/>
-      <c r="AP12" s="125"/>
+      <c r="AM12" s="154"/>
+      <c r="AN12" s="154"/>
+      <c r="AO12" s="154"/>
+      <c r="AP12" s="154"/>
       <c r="AQ12" s="25"/>
       <c r="AR12" s="18"/>
       <c r="AS12" s="18"/>
@@ -9692,7 +9693,7 @@
       <c r="CQ12" s="18"/>
       <c r="CR12" s="18"/>
       <c r="CS12" s="22"/>
-      <c r="CT12" s="139"/>
+      <c r="CT12" s="156"/>
       <c r="CU12" s="85"/>
       <c r="CV12" s="18"/>
       <c r="CW12" s="18"/>
@@ -9702,45 +9703,45 @@
       <c r="DA12" s="18"/>
       <c r="DB12" s="18"/>
       <c r="DC12" s="22"/>
-      <c r="DD12" s="143"/>
-      <c r="DE12" s="144"/>
-      <c r="DF12" s="144"/>
-      <c r="DG12" s="144"/>
-      <c r="DH12" s="144"/>
-      <c r="DI12" s="144"/>
-      <c r="DJ12" s="144"/>
-      <c r="DK12" s="144"/>
-      <c r="DL12" s="145"/>
-      <c r="DM12" s="148"/>
-      <c r="DN12" s="148"/>
-      <c r="DO12" s="148"/>
-      <c r="DP12" s="148"/>
-      <c r="DQ12" s="148"/>
-      <c r="DR12" s="149"/>
+      <c r="DD12" s="114"/>
+      <c r="DE12" s="115"/>
+      <c r="DF12" s="115"/>
+      <c r="DG12" s="115"/>
+      <c r="DH12" s="115"/>
+      <c r="DI12" s="115"/>
+      <c r="DJ12" s="115"/>
+      <c r="DK12" s="115"/>
+      <c r="DL12" s="116"/>
+      <c r="DM12" s="119"/>
+      <c r="DN12" s="119"/>
+      <c r="DO12" s="119"/>
+      <c r="DP12" s="119"/>
+      <c r="DQ12" s="119"/>
+      <c r="DR12" s="120"/>
     </row>
     <row r="13" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
+      <c r="A13" s="141"/>
       <c r="B13" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
       <c r="H13" s="65"/>
       <c r="I13" s="67"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="125"/>
+      <c r="T13" s="154"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
@@ -9759,10 +9760,10 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="22"/>
-      <c r="AM13" s="125"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="125"/>
+      <c r="AM13" s="154"/>
+      <c r="AN13" s="154"/>
+      <c r="AO13" s="154"/>
+      <c r="AP13" s="154"/>
       <c r="AQ13" s="25"/>
       <c r="AR13" s="18"/>
       <c r="AS13" s="18"/>
@@ -9818,7 +9819,7 @@
       <c r="CQ13" s="18"/>
       <c r="CR13" s="18"/>
       <c r="CS13" s="22"/>
-      <c r="CT13" s="139"/>
+      <c r="CT13" s="156"/>
       <c r="CU13" s="85"/>
       <c r="CV13" s="18"/>
       <c r="CW13" s="18"/>
@@ -9828,21 +9829,21 @@
       <c r="DA13" s="18"/>
       <c r="DB13" s="18"/>
       <c r="DC13" s="22"/>
-      <c r="DD13" s="143"/>
-      <c r="DE13" s="144"/>
-      <c r="DF13" s="144"/>
-      <c r="DG13" s="144"/>
-      <c r="DH13" s="144"/>
-      <c r="DI13" s="144"/>
-      <c r="DJ13" s="144"/>
-      <c r="DK13" s="144"/>
-      <c r="DL13" s="145"/>
-      <c r="DM13" s="148"/>
-      <c r="DN13" s="148"/>
-      <c r="DO13" s="148"/>
-      <c r="DP13" s="148"/>
-      <c r="DQ13" s="148"/>
-      <c r="DR13" s="149"/>
+      <c r="DD13" s="114"/>
+      <c r="DE13" s="115"/>
+      <c r="DF13" s="115"/>
+      <c r="DG13" s="115"/>
+      <c r="DH13" s="115"/>
+      <c r="DI13" s="115"/>
+      <c r="DJ13" s="115"/>
+      <c r="DK13" s="115"/>
+      <c r="DL13" s="116"/>
+      <c r="DM13" s="119"/>
+      <c r="DN13" s="119"/>
+      <c r="DO13" s="119"/>
+      <c r="DP13" s="119"/>
+      <c r="DQ13" s="119"/>
+      <c r="DR13" s="120"/>
       <c r="DS13"/>
       <c r="DT13"/>
       <c r="DU13"/>
@@ -9871,28 +9872,28 @@
       <c r="ER13"/>
     </row>
     <row r="14" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="141"/>
       <c r="B14" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
       <c r="H14" s="65"/>
       <c r="I14" s="67"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="125"/>
+      <c r="T14" s="154"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
@@ -9911,10 +9912,10 @@
       <c r="AJ14" s="18"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="22"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
+      <c r="AM14" s="154"/>
+      <c r="AN14" s="154"/>
+      <c r="AO14" s="154"/>
+      <c r="AP14" s="154"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="18"/>
       <c r="AS14" s="18"/>
@@ -9970,7 +9971,7 @@
       <c r="CQ14" s="18"/>
       <c r="CR14" s="18"/>
       <c r="CS14" s="22"/>
-      <c r="CT14" s="139"/>
+      <c r="CT14" s="156"/>
       <c r="CU14" s="85"/>
       <c r="CV14" s="18"/>
       <c r="CW14" s="18"/>
@@ -9980,21 +9981,21 @@
       <c r="DA14" s="18"/>
       <c r="DB14" s="18"/>
       <c r="DC14" s="22"/>
-      <c r="DD14" s="143"/>
-      <c r="DE14" s="144"/>
-      <c r="DF14" s="144"/>
-      <c r="DG14" s="144"/>
-      <c r="DH14" s="144"/>
-      <c r="DI14" s="144"/>
-      <c r="DJ14" s="144"/>
-      <c r="DK14" s="144"/>
-      <c r="DL14" s="145"/>
-      <c r="DM14" s="148"/>
-      <c r="DN14" s="148"/>
-      <c r="DO14" s="148"/>
-      <c r="DP14" s="148"/>
-      <c r="DQ14" s="148"/>
-      <c r="DR14" s="149"/>
+      <c r="DD14" s="114"/>
+      <c r="DE14" s="115"/>
+      <c r="DF14" s="115"/>
+      <c r="DG14" s="115"/>
+      <c r="DH14" s="115"/>
+      <c r="DI14" s="115"/>
+      <c r="DJ14" s="115"/>
+      <c r="DK14" s="115"/>
+      <c r="DL14" s="116"/>
+      <c r="DM14" s="119"/>
+      <c r="DN14" s="119"/>
+      <c r="DO14" s="119"/>
+      <c r="DP14" s="119"/>
+      <c r="DQ14" s="119"/>
+      <c r="DR14" s="120"/>
       <c r="DS14"/>
       <c r="DT14"/>
       <c r="DU14"/>
@@ -10023,28 +10024,28 @@
       <c r="ER14"/>
     </row>
     <row r="15" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="126"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
       <c r="H15" s="65"/>
       <c r="I15" s="68"/>
       <c r="J15" s="67"/>
       <c r="K15" s="67"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
       <c r="N15" s="69"/>
       <c r="O15" s="69"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
-      <c r="T15" s="125"/>
+      <c r="T15" s="154"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
@@ -10063,10 +10064,10 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="22"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
+      <c r="AM15" s="154"/>
+      <c r="AN15" s="154"/>
+      <c r="AO15" s="154"/>
+      <c r="AP15" s="154"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
@@ -10122,7 +10123,7 @@
       <c r="CQ15" s="18"/>
       <c r="CR15" s="18"/>
       <c r="CS15" s="22"/>
-      <c r="CT15" s="139"/>
+      <c r="CT15" s="156"/>
       <c r="CU15" s="85"/>
       <c r="CV15" s="18"/>
       <c r="CW15" s="18"/>
@@ -10132,21 +10133,21 @@
       <c r="DA15" s="18"/>
       <c r="DB15" s="18"/>
       <c r="DC15" s="22"/>
-      <c r="DD15" s="143"/>
-      <c r="DE15" s="144"/>
-      <c r="DF15" s="144"/>
-      <c r="DG15" s="144"/>
-      <c r="DH15" s="144"/>
-      <c r="DI15" s="144"/>
-      <c r="DJ15" s="144"/>
-      <c r="DK15" s="144"/>
-      <c r="DL15" s="145"/>
-      <c r="DM15" s="148"/>
-      <c r="DN15" s="148"/>
-      <c r="DO15" s="148"/>
-      <c r="DP15" s="148"/>
-      <c r="DQ15" s="148"/>
-      <c r="DR15" s="149"/>
+      <c r="DD15" s="114"/>
+      <c r="DE15" s="115"/>
+      <c r="DF15" s="115"/>
+      <c r="DG15" s="115"/>
+      <c r="DH15" s="115"/>
+      <c r="DI15" s="115"/>
+      <c r="DJ15" s="115"/>
+      <c r="DK15" s="115"/>
+      <c r="DL15" s="116"/>
+      <c r="DM15" s="119"/>
+      <c r="DN15" s="119"/>
+      <c r="DO15" s="119"/>
+      <c r="DP15" s="119"/>
+      <c r="DQ15" s="119"/>
+      <c r="DR15" s="120"/>
       <c r="DS15"/>
       <c r="DT15"/>
       <c r="DU15"/>
@@ -10175,28 +10176,28 @@
       <c r="ER15"/>
     </row>
     <row r="16" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="126"/>
+      <c r="A16" s="141"/>
       <c r="B16" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
       <c r="H16" s="65"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
       <c r="N16" s="69"/>
       <c r="O16" s="69"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
       <c r="S16" s="19"/>
-      <c r="T16" s="125"/>
+      <c r="T16" s="154"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
@@ -10215,10 +10216,10 @@
       <c r="AJ16" s="18"/>
       <c r="AK16" s="18"/>
       <c r="AL16" s="22"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
       <c r="AQ16" s="25"/>
       <c r="AR16" s="18"/>
       <c r="AS16" s="18"/>
@@ -10274,7 +10275,7 @@
       <c r="CQ16" s="18"/>
       <c r="CR16" s="18"/>
       <c r="CS16" s="22"/>
-      <c r="CT16" s="139"/>
+      <c r="CT16" s="156"/>
       <c r="CU16" s="85"/>
       <c r="CV16" s="18"/>
       <c r="CW16" s="18"/>
@@ -10284,21 +10285,21 @@
       <c r="DA16" s="18"/>
       <c r="DB16" s="18"/>
       <c r="DC16" s="22"/>
-      <c r="DD16" s="143"/>
-      <c r="DE16" s="144"/>
-      <c r="DF16" s="144"/>
-      <c r="DG16" s="144"/>
-      <c r="DH16" s="144"/>
-      <c r="DI16" s="144"/>
-      <c r="DJ16" s="144"/>
-      <c r="DK16" s="144"/>
-      <c r="DL16" s="145"/>
-      <c r="DM16" s="148"/>
-      <c r="DN16" s="148"/>
-      <c r="DO16" s="148"/>
-      <c r="DP16" s="148"/>
-      <c r="DQ16" s="148"/>
-      <c r="DR16" s="149"/>
+      <c r="DD16" s="114"/>
+      <c r="DE16" s="115"/>
+      <c r="DF16" s="115"/>
+      <c r="DG16" s="115"/>
+      <c r="DH16" s="115"/>
+      <c r="DI16" s="115"/>
+      <c r="DJ16" s="115"/>
+      <c r="DK16" s="115"/>
+      <c r="DL16" s="116"/>
+      <c r="DM16" s="119"/>
+      <c r="DN16" s="119"/>
+      <c r="DO16" s="119"/>
+      <c r="DP16" s="119"/>
+      <c r="DQ16" s="119"/>
+      <c r="DR16" s="120"/>
       <c r="DS16"/>
       <c r="DT16"/>
       <c r="DU16"/>
@@ -10327,28 +10328,28 @@
       <c r="ER16"/>
     </row>
     <row r="17" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="126"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
       <c r="N17" s="19"/>
       <c r="O17" s="69"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
-      <c r="T17" s="125"/>
+      <c r="T17" s="154"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
@@ -10367,10 +10368,10 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="22"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
       <c r="AQ17" s="25"/>
       <c r="AR17" s="18"/>
       <c r="AS17" s="18"/>
@@ -10426,7 +10427,7 @@
       <c r="CQ17" s="18"/>
       <c r="CR17" s="18"/>
       <c r="CS17" s="22"/>
-      <c r="CT17" s="139"/>
+      <c r="CT17" s="156"/>
       <c r="CU17" s="85"/>
       <c r="CV17" s="18"/>
       <c r="CW17" s="18"/>
@@ -10436,45 +10437,45 @@
       <c r="DA17" s="18"/>
       <c r="DB17" s="18"/>
       <c r="DC17" s="22"/>
-      <c r="DD17" s="143"/>
-      <c r="DE17" s="144"/>
-      <c r="DF17" s="144"/>
-      <c r="DG17" s="144"/>
-      <c r="DH17" s="144"/>
-      <c r="DI17" s="144"/>
-      <c r="DJ17" s="144"/>
-      <c r="DK17" s="144"/>
-      <c r="DL17" s="145"/>
-      <c r="DM17" s="148"/>
-      <c r="DN17" s="148"/>
-      <c r="DO17" s="148"/>
-      <c r="DP17" s="148"/>
-      <c r="DQ17" s="148"/>
-      <c r="DR17" s="149"/>
+      <c r="DD17" s="114"/>
+      <c r="DE17" s="115"/>
+      <c r="DF17" s="115"/>
+      <c r="DG17" s="115"/>
+      <c r="DH17" s="115"/>
+      <c r="DI17" s="115"/>
+      <c r="DJ17" s="115"/>
+      <c r="DK17" s="115"/>
+      <c r="DL17" s="116"/>
+      <c r="DM17" s="119"/>
+      <c r="DN17" s="119"/>
+      <c r="DO17" s="119"/>
+      <c r="DP17" s="119"/>
+      <c r="DQ17" s="119"/>
+      <c r="DR17" s="120"/>
     </row>
     <row r="18" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="126"/>
+      <c r="A18" s="141"/>
       <c r="B18" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
       <c r="N18" s="19"/>
       <c r="O18" s="69"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="125"/>
+      <c r="T18" s="154"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
@@ -10493,10 +10494,10 @@
       <c r="AJ18" s="18"/>
       <c r="AK18" s="18"/>
       <c r="AL18" s="22"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
       <c r="AQ18" s="25"/>
       <c r="AR18" s="18"/>
       <c r="AS18" s="18"/>
@@ -10552,7 +10553,7 @@
       <c r="CQ18" s="18"/>
       <c r="CR18" s="18"/>
       <c r="CS18" s="22"/>
-      <c r="CT18" s="139"/>
+      <c r="CT18" s="156"/>
       <c r="CU18" s="85"/>
       <c r="CV18" s="18"/>
       <c r="CW18" s="18"/>
@@ -10562,43 +10563,43 @@
       <c r="DA18" s="18"/>
       <c r="DB18" s="18"/>
       <c r="DC18" s="22"/>
-      <c r="DD18" s="143"/>
-      <c r="DE18" s="144"/>
-      <c r="DF18" s="144"/>
-      <c r="DG18" s="144"/>
-      <c r="DH18" s="144"/>
-      <c r="DI18" s="144"/>
-      <c r="DJ18" s="144"/>
-      <c r="DK18" s="144"/>
-      <c r="DL18" s="145"/>
-      <c r="DM18" s="148"/>
-      <c r="DN18" s="148"/>
-      <c r="DO18" s="148"/>
-      <c r="DP18" s="148"/>
-      <c r="DQ18" s="148"/>
-      <c r="DR18" s="149"/>
+      <c r="DD18" s="114"/>
+      <c r="DE18" s="115"/>
+      <c r="DF18" s="115"/>
+      <c r="DG18" s="115"/>
+      <c r="DH18" s="115"/>
+      <c r="DI18" s="115"/>
+      <c r="DJ18" s="115"/>
+      <c r="DK18" s="115"/>
+      <c r="DL18" s="116"/>
+      <c r="DM18" s="119"/>
+      <c r="DN18" s="119"/>
+      <c r="DO18" s="119"/>
+      <c r="DP18" s="119"/>
+      <c r="DQ18" s="119"/>
+      <c r="DR18" s="120"/>
     </row>
     <row r="19" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
       <c r="P19" s="43"/>
       <c r="Q19" s="43"/>
       <c r="R19" s="43"/>
       <c r="S19" s="42"/>
-      <c r="T19" s="125"/>
+      <c r="T19" s="154"/>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
@@ -10617,10 +10618,10 @@
       <c r="AJ19" s="42"/>
       <c r="AK19" s="42"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
       <c r="AQ19" s="45"/>
       <c r="AR19" s="42"/>
       <c r="AS19" s="42"/>
@@ -10676,7 +10677,7 @@
       <c r="CQ19" s="42"/>
       <c r="CR19" s="42"/>
       <c r="CS19" s="44"/>
-      <c r="CT19" s="139"/>
+      <c r="CT19" s="156"/>
       <c r="CU19" s="45"/>
       <c r="CV19" s="42"/>
       <c r="CW19" s="42"/>
@@ -10686,47 +10687,47 @@
       <c r="DA19" s="42"/>
       <c r="DB19" s="42"/>
       <c r="DC19" s="44"/>
-      <c r="DD19" s="143"/>
-      <c r="DE19" s="144"/>
-      <c r="DF19" s="144"/>
-      <c r="DG19" s="144"/>
-      <c r="DH19" s="144"/>
-      <c r="DI19" s="144"/>
-      <c r="DJ19" s="144"/>
-      <c r="DK19" s="144"/>
-      <c r="DL19" s="145"/>
-      <c r="DM19" s="148"/>
-      <c r="DN19" s="148"/>
-      <c r="DO19" s="148"/>
-      <c r="DP19" s="148"/>
-      <c r="DQ19" s="148"/>
-      <c r="DR19" s="149"/>
+      <c r="DD19" s="114"/>
+      <c r="DE19" s="115"/>
+      <c r="DF19" s="115"/>
+      <c r="DG19" s="115"/>
+      <c r="DH19" s="115"/>
+      <c r="DI19" s="115"/>
+      <c r="DJ19" s="115"/>
+      <c r="DK19" s="115"/>
+      <c r="DL19" s="116"/>
+      <c r="DM19" s="119"/>
+      <c r="DN19" s="119"/>
+      <c r="DO19" s="119"/>
+      <c r="DP19" s="119"/>
+      <c r="DQ19" s="119"/>
+      <c r="DR19" s="120"/>
     </row>
     <row r="20" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="141" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="135"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
       <c r="N20" s="19"/>
       <c r="O20" s="69"/>
       <c r="P20" s="69"/>
       <c r="Q20" s="69"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="125"/>
+      <c r="T20" s="154"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
@@ -10745,10 +10746,10 @@
       <c r="AJ20" s="19"/>
       <c r="AK20" s="19"/>
       <c r="AL20" s="19"/>
-      <c r="AM20" s="125"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
+      <c r="AM20" s="154"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
       <c r="AQ20" s="26"/>
       <c r="AR20" s="19"/>
       <c r="AS20" s="19"/>
@@ -10804,7 +10805,7 @@
       <c r="CQ20" s="19"/>
       <c r="CR20" s="19"/>
       <c r="CS20" s="23"/>
-      <c r="CT20" s="139"/>
+      <c r="CT20" s="156"/>
       <c r="CU20" s="27"/>
       <c r="CV20" s="19"/>
       <c r="CW20" s="19"/>
@@ -10814,45 +10815,45 @@
       <c r="DA20" s="19"/>
       <c r="DB20" s="19"/>
       <c r="DC20" s="23"/>
-      <c r="DD20" s="143"/>
-      <c r="DE20" s="144"/>
-      <c r="DF20" s="144"/>
-      <c r="DG20" s="144"/>
-      <c r="DH20" s="144"/>
-      <c r="DI20" s="144"/>
-      <c r="DJ20" s="144"/>
-      <c r="DK20" s="144"/>
-      <c r="DL20" s="145"/>
-      <c r="DM20" s="148"/>
-      <c r="DN20" s="148"/>
-      <c r="DO20" s="148"/>
-      <c r="DP20" s="148"/>
-      <c r="DQ20" s="148"/>
-      <c r="DR20" s="149"/>
+      <c r="DD20" s="114"/>
+      <c r="DE20" s="115"/>
+      <c r="DF20" s="115"/>
+      <c r="DG20" s="115"/>
+      <c r="DH20" s="115"/>
+      <c r="DI20" s="115"/>
+      <c r="DJ20" s="115"/>
+      <c r="DK20" s="115"/>
+      <c r="DL20" s="116"/>
+      <c r="DM20" s="119"/>
+      <c r="DN20" s="119"/>
+      <c r="DO20" s="119"/>
+      <c r="DP20" s="119"/>
+      <c r="DQ20" s="119"/>
+      <c r="DR20" s="120"/>
     </row>
     <row r="21" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="126"/>
+      <c r="A21" s="141"/>
       <c r="B21" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="69"/>
       <c r="R21" s="69"/>
       <c r="S21" s="69"/>
-      <c r="T21" s="125"/>
+      <c r="T21" s="154"/>
       <c r="U21" s="69"/>
       <c r="V21" s="69"/>
       <c r="W21" s="69"/>
@@ -10871,10 +10872,10 @@
       <c r="AJ21" s="69"/>
       <c r="AK21" s="69"/>
       <c r="AL21" s="69"/>
-      <c r="AM21" s="125"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="97"/>
       <c r="AR21" s="69"/>
       <c r="AS21" s="69"/>
@@ -10930,7 +10931,7 @@
       <c r="CQ21" s="19"/>
       <c r="CR21" s="19"/>
       <c r="CS21" s="23"/>
-      <c r="CT21" s="139"/>
+      <c r="CT21" s="156"/>
       <c r="CU21" s="27"/>
       <c r="CV21" s="19"/>
       <c r="CW21" s="19"/>
@@ -10940,45 +10941,45 @@
       <c r="DA21" s="19"/>
       <c r="DB21" s="19"/>
       <c r="DC21" s="23"/>
-      <c r="DD21" s="143"/>
-      <c r="DE21" s="144"/>
-      <c r="DF21" s="144"/>
-      <c r="DG21" s="144"/>
-      <c r="DH21" s="144"/>
-      <c r="DI21" s="144"/>
-      <c r="DJ21" s="144"/>
-      <c r="DK21" s="144"/>
-      <c r="DL21" s="145"/>
-      <c r="DM21" s="148"/>
-      <c r="DN21" s="148"/>
-      <c r="DO21" s="148"/>
-      <c r="DP21" s="148"/>
-      <c r="DQ21" s="148"/>
-      <c r="DR21" s="149"/>
+      <c r="DD21" s="114"/>
+      <c r="DE21" s="115"/>
+      <c r="DF21" s="115"/>
+      <c r="DG21" s="115"/>
+      <c r="DH21" s="115"/>
+      <c r="DI21" s="115"/>
+      <c r="DJ21" s="115"/>
+      <c r="DK21" s="115"/>
+      <c r="DL21" s="116"/>
+      <c r="DM21" s="119"/>
+      <c r="DN21" s="119"/>
+      <c r="DO21" s="119"/>
+      <c r="DP21" s="119"/>
+      <c r="DQ21" s="119"/>
+      <c r="DR21" s="120"/>
     </row>
     <row r="22" spans="1:148" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="126"/>
+      <c r="A22" s="141"/>
       <c r="B22" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
       <c r="N22" s="19"/>
       <c r="O22" s="69"/>
       <c r="P22" s="69"/>
       <c r="Q22" s="69"/>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
-      <c r="T22" s="125"/>
+      <c r="T22" s="154"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
@@ -10997,10 +10998,10 @@
       <c r="AJ22" s="19"/>
       <c r="AK22" s="19"/>
       <c r="AL22" s="19"/>
-      <c r="AM22" s="125"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
       <c r="AQ22" s="26"/>
       <c r="AR22" s="47"/>
       <c r="AS22" s="47"/>
@@ -11056,7 +11057,7 @@
       <c r="CQ22" s="19"/>
       <c r="CR22" s="19"/>
       <c r="CS22" s="23"/>
-      <c r="CT22" s="139"/>
+      <c r="CT22" s="156"/>
       <c r="CU22" s="27"/>
       <c r="CV22" s="19"/>
       <c r="CW22" s="19"/>
@@ -11066,45 +11067,45 @@
       <c r="DA22" s="19"/>
       <c r="DB22" s="19"/>
       <c r="DC22" s="23"/>
-      <c r="DD22" s="143"/>
-      <c r="DE22" s="144"/>
-      <c r="DF22" s="144"/>
-      <c r="DG22" s="144"/>
-      <c r="DH22" s="144"/>
-      <c r="DI22" s="144"/>
-      <c r="DJ22" s="144"/>
-      <c r="DK22" s="144"/>
-      <c r="DL22" s="145"/>
-      <c r="DM22" s="148"/>
-      <c r="DN22" s="148"/>
-      <c r="DO22" s="148"/>
-      <c r="DP22" s="148"/>
-      <c r="DQ22" s="148"/>
-      <c r="DR22" s="149"/>
+      <c r="DD22" s="114"/>
+      <c r="DE22" s="115"/>
+      <c r="DF22" s="115"/>
+      <c r="DG22" s="115"/>
+      <c r="DH22" s="115"/>
+      <c r="DI22" s="115"/>
+      <c r="DJ22" s="115"/>
+      <c r="DK22" s="115"/>
+      <c r="DL22" s="116"/>
+      <c r="DM22" s="119"/>
+      <c r="DN22" s="119"/>
+      <c r="DO22" s="119"/>
+      <c r="DP22" s="119"/>
+      <c r="DQ22" s="119"/>
+      <c r="DR22" s="120"/>
     </row>
     <row r="23" spans="1:148" ht="46.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="126"/>
+      <c r="A23" s="141"/>
       <c r="B23" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="135"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
       <c r="N23" s="19"/>
       <c r="O23" s="47"/>
       <c r="P23" s="47"/>
       <c r="Q23" s="47"/>
       <c r="R23" s="69"/>
       <c r="S23" s="69"/>
-      <c r="T23" s="125"/>
+      <c r="T23" s="154"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
@@ -11123,10 +11124,10 @@
       <c r="AJ23" s="19"/>
       <c r="AK23" s="19"/>
       <c r="AL23" s="19"/>
-      <c r="AM23" s="125"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
+      <c r="AM23" s="154"/>
+      <c r="AN23" s="154"/>
+      <c r="AO23" s="154"/>
+      <c r="AP23" s="154"/>
       <c r="AQ23" s="26"/>
       <c r="AR23" s="47"/>
       <c r="AS23" s="47"/>
@@ -11182,7 +11183,7 @@
       <c r="CQ23" s="19"/>
       <c r="CR23" s="19"/>
       <c r="CS23" s="23"/>
-      <c r="CT23" s="139"/>
+      <c r="CT23" s="156"/>
       <c r="CU23" s="27"/>
       <c r="CV23" s="19"/>
       <c r="CW23" s="19"/>
@@ -11192,45 +11193,45 @@
       <c r="DA23" s="19"/>
       <c r="DB23" s="19"/>
       <c r="DC23" s="23"/>
-      <c r="DD23" s="143"/>
-      <c r="DE23" s="144"/>
-      <c r="DF23" s="144"/>
-      <c r="DG23" s="144"/>
-      <c r="DH23" s="144"/>
-      <c r="DI23" s="144"/>
-      <c r="DJ23" s="144"/>
-      <c r="DK23" s="144"/>
-      <c r="DL23" s="145"/>
-      <c r="DM23" s="148"/>
-      <c r="DN23" s="148"/>
-      <c r="DO23" s="148"/>
-      <c r="DP23" s="148"/>
-      <c r="DQ23" s="148"/>
-      <c r="DR23" s="149"/>
+      <c r="DD23" s="114"/>
+      <c r="DE23" s="115"/>
+      <c r="DF23" s="115"/>
+      <c r="DG23" s="115"/>
+      <c r="DH23" s="115"/>
+      <c r="DI23" s="115"/>
+      <c r="DJ23" s="115"/>
+      <c r="DK23" s="115"/>
+      <c r="DL23" s="116"/>
+      <c r="DM23" s="119"/>
+      <c r="DN23" s="119"/>
+      <c r="DO23" s="119"/>
+      <c r="DP23" s="119"/>
+      <c r="DQ23" s="119"/>
+      <c r="DR23" s="120"/>
     </row>
     <row r="24" spans="1:148" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="126"/>
+      <c r="A24" s="141"/>
       <c r="B24" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
+      <c r="P24" s="165"/>
+      <c r="Q24" s="165"/>
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
-      <c r="T24" s="125"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="69"/>
       <c r="V24" s="69"/>
       <c r="W24" s="69"/>
@@ -11249,10 +11250,10 @@
       <c r="AJ24" s="19"/>
       <c r="AK24" s="19"/>
       <c r="AL24" s="19"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
+      <c r="AM24" s="154"/>
+      <c r="AN24" s="154"/>
+      <c r="AO24" s="154"/>
+      <c r="AP24" s="154"/>
       <c r="AQ24" s="19"/>
       <c r="AR24" s="19"/>
       <c r="AS24" s="19"/>
@@ -11308,7 +11309,7 @@
       <c r="CQ24" s="19"/>
       <c r="CR24" s="19"/>
       <c r="CS24" s="23"/>
-      <c r="CT24" s="139"/>
+      <c r="CT24" s="156"/>
       <c r="CU24" s="27"/>
       <c r="CV24" s="19"/>
       <c r="CW24" s="19"/>
@@ -11318,21 +11319,21 @@
       <c r="DA24" s="19"/>
       <c r="DB24" s="19"/>
       <c r="DC24" s="23"/>
-      <c r="DD24" s="143"/>
-      <c r="DE24" s="144"/>
-      <c r="DF24" s="144"/>
-      <c r="DG24" s="144"/>
-      <c r="DH24" s="144"/>
-      <c r="DI24" s="144"/>
-      <c r="DJ24" s="144"/>
-      <c r="DK24" s="144"/>
-      <c r="DL24" s="145"/>
-      <c r="DM24" s="148"/>
-      <c r="DN24" s="148"/>
-      <c r="DO24" s="148"/>
-      <c r="DP24" s="148"/>
-      <c r="DQ24" s="148"/>
-      <c r="DR24" s="149"/>
+      <c r="DD24" s="114"/>
+      <c r="DE24" s="115"/>
+      <c r="DF24" s="115"/>
+      <c r="DG24" s="115"/>
+      <c r="DH24" s="115"/>
+      <c r="DI24" s="115"/>
+      <c r="DJ24" s="115"/>
+      <c r="DK24" s="115"/>
+      <c r="DL24" s="116"/>
+      <c r="DM24" s="119"/>
+      <c r="DN24" s="119"/>
+      <c r="DO24" s="119"/>
+      <c r="DP24" s="119"/>
+      <c r="DQ24" s="119"/>
+      <c r="DR24" s="120"/>
       <c r="DS24"/>
       <c r="DT24"/>
       <c r="DU24"/>
@@ -11361,28 +11362,28 @@
       <c r="ER24"/>
     </row>
     <row r="25" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="126"/>
+      <c r="A25" s="141"/>
       <c r="B25" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
+      <c r="L25" s="154"/>
+      <c r="M25" s="154"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
       <c r="S25" s="19"/>
-      <c r="T25" s="125"/>
+      <c r="T25" s="154"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
@@ -11401,10 +11402,10 @@
       <c r="AJ25" s="19"/>
       <c r="AK25" s="19"/>
       <c r="AL25" s="19"/>
-      <c r="AM25" s="125"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
+      <c r="AM25" s="154"/>
+      <c r="AN25" s="154"/>
+      <c r="AO25" s="154"/>
+      <c r="AP25" s="154"/>
       <c r="AQ25" s="19"/>
       <c r="AR25" s="19"/>
       <c r="AS25" s="19"/>
@@ -11460,7 +11461,7 @@
       <c r="CQ25" s="19"/>
       <c r="CR25" s="19"/>
       <c r="CS25" s="23"/>
-      <c r="CT25" s="139"/>
+      <c r="CT25" s="156"/>
       <c r="CU25" s="27"/>
       <c r="CV25" s="19"/>
       <c r="CW25" s="19"/>
@@ -11470,21 +11471,21 @@
       <c r="DA25" s="19"/>
       <c r="DB25" s="19"/>
       <c r="DC25" s="23"/>
-      <c r="DD25" s="143"/>
-      <c r="DE25" s="144"/>
-      <c r="DF25" s="144"/>
-      <c r="DG25" s="144"/>
-      <c r="DH25" s="144"/>
-      <c r="DI25" s="144"/>
-      <c r="DJ25" s="144"/>
-      <c r="DK25" s="144"/>
-      <c r="DL25" s="145"/>
-      <c r="DM25" s="148"/>
-      <c r="DN25" s="148"/>
-      <c r="DO25" s="148"/>
-      <c r="DP25" s="148"/>
-      <c r="DQ25" s="148"/>
-      <c r="DR25" s="149"/>
+      <c r="DD25" s="114"/>
+      <c r="DE25" s="115"/>
+      <c r="DF25" s="115"/>
+      <c r="DG25" s="115"/>
+      <c r="DH25" s="115"/>
+      <c r="DI25" s="115"/>
+      <c r="DJ25" s="115"/>
+      <c r="DK25" s="115"/>
+      <c r="DL25" s="116"/>
+      <c r="DM25" s="119"/>
+      <c r="DN25" s="119"/>
+      <c r="DO25" s="119"/>
+      <c r="DP25" s="119"/>
+      <c r="DQ25" s="119"/>
+      <c r="DR25" s="120"/>
       <c r="DS25"/>
       <c r="DT25"/>
       <c r="DU25"/>
@@ -11513,28 +11514,28 @@
       <c r="ER25"/>
     </row>
     <row r="26" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="126"/>
+      <c r="A26" s="141"/>
       <c r="B26" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
       <c r="S26" s="19"/>
-      <c r="T26" s="125"/>
+      <c r="T26" s="154"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
@@ -11553,10 +11554,10 @@
       <c r="AJ26" s="19"/>
       <c r="AK26" s="19"/>
       <c r="AL26" s="19"/>
-      <c r="AM26" s="125"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
+      <c r="AM26" s="154"/>
+      <c r="AN26" s="154"/>
+      <c r="AO26" s="154"/>
+      <c r="AP26" s="154"/>
       <c r="AQ26" s="19"/>
       <c r="AR26" s="19"/>
       <c r="AS26" s="19"/>
@@ -11612,7 +11613,7 @@
       <c r="CQ26" s="19"/>
       <c r="CR26" s="19"/>
       <c r="CS26" s="23"/>
-      <c r="CT26" s="139"/>
+      <c r="CT26" s="156"/>
       <c r="CU26" s="27"/>
       <c r="CV26" s="19"/>
       <c r="CW26" s="19"/>
@@ -11622,21 +11623,21 @@
       <c r="DA26" s="19"/>
       <c r="DB26" s="19"/>
       <c r="DC26" s="23"/>
-      <c r="DD26" s="143"/>
-      <c r="DE26" s="144"/>
-      <c r="DF26" s="144"/>
-      <c r="DG26" s="144"/>
-      <c r="DH26" s="144"/>
-      <c r="DI26" s="144"/>
-      <c r="DJ26" s="144"/>
-      <c r="DK26" s="144"/>
-      <c r="DL26" s="145"/>
-      <c r="DM26" s="148"/>
-      <c r="DN26" s="148"/>
-      <c r="DO26" s="148"/>
-      <c r="DP26" s="148"/>
-      <c r="DQ26" s="148"/>
-      <c r="DR26" s="149"/>
+      <c r="DD26" s="114"/>
+      <c r="DE26" s="115"/>
+      <c r="DF26" s="115"/>
+      <c r="DG26" s="115"/>
+      <c r="DH26" s="115"/>
+      <c r="DI26" s="115"/>
+      <c r="DJ26" s="115"/>
+      <c r="DK26" s="115"/>
+      <c r="DL26" s="116"/>
+      <c r="DM26" s="119"/>
+      <c r="DN26" s="119"/>
+      <c r="DO26" s="119"/>
+      <c r="DP26" s="119"/>
+      <c r="DQ26" s="119"/>
+      <c r="DR26" s="120"/>
       <c r="DS26"/>
       <c r="DT26"/>
       <c r="DU26"/>
@@ -11665,28 +11666,28 @@
       <c r="ER26"/>
     </row>
     <row r="27" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="126"/>
+      <c r="A27" s="141"/>
       <c r="B27" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
       <c r="S27" s="19"/>
-      <c r="T27" s="125"/>
+      <c r="T27" s="154"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
@@ -11705,10 +11706,10 @@
       <c r="AJ27" s="19"/>
       <c r="AK27" s="19"/>
       <c r="AL27" s="19"/>
-      <c r="AM27" s="125"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="125"/>
-      <c r="AP27" s="125"/>
+      <c r="AM27" s="154"/>
+      <c r="AN27" s="154"/>
+      <c r="AO27" s="154"/>
+      <c r="AP27" s="154"/>
       <c r="AQ27" s="19"/>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
@@ -11764,7 +11765,7 @@
       <c r="CQ27" s="19"/>
       <c r="CR27" s="19"/>
       <c r="CS27" s="23"/>
-      <c r="CT27" s="139"/>
+      <c r="CT27" s="156"/>
       <c r="CU27" s="27"/>
       <c r="CV27" s="19"/>
       <c r="CW27" s="19"/>
@@ -11774,21 +11775,21 @@
       <c r="DA27" s="19"/>
       <c r="DB27" s="19"/>
       <c r="DC27" s="23"/>
-      <c r="DD27" s="143"/>
-      <c r="DE27" s="144"/>
-      <c r="DF27" s="144"/>
-      <c r="DG27" s="144"/>
-      <c r="DH27" s="144"/>
-      <c r="DI27" s="144"/>
-      <c r="DJ27" s="144"/>
-      <c r="DK27" s="144"/>
-      <c r="DL27" s="145"/>
-      <c r="DM27" s="148"/>
-      <c r="DN27" s="148"/>
-      <c r="DO27" s="148"/>
-      <c r="DP27" s="148"/>
-      <c r="DQ27" s="148"/>
-      <c r="DR27" s="149"/>
+      <c r="DD27" s="114"/>
+      <c r="DE27" s="115"/>
+      <c r="DF27" s="115"/>
+      <c r="DG27" s="115"/>
+      <c r="DH27" s="115"/>
+      <c r="DI27" s="115"/>
+      <c r="DJ27" s="115"/>
+      <c r="DK27" s="115"/>
+      <c r="DL27" s="116"/>
+      <c r="DM27" s="119"/>
+      <c r="DN27" s="119"/>
+      <c r="DO27" s="119"/>
+      <c r="DP27" s="119"/>
+      <c r="DQ27" s="119"/>
+      <c r="DR27" s="120"/>
       <c r="DS27"/>
       <c r="DT27"/>
       <c r="DU27"/>
@@ -11817,28 +11818,28 @@
       <c r="ER27"/>
     </row>
     <row r="28" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="126"/>
+      <c r="A28" s="141"/>
       <c r="B28" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="19"/>
       <c r="S28" s="19"/>
-      <c r="T28" s="125"/>
+      <c r="T28" s="154"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
@@ -11857,10 +11858,10 @@
       <c r="AJ28" s="19"/>
       <c r="AK28" s="19"/>
       <c r="AL28" s="19"/>
-      <c r="AM28" s="125"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="125"/>
-      <c r="AP28" s="125"/>
+      <c r="AM28" s="154"/>
+      <c r="AN28" s="154"/>
+      <c r="AO28" s="154"/>
+      <c r="AP28" s="154"/>
       <c r="AQ28" s="19"/>
       <c r="AR28" s="19"/>
       <c r="AS28" s="19"/>
@@ -11916,7 +11917,7 @@
       <c r="CQ28" s="19"/>
       <c r="CR28" s="19"/>
       <c r="CS28" s="23"/>
-      <c r="CT28" s="139"/>
+      <c r="CT28" s="156"/>
       <c r="CU28" s="27"/>
       <c r="CV28" s="19"/>
       <c r="CW28" s="19"/>
@@ -11926,45 +11927,45 @@
       <c r="DA28" s="19"/>
       <c r="DB28" s="19"/>
       <c r="DC28" s="23"/>
-      <c r="DD28" s="143"/>
-      <c r="DE28" s="144"/>
-      <c r="DF28" s="144"/>
-      <c r="DG28" s="144"/>
-      <c r="DH28" s="144"/>
-      <c r="DI28" s="144"/>
-      <c r="DJ28" s="144"/>
-      <c r="DK28" s="144"/>
-      <c r="DL28" s="145"/>
-      <c r="DM28" s="148"/>
-      <c r="DN28" s="148"/>
-      <c r="DO28" s="148"/>
-      <c r="DP28" s="148"/>
-      <c r="DQ28" s="148"/>
-      <c r="DR28" s="149"/>
+      <c r="DD28" s="114"/>
+      <c r="DE28" s="115"/>
+      <c r="DF28" s="115"/>
+      <c r="DG28" s="115"/>
+      <c r="DH28" s="115"/>
+      <c r="DI28" s="115"/>
+      <c r="DJ28" s="115"/>
+      <c r="DK28" s="115"/>
+      <c r="DL28" s="116"/>
+      <c r="DM28" s="119"/>
+      <c r="DN28" s="119"/>
+      <c r="DO28" s="119"/>
+      <c r="DP28" s="119"/>
+      <c r="DQ28" s="119"/>
+      <c r="DR28" s="120"/>
     </row>
     <row r="29" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="126"/>
+      <c r="A29" s="141"/>
       <c r="B29" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="125"/>
+      <c r="T29" s="154"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
@@ -11983,10 +11984,10 @@
       <c r="AJ29" s="69"/>
       <c r="AK29" s="69"/>
       <c r="AL29" s="69"/>
-      <c r="AM29" s="125"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="125"/>
-      <c r="AP29" s="125"/>
+      <c r="AM29" s="154"/>
+      <c r="AN29" s="154"/>
+      <c r="AO29" s="154"/>
+      <c r="AP29" s="154"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="19"/>
       <c r="AS29" s="19"/>
@@ -12042,7 +12043,7 @@
       <c r="CQ29" s="19"/>
       <c r="CR29" s="19"/>
       <c r="CS29" s="23"/>
-      <c r="CT29" s="139"/>
+      <c r="CT29" s="156"/>
       <c r="CU29" s="27"/>
       <c r="CV29" s="19"/>
       <c r="CW29" s="19"/>
@@ -12052,45 +12053,45 @@
       <c r="DA29" s="19"/>
       <c r="DB29" s="19"/>
       <c r="DC29" s="23"/>
-      <c r="DD29" s="143"/>
-      <c r="DE29" s="144"/>
-      <c r="DF29" s="144"/>
-      <c r="DG29" s="144"/>
-      <c r="DH29" s="144"/>
-      <c r="DI29" s="144"/>
-      <c r="DJ29" s="144"/>
-      <c r="DK29" s="144"/>
-      <c r="DL29" s="145"/>
-      <c r="DM29" s="148"/>
-      <c r="DN29" s="148"/>
-      <c r="DO29" s="148"/>
-      <c r="DP29" s="148"/>
-      <c r="DQ29" s="148"/>
-      <c r="DR29" s="149"/>
+      <c r="DD29" s="114"/>
+      <c r="DE29" s="115"/>
+      <c r="DF29" s="115"/>
+      <c r="DG29" s="115"/>
+      <c r="DH29" s="115"/>
+      <c r="DI29" s="115"/>
+      <c r="DJ29" s="115"/>
+      <c r="DK29" s="115"/>
+      <c r="DL29" s="116"/>
+      <c r="DM29" s="119"/>
+      <c r="DN29" s="119"/>
+      <c r="DO29" s="119"/>
+      <c r="DP29" s="119"/>
+      <c r="DQ29" s="119"/>
+      <c r="DR29" s="120"/>
     </row>
     <row r="30" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="126"/>
-      <c r="B30" s="93" t="s">
+      <c r="A30" s="141"/>
+      <c r="B30" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
+      <c r="L30" s="154"/>
+      <c r="M30" s="154"/>
       <c r="N30" s="19"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="125"/>
+      <c r="T30" s="154"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
@@ -12109,10 +12110,10 @@
       <c r="AJ30" s="19"/>
       <c r="AK30" s="19"/>
       <c r="AL30" s="19"/>
-      <c r="AM30" s="125"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="125"/>
-      <c r="AP30" s="125"/>
+      <c r="AM30" s="154"/>
+      <c r="AN30" s="154"/>
+      <c r="AO30" s="154"/>
+      <c r="AP30" s="154"/>
       <c r="AQ30" s="19"/>
       <c r="AR30" s="19"/>
       <c r="AS30" s="19"/>
@@ -12168,7 +12169,7 @@
       <c r="CQ30" s="19"/>
       <c r="CR30" s="19"/>
       <c r="CS30" s="23"/>
-      <c r="CT30" s="139"/>
+      <c r="CT30" s="156"/>
       <c r="CU30" s="27"/>
       <c r="CV30" s="19"/>
       <c r="CW30" s="19"/>
@@ -12178,45 +12179,45 @@
       <c r="DA30" s="19"/>
       <c r="DB30" s="19"/>
       <c r="DC30" s="23"/>
-      <c r="DD30" s="143"/>
-      <c r="DE30" s="144"/>
-      <c r="DF30" s="144"/>
-      <c r="DG30" s="144"/>
-      <c r="DH30" s="144"/>
-      <c r="DI30" s="144"/>
-      <c r="DJ30" s="144"/>
-      <c r="DK30" s="144"/>
-      <c r="DL30" s="145"/>
-      <c r="DM30" s="148"/>
-      <c r="DN30" s="148"/>
-      <c r="DO30" s="148"/>
-      <c r="DP30" s="148"/>
-      <c r="DQ30" s="148"/>
-      <c r="DR30" s="149"/>
+      <c r="DD30" s="114"/>
+      <c r="DE30" s="115"/>
+      <c r="DF30" s="115"/>
+      <c r="DG30" s="115"/>
+      <c r="DH30" s="115"/>
+      <c r="DI30" s="115"/>
+      <c r="DJ30" s="115"/>
+      <c r="DK30" s="115"/>
+      <c r="DL30" s="116"/>
+      <c r="DM30" s="119"/>
+      <c r="DN30" s="119"/>
+      <c r="DO30" s="119"/>
+      <c r="DP30" s="119"/>
+      <c r="DQ30" s="119"/>
+      <c r="DR30" s="120"/>
     </row>
     <row r="31" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="126"/>
+      <c r="A31" s="141"/>
       <c r="B31" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
+      <c r="L31" s="154"/>
+      <c r="M31" s="154"/>
       <c r="N31" s="19"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
-      <c r="T31" s="125"/>
+      <c r="T31" s="154"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
@@ -12235,10 +12236,10 @@
       <c r="AJ31" s="19"/>
       <c r="AK31" s="19"/>
       <c r="AL31" s="19"/>
-      <c r="AM31" s="125"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="125"/>
-      <c r="AP31" s="125"/>
+      <c r="AM31" s="154"/>
+      <c r="AN31" s="154"/>
+      <c r="AO31" s="154"/>
+      <c r="AP31" s="154"/>
       <c r="AQ31" s="69"/>
       <c r="AR31" s="69"/>
       <c r="AS31" s="69"/>
@@ -12294,7 +12295,7 @@
       <c r="CQ31" s="19"/>
       <c r="CR31" s="19"/>
       <c r="CS31" s="23"/>
-      <c r="CT31" s="139"/>
+      <c r="CT31" s="156"/>
       <c r="CU31" s="27"/>
       <c r="CV31" s="19"/>
       <c r="CW31" s="19"/>
@@ -12304,21 +12305,21 @@
       <c r="DA31" s="19"/>
       <c r="DB31" s="19"/>
       <c r="DC31" s="23"/>
-      <c r="DD31" s="143"/>
-      <c r="DE31" s="144"/>
-      <c r="DF31" s="144"/>
-      <c r="DG31" s="144"/>
-      <c r="DH31" s="144"/>
-      <c r="DI31" s="144"/>
-      <c r="DJ31" s="144"/>
-      <c r="DK31" s="144"/>
-      <c r="DL31" s="145"/>
-      <c r="DM31" s="148"/>
-      <c r="DN31" s="148"/>
-      <c r="DO31" s="148"/>
-      <c r="DP31" s="148"/>
-      <c r="DQ31" s="148"/>
-      <c r="DR31" s="149"/>
+      <c r="DD31" s="114"/>
+      <c r="DE31" s="115"/>
+      <c r="DF31" s="115"/>
+      <c r="DG31" s="115"/>
+      <c r="DH31" s="115"/>
+      <c r="DI31" s="115"/>
+      <c r="DJ31" s="115"/>
+      <c r="DK31" s="115"/>
+      <c r="DL31" s="116"/>
+      <c r="DM31" s="119"/>
+      <c r="DN31" s="119"/>
+      <c r="DO31" s="119"/>
+      <c r="DP31" s="119"/>
+      <c r="DQ31" s="119"/>
+      <c r="DR31" s="120"/>
       <c r="DS31"/>
       <c r="DT31"/>
       <c r="DU31"/>
@@ -12347,28 +12348,28 @@
       <c r="ER31"/>
     </row>
     <row r="32" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="126"/>
+      <c r="A32" s="141"/>
       <c r="B32" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
+      <c r="L32" s="154"/>
+      <c r="M32" s="154"/>
       <c r="N32" s="19"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
-      <c r="T32" s="125"/>
+      <c r="T32" s="154"/>
       <c r="U32" s="47"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
@@ -12387,10 +12388,10 @@
       <c r="AJ32" s="19"/>
       <c r="AK32" s="19"/>
       <c r="AL32" s="19"/>
-      <c r="AM32" s="125"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="125"/>
+      <c r="AM32" s="154"/>
+      <c r="AN32" s="154"/>
+      <c r="AO32" s="154"/>
+      <c r="AP32" s="154"/>
       <c r="AQ32" s="94"/>
       <c r="AR32" s="94"/>
       <c r="AS32" s="94"/>
@@ -12446,7 +12447,7 @@
       <c r="CQ32" s="19"/>
       <c r="CR32" s="19"/>
       <c r="CS32" s="23"/>
-      <c r="CT32" s="139"/>
+      <c r="CT32" s="156"/>
       <c r="CU32" s="27"/>
       <c r="CV32" s="19"/>
       <c r="CW32" s="19"/>
@@ -12456,45 +12457,45 @@
       <c r="DA32" s="19"/>
       <c r="DB32" s="19"/>
       <c r="DC32" s="23"/>
-      <c r="DD32" s="143"/>
-      <c r="DE32" s="144"/>
-      <c r="DF32" s="144"/>
-      <c r="DG32" s="144"/>
-      <c r="DH32" s="144"/>
-      <c r="DI32" s="144"/>
-      <c r="DJ32" s="144"/>
-      <c r="DK32" s="144"/>
-      <c r="DL32" s="145"/>
-      <c r="DM32" s="148"/>
-      <c r="DN32" s="148"/>
-      <c r="DO32" s="148"/>
-      <c r="DP32" s="148"/>
-      <c r="DQ32" s="148"/>
-      <c r="DR32" s="149"/>
+      <c r="DD32" s="114"/>
+      <c r="DE32" s="115"/>
+      <c r="DF32" s="115"/>
+      <c r="DG32" s="115"/>
+      <c r="DH32" s="115"/>
+      <c r="DI32" s="115"/>
+      <c r="DJ32" s="115"/>
+      <c r="DK32" s="115"/>
+      <c r="DL32" s="116"/>
+      <c r="DM32" s="119"/>
+      <c r="DN32" s="119"/>
+      <c r="DO32" s="119"/>
+      <c r="DP32" s="119"/>
+      <c r="DQ32" s="119"/>
+      <c r="DR32" s="120"/>
     </row>
     <row r="33" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="126"/>
+      <c r="A33" s="141"/>
       <c r="B33" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
+      <c r="L33" s="154"/>
+      <c r="M33" s="154"/>
       <c r="N33" s="19"/>
       <c r="O33" s="19"/>
       <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="125"/>
+      <c r="T33" s="154"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
@@ -12513,10 +12514,10 @@
       <c r="AJ33" s="19"/>
       <c r="AK33" s="19"/>
       <c r="AL33" s="19"/>
-      <c r="AM33" s="125"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
+      <c r="AM33" s="154"/>
+      <c r="AN33" s="154"/>
+      <c r="AO33" s="154"/>
+      <c r="AP33" s="154"/>
       <c r="AQ33" s="19"/>
       <c r="AR33" s="19"/>
       <c r="AS33" s="19"/>
@@ -12572,7 +12573,7 @@
       <c r="CQ33" s="19"/>
       <c r="CR33" s="19"/>
       <c r="CS33" s="23"/>
-      <c r="CT33" s="139"/>
+      <c r="CT33" s="156"/>
       <c r="CU33" s="27"/>
       <c r="CV33" s="19"/>
       <c r="CW33" s="19"/>
@@ -12582,21 +12583,21 @@
       <c r="DA33" s="19"/>
       <c r="DB33" s="19"/>
       <c r="DC33" s="23"/>
-      <c r="DD33" s="143"/>
-      <c r="DE33" s="144"/>
-      <c r="DF33" s="144"/>
-      <c r="DG33" s="144"/>
-      <c r="DH33" s="144"/>
-      <c r="DI33" s="144"/>
-      <c r="DJ33" s="144"/>
-      <c r="DK33" s="144"/>
-      <c r="DL33" s="145"/>
-      <c r="DM33" s="148"/>
-      <c r="DN33" s="148"/>
-      <c r="DO33" s="148"/>
-      <c r="DP33" s="148"/>
-      <c r="DQ33" s="148"/>
-      <c r="DR33" s="149"/>
+      <c r="DD33" s="114"/>
+      <c r="DE33" s="115"/>
+      <c r="DF33" s="115"/>
+      <c r="DG33" s="115"/>
+      <c r="DH33" s="115"/>
+      <c r="DI33" s="115"/>
+      <c r="DJ33" s="115"/>
+      <c r="DK33" s="115"/>
+      <c r="DL33" s="116"/>
+      <c r="DM33" s="119"/>
+      <c r="DN33" s="119"/>
+      <c r="DO33" s="119"/>
+      <c r="DP33" s="119"/>
+      <c r="DQ33" s="119"/>
+      <c r="DR33" s="120"/>
       <c r="DS33"/>
       <c r="DT33"/>
       <c r="DU33"/>
@@ -12625,28 +12626,28 @@
       <c r="ER33"/>
     </row>
     <row r="34" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="126"/>
+      <c r="A34" s="141"/>
       <c r="B34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
+      <c r="L34" s="154"/>
+      <c r="M34" s="154"/>
       <c r="N34" s="19"/>
       <c r="O34" s="19"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
-      <c r="T34" s="125"/>
+      <c r="T34" s="154"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
@@ -12665,10 +12666,10 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="19"/>
       <c r="AL34" s="19"/>
-      <c r="AM34" s="125"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
+      <c r="AM34" s="154"/>
+      <c r="AN34" s="154"/>
+      <c r="AO34" s="154"/>
+      <c r="AP34" s="154"/>
       <c r="AQ34" s="19"/>
       <c r="AR34" s="19"/>
       <c r="AS34" s="19"/>
@@ -12724,7 +12725,7 @@
       <c r="CQ34" s="19"/>
       <c r="CR34" s="19"/>
       <c r="CS34" s="23"/>
-      <c r="CT34" s="139"/>
+      <c r="CT34" s="156"/>
       <c r="CU34" s="27"/>
       <c r="CV34" s="19"/>
       <c r="CW34" s="19"/>
@@ -12734,45 +12735,45 @@
       <c r="DA34" s="19"/>
       <c r="DB34" s="19"/>
       <c r="DC34" s="23"/>
-      <c r="DD34" s="143"/>
-      <c r="DE34" s="144"/>
-      <c r="DF34" s="144"/>
-      <c r="DG34" s="144"/>
-      <c r="DH34" s="144"/>
-      <c r="DI34" s="144"/>
-      <c r="DJ34" s="144"/>
-      <c r="DK34" s="144"/>
-      <c r="DL34" s="145"/>
-      <c r="DM34" s="148"/>
-      <c r="DN34" s="148"/>
-      <c r="DO34" s="148"/>
-      <c r="DP34" s="148"/>
-      <c r="DQ34" s="148"/>
-      <c r="DR34" s="149"/>
+      <c r="DD34" s="114"/>
+      <c r="DE34" s="115"/>
+      <c r="DF34" s="115"/>
+      <c r="DG34" s="115"/>
+      <c r="DH34" s="115"/>
+      <c r="DI34" s="115"/>
+      <c r="DJ34" s="115"/>
+      <c r="DK34" s="115"/>
+      <c r="DL34" s="116"/>
+      <c r="DM34" s="119"/>
+      <c r="DN34" s="119"/>
+      <c r="DO34" s="119"/>
+      <c r="DP34" s="119"/>
+      <c r="DQ34" s="119"/>
+      <c r="DR34" s="120"/>
     </row>
     <row r="35" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="126"/>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="141"/>
+      <c r="B35" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
+      <c r="L35" s="154"/>
+      <c r="M35" s="154"/>
       <c r="N35" s="19"/>
       <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
       <c r="S35" s="19"/>
-      <c r="T35" s="125"/>
+      <c r="T35" s="154"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
@@ -12791,13 +12792,13 @@
       <c r="AJ35" s="19"/>
       <c r="AK35" s="19"/>
       <c r="AL35" s="19"/>
-      <c r="AM35" s="125"/>
-      <c r="AN35" s="125"/>
-      <c r="AO35" s="125"/>
-      <c r="AP35" s="125"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
+      <c r="AM35" s="154"/>
+      <c r="AN35" s="154"/>
+      <c r="AO35" s="154"/>
+      <c r="AP35" s="154"/>
+      <c r="AQ35" s="69"/>
+      <c r="AR35" s="69"/>
+      <c r="AS35" s="69"/>
       <c r="AT35" s="19"/>
       <c r="AU35" s="19"/>
       <c r="AV35" s="19"/>
@@ -12850,7 +12851,7 @@
       <c r="CQ35" s="19"/>
       <c r="CR35" s="19"/>
       <c r="CS35" s="23"/>
-      <c r="CT35" s="139"/>
+      <c r="CT35" s="156"/>
       <c r="CU35" s="27"/>
       <c r="CV35" s="19"/>
       <c r="CW35" s="19"/>
@@ -12860,21 +12861,21 @@
       <c r="DA35" s="19"/>
       <c r="DB35" s="19"/>
       <c r="DC35" s="23"/>
-      <c r="DD35" s="143"/>
-      <c r="DE35" s="144"/>
-      <c r="DF35" s="144"/>
-      <c r="DG35" s="144"/>
-      <c r="DH35" s="144"/>
-      <c r="DI35" s="144"/>
-      <c r="DJ35" s="144"/>
-      <c r="DK35" s="144"/>
-      <c r="DL35" s="145"/>
-      <c r="DM35" s="148"/>
-      <c r="DN35" s="148"/>
-      <c r="DO35" s="148"/>
-      <c r="DP35" s="148"/>
-      <c r="DQ35" s="148"/>
-      <c r="DR35" s="149"/>
+      <c r="DD35" s="114"/>
+      <c r="DE35" s="115"/>
+      <c r="DF35" s="115"/>
+      <c r="DG35" s="115"/>
+      <c r="DH35" s="115"/>
+      <c r="DI35" s="115"/>
+      <c r="DJ35" s="115"/>
+      <c r="DK35" s="115"/>
+      <c r="DL35" s="116"/>
+      <c r="DM35" s="119"/>
+      <c r="DN35" s="119"/>
+      <c r="DO35" s="119"/>
+      <c r="DP35" s="119"/>
+      <c r="DQ35" s="119"/>
+      <c r="DR35" s="120"/>
       <c r="DS35"/>
       <c r="DT35"/>
       <c r="DU35"/>
@@ -12903,28 +12904,28 @@
       <c r="ER35"/>
     </row>
     <row r="36" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="126"/>
+      <c r="A36" s="141"/>
       <c r="B36" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="135"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
+      <c r="L36" s="154"/>
+      <c r="M36" s="154"/>
       <c r="N36" s="19"/>
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="125"/>
+      <c r="T36" s="154"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
@@ -12943,10 +12944,10 @@
       <c r="AJ36" s="19"/>
       <c r="AK36" s="19"/>
       <c r="AL36" s="23"/>
-      <c r="AM36" s="125"/>
-      <c r="AN36" s="125"/>
-      <c r="AO36" s="125"/>
-      <c r="AP36" s="125"/>
+      <c r="AM36" s="154"/>
+      <c r="AN36" s="154"/>
+      <c r="AO36" s="154"/>
+      <c r="AP36" s="154"/>
       <c r="AQ36" s="19"/>
       <c r="AR36" s="19"/>
       <c r="AS36" s="19"/>
@@ -13002,7 +13003,7 @@
       <c r="CQ36" s="19"/>
       <c r="CR36" s="19"/>
       <c r="CS36" s="23"/>
-      <c r="CT36" s="139"/>
+      <c r="CT36" s="156"/>
       <c r="CU36" s="27"/>
       <c r="CV36" s="19"/>
       <c r="CW36" s="19"/>
@@ -13012,45 +13013,45 @@
       <c r="DA36" s="19"/>
       <c r="DB36" s="19"/>
       <c r="DC36" s="23"/>
-      <c r="DD36" s="143"/>
-      <c r="DE36" s="144"/>
-      <c r="DF36" s="144"/>
-      <c r="DG36" s="144"/>
-      <c r="DH36" s="144"/>
-      <c r="DI36" s="144"/>
-      <c r="DJ36" s="144"/>
-      <c r="DK36" s="144"/>
-      <c r="DL36" s="145"/>
-      <c r="DM36" s="148"/>
-      <c r="DN36" s="148"/>
-      <c r="DO36" s="148"/>
-      <c r="DP36" s="148"/>
-      <c r="DQ36" s="148"/>
-      <c r="DR36" s="149"/>
+      <c r="DD36" s="114"/>
+      <c r="DE36" s="115"/>
+      <c r="DF36" s="115"/>
+      <c r="DG36" s="115"/>
+      <c r="DH36" s="115"/>
+      <c r="DI36" s="115"/>
+      <c r="DJ36" s="115"/>
+      <c r="DK36" s="115"/>
+      <c r="DL36" s="116"/>
+      <c r="DM36" s="119"/>
+      <c r="DN36" s="119"/>
+      <c r="DO36" s="119"/>
+      <c r="DP36" s="119"/>
+      <c r="DQ36" s="119"/>
+      <c r="DR36" s="120"/>
     </row>
     <row r="37" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="126"/>
+      <c r="A37" s="141"/>
       <c r="B37" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
+      <c r="L37" s="154"/>
+      <c r="M37" s="154"/>
       <c r="N37" s="19"/>
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
       <c r="S37" s="19"/>
-      <c r="T37" s="125"/>
+      <c r="T37" s="154"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
@@ -13069,10 +13070,10 @@
       <c r="AJ37" s="19"/>
       <c r="AK37" s="19"/>
       <c r="AL37" s="23"/>
-      <c r="AM37" s="125"/>
-      <c r="AN37" s="125"/>
-      <c r="AO37" s="125"/>
-      <c r="AP37" s="125"/>
+      <c r="AM37" s="154"/>
+      <c r="AN37" s="154"/>
+      <c r="AO37" s="154"/>
+      <c r="AP37" s="154"/>
       <c r="AQ37" s="19"/>
       <c r="AR37" s="19"/>
       <c r="AS37" s="19"/>
@@ -13128,7 +13129,7 @@
       <c r="CQ37" s="19"/>
       <c r="CR37" s="19"/>
       <c r="CS37" s="23"/>
-      <c r="CT37" s="139"/>
+      <c r="CT37" s="156"/>
       <c r="CU37" s="27"/>
       <c r="CV37" s="19"/>
       <c r="CW37" s="19"/>
@@ -13138,43 +13139,43 @@
       <c r="DA37" s="19"/>
       <c r="DB37" s="19"/>
       <c r="DC37" s="23"/>
-      <c r="DD37" s="143"/>
-      <c r="DE37" s="144"/>
-      <c r="DF37" s="144"/>
-      <c r="DG37" s="144"/>
-      <c r="DH37" s="144"/>
-      <c r="DI37" s="144"/>
-      <c r="DJ37" s="144"/>
-      <c r="DK37" s="144"/>
-      <c r="DL37" s="145"/>
-      <c r="DM37" s="148"/>
-      <c r="DN37" s="148"/>
-      <c r="DO37" s="148"/>
-      <c r="DP37" s="148"/>
-      <c r="DQ37" s="148"/>
-      <c r="DR37" s="149"/>
+      <c r="DD37" s="114"/>
+      <c r="DE37" s="115"/>
+      <c r="DF37" s="115"/>
+      <c r="DG37" s="115"/>
+      <c r="DH37" s="115"/>
+      <c r="DI37" s="115"/>
+      <c r="DJ37" s="115"/>
+      <c r="DK37" s="115"/>
+      <c r="DL37" s="116"/>
+      <c r="DM37" s="119"/>
+      <c r="DN37" s="119"/>
+      <c r="DO37" s="119"/>
+      <c r="DP37" s="119"/>
+      <c r="DQ37" s="119"/>
+      <c r="DR37" s="120"/>
     </row>
     <row r="38" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="46"/>
       <c r="I38" s="46"/>
       <c r="J38" s="46"/>
       <c r="K38" s="46"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
       <c r="N38" s="46"/>
       <c r="O38" s="46"/>
       <c r="P38" s="46"/>
       <c r="Q38" s="46"/>
       <c r="R38" s="46"/>
       <c r="S38" s="46"/>
-      <c r="T38" s="125"/>
+      <c r="T38" s="154"/>
       <c r="U38" s="46"/>
       <c r="V38" s="46"/>
       <c r="W38" s="46"/>
@@ -13193,10 +13194,10 @@
       <c r="AJ38" s="46"/>
       <c r="AK38" s="46"/>
       <c r="AL38" s="46"/>
-      <c r="AM38" s="125"/>
-      <c r="AN38" s="125"/>
-      <c r="AO38" s="125"/>
-      <c r="AP38" s="125"/>
+      <c r="AM38" s="154"/>
+      <c r="AN38" s="154"/>
+      <c r="AO38" s="154"/>
+      <c r="AP38" s="154"/>
       <c r="AQ38" s="46"/>
       <c r="AR38" s="46"/>
       <c r="AS38" s="46"/>
@@ -13252,7 +13253,7 @@
       <c r="CQ38" s="46"/>
       <c r="CR38" s="46"/>
       <c r="CS38" s="104"/>
-      <c r="CT38" s="139"/>
+      <c r="CT38" s="156"/>
       <c r="CU38" s="86"/>
       <c r="CV38" s="46"/>
       <c r="CW38" s="46"/>
@@ -13262,47 +13263,47 @@
       <c r="DA38" s="46"/>
       <c r="DB38" s="46"/>
       <c r="DC38" s="104"/>
-      <c r="DD38" s="143"/>
-      <c r="DE38" s="144"/>
-      <c r="DF38" s="144"/>
-      <c r="DG38" s="144"/>
-      <c r="DH38" s="144"/>
-      <c r="DI38" s="144"/>
-      <c r="DJ38" s="144"/>
-      <c r="DK38" s="144"/>
-      <c r="DL38" s="145"/>
-      <c r="DM38" s="148"/>
-      <c r="DN38" s="148"/>
-      <c r="DO38" s="148"/>
-      <c r="DP38" s="148"/>
-      <c r="DQ38" s="148"/>
-      <c r="DR38" s="149"/>
+      <c r="DD38" s="114"/>
+      <c r="DE38" s="115"/>
+      <c r="DF38" s="115"/>
+      <c r="DG38" s="115"/>
+      <c r="DH38" s="115"/>
+      <c r="DI38" s="115"/>
+      <c r="DJ38" s="115"/>
+      <c r="DK38" s="115"/>
+      <c r="DL38" s="116"/>
+      <c r="DM38" s="119"/>
+      <c r="DN38" s="119"/>
+      <c r="DO38" s="119"/>
+      <c r="DP38" s="119"/>
+      <c r="DQ38" s="119"/>
+      <c r="DR38" s="120"/>
     </row>
     <row r="39" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="141" t="s">
         <v>21</v>
       </c>
       <c r="B39" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
       <c r="N39" s="19"/>
       <c r="O39" s="19"/>
       <c r="P39" s="19"/>
       <c r="Q39" s="19"/>
       <c r="R39" s="19"/>
       <c r="S39" s="19"/>
-      <c r="T39" s="125"/>
+      <c r="T39" s="154"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -13321,10 +13322,10 @@
       <c r="AJ39" s="19"/>
       <c r="AK39" s="19"/>
       <c r="AL39" s="19"/>
-      <c r="AM39" s="125"/>
-      <c r="AN39" s="125"/>
-      <c r="AO39" s="125"/>
-      <c r="AP39" s="125"/>
+      <c r="AM39" s="154"/>
+      <c r="AN39" s="154"/>
+      <c r="AO39" s="154"/>
+      <c r="AP39" s="154"/>
       <c r="AQ39" s="69"/>
       <c r="AR39" s="69"/>
       <c r="AS39" s="69"/>
@@ -13380,7 +13381,7 @@
       <c r="CQ39" s="47"/>
       <c r="CR39" s="47"/>
       <c r="CS39" s="58"/>
-      <c r="CT39" s="139"/>
+      <c r="CT39" s="156"/>
       <c r="CU39" s="27"/>
       <c r="CV39" s="19"/>
       <c r="CW39" s="19"/>
@@ -13390,21 +13391,21 @@
       <c r="DA39" s="19"/>
       <c r="DB39" s="19"/>
       <c r="DC39" s="23"/>
-      <c r="DD39" s="143"/>
-      <c r="DE39" s="144"/>
-      <c r="DF39" s="144"/>
-      <c r="DG39" s="144"/>
-      <c r="DH39" s="144"/>
-      <c r="DI39" s="144"/>
-      <c r="DJ39" s="144"/>
-      <c r="DK39" s="144"/>
-      <c r="DL39" s="145"/>
-      <c r="DM39" s="148"/>
-      <c r="DN39" s="148"/>
-      <c r="DO39" s="148"/>
-      <c r="DP39" s="148"/>
-      <c r="DQ39" s="148"/>
-      <c r="DR39" s="149"/>
+      <c r="DD39" s="114"/>
+      <c r="DE39" s="115"/>
+      <c r="DF39" s="115"/>
+      <c r="DG39" s="115"/>
+      <c r="DH39" s="115"/>
+      <c r="DI39" s="115"/>
+      <c r="DJ39" s="115"/>
+      <c r="DK39" s="115"/>
+      <c r="DL39" s="116"/>
+      <c r="DM39" s="119"/>
+      <c r="DN39" s="119"/>
+      <c r="DO39" s="119"/>
+      <c r="DP39" s="119"/>
+      <c r="DQ39" s="119"/>
+      <c r="DR39" s="120"/>
       <c r="DS39"/>
       <c r="DT39"/>
       <c r="DU39"/>
@@ -13433,28 +13434,28 @@
       <c r="ER39"/>
     </row>
     <row r="40" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="126"/>
+      <c r="A40" s="141"/>
       <c r="B40" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="136"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
       <c r="H40" s="69"/>
       <c r="I40" s="69"/>
       <c r="J40" s="69"/>
       <c r="K40" s="69"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
       <c r="N40" s="69"/>
       <c r="O40" s="69"/>
       <c r="P40" s="69"/>
       <c r="Q40" s="69"/>
       <c r="R40" s="69"/>
       <c r="S40" s="69"/>
-      <c r="T40" s="125"/>
+      <c r="T40" s="154"/>
       <c r="U40" s="69"/>
       <c r="V40" s="69"/>
       <c r="W40" s="69"/>
@@ -13473,10 +13474,10 @@
       <c r="AJ40" s="69"/>
       <c r="AK40" s="69"/>
       <c r="AL40" s="69"/>
-      <c r="AM40" s="125"/>
-      <c r="AN40" s="125"/>
-      <c r="AO40" s="125"/>
-      <c r="AP40" s="125"/>
+      <c r="AM40" s="154"/>
+      <c r="AN40" s="154"/>
+      <c r="AO40" s="154"/>
+      <c r="AP40" s="154"/>
       <c r="AQ40" s="69"/>
       <c r="AR40" s="69"/>
       <c r="AS40" s="69"/>
@@ -13532,7 +13533,7 @@
       <c r="CQ40" s="19"/>
       <c r="CR40" s="19"/>
       <c r="CS40" s="23"/>
-      <c r="CT40" s="139"/>
+      <c r="CT40" s="156"/>
       <c r="CU40" s="27"/>
       <c r="CV40" s="19"/>
       <c r="CW40" s="19"/>
@@ -13542,45 +13543,45 @@
       <c r="DA40" s="19"/>
       <c r="DB40" s="19"/>
       <c r="DC40" s="23"/>
-      <c r="DD40" s="143"/>
-      <c r="DE40" s="144"/>
-      <c r="DF40" s="144"/>
-      <c r="DG40" s="144"/>
-      <c r="DH40" s="144"/>
-      <c r="DI40" s="144"/>
-      <c r="DJ40" s="144"/>
-      <c r="DK40" s="144"/>
-      <c r="DL40" s="145"/>
-      <c r="DM40" s="148"/>
-      <c r="DN40" s="148"/>
-      <c r="DO40" s="148"/>
-      <c r="DP40" s="148"/>
-      <c r="DQ40" s="148"/>
-      <c r="DR40" s="149"/>
+      <c r="DD40" s="114"/>
+      <c r="DE40" s="115"/>
+      <c r="DF40" s="115"/>
+      <c r="DG40" s="115"/>
+      <c r="DH40" s="115"/>
+      <c r="DI40" s="115"/>
+      <c r="DJ40" s="115"/>
+      <c r="DK40" s="115"/>
+      <c r="DL40" s="116"/>
+      <c r="DM40" s="119"/>
+      <c r="DN40" s="119"/>
+      <c r="DO40" s="119"/>
+      <c r="DP40" s="119"/>
+      <c r="DQ40" s="119"/>
+      <c r="DR40" s="120"/>
     </row>
     <row r="41" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="126"/>
+      <c r="A41" s="141"/>
       <c r="B41" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
       <c r="K41" s="69"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
       <c r="N41" s="19"/>
       <c r="O41" s="19"/>
       <c r="P41" s="19"/>
       <c r="Q41" s="19"/>
       <c r="R41" s="19"/>
       <c r="S41" s="69"/>
-      <c r="T41" s="125"/>
+      <c r="T41" s="154"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -13599,10 +13600,10 @@
       <c r="AJ41" s="19"/>
       <c r="AK41" s="19"/>
       <c r="AL41" s="69"/>
-      <c r="AM41" s="125"/>
-      <c r="AN41" s="125"/>
-      <c r="AO41" s="125"/>
-      <c r="AP41" s="125"/>
+      <c r="AM41" s="154"/>
+      <c r="AN41" s="154"/>
+      <c r="AO41" s="154"/>
+      <c r="AP41" s="154"/>
       <c r="AQ41" s="19"/>
       <c r="AR41" s="19"/>
       <c r="AS41" s="19"/>
@@ -13658,7 +13659,7 @@
       <c r="CQ41" s="19"/>
       <c r="CR41" s="19"/>
       <c r="CS41" s="23"/>
-      <c r="CT41" s="139"/>
+      <c r="CT41" s="156"/>
       <c r="CU41" s="27"/>
       <c r="CV41" s="19"/>
       <c r="CW41" s="19"/>
@@ -13668,21 +13669,21 @@
       <c r="DA41" s="19"/>
       <c r="DB41" s="19"/>
       <c r="DC41" s="23"/>
-      <c r="DD41" s="143"/>
-      <c r="DE41" s="144"/>
-      <c r="DF41" s="144"/>
-      <c r="DG41" s="144"/>
-      <c r="DH41" s="144"/>
-      <c r="DI41" s="144"/>
-      <c r="DJ41" s="144"/>
-      <c r="DK41" s="144"/>
-      <c r="DL41" s="145"/>
-      <c r="DM41" s="148"/>
-      <c r="DN41" s="148"/>
-      <c r="DO41" s="148"/>
-      <c r="DP41" s="148"/>
-      <c r="DQ41" s="148"/>
-      <c r="DR41" s="149"/>
+      <c r="DD41" s="114"/>
+      <c r="DE41" s="115"/>
+      <c r="DF41" s="115"/>
+      <c r="DG41" s="115"/>
+      <c r="DH41" s="115"/>
+      <c r="DI41" s="115"/>
+      <c r="DJ41" s="115"/>
+      <c r="DK41" s="115"/>
+      <c r="DL41" s="116"/>
+      <c r="DM41" s="119"/>
+      <c r="DN41" s="119"/>
+      <c r="DO41" s="119"/>
+      <c r="DP41" s="119"/>
+      <c r="DQ41" s="119"/>
+      <c r="DR41" s="120"/>
       <c r="DS41"/>
       <c r="DT41"/>
       <c r="DU41"/>
@@ -13711,28 +13712,28 @@
       <c r="ER41"/>
     </row>
     <row r="42" spans="1:148" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="126"/>
+      <c r="A42" s="141"/>
       <c r="B42" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="135"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
-      <c r="L42" s="125"/>
-      <c r="M42" s="125"/>
+      <c r="L42" s="154"/>
+      <c r="M42" s="154"/>
       <c r="N42" s="19"/>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
       <c r="R42" s="19"/>
       <c r="S42" s="19"/>
-      <c r="T42" s="125"/>
+      <c r="T42" s="154"/>
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -13751,10 +13752,10 @@
       <c r="AJ42" s="19"/>
       <c r="AK42" s="19"/>
       <c r="AL42" s="23"/>
-      <c r="AM42" s="125"/>
-      <c r="AN42" s="125"/>
-      <c r="AO42" s="125"/>
-      <c r="AP42" s="125"/>
+      <c r="AM42" s="154"/>
+      <c r="AN42" s="154"/>
+      <c r="AO42" s="154"/>
+      <c r="AP42" s="154"/>
       <c r="AQ42" s="19"/>
       <c r="AR42" s="19"/>
       <c r="AS42" s="19"/>
@@ -13810,7 +13811,7 @@
       <c r="CQ42" s="19"/>
       <c r="CR42" s="19"/>
       <c r="CS42" s="23"/>
-      <c r="CT42" s="139"/>
+      <c r="CT42" s="156"/>
       <c r="CU42" s="27"/>
       <c r="CV42" s="19"/>
       <c r="CW42" s="19"/>
@@ -13820,45 +13821,45 @@
       <c r="DA42" s="19"/>
       <c r="DB42" s="19"/>
       <c r="DC42" s="23"/>
-      <c r="DD42" s="143"/>
-      <c r="DE42" s="144"/>
-      <c r="DF42" s="144"/>
-      <c r="DG42" s="144"/>
-      <c r="DH42" s="144"/>
-      <c r="DI42" s="144"/>
-      <c r="DJ42" s="144"/>
-      <c r="DK42" s="144"/>
-      <c r="DL42" s="145"/>
-      <c r="DM42" s="148"/>
-      <c r="DN42" s="148"/>
-      <c r="DO42" s="148"/>
-      <c r="DP42" s="148"/>
-      <c r="DQ42" s="148"/>
-      <c r="DR42" s="149"/>
+      <c r="DD42" s="114"/>
+      <c r="DE42" s="115"/>
+      <c r="DF42" s="115"/>
+      <c r="DG42" s="115"/>
+      <c r="DH42" s="115"/>
+      <c r="DI42" s="115"/>
+      <c r="DJ42" s="115"/>
+      <c r="DK42" s="115"/>
+      <c r="DL42" s="116"/>
+      <c r="DM42" s="119"/>
+      <c r="DN42" s="119"/>
+      <c r="DO42" s="119"/>
+      <c r="DP42" s="119"/>
+      <c r="DQ42" s="119"/>
+      <c r="DR42" s="120"/>
     </row>
     <row r="43" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A43" s="126"/>
+      <c r="A43" s="141"/>
       <c r="B43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="135"/>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
-      <c r="L43" s="125"/>
-      <c r="M43" s="125"/>
+      <c r="L43" s="154"/>
+      <c r="M43" s="154"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
-      <c r="T43" s="125"/>
+      <c r="T43" s="154"/>
       <c r="U43" s="20"/>
       <c r="V43" s="20"/>
       <c r="W43" s="20"/>
@@ -13877,10 +13878,10 @@
       <c r="AJ43" s="20"/>
       <c r="AK43" s="20"/>
       <c r="AL43" s="24"/>
-      <c r="AM43" s="125"/>
-      <c r="AN43" s="125"/>
-      <c r="AO43" s="125"/>
-      <c r="AP43" s="125"/>
+      <c r="AM43" s="154"/>
+      <c r="AN43" s="154"/>
+      <c r="AO43" s="154"/>
+      <c r="AP43" s="154"/>
       <c r="AQ43" s="19"/>
       <c r="AR43" s="19"/>
       <c r="AS43" s="19"/>
@@ -13936,7 +13937,7 @@
       <c r="CQ43" s="109"/>
       <c r="CR43" s="109"/>
       <c r="CS43" s="110"/>
-      <c r="CT43" s="139"/>
+      <c r="CT43" s="156"/>
       <c r="CU43" s="27"/>
       <c r="CV43" s="19"/>
       <c r="CW43" s="19"/>
@@ -13946,21 +13947,21 @@
       <c r="DA43" s="19"/>
       <c r="DB43" s="19"/>
       <c r="DC43" s="23"/>
-      <c r="DD43" s="143"/>
-      <c r="DE43" s="144"/>
-      <c r="DF43" s="144"/>
-      <c r="DG43" s="144"/>
-      <c r="DH43" s="144"/>
-      <c r="DI43" s="144"/>
-      <c r="DJ43" s="144"/>
-      <c r="DK43" s="144"/>
-      <c r="DL43" s="145"/>
-      <c r="DM43" s="148"/>
-      <c r="DN43" s="148"/>
-      <c r="DO43" s="148"/>
-      <c r="DP43" s="148"/>
-      <c r="DQ43" s="148"/>
-      <c r="DR43" s="149"/>
+      <c r="DD43" s="114"/>
+      <c r="DE43" s="115"/>
+      <c r="DF43" s="115"/>
+      <c r="DG43" s="115"/>
+      <c r="DH43" s="115"/>
+      <c r="DI43" s="115"/>
+      <c r="DJ43" s="115"/>
+      <c r="DK43" s="115"/>
+      <c r="DL43" s="116"/>
+      <c r="DM43" s="119"/>
+      <c r="DN43" s="119"/>
+      <c r="DO43" s="119"/>
+      <c r="DP43" s="119"/>
+      <c r="DQ43" s="119"/>
+      <c r="DR43" s="120"/>
       <c r="DS43"/>
       <c r="DT43"/>
       <c r="DU43"/>
@@ -13991,24 +13992,24 @@
     <row r="44" spans="1:148" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
+      <c r="L44" s="154"/>
+      <c r="M44" s="154"/>
       <c r="N44" s="46"/>
       <c r="O44" s="46"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="46"/>
       <c r="R44" s="46"/>
       <c r="S44" s="46"/>
-      <c r="T44" s="125"/>
+      <c r="T44" s="154"/>
       <c r="U44" s="46"/>
       <c r="V44" s="46"/>
       <c r="W44" s="46"/>
@@ -14027,10 +14028,10 @@
       <c r="AJ44" s="46"/>
       <c r="AK44" s="46"/>
       <c r="AL44" s="46"/>
-      <c r="AM44" s="125"/>
-      <c r="AN44" s="125"/>
-      <c r="AO44" s="125"/>
-      <c r="AP44" s="125"/>
+      <c r="AM44" s="154"/>
+      <c r="AN44" s="154"/>
+      <c r="AO44" s="154"/>
+      <c r="AP44" s="154"/>
       <c r="AQ44" s="46"/>
       <c r="AR44" s="46"/>
       <c r="AS44" s="46"/>
@@ -14086,7 +14087,7 @@
       <c r="CQ44" s="46"/>
       <c r="CR44" s="46"/>
       <c r="CS44" s="104"/>
-      <c r="CT44" s="139"/>
+      <c r="CT44" s="156"/>
       <c r="CU44" s="86"/>
       <c r="CV44" s="46"/>
       <c r="CW44" s="46"/>
@@ -14096,21 +14097,21 @@
       <c r="DA44" s="46"/>
       <c r="DB44" s="46"/>
       <c r="DC44" s="104"/>
-      <c r="DD44" s="143"/>
-      <c r="DE44" s="144"/>
-      <c r="DF44" s="144"/>
-      <c r="DG44" s="144"/>
-      <c r="DH44" s="144"/>
-      <c r="DI44" s="144"/>
-      <c r="DJ44" s="144"/>
-      <c r="DK44" s="144"/>
-      <c r="DL44" s="145"/>
-      <c r="DM44" s="148"/>
-      <c r="DN44" s="148"/>
-      <c r="DO44" s="148"/>
-      <c r="DP44" s="148"/>
-      <c r="DQ44" s="148"/>
-      <c r="DR44" s="149"/>
+      <c r="DD44" s="114"/>
+      <c r="DE44" s="115"/>
+      <c r="DF44" s="115"/>
+      <c r="DG44" s="115"/>
+      <c r="DH44" s="115"/>
+      <c r="DI44" s="115"/>
+      <c r="DJ44" s="115"/>
+      <c r="DK44" s="115"/>
+      <c r="DL44" s="116"/>
+      <c r="DM44" s="119"/>
+      <c r="DN44" s="119"/>
+      <c r="DO44" s="119"/>
+      <c r="DP44" s="119"/>
+      <c r="DQ44" s="119"/>
+      <c r="DR44" s="120"/>
       <c r="DS44"/>
       <c r="DT44"/>
       <c r="DU44"/>
@@ -14161,6 +14162,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="T9:T44"/>
+    <mergeCell ref="AM9:AP44"/>
+    <mergeCell ref="L9:M44"/>
+    <mergeCell ref="A10:A18"/>
+    <mergeCell ref="DM7:DP7"/>
+    <mergeCell ref="DQ7:DR7"/>
+    <mergeCell ref="A20:A37"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="BU7:CC7"/>
+    <mergeCell ref="CD7:CL7"/>
+    <mergeCell ref="CM7:CP7"/>
+    <mergeCell ref="CQ7:CT7"/>
+    <mergeCell ref="CU7:DC7"/>
+    <mergeCell ref="DD7:DL7"/>
+    <mergeCell ref="AM7:AP7"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AU7:BC7"/>
+    <mergeCell ref="BD7:BL7"/>
+    <mergeCell ref="BM7:BP7"/>
+    <mergeCell ref="C10:G44"/>
+    <mergeCell ref="BQ7:BT7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="U7:AC7"/>
+    <mergeCell ref="AD7:AL7"/>
     <mergeCell ref="DD10:DL44"/>
     <mergeCell ref="CT10:CT44"/>
     <mergeCell ref="DM10:DR44"/>
@@ -14177,33 +14205,6 @@
     <mergeCell ref="H5:K6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="U3:AT4"/>
-    <mergeCell ref="BQ7:BT7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="U7:AC7"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="DM7:DP7"/>
-    <mergeCell ref="DQ7:DR7"/>
-    <mergeCell ref="A20:A37"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="BU7:CC7"/>
-    <mergeCell ref="CD7:CL7"/>
-    <mergeCell ref="CM7:CP7"/>
-    <mergeCell ref="CQ7:CT7"/>
-    <mergeCell ref="CU7:DC7"/>
-    <mergeCell ref="DD7:DL7"/>
-    <mergeCell ref="AM7:AP7"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AU7:BC7"/>
-    <mergeCell ref="BD7:BL7"/>
-    <mergeCell ref="BM7:BP7"/>
-    <mergeCell ref="C10:G44"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="T9:T44"/>
-    <mergeCell ref="AM9:AP44"/>
-    <mergeCell ref="L9:M44"/>
-    <mergeCell ref="A10:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
